--- a/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
+++ b/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Websites\OpenG-qkmb.github.io-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Websites\hssrgov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F599EC3-482B-43E2-8046-0450EAE75607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080A5299-CBD7-401F-91C0-943C783A1475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCB781DE-C1B4-4E71-9129-23ABA5B611FE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CCB781DE-C1B4-4E71-9129-23ABA5B611FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Haer Langu" sheetId="1" r:id="rId1"/>
@@ -3004,10 +3004,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>对象/对</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>说/赘述/演讲/演说/讲解/讲课/加以赘述/留言</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3053,6 +3049,10 @@
   </si>
   <si>
     <t>后/接下来/以后/现在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象/对/对于</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3528,26 +3528,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB56768-82A6-42FF-B107-45016A59F08E}">
   <dimension ref="A1:C1040"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+    <sheetView tabSelected="1" topLeftCell="A207" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A213" sqref="A213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="116.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="100.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="116.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="40.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="100.58203125" style="4" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>667</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -3605,7 +3605,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>781</v>
       </c>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>752</v>
       </c>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="C32" s="7"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="C33" s="7"/>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="C34" s="7"/>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>271</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>34</v>
       </c>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>738</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>739</v>
       </c>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>298</v>
       </c>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
@@ -3928,7 +3928,7 @@
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>754</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>42</v>
       </c>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>43</v>
       </c>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>213</v>
       </c>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>44</v>
       </c>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>45</v>
       </c>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>46</v>
       </c>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>824</v>
       </c>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>47</v>
       </c>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>48</v>
       </c>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>49</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>50</v>
       </c>
@@ -4085,7 +4085,7 @@
       </c>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>240</v>
       </c>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>51</v>
       </c>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>52</v>
       </c>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>53</v>
       </c>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>200</v>
       </c>
@@ -4129,10 +4129,10 @@
         <v>572</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>54</v>
       </c>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>55</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>56</v>
       </c>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>57</v>
       </c>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>773</v>
       </c>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>58</v>
       </c>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>59</v>
       </c>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>60</v>
       </c>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>61</v>
       </c>
@@ -4215,7 +4215,7 @@
       </c>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>62</v>
       </c>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>63</v>
       </c>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>64</v>
       </c>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>65</v>
       </c>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>66</v>
       </c>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>67</v>
       </c>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>203</v>
       </c>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>282</v>
       </c>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>217</v>
       </c>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>216</v>
       </c>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>68</v>
       </c>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>69</v>
       </c>
@@ -4323,7 +4323,7 @@
       </c>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>70</v>
       </c>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>71</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>72</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>73</v>
       </c>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>268</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>202</v>
       </c>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>74</v>
       </c>
@@ -4392,7 +4392,7 @@
       </c>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>75</v>
       </c>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>76</v>
       </c>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>77</v>
       </c>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>78</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>79</v>
       </c>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>80</v>
       </c>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>81</v>
       </c>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>82</v>
       </c>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>83</v>
       </c>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>84</v>
       </c>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>85</v>
       </c>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>86</v>
       </c>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>87</v>
       </c>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>146</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="107" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>88</v>
       </c>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>89</v>
       </c>
@@ -4540,7 +4540,7 @@
       </c>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>90</v>
       </c>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>91</v>
       </c>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>812</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="112" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>813</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="113" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>92</v>
       </c>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>93</v>
       </c>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>94</v>
       </c>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>95</v>
       </c>
@@ -4616,7 +4616,7 @@
       </c>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>96</v>
       </c>
@@ -4625,7 +4625,7 @@
       </c>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>97</v>
       </c>
@@ -4634,7 +4634,7 @@
       </c>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>98</v>
       </c>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>99</v>
       </c>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>100</v>
       </c>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="C121" s="3"/>
     </row>
-    <row r="122" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>101</v>
       </c>
@@ -4670,7 +4670,7 @@
       </c>
       <c r="C122" s="3"/>
     </row>
-    <row r="123" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>168</v>
       </c>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="C123" s="3"/>
     </row>
-    <row r="124" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>245</v>
       </c>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>102</v>
       </c>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>103</v>
       </c>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>104</v>
       </c>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>105</v>
       </c>
@@ -4724,7 +4724,7 @@
       </c>
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>106</v>
       </c>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>226</v>
       </c>
@@ -4742,7 +4742,7 @@
       </c>
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>223</v>
       </c>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>727</v>
       </c>
@@ -4760,7 +4760,7 @@
       </c>
       <c r="C132" s="3"/>
     </row>
-    <row r="133" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>107</v>
       </c>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="C133" s="3"/>
     </row>
-    <row r="134" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>108</v>
       </c>
@@ -4778,18 +4778,18 @@
       </c>
       <c r="C134" s="3"/>
     </row>
-    <row r="135" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>481</v>
       </c>
       <c r="C135" s="3"/>
     </row>
-    <row r="136" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>482</v>
@@ -4798,7 +4798,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>295</v>
       </c>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="C137" s="3"/>
     </row>
-    <row r="138" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>109</v>
       </c>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="C138" s="3"/>
     </row>
-    <row r="139" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>110</v>
       </c>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="C139" s="3"/>
     </row>
-    <row r="140" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>715</v>
       </c>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="C140" s="3"/>
     </row>
-    <row r="141" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>111</v>
       </c>
@@ -4843,7 +4843,7 @@
       </c>
       <c r="C141" s="3"/>
     </row>
-    <row r="142" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>112</v>
       </c>
@@ -4852,18 +4852,18 @@
       </c>
       <c r="C142" s="3"/>
     </row>
-    <row r="143" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B143" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>232</v>
       </c>
@@ -4872,7 +4872,7 @@
       </c>
       <c r="C144" s="3"/>
     </row>
-    <row r="145" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>233</v>
       </c>
@@ -4881,16 +4881,16 @@
       </c>
       <c r="C145" s="3"/>
     </row>
-    <row r="146" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>411</v>
       </c>
       <c r="C146" s="3"/>
     </row>
-    <row r="147" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>114</v>
       </c>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="C147" s="3"/>
     </row>
-    <row r="148" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>115</v>
       </c>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="C148" s="3"/>
     </row>
-    <row r="149" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>116</v>
       </c>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="C149" s="3"/>
     </row>
-    <row r="150" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>237</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="151" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>117</v>
       </c>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="C151" s="3"/>
     </row>
-    <row r="152" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>118</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="153" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>119</v>
       </c>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="C153" s="3"/>
     </row>
-    <row r="154" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>120</v>
       </c>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="C154" s="3"/>
     </row>
-    <row r="155" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>121</v>
       </c>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="C155" s="3"/>
     </row>
-    <row r="156" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>265</v>
       </c>
@@ -4984,7 +4984,7 @@
       </c>
       <c r="C156" s="3"/>
     </row>
-    <row r="157" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>122</v>
       </c>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="C157" s="3"/>
     </row>
-    <row r="158" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>123</v>
       </c>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="C158" s="3"/>
     </row>
-    <row r="159" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>124</v>
       </c>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="C159" s="3"/>
     </row>
-    <row r="160" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>125</v>
       </c>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="C160" s="3"/>
     </row>
-    <row r="161" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>199</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>126</v>
       </c>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="C162" s="3"/>
     </row>
-    <row r="163" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>127</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="164" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>128</v>
       </c>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="C164" s="3"/>
     </row>
-    <row r="165" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>254</v>
       </c>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="C165" s="3"/>
     </row>
-    <row r="166" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>129</v>
       </c>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="C166" s="3"/>
     </row>
-    <row r="167" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>130</v>
       </c>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="C167" s="3"/>
     </row>
-    <row r="168" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>131</v>
       </c>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="C168" s="3"/>
     </row>
-    <row r="169" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>132</v>
       </c>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="C169" s="3"/>
     </row>
-    <row r="170" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>243</v>
       </c>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="C170" s="3"/>
     </row>
-    <row r="171" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>133</v>
       </c>
@@ -5123,7 +5123,7 @@
       </c>
       <c r="C171" s="3"/>
     </row>
-    <row r="172" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>134</v>
       </c>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="C172" s="3"/>
     </row>
-    <row r="173" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>135</v>
       </c>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="C173" s="3"/>
     </row>
-    <row r="174" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>136</v>
       </c>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="C174" s="3"/>
     </row>
-    <row r="175" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>137</v>
       </c>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="C175" s="3"/>
     </row>
-    <row r="176" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>294</v>
       </c>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="C176" s="3"/>
     </row>
-    <row r="177" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>333</v>
       </c>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="C177" s="3"/>
     </row>
-    <row r="178" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>524</v>
       </c>
@@ -5186,7 +5186,7 @@
       </c>
       <c r="C178" s="3"/>
     </row>
-    <row r="179" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>138</v>
       </c>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="C179" s="3"/>
     </row>
-    <row r="180" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>139</v>
       </c>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="C180" s="3"/>
     </row>
-    <row r="181" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>140</v>
       </c>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="C181" s="3"/>
     </row>
-    <row r="182" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>141</v>
       </c>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="C182" s="3"/>
     </row>
-    <row r="183" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>142</v>
       </c>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="C183" s="3"/>
     </row>
-    <row r="184" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>143</v>
       </c>
@@ -5240,7 +5240,7 @@
       </c>
       <c r="C184" s="3"/>
     </row>
-    <row r="185" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>144</v>
       </c>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="C185" s="3"/>
     </row>
-    <row r="186" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>145</v>
       </c>
@@ -5258,7 +5258,7 @@
       </c>
       <c r="C186" s="3"/>
     </row>
-    <row r="187" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>147</v>
       </c>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="C187" s="3"/>
     </row>
-    <row r="188" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>274</v>
       </c>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="C188" s="3"/>
     </row>
-    <row r="189" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>148</v>
       </c>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="C189" s="3"/>
     </row>
-    <row r="190" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>149</v>
       </c>
@@ -5294,16 +5294,16 @@
       </c>
       <c r="C190" s="3"/>
     </row>
-    <row r="191" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C191" s="3"/>
     </row>
-    <row r="192" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>242</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="193" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>150</v>
       </c>
@@ -5323,7 +5323,7 @@
       </c>
       <c r="C193" s="3"/>
     </row>
-    <row r="194" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>798</v>
       </c>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="C194" s="3"/>
     </row>
-    <row r="195" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>151</v>
       </c>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="C195" s="3"/>
     </row>
-    <row r="196" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>152</v>
       </c>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C196" s="3"/>
     </row>
-    <row r="197" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>153</v>
       </c>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="C197" s="3"/>
     </row>
-    <row r="198" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>154</v>
       </c>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="C198" s="3"/>
     </row>
-    <row r="199" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>155</v>
       </c>
@@ -5377,7 +5377,7 @@
       </c>
       <c r="C199" s="3"/>
     </row>
-    <row r="200" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>156</v>
       </c>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="C200" s="3"/>
     </row>
-    <row r="201" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>157</v>
       </c>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="C201" s="3"/>
     </row>
-    <row r="202" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>158</v>
       </c>
@@ -5404,7 +5404,7 @@
       </c>
       <c r="C202" s="3"/>
     </row>
-    <row r="203" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>159</v>
       </c>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="C203" s="3"/>
     </row>
-    <row r="204" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>160</v>
       </c>
@@ -5422,7 +5422,7 @@
       </c>
       <c r="C204" s="3"/>
     </row>
-    <row r="205" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>161</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="206" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>370</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="207" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>162</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="208" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>163</v>
       </c>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="C208" s="3"/>
     </row>
-    <row r="209" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>164</v>
       </c>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="C209" s="3"/>
     </row>
-    <row r="210" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>165</v>
       </c>
@@ -5482,7 +5482,7 @@
       </c>
       <c r="C210" s="3"/>
     </row>
-    <row r="211" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>166</v>
       </c>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="C211" s="3"/>
     </row>
-    <row r="212" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>167</v>
       </c>
@@ -5500,16 +5500,16 @@
       </c>
       <c r="C212" s="3"/>
     </row>
-    <row r="213" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>372</v>
       </c>
       <c r="C213" s="3"/>
     </row>
-    <row r="214" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>169</v>
       </c>
@@ -5518,16 +5518,16 @@
       </c>
       <c r="C214" s="3"/>
     </row>
-    <row r="215" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C215" s="3"/>
     </row>
-    <row r="216" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>788</v>
       </c>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="C216" s="3"/>
     </row>
-    <row r="217" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>171</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="218" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>173</v>
       </c>
@@ -5556,7 +5556,7 @@
       </c>
       <c r="C218" s="3"/>
     </row>
-    <row r="219" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
         <v>174</v>
       </c>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="C219" s="3"/>
     </row>
-    <row r="220" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>175</v>
       </c>
@@ -5574,7 +5574,7 @@
       </c>
       <c r="C220" s="3"/>
     </row>
-    <row r="221" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
         <v>176</v>
       </c>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="C221" s="3"/>
     </row>
-    <row r="222" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
         <v>177</v>
       </c>
@@ -5592,7 +5592,7 @@
       </c>
       <c r="C222" s="3"/>
     </row>
-    <row r="223" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>273</v>
       </c>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="C223" s="3"/>
     </row>
-    <row r="224" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
         <v>178</v>
       </c>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="C224" s="3"/>
     </row>
-    <row r="225" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>179</v>
       </c>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="C225" s="3"/>
     </row>
-    <row r="226" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>180</v>
       </c>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="C226" s="3"/>
     </row>
-    <row r="227" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>181</v>
       </c>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="C227" s="3"/>
     </row>
-    <row r="228" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>182</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="229" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>181</v>
       </c>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="C229" s="3"/>
     </row>
-    <row r="230" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>183</v>
       </c>
@@ -5666,7 +5666,7 @@
       </c>
       <c r="C230" s="3"/>
     </row>
-    <row r="231" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>184</v>
       </c>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="C231" s="3"/>
     </row>
-    <row r="232" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>185</v>
       </c>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="C232" s="3"/>
     </row>
-    <row r="233" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
         <v>186</v>
       </c>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="C233" s="3"/>
     </row>
-    <row r="234" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>712</v>
       </c>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="C234" s="3"/>
     </row>
-    <row r="235" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>187</v>
       </c>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="C235" s="3"/>
     </row>
-    <row r="236" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>188</v>
       </c>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="C236" s="3"/>
     </row>
-    <row r="237" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
         <v>189</v>
       </c>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="C237" s="3"/>
     </row>
-    <row r="238" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>790</v>
       </c>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="C238" s="3"/>
     </row>
-    <row r="239" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
         <v>789</v>
       </c>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="C239" s="3"/>
     </row>
-    <row r="240" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
         <v>190</v>
       </c>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="C240" s="3"/>
     </row>
-    <row r="241" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
         <v>782</v>
       </c>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="C241" s="3"/>
     </row>
-    <row r="242" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
         <v>191</v>
       </c>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="C242" s="3"/>
     </row>
-    <row r="243" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
         <v>192</v>
       </c>
@@ -5783,7 +5783,7 @@
       </c>
       <c r="C243" s="3"/>
     </row>
-    <row r="244" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
         <v>193</v>
       </c>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="C244" s="3"/>
     </row>
-    <row r="245" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
         <v>194</v>
       </c>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="C245" s="3"/>
     </row>
-    <row r="246" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>195</v>
       </c>
@@ -5810,7 +5810,7 @@
       </c>
       <c r="C246" s="3"/>
     </row>
-    <row r="247" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>234</v>
       </c>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="C247" s="3"/>
     </row>
-    <row r="248" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>714</v>
       </c>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="C248" s="3"/>
     </row>
-    <row r="249" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
         <v>744</v>
       </c>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="C249" s="3"/>
     </row>
-    <row r="250" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
         <v>825</v>
       </c>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="C250" s="3"/>
     </row>
-    <row r="251" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
         <v>826</v>
       </c>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="C251" s="3"/>
     </row>
-    <row r="252" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
         <v>224</v>
       </c>
@@ -5864,7 +5864,7 @@
       </c>
       <c r="C252" s="3"/>
     </row>
-    <row r="253" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
         <v>221</v>
       </c>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="C253" s="3"/>
     </row>
-    <row r="254" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
         <v>196</v>
       </c>
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C254" s="3"/>
     </row>
-    <row r="255" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
         <v>197</v>
       </c>
@@ -5891,7 +5891,7 @@
       </c>
       <c r="C255" s="3"/>
     </row>
-    <row r="256" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>198</v>
       </c>
@@ -5900,7 +5900,7 @@
       </c>
       <c r="C256" s="3"/>
     </row>
-    <row r="257" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
         <v>321</v>
       </c>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="C257" s="3"/>
     </row>
-    <row r="258" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
         <v>220</v>
       </c>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="C258" s="3"/>
     </row>
-    <row r="259" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
         <v>300</v>
       </c>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="C259" s="3"/>
     </row>
-    <row r="260" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
         <v>301</v>
       </c>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="C260" s="3"/>
     </row>
-    <row r="261" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
         <v>334</v>
       </c>
@@ -5945,7 +5945,7 @@
       </c>
       <c r="C261" s="3"/>
     </row>
-    <row r="262" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
         <v>768</v>
       </c>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="C262" s="3"/>
     </row>
-    <row r="263" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
         <v>201</v>
       </c>
@@ -5963,7 +5963,7 @@
       </c>
       <c r="C263" s="3"/>
     </row>
-    <row r="264" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
         <v>323</v>
       </c>
@@ -5972,7 +5972,7 @@
       </c>
       <c r="C264" s="3"/>
     </row>
-    <row r="265" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
         <v>228</v>
       </c>
@@ -5981,7 +5981,7 @@
       </c>
       <c r="C265" s="3"/>
     </row>
-    <row r="266" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
         <v>204</v>
       </c>
@@ -5990,7 +5990,7 @@
       </c>
       <c r="C266" s="3"/>
     </row>
-    <row r="267" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
         <v>205</v>
       </c>
@@ -5999,7 +5999,7 @@
       </c>
       <c r="C267" s="3"/>
     </row>
-    <row r="268" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
         <v>206</v>
       </c>
@@ -6008,7 +6008,7 @@
       </c>
       <c r="C268" s="3"/>
     </row>
-    <row r="269" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
         <v>207</v>
       </c>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="C269" s="3"/>
     </row>
-    <row r="270" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
         <v>208</v>
       </c>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="C270" s="3"/>
     </row>
-    <row r="271" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
         <v>212</v>
       </c>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="C271" s="3"/>
     </row>
-    <row r="272" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
         <v>209</v>
       </c>
@@ -6044,7 +6044,7 @@
       </c>
       <c r="C272" s="3"/>
     </row>
-    <row r="273" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
         <v>255</v>
       </c>
@@ -6053,7 +6053,7 @@
       </c>
       <c r="C273" s="3"/>
     </row>
-    <row r="274" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
         <v>210</v>
       </c>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="C274" s="3"/>
     </row>
-    <row r="275" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
         <v>211</v>
       </c>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="C275" s="3"/>
     </row>
-    <row r="276" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
         <v>214</v>
       </c>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="C276" s="3"/>
     </row>
-    <row r="277" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
         <v>215</v>
       </c>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="C277" s="3"/>
     </row>
-    <row r="278" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
         <v>280</v>
       </c>
@@ -6098,7 +6098,7 @@
       </c>
       <c r="C278" s="3"/>
     </row>
-    <row r="279" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
         <v>279</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="280" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
         <v>218</v>
       </c>
@@ -6118,7 +6118,7 @@
       </c>
       <c r="C280" s="3"/>
     </row>
-    <row r="281" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
         <v>219</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="282" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
         <v>222</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="283" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
         <v>225</v>
       </c>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="C283" s="3"/>
     </row>
-    <row r="284" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
         <v>227</v>
       </c>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="C284" s="3"/>
     </row>
-    <row r="285" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
         <v>230</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="286" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
         <v>286</v>
       </c>
@@ -6178,7 +6178,7 @@
       </c>
       <c r="C286" s="3"/>
     </row>
-    <row r="287" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
         <v>256</v>
       </c>
@@ -6187,7 +6187,7 @@
       </c>
       <c r="C287" s="3"/>
     </row>
-    <row r="288" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
         <v>231</v>
       </c>
@@ -6196,7 +6196,7 @@
       </c>
       <c r="C288" s="3"/>
     </row>
-    <row r="289" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
         <v>548</v>
       </c>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="C289" s="3"/>
     </row>
-    <row r="290" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
         <v>235</v>
       </c>
@@ -6214,7 +6214,7 @@
       </c>
       <c r="C290" s="3"/>
     </row>
-    <row r="291" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
         <v>236</v>
       </c>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="C291" s="3"/>
     </row>
-    <row r="292" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
         <v>238</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="293" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
         <v>239</v>
       </c>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="C293" s="3"/>
     </row>
-    <row r="294" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
         <v>241</v>
       </c>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="C294" s="3"/>
     </row>
-    <row r="295" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
         <v>776</v>
       </c>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="C295" s="3"/>
     </row>
-    <row r="296" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
         <v>244</v>
       </c>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="C296" s="3"/>
     </row>
-    <row r="297" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
         <v>246</v>
       </c>
@@ -6279,7 +6279,7 @@
       </c>
       <c r="C297" s="3"/>
     </row>
-    <row r="298" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
         <v>247</v>
       </c>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="C298" s="3"/>
     </row>
-    <row r="299" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
         <v>248</v>
       </c>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="C299" s="3"/>
     </row>
-    <row r="300" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
         <v>249</v>
       </c>
@@ -6306,7 +6306,7 @@
       </c>
       <c r="C300" s="3"/>
     </row>
-    <row r="301" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
         <v>763</v>
       </c>
@@ -6315,7 +6315,7 @@
       </c>
       <c r="C301" s="3"/>
     </row>
-    <row r="302" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
         <v>250</v>
       </c>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="C302" s="3"/>
     </row>
-    <row r="303" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
         <v>251</v>
       </c>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="C303" s="3"/>
     </row>
-    <row r="304" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
         <v>252</v>
       </c>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="C304" s="3"/>
     </row>
-    <row r="305" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
         <v>253</v>
       </c>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="C305" s="3"/>
     </row>
-    <row r="306" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
         <v>284</v>
       </c>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="C306" s="3"/>
     </row>
-    <row r="307" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
         <v>374</v>
       </c>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="C307" s="3"/>
     </row>
-    <row r="308" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
         <v>257</v>
       </c>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="C308" s="3"/>
     </row>
-    <row r="309" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
         <v>258</v>
       </c>
@@ -6387,7 +6387,7 @@
       </c>
       <c r="C309" s="3"/>
     </row>
-    <row r="310" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
         <v>322</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="311" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
         <v>259</v>
       </c>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="C311" s="3"/>
     </row>
-    <row r="312" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
         <v>260</v>
       </c>
@@ -6416,7 +6416,7 @@
       </c>
       <c r="C312" s="3"/>
     </row>
-    <row r="313" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
         <v>261</v>
       </c>
@@ -6425,7 +6425,7 @@
       </c>
       <c r="C313" s="3"/>
     </row>
-    <row r="314" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
         <v>262</v>
       </c>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="C314" s="3"/>
     </row>
-    <row r="315" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
         <v>263</v>
       </c>
@@ -6443,7 +6443,7 @@
       </c>
       <c r="C315" s="3"/>
     </row>
-    <row r="316" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
         <v>264</v>
       </c>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="C316" s="3"/>
     </row>
-    <row r="317" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
         <v>749</v>
       </c>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="C317" s="3"/>
     </row>
-    <row r="318" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
         <v>266</v>
       </c>
@@ -6470,7 +6470,7 @@
       </c>
       <c r="C318" s="3"/>
     </row>
-    <row r="319" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
         <v>267</v>
       </c>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="C319" s="3"/>
     </row>
-    <row r="320" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
         <v>269</v>
       </c>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="C320" s="3"/>
     </row>
-    <row r="321" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
         <v>270</v>
       </c>
@@ -6497,7 +6497,7 @@
       </c>
       <c r="C321" s="3"/>
     </row>
-    <row r="322" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
         <v>272</v>
       </c>
@@ -6506,7 +6506,7 @@
       </c>
       <c r="C322" s="3"/>
     </row>
-    <row r="323" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
         <v>275</v>
       </c>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="C323" s="3"/>
     </row>
-    <row r="324" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
         <v>276</v>
       </c>
@@ -6524,7 +6524,7 @@
       </c>
       <c r="C324" s="3"/>
     </row>
-    <row r="325" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
         <v>277</v>
       </c>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="C325" s="3"/>
     </row>
-    <row r="326" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
         <v>278</v>
       </c>
@@ -6542,7 +6542,7 @@
       </c>
       <c r="C326" s="3"/>
     </row>
-    <row r="327" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
         <v>281</v>
       </c>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="C327" s="3"/>
     </row>
-    <row r="328" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
         <v>283</v>
       </c>
@@ -6560,7 +6560,7 @@
       </c>
       <c r="C328" s="3"/>
     </row>
-    <row r="329" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
         <v>285</v>
       </c>
@@ -6569,7 +6569,7 @@
       </c>
       <c r="C329" s="3"/>
     </row>
-    <row r="330" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
         <v>287</v>
       </c>
@@ -6578,7 +6578,7 @@
       </c>
       <c r="C330" s="3"/>
     </row>
-    <row r="331" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
         <v>288</v>
       </c>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="C331" s="3"/>
     </row>
-    <row r="332" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
         <v>289</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="333" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
         <v>290</v>
       </c>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="C333" s="3"/>
     </row>
-    <row r="334" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
         <v>291</v>
       </c>
@@ -6616,7 +6616,7 @@
       </c>
       <c r="C334" s="3"/>
     </row>
-    <row r="335" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
         <v>771</v>
       </c>
@@ -6625,7 +6625,7 @@
       </c>
       <c r="C335" s="3"/>
     </row>
-    <row r="336" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
         <v>292</v>
       </c>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="C336" s="3"/>
     </row>
-    <row r="337" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
         <v>293</v>
       </c>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="C337" s="3"/>
     </row>
-    <row r="338" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
         <v>296</v>
       </c>
@@ -6652,7 +6652,7 @@
       </c>
       <c r="C338" s="3"/>
     </row>
-    <row r="339" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
         <v>297</v>
       </c>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="C339" s="3"/>
     </row>
-    <row r="340" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
         <v>299</v>
       </c>
@@ -6670,7 +6670,7 @@
       </c>
       <c r="C340" s="3"/>
     </row>
-    <row r="341" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
         <v>302</v>
       </c>
@@ -6679,7 +6679,7 @@
       </c>
       <c r="C341" s="3"/>
     </row>
-    <row r="342" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
         <v>303</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="343" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
         <v>304</v>
       </c>
@@ -6699,7 +6699,7 @@
       </c>
       <c r="C343" s="3"/>
     </row>
-    <row r="344" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
         <v>305</v>
       </c>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="C344" s="3"/>
     </row>
-    <row r="345" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
         <v>306</v>
       </c>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="C345" s="3"/>
     </row>
-    <row r="346" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
         <v>307</v>
       </c>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="C346" s="3"/>
     </row>
-    <row r="347" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
         <v>308</v>
       </c>
@@ -6735,7 +6735,7 @@
       </c>
       <c r="C347" s="3"/>
     </row>
-    <row r="348" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
         <v>309</v>
       </c>
@@ -6744,7 +6744,7 @@
       </c>
       <c r="C348" s="3"/>
     </row>
-    <row r="349" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
         <v>310</v>
       </c>
@@ -6753,7 +6753,7 @@
       </c>
       <c r="C349" s="3"/>
     </row>
-    <row r="350" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
         <v>311</v>
       </c>
@@ -6762,7 +6762,7 @@
       </c>
       <c r="C350" s="3"/>
     </row>
-    <row r="351" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
         <v>312</v>
       </c>
@@ -6771,7 +6771,7 @@
       </c>
       <c r="C351" s="3"/>
     </row>
-    <row r="352" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
         <v>313</v>
       </c>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="C352" s="3"/>
     </row>
-    <row r="353" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
         <v>314</v>
       </c>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="C353" s="3"/>
     </row>
-    <row r="354" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
         <v>315</v>
       </c>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="C354" s="3"/>
     </row>
-    <row r="355" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
         <v>316</v>
       </c>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="C355" s="3"/>
     </row>
-    <row r="356" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
         <v>317</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="357" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
         <v>318</v>
       </c>
@@ -6827,7 +6827,7 @@
       </c>
       <c r="C357" s="3"/>
     </row>
-    <row r="358" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
         <v>319</v>
       </c>
@@ -6836,7 +6836,7 @@
       </c>
       <c r="C358" s="3"/>
     </row>
-    <row r="359" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
         <v>320</v>
       </c>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="C359" s="3"/>
     </row>
-    <row r="360" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
         <v>324</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="361" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
         <v>325</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="362" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
         <v>326</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="363" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
         <v>327</v>
       </c>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="C363" s="3"/>
     </row>
-    <row r="364" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
         <v>328</v>
       </c>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="C364" s="3"/>
     </row>
-    <row r="365" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
         <v>329</v>
       </c>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="C365" s="3"/>
     </row>
-    <row r="366" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
         <v>330</v>
       </c>
@@ -6914,7 +6914,7 @@
       </c>
       <c r="C366" s="3"/>
     </row>
-    <row r="367" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
         <v>331</v>
       </c>
@@ -6923,7 +6923,7 @@
       </c>
       <c r="C367" s="3"/>
     </row>
-    <row r="368" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
         <v>332</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="369" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
         <v>717</v>
       </c>
@@ -6943,7 +6943,7 @@
       </c>
       <c r="C369" s="3"/>
     </row>
-    <row r="370" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
         <v>750</v>
       </c>
@@ -6952,7 +6952,7 @@
       </c>
       <c r="C370" s="3"/>
     </row>
-    <row r="371" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
         <v>720</v>
       </c>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="C371" s="3"/>
     </row>
-    <row r="372" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
         <v>722</v>
       </c>
@@ -6970,7 +6970,7 @@
       </c>
       <c r="C372" s="3"/>
     </row>
-    <row r="373" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
         <v>778</v>
       </c>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="C373" s="3"/>
     </row>
-    <row r="374" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
         <v>725</v>
       </c>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="C374" s="3"/>
     </row>
-    <row r="375" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
         <v>728</v>
       </c>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="C375" s="3"/>
     </row>
-    <row r="376" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
         <v>730</v>
       </c>
@@ -7006,7 +7006,7 @@
       </c>
       <c r="C376" s="3"/>
     </row>
-    <row r="377" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
         <v>732</v>
       </c>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="C377" s="3"/>
     </row>
-    <row r="378" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
         <v>793</v>
       </c>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="C378" s="3"/>
     </row>
-    <row r="379" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
         <v>735</v>
       </c>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="C379" s="3"/>
     </row>
-    <row r="380" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
         <v>742</v>
       </c>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="C380" s="3"/>
     </row>
-    <row r="381" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
         <v>746</v>
       </c>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="C381" s="3"/>
     </row>
-    <row r="382" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
         <v>748</v>
       </c>
@@ -7060,7 +7060,7 @@
       </c>
       <c r="C382" s="3"/>
     </row>
-    <row r="383" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
         <v>756</v>
       </c>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="C383" s="3"/>
     </row>
-    <row r="384" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
         <v>760</v>
       </c>
@@ -7078,7 +7078,7 @@
       </c>
       <c r="C384" s="3"/>
     </row>
-    <row r="385" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
         <v>772</v>
       </c>
@@ -7087,7 +7087,7 @@
       </c>
       <c r="C385" s="3"/>
     </row>
-    <row r="386" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
         <v>770</v>
       </c>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="C386" s="3"/>
     </row>
-    <row r="387" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
         <v>774</v>
       </c>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="C387" s="3"/>
     </row>
-    <row r="388" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
         <v>779</v>
       </c>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="C388" s="3"/>
     </row>
-    <row r="389" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
         <v>783</v>
       </c>
@@ -7123,7 +7123,7 @@
       </c>
       <c r="C389" s="3"/>
     </row>
-    <row r="390" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
         <v>785</v>
       </c>
@@ -7132,7 +7132,7 @@
       </c>
       <c r="C390" s="3"/>
     </row>
-    <row r="391" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
         <v>794</v>
       </c>
@@ -7141,7 +7141,7 @@
       </c>
       <c r="C391" s="3"/>
     </row>
-    <row r="392" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
         <v>796</v>
       </c>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="C392" s="3"/>
     </row>
-    <row r="393" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
         <v>799</v>
       </c>
@@ -7159,7 +7159,7 @@
       </c>
       <c r="C393" s="3"/>
     </row>
-    <row r="394" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
         <v>800</v>
       </c>
@@ -7168,7 +7168,7 @@
       </c>
       <c r="C394" s="3"/>
     </row>
-    <row r="395" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
         <v>803</v>
       </c>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="C395" s="3"/>
     </row>
-    <row r="396" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
         <v>806</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="397" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
         <v>807</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="398" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
         <v>814</v>
       </c>
@@ -7208,7 +7208,7 @@
       </c>
       <c r="C398" s="3"/>
     </row>
-    <row r="399" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
         <v>815</v>
       </c>
@@ -7217,7 +7217,7 @@
       </c>
       <c r="C399" s="3"/>
     </row>
-    <row r="400" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
         <v>818</v>
       </c>
@@ -7226,7 +7226,7 @@
       </c>
       <c r="C400" s="3"/>
     </row>
-    <row r="401" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
         <v>819</v>
       </c>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="C401" s="3"/>
     </row>
-    <row r="402" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
         <v>822</v>
       </c>
@@ -7244,7 +7244,7 @@
       </c>
       <c r="C402" s="3"/>
     </row>
-    <row r="403" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
         <v>830</v>
       </c>
@@ -7253,3195 +7253,3195 @@
       </c>
       <c r="C403" s="3"/>
     </row>
-    <row r="404" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="B404" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="B404" s="3" t="s">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="C404" s="3"/>
-    </row>
-    <row r="405" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A405" s="3" t="s">
+      <c r="B405" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="B405" s="3" t="s">
-        <v>837</v>
-      </c>
       <c r="C405" s="3"/>
     </row>
-    <row r="406" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
     </row>
-    <row r="407" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
     </row>
-    <row r="408" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
     </row>
-    <row r="409" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
     </row>
-    <row r="410" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
     </row>
-    <row r="411" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
     </row>
-    <row r="412" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
     </row>
-    <row r="413" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
     </row>
-    <row r="414" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
     </row>
-    <row r="415" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
     </row>
-    <row r="416" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
     </row>
-    <row r="417" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
     </row>
-    <row r="418" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
     </row>
-    <row r="419" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
     </row>
-    <row r="420" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
     </row>
-    <row r="421" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
     </row>
-    <row r="422" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
     </row>
-    <row r="423" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
     </row>
-    <row r="424" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
     </row>
-    <row r="425" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
     </row>
-    <row r="426" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
     </row>
-    <row r="427" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
     </row>
-    <row r="428" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
     </row>
-    <row r="429" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
     </row>
-    <row r="430" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
     </row>
-    <row r="431" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
     </row>
-    <row r="432" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
     </row>
-    <row r="433" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
     </row>
-    <row r="434" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
     </row>
-    <row r="435" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
     </row>
-    <row r="436" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
     </row>
-    <row r="437" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
     </row>
-    <row r="438" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
     </row>
-    <row r="439" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
     </row>
-    <row r="440" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
     </row>
-    <row r="441" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
     </row>
-    <row r="442" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
     </row>
-    <row r="443" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
     </row>
-    <row r="444" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
     </row>
-    <row r="445" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
     </row>
-    <row r="446" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
     </row>
-    <row r="447" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
     </row>
-    <row r="448" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
     </row>
-    <row r="449" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
     </row>
-    <row r="450" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
     </row>
-    <row r="451" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
     </row>
-    <row r="452" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
     </row>
-    <row r="453" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
     </row>
-    <row r="454" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
     </row>
-    <row r="455" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
     </row>
-    <row r="456" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
     </row>
-    <row r="457" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
     </row>
-    <row r="458" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
     </row>
-    <row r="459" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
     </row>
-    <row r="460" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
     </row>
-    <row r="461" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
     </row>
-    <row r="462" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
     </row>
-    <row r="463" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
     </row>
-    <row r="464" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
     </row>
-    <row r="465" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
     </row>
-    <row r="466" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
     </row>
-    <row r="467" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
     </row>
-    <row r="468" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
     </row>
-    <row r="469" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
     </row>
-    <row r="470" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
     </row>
-    <row r="471" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
     </row>
-    <row r="472" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
     </row>
-    <row r="473" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
     </row>
-    <row r="474" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
     </row>
-    <row r="475" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
     </row>
-    <row r="476" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
     </row>
-    <row r="477" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
     </row>
-    <row r="478" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
     </row>
-    <row r="479" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
     </row>
-    <row r="480" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
     </row>
-    <row r="481" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
     </row>
-    <row r="482" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
     </row>
-    <row r="483" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
     </row>
-    <row r="484" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
     </row>
-    <row r="485" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
     </row>
-    <row r="486" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
     </row>
-    <row r="487" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
     </row>
-    <row r="488" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
     </row>
-    <row r="489" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
     </row>
-    <row r="490" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
     </row>
-    <row r="491" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
     </row>
-    <row r="492" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
     </row>
-    <row r="493" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
     </row>
-    <row r="494" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
     </row>
-    <row r="495" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
     </row>
-    <row r="496" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
     </row>
-    <row r="497" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
     </row>
-    <row r="498" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
     </row>
-    <row r="499" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
     </row>
-    <row r="500" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
     </row>
-    <row r="501" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
     </row>
-    <row r="502" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
     </row>
-    <row r="503" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
     </row>
-    <row r="504" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
     </row>
-    <row r="505" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
     </row>
-    <row r="506" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
     </row>
-    <row r="507" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
     </row>
-    <row r="508" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
     </row>
-    <row r="509" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
     </row>
-    <row r="510" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
     </row>
-    <row r="511" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
     </row>
-    <row r="512" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
     </row>
-    <row r="513" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
     </row>
-    <row r="514" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
     </row>
-    <row r="515" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
     </row>
-    <row r="516" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
     </row>
-    <row r="517" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
     </row>
-    <row r="518" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
     </row>
-    <row r="519" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
     </row>
-    <row r="520" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
     </row>
-    <row r="521" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
     </row>
-    <row r="522" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
     </row>
-    <row r="523" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
     </row>
-    <row r="524" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
     </row>
-    <row r="525" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
     </row>
-    <row r="526" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
     </row>
-    <row r="527" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
     </row>
-    <row r="528" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
     </row>
-    <row r="529" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
     </row>
-    <row r="530" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
     </row>
-    <row r="531" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
     </row>
-    <row r="532" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
     </row>
-    <row r="533" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
     </row>
-    <row r="534" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
     </row>
-    <row r="535" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
     </row>
-    <row r="536" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
     </row>
-    <row r="537" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
     </row>
-    <row r="538" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
     </row>
-    <row r="539" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
     </row>
-    <row r="540" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
     </row>
-    <row r="541" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
     </row>
-    <row r="542" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
     </row>
-    <row r="543" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
     </row>
-    <row r="544" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
     </row>
-    <row r="545" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
     </row>
-    <row r="546" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
     </row>
-    <row r="547" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
     </row>
-    <row r="548" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
     </row>
-    <row r="549" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
     </row>
-    <row r="550" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
     </row>
-    <row r="551" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
     </row>
-    <row r="552" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
     </row>
-    <row r="553" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
     </row>
-    <row r="554" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
     </row>
-    <row r="555" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
     </row>
-    <row r="556" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
     </row>
-    <row r="557" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
     </row>
-    <row r="558" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
     </row>
-    <row r="559" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
     </row>
-    <row r="560" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
     </row>
-    <row r="561" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
     </row>
-    <row r="562" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
     </row>
-    <row r="563" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
     </row>
-    <row r="564" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
     </row>
-    <row r="565" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
     </row>
-    <row r="566" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
     </row>
-    <row r="567" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
     </row>
-    <row r="568" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
     </row>
-    <row r="569" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
     </row>
-    <row r="570" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
     </row>
-    <row r="571" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
     </row>
-    <row r="572" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
     </row>
-    <row r="573" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
     </row>
-    <row r="574" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
     </row>
-    <row r="575" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
     </row>
-    <row r="576" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
     </row>
-    <row r="577" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
     </row>
-    <row r="578" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
     </row>
-    <row r="579" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
     </row>
-    <row r="580" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
     </row>
-    <row r="581" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
     </row>
-    <row r="582" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
     </row>
-    <row r="583" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
     </row>
-    <row r="584" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
     </row>
-    <row r="585" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
     </row>
-    <row r="586" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
     </row>
-    <row r="587" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
     </row>
-    <row r="588" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
     </row>
-    <row r="589" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
     </row>
-    <row r="590" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
     </row>
-    <row r="591" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
     </row>
-    <row r="592" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
     </row>
-    <row r="593" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
     </row>
-    <row r="594" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
     </row>
-    <row r="595" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
     </row>
-    <row r="596" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
     </row>
-    <row r="597" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
     </row>
-    <row r="598" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
     </row>
-    <row r="599" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
     </row>
-    <row r="600" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
     </row>
-    <row r="601" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
     </row>
-    <row r="602" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
     </row>
-    <row r="603" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
     </row>
-    <row r="604" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
     </row>
-    <row r="605" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
     </row>
-    <row r="606" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
     </row>
-    <row r="607" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
     </row>
-    <row r="608" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
     </row>
-    <row r="609" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
     </row>
-    <row r="610" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
     </row>
-    <row r="611" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
     </row>
-    <row r="612" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
     </row>
-    <row r="613" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
     </row>
-    <row r="614" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
     </row>
-    <row r="615" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
     </row>
-    <row r="616" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
     </row>
-    <row r="617" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
     </row>
-    <row r="618" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
     </row>
-    <row r="619" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
     </row>
-    <row r="620" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
     </row>
-    <row r="621" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
     </row>
-    <row r="622" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
     </row>
-    <row r="623" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
     </row>
-    <row r="624" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
     </row>
-    <row r="625" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
     </row>
-    <row r="626" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
     </row>
-    <row r="627" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
     </row>
-    <row r="628" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
     </row>
-    <row r="629" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
     </row>
-    <row r="630" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
     </row>
-    <row r="631" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
     </row>
-    <row r="632" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
     </row>
-    <row r="633" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
     </row>
-    <row r="634" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
     </row>
-    <row r="635" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
     </row>
-    <row r="636" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
     </row>
-    <row r="637" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
     </row>
-    <row r="638" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
     </row>
-    <row r="639" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
     </row>
-    <row r="640" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
     </row>
-    <row r="641" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
     </row>
-    <row r="642" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
     </row>
-    <row r="643" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
     </row>
-    <row r="644" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
     </row>
-    <row r="645" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
     </row>
-    <row r="646" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
     </row>
-    <row r="647" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
     </row>
-    <row r="648" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
     </row>
-    <row r="649" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
     </row>
-    <row r="650" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
     </row>
-    <row r="651" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
     </row>
-    <row r="652" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
     </row>
-    <row r="653" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
     </row>
-    <row r="654" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
     </row>
-    <row r="655" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
     </row>
-    <row r="656" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
     </row>
-    <row r="657" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
     </row>
-    <row r="658" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
     </row>
-    <row r="659" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
     </row>
-    <row r="660" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
     </row>
-    <row r="661" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
     </row>
-    <row r="662" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
     </row>
-    <row r="663" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
     </row>
-    <row r="664" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
     </row>
-    <row r="665" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
     </row>
-    <row r="666" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
     </row>
-    <row r="667" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
     </row>
-    <row r="668" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
     </row>
-    <row r="669" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
     </row>
-    <row r="670" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
     </row>
-    <row r="671" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
     </row>
-    <row r="672" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
     </row>
-    <row r="673" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
     </row>
-    <row r="674" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
     </row>
-    <row r="675" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
     </row>
-    <row r="676" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
     </row>
-    <row r="677" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
     </row>
-    <row r="678" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
     </row>
-    <row r="679" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
     </row>
-    <row r="680" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
     </row>
-    <row r="681" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
     </row>
-    <row r="682" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
     </row>
-    <row r="683" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
     </row>
-    <row r="684" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
     </row>
-    <row r="685" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
     </row>
-    <row r="686" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
     </row>
-    <row r="687" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
     </row>
-    <row r="688" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
     </row>
-    <row r="689" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
     </row>
-    <row r="690" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
     </row>
-    <row r="691" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
     </row>
-    <row r="692" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
     </row>
-    <row r="693" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
     </row>
-    <row r="694" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
     </row>
-    <row r="695" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
     </row>
-    <row r="696" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
     </row>
-    <row r="697" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
     </row>
-    <row r="698" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
     </row>
-    <row r="699" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
     </row>
-    <row r="700" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
     </row>
-    <row r="701" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
     </row>
-    <row r="702" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
     </row>
-    <row r="703" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
     </row>
-    <row r="704" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
     </row>
-    <row r="705" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
     </row>
-    <row r="706" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
     </row>
-    <row r="707" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
     </row>
-    <row r="708" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
     </row>
-    <row r="709" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
     </row>
-    <row r="710" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
     </row>
-    <row r="711" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
     </row>
-    <row r="712" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
     </row>
-    <row r="713" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
     </row>
-    <row r="714" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
     </row>
-    <row r="715" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
     </row>
-    <row r="716" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
     </row>
-    <row r="717" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
     </row>
-    <row r="718" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
     </row>
-    <row r="719" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
     </row>
-    <row r="720" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
     </row>
-    <row r="721" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
     </row>
-    <row r="722" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
     </row>
-    <row r="723" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
     </row>
-    <row r="724" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
     </row>
-    <row r="725" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
     </row>
-    <row r="726" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
     </row>
-    <row r="727" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
     </row>
-    <row r="728" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
     </row>
-    <row r="729" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
     </row>
-    <row r="730" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
     </row>
-    <row r="731" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
     </row>
-    <row r="732" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
     </row>
-    <row r="733" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
     </row>
-    <row r="734" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
     </row>
-    <row r="735" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
     </row>
-    <row r="736" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
     </row>
-    <row r="737" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
     </row>
-    <row r="738" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
     </row>
-    <row r="739" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
     </row>
-    <row r="740" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
     </row>
-    <row r="741" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
     </row>
-    <row r="742" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
     </row>
-    <row r="743" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
     </row>
-    <row r="744" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
     </row>
-    <row r="745" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
     </row>
-    <row r="746" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
     </row>
-    <row r="747" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
     </row>
-    <row r="748" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
     </row>
-    <row r="749" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
     </row>
-    <row r="750" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
     </row>
-    <row r="751" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
     </row>
-    <row r="752" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
     </row>
-    <row r="753" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
     </row>
-    <row r="754" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
     </row>
-    <row r="755" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
     </row>
-    <row r="756" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
     </row>
-    <row r="757" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
     </row>
-    <row r="758" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
     </row>
-    <row r="759" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
     </row>
-    <row r="760" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
     </row>
-    <row r="761" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
     </row>
-    <row r="762" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
     </row>
-    <row r="763" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
     </row>
-    <row r="764" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
     </row>
-    <row r="765" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
     </row>
-    <row r="766" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
     </row>
-    <row r="767" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
     </row>
-    <row r="768" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
     </row>
-    <row r="769" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
     </row>
-    <row r="770" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
     </row>
-    <row r="771" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
     </row>
-    <row r="772" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
     </row>
-    <row r="773" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
     </row>
-    <row r="774" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
     </row>
-    <row r="775" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
     </row>
-    <row r="776" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
     </row>
-    <row r="777" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
     </row>
-    <row r="778" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
     </row>
-    <row r="779" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
     </row>
-    <row r="780" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
     </row>
-    <row r="781" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
     </row>
-    <row r="782" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
     </row>
-    <row r="783" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
     </row>
-    <row r="784" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
     </row>
-    <row r="785" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
     </row>
-    <row r="786" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
     </row>
-    <row r="787" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
     </row>
-    <row r="788" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
     </row>
-    <row r="789" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
     </row>
-    <row r="790" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
     </row>
-    <row r="791" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
     </row>
-    <row r="792" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
     </row>
-    <row r="793" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
     </row>
-    <row r="794" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
     </row>
-    <row r="795" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
     </row>
-    <row r="796" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
     </row>
-    <row r="797" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
     </row>
-    <row r="798" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
     </row>
-    <row r="799" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
     </row>
-    <row r="800" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
     </row>
-    <row r="801" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
     </row>
-    <row r="802" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
     </row>
-    <row r="803" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
     </row>
-    <row r="804" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
     </row>
-    <row r="805" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
     </row>
-    <row r="806" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
     </row>
-    <row r="807" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
     </row>
-    <row r="808" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
     </row>
-    <row r="809" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
     </row>
-    <row r="810" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
     </row>
-    <row r="811" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
     </row>
-    <row r="812" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
     </row>
-    <row r="813" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
     </row>
-    <row r="814" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
     </row>
-    <row r="815" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
     </row>
-    <row r="816" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
     </row>
-    <row r="817" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
     </row>
-    <row r="818" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
     </row>
-    <row r="819" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
     </row>
-    <row r="820" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
     </row>
-    <row r="821" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
     </row>
-    <row r="822" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
     </row>
-    <row r="823" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
     </row>
-    <row r="824" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
     </row>
-    <row r="825" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
     </row>
-    <row r="826" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
     </row>
-    <row r="827" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
     </row>
-    <row r="828" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
     </row>
-    <row r="829" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
     </row>
-    <row r="830" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
     </row>
-    <row r="831" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
     </row>
-    <row r="832" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
     </row>
-    <row r="833" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
     </row>
-    <row r="834" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
     </row>
-    <row r="835" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
     </row>
-    <row r="836" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
     </row>
-    <row r="837" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
     </row>
-    <row r="838" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
     </row>
-    <row r="839" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
     </row>
-    <row r="840" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
     </row>
-    <row r="841" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
     </row>
-    <row r="842" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
     </row>
-    <row r="843" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
     </row>
-    <row r="844" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
     </row>
-    <row r="845" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
     </row>
-    <row r="846" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
     </row>
-    <row r="847" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
     </row>
-    <row r="848" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
     </row>
-    <row r="849" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
     </row>
-    <row r="850" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
     </row>
-    <row r="851" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
     </row>
-    <row r="852" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
     </row>
-    <row r="853" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
     </row>
-    <row r="854" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
     </row>
-    <row r="855" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
     </row>
-    <row r="856" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
     </row>
-    <row r="857" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
     </row>
-    <row r="858" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
     </row>
-    <row r="859" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
     </row>
-    <row r="860" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
     </row>
-    <row r="861" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
     </row>
-    <row r="862" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
     </row>
-    <row r="863" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
     </row>
-    <row r="864" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
     </row>
-    <row r="865" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
     </row>
-    <row r="866" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
     </row>
-    <row r="867" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
     </row>
-    <row r="868" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
     </row>
-    <row r="869" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
     </row>
-    <row r="870" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
     </row>
-    <row r="871" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
     </row>
-    <row r="872" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
     </row>
-    <row r="873" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
     </row>
-    <row r="874" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
     </row>
-    <row r="875" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
     </row>
-    <row r="876" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
     </row>
-    <row r="877" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
     </row>
-    <row r="878" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
     </row>
-    <row r="879" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
     </row>
-    <row r="880" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
     </row>
-    <row r="881" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
     </row>
-    <row r="882" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
     </row>
-    <row r="883" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
     </row>
-    <row r="884" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
     </row>
-    <row r="885" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
     </row>
-    <row r="886" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
     </row>
-    <row r="887" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
     </row>
-    <row r="888" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
     </row>
-    <row r="889" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
     </row>
-    <row r="890" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
     </row>
-    <row r="891" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
     </row>
-    <row r="892" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
     </row>
-    <row r="893" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
     </row>
-    <row r="894" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
     </row>
-    <row r="895" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
     </row>
-    <row r="896" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
     </row>
-    <row r="897" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
     </row>
-    <row r="898" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
     </row>
-    <row r="899" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
     </row>
-    <row r="900" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
     </row>
-    <row r="901" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
     </row>
-    <row r="902" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
     </row>
-    <row r="903" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
     </row>
-    <row r="904" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
     </row>
-    <row r="905" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
     </row>
-    <row r="906" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
     </row>
-    <row r="907" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
     </row>
-    <row r="908" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
     </row>
-    <row r="909" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
     </row>
-    <row r="910" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
     </row>
-    <row r="911" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
     </row>
-    <row r="912" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
     </row>
-    <row r="913" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
     </row>
-    <row r="914" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
     </row>
-    <row r="915" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
     </row>
-    <row r="916" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
     </row>
-    <row r="917" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
     </row>
-    <row r="918" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
     </row>
-    <row r="919" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
     </row>
-    <row r="920" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
     </row>
-    <row r="921" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
     </row>
-    <row r="922" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
     </row>
-    <row r="923" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
     </row>
-    <row r="924" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
     </row>
-    <row r="925" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
     </row>
-    <row r="926" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
     </row>
-    <row r="927" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
     </row>
-    <row r="928" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
     </row>
-    <row r="929" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
     </row>
-    <row r="930" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
     </row>
-    <row r="931" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
     </row>
-    <row r="932" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
     </row>
-    <row r="933" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
     </row>
-    <row r="934" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
     </row>
-    <row r="935" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
     </row>
-    <row r="936" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
     </row>
-    <row r="937" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
     </row>
-    <row r="938" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
     </row>
-    <row r="939" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
     </row>
-    <row r="940" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
     </row>
-    <row r="941" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
     </row>
-    <row r="942" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
     </row>
-    <row r="943" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
     </row>
-    <row r="944" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
     </row>
-    <row r="945" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
     </row>
-    <row r="946" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
     </row>
-    <row r="947" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
     </row>
-    <row r="948" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
     </row>
-    <row r="949" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
     </row>
-    <row r="950" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
     </row>
-    <row r="951" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
     </row>
-    <row r="952" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
     </row>
-    <row r="953" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
     </row>
-    <row r="954" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
     </row>
-    <row r="955" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
     </row>
-    <row r="956" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
     </row>
-    <row r="957" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
     </row>
-    <row r="958" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
     </row>
-    <row r="959" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
     </row>
-    <row r="960" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
     </row>
-    <row r="961" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
     </row>
-    <row r="962" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
     </row>
-    <row r="963" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
     </row>
-    <row r="964" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
     </row>
-    <row r="965" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
     </row>
-    <row r="966" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
     </row>
-    <row r="967" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
     </row>
-    <row r="968" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
     </row>
-    <row r="969" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
     </row>
-    <row r="970" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
     </row>
-    <row r="971" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
     </row>
-    <row r="972" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
     </row>
-    <row r="973" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
     </row>
-    <row r="974" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
     </row>
-    <row r="975" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
     </row>
-    <row r="976" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
     </row>
-    <row r="977" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
     </row>
-    <row r="978" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
     </row>
-    <row r="979" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
     </row>
-    <row r="980" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
     </row>
-    <row r="981" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
     </row>
-    <row r="982" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
     </row>
-    <row r="983" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
     </row>
-    <row r="984" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
     </row>
-    <row r="985" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
     </row>
-    <row r="986" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
     </row>
-    <row r="987" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
     </row>
-    <row r="988" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
     </row>
-    <row r="989" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
     </row>
-    <row r="990" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
     </row>
-    <row r="991" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
     </row>
-    <row r="992" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
     </row>
-    <row r="993" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
     </row>
-    <row r="994" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
     </row>
-    <row r="995" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
     </row>
-    <row r="996" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
     </row>
-    <row r="997" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
     </row>
-    <row r="998" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
     </row>
-    <row r="999" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
     </row>
-    <row r="1000" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="3"/>
     </row>
-    <row r="1001" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1001" s="3"/>
       <c r="B1001" s="3"/>
       <c r="C1001" s="3"/>
     </row>
-    <row r="1002" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1002" s="3"/>
       <c r="B1002" s="3"/>
       <c r="C1002" s="3"/>
     </row>
-    <row r="1003" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1003" s="3"/>
       <c r="B1003" s="3"/>
       <c r="C1003" s="3"/>
     </row>
-    <row r="1004" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1004" s="3"/>
       <c r="B1004" s="3"/>
       <c r="C1004" s="3"/>
     </row>
-    <row r="1005" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1005" s="3"/>
       <c r="B1005" s="3"/>
       <c r="C1005" s="3"/>
     </row>
-    <row r="1006" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1006" s="3"/>
       <c r="B1006" s="3"/>
       <c r="C1006" s="3"/>
     </row>
-    <row r="1007" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1007" s="3"/>
       <c r="B1007" s="3"/>
       <c r="C1007" s="3"/>
     </row>
-    <row r="1008" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1008" s="3"/>
       <c r="B1008" s="3"/>
       <c r="C1008" s="3"/>
     </row>
-    <row r="1009" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1009" s="3"/>
       <c r="B1009" s="3"/>
       <c r="C1009" s="3"/>
     </row>
-    <row r="1010" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1010" s="3"/>
       <c r="B1010" s="3"/>
       <c r="C1010" s="3"/>
     </row>
-    <row r="1011" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1011" s="3"/>
       <c r="B1011" s="3"/>
       <c r="C1011" s="3"/>
     </row>
-    <row r="1012" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1012" s="3"/>
       <c r="B1012" s="3"/>
       <c r="C1012" s="3"/>
     </row>
-    <row r="1013" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1013" s="3"/>
       <c r="B1013" s="3"/>
       <c r="C1013" s="3"/>
     </row>
-    <row r="1014" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1014" s="3"/>
       <c r="B1014" s="3"/>
       <c r="C1014" s="3"/>
     </row>
-    <row r="1015" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1015" s="3"/>
       <c r="B1015" s="3"/>
       <c r="C1015" s="3"/>
     </row>
-    <row r="1016" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1016" s="3"/>
       <c r="B1016" s="3"/>
       <c r="C1016" s="3"/>
     </row>
-    <row r="1017" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1017" s="3"/>
       <c r="B1017" s="3"/>
       <c r="C1017" s="3"/>
     </row>
-    <row r="1018" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1018" s="3"/>
       <c r="B1018" s="3"/>
       <c r="C1018" s="3"/>
     </row>
-    <row r="1019" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1019" s="3"/>
       <c r="B1019" s="3"/>
       <c r="C1019" s="3"/>
     </row>
-    <row r="1020" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1020" s="3"/>
       <c r="B1020" s="3"/>
       <c r="C1020" s="3"/>
     </row>
-    <row r="1021" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1021" s="3"/>
       <c r="B1021" s="3"/>
       <c r="C1021" s="3"/>
     </row>
-    <row r="1022" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1022" s="3"/>
       <c r="B1022" s="3"/>
       <c r="C1022" s="3"/>
     </row>
-    <row r="1023" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1023" s="3"/>
       <c r="B1023" s="3"/>
       <c r="C1023" s="3"/>
     </row>
-    <row r="1024" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1024" s="3"/>
       <c r="B1024" s="3"/>
       <c r="C1024" s="3"/>
     </row>
-    <row r="1025" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1025" s="3"/>
       <c r="B1025" s="3"/>
       <c r="C1025" s="3"/>
     </row>
-    <row r="1026" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1026" s="3"/>
       <c r="B1026" s="3"/>
       <c r="C1026" s="3"/>
     </row>
-    <row r="1027" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1027" s="3"/>
       <c r="B1027" s="3"/>
       <c r="C1027" s="3"/>
     </row>
-    <row r="1028" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1028" s="3"/>
       <c r="B1028" s="3"/>
       <c r="C1028" s="3"/>
     </row>
-    <row r="1029" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1029" s="3"/>
       <c r="B1029" s="3"/>
       <c r="C1029" s="3"/>
     </row>
-    <row r="1030" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1030" s="3"/>
       <c r="B1030" s="3"/>
       <c r="C1030" s="3"/>
     </row>
-    <row r="1031" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1031" s="3"/>
       <c r="B1031" s="3"/>
       <c r="C1031" s="3"/>
     </row>
-    <row r="1032" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1032" s="3"/>
       <c r="B1032" s="3"/>
       <c r="C1032" s="3"/>
     </row>
-    <row r="1033" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1033" s="3"/>
       <c r="B1033" s="3"/>
       <c r="C1033" s="3"/>
     </row>
-    <row r="1034" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1034" s="3"/>
       <c r="B1034" s="3"/>
       <c r="C1034" s="3"/>
     </row>
-    <row r="1035" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1035" s="3"/>
       <c r="B1035" s="3"/>
       <c r="C1035" s="3"/>
     </row>
-    <row r="1036" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1036" s="3"/>
       <c r="B1036" s="3"/>
       <c r="C1036" s="3"/>
     </row>
-    <row r="1037" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1037" s="3"/>
       <c r="B1037" s="3"/>
       <c r="C1037" s="3"/>
     </row>
-    <row r="1038" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1038" s="3"/>
       <c r="B1038" s="3"/>
       <c r="C1038" s="3"/>
     </row>
-    <row r="1039" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1039" s="3"/>
       <c r="B1039" s="3"/>
       <c r="C1039" s="3"/>
     </row>
-    <row r="1040" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1040" s="3"/>
       <c r="B1040" s="3"/>
       <c r="C1040" s="3"/>

--- a/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
+++ b/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Websites\hssrgov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080A5299-CBD7-401F-91C0-943C783A1475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0640BF52-4A06-4FA8-974D-DFD8B9003F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CCB781DE-C1B4-4E71-9129-23ABA5B611FE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{CCB781DE-C1B4-4E71-9129-23ABA5B611FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Haer Langu" sheetId="1" r:id="rId1"/>
+    <sheet name="“讧中   车匕   灵   冮   十扌寸”方案" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="922">
   <si>
     <t>中文</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3053,6 +3054,373 @@
   </si>
   <si>
     <t>对象/对/对于</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字根</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>匕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧辅音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>氵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>土</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讠</t>
+  </si>
+  <si>
+    <t>石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冫</t>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧辅音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“          ”方案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ii</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ŭŭ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Śś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于每个音节，有如下规则：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅音的添加按照辅音字母的顺序，左侧辅音自左至右放在字根的左侧，右侧辅音自左至右放在字根的右侧。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空元音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>哈儿语音节定义：元音=A，辅音=B；则某单词内部结构：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="二简字楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="二简字楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BBBBAAAA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="二简字楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="二简字楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BBA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="二简字楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="二简字楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；哈儿语音节=若干辅音在前+若干元音在后，二者至少存在一个，按照此规则得出找不到元音的算作空元音。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：haer→hae+r（+空元音）→   +   →    。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语字母</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ww（同ŭ）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>礻</t>
+  </si>
+  <si>
+    <t>又</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：以句为单位，自左至右依次表示第一、二、三个单词间的空格，一句内空格超过12个时自左至右循环，但Haer Langu、Haer Lab中间的空格只能写成“灵”，不参与整句的空格循环。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3060,7 +3428,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3105,6 +3473,55 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="二简字楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="二简字楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="二简字楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="二简字楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="二简字楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="二简字楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="二简字楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3114,7 +3531,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -3174,6 +3591,217 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3183,7 +3811,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3211,6 +3839,66 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="标题" xfId="1" builtinId="15"/>
@@ -3227,6 +3915,254 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="组合 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E51FE1-30B2-45B0-AA3D-45EAED9A905E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4400550" y="127001"/>
+          <a:ext cx="2971800" cy="3505199"/>
+          <a:chOff x="4400550" y="127001"/>
+          <a:chExt cx="2971800" cy="3505199"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="图形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C27EEA6-1BC5-44A1-937F-7C56D02D2CF9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4400550" y="127001"/>
+            <a:ext cx="2470150" cy="1125174"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="9" name="组合 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A45628A5-1C08-47C7-9FD5-4F98F374D303}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6489700" y="3479800"/>
+            <a:ext cx="882650" cy="152400"/>
+            <a:chOff x="6032500" y="3479800"/>
+            <a:chExt cx="882650" cy="152400"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="图形 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57857EC0-A0DA-4CD8-B40C-1550963535B4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6032500" y="3479800"/>
+              <a:ext cx="152400" cy="152400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="图形 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C99EE04-5897-4507-9765-E041141CDE5F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6629400" y="3479800"/>
+              <a:ext cx="152400" cy="152400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="图形 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754EFD36-7103-4A13-9FA6-2023CE5B0F8E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch/>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6330950" y="3479800"/>
+              <a:ext cx="152400" cy="152400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="图形 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60889E2B-B2F3-4ED1-8E72-7049C473978C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch/>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6762750" y="3479800"/>
+              <a:ext cx="152400" cy="152400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3528,8 +4464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB56768-82A6-42FF-B107-45016A59F08E}">
   <dimension ref="A1:C1040"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213"/>
+    <sheetView topLeftCell="A399" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A405" sqref="A405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -10455,4 +11391,425 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA920F1-7AE5-43AC-B38A-BD1569BDAB60}">
+  <dimension ref="A1:R15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>868</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+    </row>
+    <row r="2" spans="1:18" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>870</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20" t="s">
+        <v>846</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>847</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>848</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>849</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>851</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>875</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>880</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>881</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>885</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>886</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>887</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>888</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>889</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>853</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>859</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>861</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>865</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>867</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20" t="s">
+        <v>893</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
+        <v>895</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>896</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>897</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>898</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>899</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>900</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>901</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>902</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>903</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>904</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>905</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>921</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>912</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>913</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>914</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18"/>
+      <c r="B15" s="16" t="s">
+        <v>918</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>920</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A11:R11"/>
+    <mergeCell ref="A12:R12"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:R10"/>
+    <mergeCell ref="A2:R2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
+++ b/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Websites\hssrgov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0640BF52-4A06-4FA8-974D-DFD8B9003F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05304D2-CB12-47D2-8B36-49726BCCADDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{CCB781DE-C1B4-4E71-9129-23ABA5B611FE}"/>
   </bookViews>
@@ -3147,10 +3147,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>“          ”方案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ʔ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3303,10 +3299,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>对于每个音节，有如下规则：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>辅音的添加按照辅音字母的顺序，左侧辅音自左至右放在字根的左侧，右侧辅音自左至右放在字根的右侧。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3315,8 +3307,54 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>例：haer→hae+r（+空元音）→   +   →    。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语字母</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ww（同ŭ）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>礻</t>
+  </si>
+  <si>
+    <t>又</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：以句为单位，自左至右依次表示第一、二、三个单词间的空格，一句内空格超过12个时自左至右循环，但形如Haer Langu、Haer Labotiy的专用名词（大写）中间的空格只能写成“灵”，且不参与整句的空格循环。人名中间的空格不写出，不参与整句的空格循环。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于每个单字，有如下规则：</t>
+  </si>
+  <si>
     <r>
-      <t>哈儿语音节定义：元音=A，辅音=B；则某单词内部结构：</t>
+      <t>哈儿语单字定义：元音=A，辅音=B；则某单词内部结构：</t>
     </r>
     <r>
       <rPr>
@@ -3331,7 +3369,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF00B0F0"/>
+        <color rgb="FFFFC000"/>
         <rFont val="二简字楷体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3341,7 +3379,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF7030A0"/>
+        <color rgb="FF92D050"/>
         <rFont val="二简字楷体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3351,7 +3389,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFC00000"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="二简字楷体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3361,7 +3399,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF92D050"/>
+        <color rgb="FF7030A0"/>
         <rFont val="二简字楷体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3376,51 +3414,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>；哈儿语音节=若干辅音在前+若干元音在后，二者至少存在一个，按照此规则得出找不到元音的算作空元音。</t>
+      <t>；哈儿语单字=若干辅音在前+若干元音在后，二者至少存在一个，按照此规则得出找不到元音的算作空元音。</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>例：haer→hae+r（+空元音）→   +   →    。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语字母</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jj</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ww（同ŭ）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>礻</t>
-  </si>
-  <si>
-    <t>又</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>巾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：以句为单位，自左至右依次表示第一、二、三个单词间的空格，一句内空格超过12个时自左至右循环，但Haer Langu、Haer Lab中间的空格只能写成“灵”，不参与整句的空格循环。</t>
+    <t>“           ”方案</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3428,7 +3427,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3489,6 +3488,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="二简字楷体"/>
       <family val="3"/>
@@ -3496,7 +3502,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FFFFC000"/>
       <name val="二简字楷体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3510,7 +3516,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
+      <color rgb="FF00B0F0"/>
       <name val="二简字楷体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3811,7 +3817,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3827,6 +3833,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3839,65 +3893,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3922,22 +3937,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
+      <xdr:colOff>236479</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:rowOff>80056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>13736</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="组合 10">
+        <xdr:cNvPr id="2" name="组合 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E51FE1-30B2-45B0-AA3D-45EAED9A905E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{619C45A4-93B3-485C-8D85-41897EA286FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3945,10 +3960,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4400550" y="127001"/>
-          <a:ext cx="2971800" cy="3505199"/>
-          <a:chOff x="4400550" y="127001"/>
-          <a:chExt cx="2971800" cy="3505199"/>
+          <a:off x="4198879" y="80056"/>
+          <a:ext cx="3135371" cy="3908780"/>
+          <a:chOff x="4198879" y="80056"/>
+          <a:chExt cx="3135371" cy="3908780"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -3975,14 +3990,13 @@
               </a:ext>
             </a:extLst>
           </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
+          <a:srcRect/>
+          <a:stretch/>
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4400550" y="127001"/>
-            <a:ext cx="2470150" cy="1125174"/>
+            <a:off x="4198879" y="80056"/>
+            <a:ext cx="2723864" cy="1240744"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3994,7 +4008,7 @@
           <xdr:cNvPr id="9" name="组合 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A45628A5-1C08-47C7-9FD5-4F98F374D303}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62CBAAB9-E45B-48D6-8B1F-2927A479E048}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4002,10 +4016,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="6489700" y="3479800"/>
-            <a:ext cx="882650" cy="152400"/>
-            <a:chOff x="6032500" y="3479800"/>
-            <a:chExt cx="882650" cy="152400"/>
+            <a:off x="6394450" y="3764998"/>
+            <a:ext cx="939800" cy="223838"/>
+            <a:chOff x="6394450" y="3764998"/>
+            <a:chExt cx="939800" cy="223838"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
@@ -4032,51 +4046,12 @@
                 </a:ext>
               </a:extLst>
             </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
+            <a:srcRect/>
+            <a:stretch/>
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6032500" y="3479800"/>
-              <a:ext cx="152400" cy="152400"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="6" name="图形 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C99EE04-5897-4507-9765-E041141CDE5F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6629400" y="3479800"/>
+              <a:off x="6394450" y="3790398"/>
               <a:ext cx="152400" cy="152400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4113,8 +4088,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6330950" y="3479800"/>
-              <a:ext cx="152400" cy="152400"/>
+              <a:off x="6724650" y="3783496"/>
+              <a:ext cx="152400" cy="166204"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4123,10 +4098,10 @@
         </xdr:pic>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="8" name="图形 7">
+            <xdr:cNvPr id="11" name="图形 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60889E2B-B2F3-4ED1-8E72-7049C473978C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{371F91A8-CF4F-4151-8F81-471C0EA8F7F6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4135,13 +4110,13 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                 </a:ext>
                 <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
                 </a:ext>
               </a:extLst>
             </a:blip>
@@ -4150,8 +4125,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6762750" y="3479800"/>
-              <a:ext cx="152400" cy="152400"/>
+              <a:off x="7035800" y="3764998"/>
+              <a:ext cx="298450" cy="223838"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4477,11 +4452,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="21" t="s">
         <v>667</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -4658,7 +4633,7 @@
       <c r="B20" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="22" t="s">
         <v>685</v>
       </c>
     </row>
@@ -4669,7 +4644,7 @@
       <c r="B21" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="23"/>
     </row>
     <row r="22" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
@@ -4678,7 +4653,7 @@
       <c r="B22" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
@@ -4687,7 +4662,7 @@
       <c r="B23" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="23"/>
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -4696,7 +4671,7 @@
       <c r="B24" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
@@ -4705,7 +4680,7 @@
       <c r="B25" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="23"/>
     </row>
     <row r="26" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
@@ -4714,7 +4689,7 @@
       <c r="B26" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
@@ -4723,7 +4698,7 @@
       <c r="B27" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="23"/>
     </row>
     <row r="28" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
@@ -4732,7 +4707,7 @@
       <c r="B28" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="23"/>
     </row>
     <row r="29" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
@@ -4741,7 +4716,7 @@
       <c r="B29" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
@@ -4750,7 +4725,7 @@
       <c r="B30" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="23"/>
     </row>
     <row r="31" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
@@ -4759,7 +4734,7 @@
       <c r="B31" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="23"/>
     </row>
     <row r="32" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
@@ -4768,7 +4743,7 @@
       <c r="B32" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
@@ -4777,7 +4752,7 @@
       <c r="B33" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
@@ -4786,7 +4761,7 @@
       <c r="B34" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="23"/>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
@@ -4795,7 +4770,7 @@
       <c r="B35" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="C35" s="8"/>
+      <c r="C35" s="24"/>
     </row>
     <row r="36" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
@@ -11398,209 +11373,209 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:R10"/>
+      <selection activeCell="A13" sqref="A13:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="5" customWidth="1"/>
+    <col min="2" max="4" width="8.6640625" style="5"/>
+    <col min="5" max="5" width="8.6640625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>868</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
+      <c r="A1" s="25" t="s">
+        <v>921</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
     </row>
     <row r="2" spans="1:18" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="29" t="s">
+        <v>919</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>845</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>907</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>845</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>870</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>871</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>872</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>873</v>
-      </c>
-      <c r="F3" s="11" t="s">
+    </row>
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="27"/>
+      <c r="B4" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>849</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>851</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20" t="s">
-        <v>846</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>847</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>848</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>849</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>851</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="7" t="s">
         <v>875</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>876</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="7" t="s">
         <v>882</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="L5" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="M5" s="7" t="s">
         <v>885</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="N5" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="O5" s="7" t="s">
         <v>887</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="P5" s="7" t="s">
         <v>888</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="Q5" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="R5" s="8" t="s">
         <v>890</v>
       </c>
-      <c r="R5" s="12" t="s">
-        <v>891</v>
-      </c>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="9" t="s">
         <v>852</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="10" t="s">
         <v>853</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>854</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>855</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>856</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>857</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>858</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>859</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>860</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="12" t="s">
         <v>97</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>861</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="12" t="s">
         <v>862</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="12" t="s">
         <v>863</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="12" t="s">
         <v>864</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="12" t="s">
         <v>865</v>
       </c>
       <c r="R6" s="14" t="s">
@@ -11608,69 +11583,69 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="26" t="s">
         <v>867</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>869</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="27"/>
+      <c r="B8" s="9" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20" t="s">
+      <c r="C8" s="11" t="s">
         <v>893</v>
       </c>
-      <c r="C8" s="22" t="s">
+    </row>
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
+      <c r="B9" s="16" t="s">
         <v>895</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="C9" s="17" t="s">
         <v>896</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="D9" s="17" t="s">
         <v>897</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="E9" s="18" t="s">
         <v>898</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="F9" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>899</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="24" t="s">
+      <c r="H9" s="17" t="s">
         <v>900</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="I9" s="17" t="s">
         <v>901</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="J9" s="17" t="s">
         <v>902</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="K9" s="17" t="s">
         <v>903</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="L9" s="17" t="s">
         <v>904</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="M9" s="19" t="s">
         <v>905</v>
       </c>
-      <c r="M9" s="25" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:18" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -11691,112 +11666,111 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="30" t="s">
+        <v>906</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>920</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="30" t="s">
         <v>908</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+    </row>
+    <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>909</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>910</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>911</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="D14" s="7" t="s">
         <v>912</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="E14" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>913</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>914</v>
-      </c>
-      <c r="D14" s="11" t="s">
+    </row>
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="31"/>
+      <c r="B15" s="20" t="s">
         <v>915</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="C15" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>917</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
-      <c r="B15" s="16" t="s">
-        <v>918</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>864</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>920</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A11:R11"/>
     <mergeCell ref="A12:R12"/>
     <mergeCell ref="A13:R13"/>
     <mergeCell ref="A14:A15"/>
@@ -11806,10 +11780,11 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A10:R10"/>
     <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A11:R11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
+++ b/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Websites\hssrgov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05304D2-CB12-47D2-8B36-49726BCCADDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48FB028-72E1-41B9-8C9A-9731BAF590C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{CCB781DE-C1B4-4E71-9129-23ABA5B611FE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CCB781DE-C1B4-4E71-9129-23ABA5B611FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Haer Langu" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="997">
   <si>
     <t>中文</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -343,10 +343,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>中国</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>猪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -855,10 +851,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>正版/官方版/正式版</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>软件/应用/程序（仅用于信息技术方面）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -871,10 +863,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>盗版/破解版/绿化版/修改版/测试版/修改/篡改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>杀/杀死/迫害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1067,13 +1055,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>上传</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载</t>
-  </si>
-  <si>
     <t>链接（计算机方面）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1222,10 +1203,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>分部/支部/分支/部门/部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>部长</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1465,9 +1442,6 @@
     <t>ned</t>
   </si>
   <si>
-    <t>正（n边形）</t>
-  </si>
-  <si>
     <t>nehnen</t>
   </si>
   <si>
@@ -1624,9 +1598,6 @@
     <t>osd</t>
   </si>
   <si>
-    <t>sekhi</t>
-  </si>
-  <si>
     <t>aleens</t>
   </si>
   <si>
@@ -2167,9 +2138,6 @@
     <t>zirov</t>
   </si>
   <si>
-    <t>n边形：[数字]z</t>
-  </si>
-  <si>
     <t>gpoz</t>
   </si>
   <si>
@@ -2245,9 +2213,6 @@
     <t>pisroz</t>
   </si>
   <si>
-    <t>zagruzova</t>
-  </si>
-  <si>
     <t>nagruzova</t>
   </si>
   <si>
@@ -2630,10 +2595,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>强大/强制/强硬/强势/强力/强权</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>弱小/被强制/软弱/妥协/委曲（坏影响的）/被强权压制/过分依赖</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2669,10 +2630,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>挫折/打击/困难/教训（n.）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>可怕/恐怖/惊吓/吓人/危险/危机</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2729,10 +2686,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>研发/研制/开发/发明/创造/发现/认识到</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>rezig</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2977,10 +2930,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>用/使用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>来/以达到</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2994,10 +2943,6 @@
   </si>
   <si>
     <t>lekkzorova</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>现象/状况/表现/外观/看上去</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3422,12 +3367,467 @@
     <t>“           ”方案</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blazon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌曲/颂歌/赞美诗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徽章/纹章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国旗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ufekkeflag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国徽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ukekkeblazon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国歌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ufekkekant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zagruzova</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品/艺术品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prozveden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用/使用/采用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提季提格勒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tiśitigrad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>internaci</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际歌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internaci Kant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sekhi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旗帜/旗面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正版/官方版/正式版/正式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗版/破解版/绿化版/修改版/测试版/修改/篡改/非正式/散漫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>veda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ʔ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>届时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>klotaś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强大/强制/强硬/强势/强力/强权/必须</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换/替换/换/更替/交替/交接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anstataŭig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证/确定/确保</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>garantŭ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附上/附带/附赠/又及/附加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shtandart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片/图形/图案/图样</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bild</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>矢量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vektor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准/最佳参考/格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国/中华</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉化：Kitay vedaś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedaś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlotaś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分部/支部/分支/部门/部/区/分区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>各/分别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ś</t>
+  </si>
+  <si>
+    <t>提交/递交/赠与/反馈/赠送/上传/上报</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载/接收</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ŭś</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ʔ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现象/状况/表现/外观/看上去/情况/状态/情形</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺术/美术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prozveś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>素养/素质/文明程度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>legopo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ʔ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挫折/打击/困难/教训（n.）/教育/培养/教授/教学/施教</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发/研制/开发/发明/创造/发现/认识到/设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长宽比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pemz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>premzul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ʔ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ʔ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>alaka</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ʔ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n边形</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n角星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>kś</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ʔ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正（n边形/n角星）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五角星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六角星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nyakśʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rokśʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n边形：[数字]z；n角星：[数字]kś</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ʔ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3527,6 +3927,27 @@
       <name val="二简字楷体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Mincho"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="MS Mincho"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3817,7 +4238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3893,13 +4314,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3908,10 +4335,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4437,10 +4861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB56768-82A6-42FF-B107-45016A59F08E}">
-  <dimension ref="A1:C1040"/>
+  <dimension ref="A1:C1050"/>
   <sheetViews>
-    <sheetView topLeftCell="A399" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405"/>
+    <sheetView tabSelected="1" topLeftCell="A435" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A441" sqref="A441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -4453,7 +4877,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -4474,10 +4898,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4485,7 +4909,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -4494,7 +4918,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -4503,7 +4927,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -4512,7 +4936,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -4521,25 +4945,25 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -4548,7 +4972,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -4557,7 +4981,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -4566,7 +4990,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -4575,10 +4999,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4586,7 +5010,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -4595,7 +5019,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -4604,7 +5028,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -4613,7 +5037,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -4622,7 +5046,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -4631,10 +5055,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4642,7 +5066,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="C21" s="23"/>
     </row>
@@ -4651,7 +5075,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="C22" s="23"/>
     </row>
@@ -4660,7 +5084,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="C23" s="23"/>
     </row>
@@ -4669,7 +5093,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="C24" s="23"/>
     </row>
@@ -4678,7 +5102,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="C25" s="23"/>
     </row>
@@ -4687,7 +5111,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="C26" s="23"/>
     </row>
@@ -4696,7 +5120,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="C27" s="23"/>
     </row>
@@ -4705,7 +5129,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="C28" s="23"/>
     </row>
@@ -4714,7 +5138,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="C29" s="23"/>
     </row>
@@ -4723,7 +5147,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="C30" s="23"/>
     </row>
@@ -4732,7 +5156,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="C31" s="23"/>
     </row>
@@ -4741,7 +5165,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C32" s="23"/>
     </row>
@@ -4750,7 +5174,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C33" s="23"/>
     </row>
@@ -4759,7 +5183,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C34" s="23"/>
     </row>
@@ -4768,19 +5192,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="C35" s="24"/>
     </row>
     <row r="36" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4788,36 +5212,36 @@
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>738</v>
+        <v>936</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C40" s="3"/>
     </row>
@@ -4826,7 +5250,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C41" s="3"/>
     </row>
@@ -4835,7 +5259,7 @@
         <v>36</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C42" s="3"/>
     </row>
@@ -4844,7 +5268,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="C43" s="3"/>
     </row>
@@ -4853,7 +5277,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="C44" s="3"/>
     </row>
@@ -4862,7 +5286,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C45" s="3"/>
     </row>
@@ -4871,7 +5295,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C46" s="3"/>
     </row>
@@ -4880,19 +5304,19 @@
         <v>41</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4900,7 +5324,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C49" s="3"/>
     </row>
@@ -4909,16 +5333,16 @@
         <v>43</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C51" s="3"/>
     </row>
@@ -4927,7 +5351,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C52" s="3"/>
     </row>
@@ -4936,7 +5360,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C53" s="3"/>
     </row>
@@ -4945,16 +5369,16 @@
         <v>46</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C55" s="3"/>
     </row>
@@ -4963,7 +5387,7 @@
         <v>47</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C56" s="3"/>
     </row>
@@ -4972,7 +5396,7 @@
         <v>48</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C57" s="3"/>
     </row>
@@ -4981,10 +5405,10 @@
         <v>49</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4992,16 +5416,16 @@
         <v>50</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C60" s="3"/>
     </row>
@@ -5010,7 +5434,7 @@
         <v>51</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C61" s="3"/>
     </row>
@@ -5019,7 +5443,7 @@
         <v>52</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C62" s="3"/>
     </row>
@@ -5028,19 +5452,19 @@
         <v>53</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5048,7 +5472,7 @@
         <v>54</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C65" s="3"/>
     </row>
@@ -5057,10 +5481,10 @@
         <v>55</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5068,7 +5492,7 @@
         <v>56</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="C67" s="3"/>
     </row>
@@ -5077,16 +5501,16 @@
         <v>57</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C69" s="3"/>
     </row>
@@ -5095,7 +5519,7 @@
         <v>58</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C70" s="3"/>
     </row>
@@ -5104,7 +5528,7 @@
         <v>59</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C71" s="3"/>
     </row>
@@ -5113,7 +5537,7 @@
         <v>60</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C72" s="3"/>
     </row>
@@ -5122,7 +5546,7 @@
         <v>61</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C73" s="3"/>
     </row>
@@ -5131,7 +5555,7 @@
         <v>62</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C74" s="3"/>
     </row>
@@ -5140,7 +5564,7 @@
         <v>63</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C75" s="3"/>
     </row>
@@ -5149,7 +5573,7 @@
         <v>64</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="C76" s="3"/>
     </row>
@@ -5158,7 +5582,7 @@
         <v>65</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C77" s="3"/>
     </row>
@@ -5167,7 +5591,7 @@
         <v>66</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C78" s="3"/>
     </row>
@@ -5176,43 +5600,43 @@
         <v>67</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C79" s="3"/>
     </row>
     <row r="80" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C81" s="3"/>
     </row>
     <row r="82" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="C82" s="3"/>
     </row>
     <row r="83" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="C83" s="3"/>
     </row>
@@ -5221,7 +5645,7 @@
         <v>68</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C84" s="3"/>
     </row>
@@ -5230,7 +5654,7 @@
         <v>69</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C85" s="3"/>
     </row>
@@ -5239,7 +5663,7 @@
         <v>70</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C86" s="3"/>
     </row>
@@ -5248,10 +5672,10 @@
         <v>71</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5259,10 +5683,10 @@
         <v>72</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5270,27 +5694,27 @@
         <v>73</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C89" s="3"/>
     </row>
     <row r="90" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C91" s="3"/>
     </row>
@@ -5299,7 +5723,7 @@
         <v>74</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C92" s="3"/>
     </row>
@@ -5308,7 +5732,7 @@
         <v>75</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C93" s="3"/>
     </row>
@@ -5317,7 +5741,7 @@
         <v>76</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C94" s="3"/>
     </row>
@@ -5326,7 +5750,7 @@
         <v>77</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C95" s="3"/>
     </row>
@@ -5335,10 +5759,10 @@
         <v>78</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="97" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5346,3025 +5770,3177 @@
         <v>79</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="C97" s="3"/>
     </row>
     <row r="98" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>80</v>
+        <v>949</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="C98" s="3"/>
+        <v>687</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="99" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C99" s="3"/>
     </row>
     <row r="100" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C100" s="3"/>
     </row>
     <row r="101" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C101" s="3"/>
     </row>
     <row r="102" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C102" s="3"/>
     </row>
     <row r="103" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C103" s="3"/>
     </row>
     <row r="104" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C104" s="3"/>
     </row>
     <row r="105" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C105" s="3"/>
     </row>
     <row r="106" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="107" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C107" s="3"/>
     </row>
     <row r="108" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C108" s="3"/>
     </row>
     <row r="109" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C109" s="3"/>
     </row>
     <row r="110" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C110" s="3"/>
     </row>
     <row r="111" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="112" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="113" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C113" s="3"/>
     </row>
     <row r="114" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C114" s="3"/>
     </row>
     <row r="115" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C115" s="3"/>
     </row>
     <row r="116" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="C116" s="3"/>
     </row>
     <row r="117" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C117" s="3"/>
     </row>
     <row r="118" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C118" s="3"/>
     </row>
     <row r="119" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C119" s="3"/>
     </row>
     <row r="120" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>99</v>
+        <v>977</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>350</v>
+        <v>981</v>
       </c>
       <c r="C120" s="3"/>
     </row>
     <row r="121" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>100</v>
+        <v>978</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>477</v>
+        <v>982</v>
       </c>
       <c r="C121" s="3"/>
     </row>
     <row r="122" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>101</v>
+        <v>979</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>351</v>
+        <v>984</v>
       </c>
       <c r="C122" s="3"/>
     </row>
     <row r="123" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>168</v>
+        <v>980</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>659</v>
+        <v>983</v>
       </c>
       <c r="C123" s="3"/>
     </row>
     <row r="124" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>245</v>
+        <v>98</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>787</v>
+        <v>344</v>
       </c>
       <c r="C124" s="3"/>
     </row>
     <row r="125" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>575</v>
+        <v>469</v>
       </c>
       <c r="C125" s="3"/>
     </row>
     <row r="126" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>576</v>
+        <v>345</v>
       </c>
       <c r="C126" s="3"/>
     </row>
     <row r="127" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>577</v>
+        <v>649</v>
       </c>
       <c r="C127" s="3"/>
     </row>
     <row r="128" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>578</v>
+        <v>774</v>
       </c>
       <c r="C128" s="3"/>
     </row>
     <row r="129" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>343</v>
+        <v>567</v>
       </c>
       <c r="C129" s="3"/>
     </row>
     <row r="130" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>367</v>
+        <v>568</v>
       </c>
       <c r="C130" s="3"/>
     </row>
     <row r="131" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>660</v>
+        <v>569</v>
       </c>
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>727</v>
+        <v>104</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>478</v>
+        <v>570</v>
       </c>
       <c r="C132" s="3"/>
     </row>
     <row r="133" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>479</v>
+        <v>337</v>
       </c>
       <c r="C133" s="3"/>
     </row>
     <row r="134" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>108</v>
+        <v>223</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>480</v>
+        <v>361</v>
       </c>
       <c r="C134" s="3"/>
     </row>
     <row r="135" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>842</v>
+        <v>220</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>481</v>
+        <v>650</v>
       </c>
       <c r="C135" s="3"/>
     </row>
     <row r="136" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>843</v>
+        <v>717</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>805</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C136" s="3"/>
     </row>
     <row r="137" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>295</v>
+        <v>106</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C137" s="3"/>
     </row>
     <row r="138" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>520</v>
+        <v>472</v>
       </c>
       <c r="C138" s="3"/>
     </row>
     <row r="139" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>110</v>
+        <v>827</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="C139" s="3"/>
     </row>
     <row r="140" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>715</v>
+        <v>828</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="C140" s="3"/>
+        <v>474</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="141" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>111</v>
+        <v>290</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>368</v>
+        <v>475</v>
       </c>
       <c r="C141" s="3"/>
     </row>
     <row r="142" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>369</v>
+        <v>512</v>
       </c>
       <c r="C142" s="3"/>
     </row>
     <row r="143" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>839</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="C143" s="3"/>
     </row>
     <row r="144" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>232</v>
+        <v>705</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>451</v>
+        <v>706</v>
       </c>
       <c r="C144" s="3"/>
     </row>
     <row r="145" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="C145" s="3"/>
     </row>
     <row r="146" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>832</v>
+        <v>111</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="C146" s="3"/>
     </row>
     <row r="147" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="C147" s="3"/>
+        <v>823</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="148" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>115</v>
+        <v>229</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>579</v>
+        <v>443</v>
       </c>
       <c r="C148" s="3"/>
     </row>
     <row r="149" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>116</v>
+        <v>230</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>521</v>
+        <v>391</v>
       </c>
       <c r="C149" s="3"/>
     </row>
     <row r="150" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>237</v>
+        <v>817</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>580</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="C150" s="3"/>
     </row>
     <row r="151" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="C151" s="3"/>
     </row>
     <row r="152" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>455</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="C152" s="3"/>
     </row>
     <row r="153" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
       <c r="C153" s="3"/>
     </row>
     <row r="154" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>120</v>
+        <v>234</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C154" s="3"/>
+        <v>444</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="155" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>375</v>
+        <v>445</v>
       </c>
       <c r="C155" s="3"/>
     </row>
     <row r="156" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C156" s="3"/>
+        <v>446</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="157" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="C157" s="3"/>
     </row>
     <row r="158" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C158" s="3"/>
     </row>
     <row r="159" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="C159" s="3"/>
     </row>
     <row r="160" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>125</v>
+        <v>260</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>691</v>
+        <v>369</v>
       </c>
       <c r="C160" s="3"/>
     </row>
     <row r="161" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>689</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="C161" s="3"/>
     </row>
     <row r="162" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>710</v>
+        <v>393</v>
       </c>
       <c r="C162" s="3"/>
     </row>
     <row r="163" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>698</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="C163" s="3"/>
     </row>
     <row r="164" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>522</v>
+        <v>681</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row r="165" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>254</v>
+        <v>198</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="C165" s="3"/>
+        <v>476</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="166" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>415</v>
+        <v>700</v>
       </c>
       <c r="C166" s="3"/>
     </row>
     <row r="167" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="C167" s="3"/>
+        <v>477</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="168" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>417</v>
+        <v>514</v>
       </c>
       <c r="C168" s="3"/>
     </row>
     <row r="169" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C169" s="3"/>
     </row>
     <row r="170" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>243</v>
+        <v>128</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>486</v>
+        <v>408</v>
       </c>
       <c r="C170" s="3"/>
     </row>
     <row r="171" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>523</v>
+        <v>409</v>
       </c>
       <c r="C171" s="3"/>
     </row>
     <row r="172" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>711</v>
+        <v>410</v>
       </c>
       <c r="C172" s="3"/>
     </row>
     <row r="173" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>581</v>
+        <v>411</v>
       </c>
       <c r="C173" s="3"/>
     </row>
     <row r="174" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>582</v>
+        <v>478</v>
       </c>
       <c r="C174" s="3"/>
     </row>
     <row r="175" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>583</v>
+        <v>515</v>
       </c>
       <c r="C175" s="3"/>
     </row>
     <row r="176" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>294</v>
+        <v>133</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>359</v>
+        <v>701</v>
       </c>
       <c r="C176" s="3"/>
     </row>
     <row r="177" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>333</v>
+        <v>134</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="C177" s="3"/>
     </row>
     <row r="178" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>524</v>
+        <v>135</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>525</v>
+        <v>574</v>
       </c>
       <c r="C178" s="3"/>
     </row>
     <row r="179" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>457</v>
+        <v>575</v>
       </c>
       <c r="C179" s="3"/>
     </row>
     <row r="180" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>139</v>
+        <v>289</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>458</v>
+        <v>353</v>
       </c>
       <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>140</v>
+        <v>327</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>402</v>
+        <v>576</v>
       </c>
       <c r="C181" s="3"/>
     </row>
     <row r="182" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>141</v>
+        <v>516</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>403</v>
+        <v>517</v>
       </c>
       <c r="C182" s="3"/>
     </row>
     <row r="183" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>526</v>
+        <v>449</v>
       </c>
       <c r="C183" s="3"/>
     </row>
     <row r="184" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>338</v>
+        <v>450</v>
       </c>
       <c r="C184" s="3"/>
     </row>
     <row r="185" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>459</v>
+        <v>395</v>
       </c>
       <c r="C185" s="3"/>
     </row>
     <row r="186" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="C186" s="3"/>
     </row>
     <row r="187" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="C187" s="3"/>
     </row>
     <row r="188" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>274</v>
+        <v>142</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>461</v>
+        <v>332</v>
       </c>
       <c r="C188" s="3"/>
     </row>
     <row r="189" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="C189" s="3"/>
     </row>
     <row r="190" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>419</v>
+        <v>373</v>
       </c>
       <c r="C190" s="3"/>
     </row>
     <row r="191" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>229</v>
+        <v>146</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>840</v>
+        <v>452</v>
       </c>
       <c r="C191" s="3"/>
     </row>
     <row r="192" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>528</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C192" s="3"/>
     </row>
     <row r="193" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>529</v>
+        <v>454</v>
       </c>
       <c r="C193" s="3"/>
     </row>
     <row r="194" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>798</v>
+        <v>148</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>585</v>
+        <v>412</v>
       </c>
       <c r="C194" s="3"/>
     </row>
     <row r="195" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>601</v>
+        <v>825</v>
       </c>
       <c r="C195" s="3"/>
     </row>
     <row r="196" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>152</v>
+        <v>239</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="C196" s="3"/>
+        <v>519</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="197" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>603</v>
+        <v>521</v>
       </c>
       <c r="C197" s="3"/>
     </row>
     <row r="198" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>154</v>
+        <v>785</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>530</v>
+        <v>577</v>
       </c>
       <c r="C198" s="3"/>
     </row>
     <row r="199" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>344</v>
+        <v>593</v>
       </c>
       <c r="C199" s="3"/>
     </row>
     <row r="200" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>339</v>
+        <v>594</v>
       </c>
       <c r="C200" s="3"/>
     </row>
     <row r="201" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>487</v>
+        <v>595</v>
       </c>
       <c r="C201" s="3"/>
     </row>
     <row r="202" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>340</v>
+        <v>522</v>
       </c>
       <c r="C202" s="3"/>
     </row>
     <row r="203" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>694</v>
+        <v>338</v>
       </c>
       <c r="C203" s="3"/>
     </row>
     <row r="204" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>692</v>
+        <v>333</v>
       </c>
       <c r="C204" s="3"/>
     </row>
     <row r="205" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>604</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="C205" s="3"/>
     </row>
     <row r="206" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>370</v>
+        <v>157</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>695</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="C206" s="3"/>
     </row>
     <row r="207" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>696</v>
+        <v>684</v>
+      </c>
+      <c r="C207" s="22" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="208" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="C208" s="3"/>
+        <v>682</v>
+      </c>
+      <c r="C208" s="23"/>
     </row>
     <row r="209" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="C209" s="3"/>
+        <v>689</v>
+      </c>
+      <c r="C209" s="23"/>
     </row>
     <row r="210" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>165</v>
+        <v>992</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C210" s="3"/>
+        <v>994</v>
+      </c>
+      <c r="C210" s="23"/>
     </row>
     <row r="211" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>166</v>
+        <v>993</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C211" s="3"/>
+        <v>995</v>
+      </c>
+      <c r="C211" s="23"/>
     </row>
     <row r="212" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>167</v>
+        <v>987</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C212" s="3"/>
+        <v>988</v>
+      </c>
+      <c r="C212" s="23"/>
     </row>
     <row r="213" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>844</v>
+        <v>989</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="C213" s="3"/>
+        <v>990</v>
+      </c>
+      <c r="C213" s="24"/>
     </row>
     <row r="214" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>169</v>
+        <v>991</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="C214" s="3"/>
+        <v>455</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="215" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="C215" s="3"/>
+        <v>578</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="216" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>788</v>
+        <v>162</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>360</v>
+        <v>579</v>
       </c>
       <c r="C216" s="3"/>
     </row>
     <row r="217" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>172</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="C217" s="3"/>
     </row>
     <row r="218" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>734</v>
+        <v>364</v>
       </c>
       <c r="C218" s="3"/>
     </row>
     <row r="219" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>532</v>
+        <v>469</v>
       </c>
       <c r="C219" s="3"/>
     </row>
     <row r="220" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>533</v>
+        <v>470</v>
       </c>
       <c r="C220" s="3"/>
     </row>
     <row r="221" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>176</v>
+        <v>829</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>605</v>
+        <v>365</v>
       </c>
       <c r="C221" s="3"/>
     </row>
     <row r="222" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>606</v>
+        <v>523</v>
       </c>
       <c r="C222" s="3"/>
     </row>
     <row r="223" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>273</v>
+        <v>169</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>607</v>
+        <v>826</v>
       </c>
       <c r="C223" s="3"/>
     </row>
     <row r="224" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>178</v>
+        <v>775</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>489</v>
+        <v>354</v>
       </c>
       <c r="C224" s="3"/>
     </row>
     <row r="225" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="C225" s="3"/>
+        <v>480</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="226" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>491</v>
+        <v>724</v>
       </c>
       <c r="C226" s="3"/>
     </row>
     <row r="227" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>492</v>
+        <v>524</v>
       </c>
       <c r="C227" s="3"/>
     </row>
     <row r="228" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>494</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="C228" s="3"/>
     </row>
     <row r="229" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>495</v>
+        <v>596</v>
       </c>
       <c r="C229" s="3"/>
     </row>
     <row r="230" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>496</v>
+        <v>597</v>
       </c>
       <c r="C230" s="3"/>
     </row>
     <row r="231" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="C231" s="3"/>
     </row>
     <row r="232" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>609</v>
+        <v>481</v>
       </c>
       <c r="C232" s="3"/>
     </row>
     <row r="233" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>610</v>
+        <v>482</v>
       </c>
       <c r="C233" s="3"/>
     </row>
     <row r="234" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>712</v>
+        <v>179</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>534</v>
+        <v>483</v>
       </c>
       <c r="C234" s="3"/>
     </row>
     <row r="235" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>611</v>
+        <v>484</v>
       </c>
       <c r="C235" s="3"/>
     </row>
     <row r="236" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="C236" s="3"/>
+        <v>485</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="237" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>405</v>
+        <v>487</v>
       </c>
       <c r="C237" s="3"/>
     </row>
     <row r="238" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>790</v>
+        <v>182</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>661</v>
+        <v>488</v>
       </c>
       <c r="C238" s="3"/>
     </row>
     <row r="239" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>789</v>
+        <v>183</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>791</v>
+        <v>599</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row r="240" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>535</v>
+        <v>600</v>
       </c>
       <c r="C240" s="3"/>
     </row>
     <row r="241" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>782</v>
+        <v>185</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>536</v>
+        <v>601</v>
       </c>
       <c r="C241" s="3"/>
     </row>
     <row r="242" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>191</v>
+        <v>702</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="C242" s="3"/>
     </row>
     <row r="243" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>498</v>
+        <v>602</v>
       </c>
       <c r="C243" s="3"/>
     </row>
     <row r="244" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>335</v>
+        <v>397</v>
       </c>
       <c r="C244" s="3"/>
     </row>
     <row r="245" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>612</v>
+        <v>398</v>
       </c>
       <c r="C245" s="3"/>
     </row>
     <row r="246" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>195</v>
+        <v>777</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>352</v>
+        <v>651</v>
       </c>
       <c r="C246" s="3"/>
     </row>
     <row r="247" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>234</v>
+        <v>776</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>465</v>
+        <v>778</v>
       </c>
       <c r="C247" s="3"/>
     </row>
     <row r="248" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>714</v>
+        <v>189</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>341</v>
+        <v>527</v>
       </c>
       <c r="C248" s="3"/>
     </row>
     <row r="249" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>744</v>
+        <v>769</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>745</v>
+        <v>528</v>
       </c>
       <c r="C249" s="3"/>
     </row>
     <row r="250" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>825</v>
+        <v>190</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>827</v>
+        <v>489</v>
       </c>
       <c r="C250" s="3"/>
     </row>
     <row r="251" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>826</v>
+        <v>191</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>828</v>
+        <v>490</v>
       </c>
       <c r="C251" s="3"/>
     </row>
     <row r="252" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>406</v>
+        <v>329</v>
       </c>
       <c r="C252" s="3"/>
     </row>
     <row r="253" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>662</v>
+        <v>603</v>
       </c>
       <c r="C253" s="3"/>
     </row>
     <row r="254" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>588</v>
+        <v>346</v>
       </c>
       <c r="C254" s="3"/>
     </row>
     <row r="255" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>613</v>
+        <v>457</v>
       </c>
       <c r="C255" s="3"/>
     </row>
     <row r="256" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>198</v>
+        <v>704</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>614</v>
+        <v>335</v>
       </c>
       <c r="C256" s="3"/>
     </row>
     <row r="257" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>321</v>
+        <v>733</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>615</v>
+        <v>734</v>
       </c>
       <c r="C257" s="3"/>
     </row>
     <row r="258" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
-        <v>220</v>
+        <v>921</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>616</v>
+        <v>813</v>
       </c>
       <c r="C258" s="3"/>
     </row>
     <row r="259" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>300</v>
+        <v>812</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>466</v>
+        <v>814</v>
       </c>
       <c r="C259" s="3"/>
     </row>
     <row r="260" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>617</v>
+        <v>399</v>
       </c>
       <c r="C260" s="3"/>
     </row>
     <row r="261" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>334</v>
+        <v>218</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>537</v>
+        <v>652</v>
       </c>
       <c r="C261" s="3"/>
     </row>
     <row r="262" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>768</v>
+        <v>195</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>467</v>
+        <v>580</v>
       </c>
       <c r="C262" s="3"/>
     </row>
     <row r="263" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>353</v>
+        <v>604</v>
       </c>
       <c r="C263" s="3"/>
     </row>
     <row r="264" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>323</v>
+        <v>197</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>499</v>
+        <v>605</v>
       </c>
       <c r="C264" s="3"/>
     </row>
     <row r="265" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>228</v>
+        <v>315</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>538</v>
+        <v>606</v>
       </c>
       <c r="C265" s="3"/>
     </row>
     <row r="266" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>468</v>
+        <v>607</v>
       </c>
       <c r="C266" s="3"/>
     </row>
     <row r="267" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>205</v>
+        <v>963</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>589</v>
+        <v>458</v>
       </c>
       <c r="C267" s="3"/>
     </row>
     <row r="268" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>663</v>
+        <v>608</v>
       </c>
       <c r="C268" s="3"/>
     </row>
     <row r="269" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>207</v>
+        <v>328</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>618</v>
+        <v>529</v>
       </c>
       <c r="C269" s="3"/>
     </row>
     <row r="270" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
-        <v>208</v>
+        <v>755</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>539</v>
+        <v>459</v>
       </c>
       <c r="C270" s="3"/>
     </row>
     <row r="271" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>540</v>
+        <v>347</v>
       </c>
       <c r="C271" s="3"/>
     </row>
     <row r="272" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>664</v>
+        <v>491</v>
       </c>
       <c r="C272" s="3"/>
     </row>
     <row r="273" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>619</v>
+        <v>530</v>
       </c>
       <c r="C273" s="3"/>
     </row>
     <row r="274" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>620</v>
+        <v>460</v>
       </c>
       <c r="C274" s="3"/>
     </row>
     <row r="275" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>500</v>
+        <v>581</v>
       </c>
       <c r="C275" s="3"/>
     </row>
     <row r="276" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>541</v>
+        <v>653</v>
       </c>
       <c r="C276" s="3"/>
     </row>
     <row r="277" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="C277" s="3"/>
     </row>
     <row r="278" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>280</v>
+        <v>930</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="C278" s="3"/>
     </row>
     <row r="279" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>279</v>
+        <v>931</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>622</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="C279" s="3"/>
     </row>
     <row r="280" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>544</v>
+        <v>654</v>
       </c>
       <c r="C280" s="3"/>
     </row>
     <row r="281" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>378</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="C281" s="3"/>
     </row>
     <row r="282" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>373</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="C282" s="3"/>
     </row>
     <row r="283" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>345</v>
+        <v>492</v>
       </c>
       <c r="C283" s="3"/>
     </row>
     <row r="284" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>624</v>
+        <v>533</v>
       </c>
       <c r="C284" s="3"/>
     </row>
     <row r="285" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>373</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="C285" s="3"/>
     </row>
     <row r="286" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="C286" s="3"/>
     </row>
     <row r="287" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="C287" s="3"/>
+        <v>612</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="288" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="C288" s="3"/>
     </row>
     <row r="289" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>548</v>
+        <v>216</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="C289" s="3"/>
+        <v>370</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="290" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="C290" s="3"/>
+        <v>614</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="291" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>627</v>
+        <v>339</v>
       </c>
       <c r="C291" s="3"/>
     </row>
     <row r="292" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>550</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="C292" s="3"/>
     </row>
     <row r="293" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="C293" s="3"/>
+        <v>616</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="294" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>628</v>
+        <v>537</v>
       </c>
       <c r="C294" s="3"/>
     </row>
     <row r="295" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>776</v>
+        <v>253</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>777</v>
+        <v>538</v>
       </c>
       <c r="C295" s="3"/>
     </row>
     <row r="296" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="C296" s="3"/>
     </row>
     <row r="297" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>246</v>
+        <v>540</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>381</v>
+        <v>815</v>
       </c>
       <c r="C297" s="3"/>
     </row>
     <row r="298" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>382</v>
+        <v>617</v>
       </c>
       <c r="C298" s="3"/>
     </row>
     <row r="299" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>469</v>
+        <v>618</v>
       </c>
       <c r="C299" s="3"/>
     </row>
     <row r="300" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="C300" s="3"/>
+        <v>541</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="301" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>763</v>
+        <v>236</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>590</v>
+        <v>543</v>
       </c>
       <c r="C301" s="3"/>
     </row>
     <row r="302" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>470</v>
+        <v>619</v>
       </c>
       <c r="C302" s="3"/>
     </row>
     <row r="303" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>251</v>
+        <v>763</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>554</v>
+        <v>764</v>
       </c>
       <c r="C303" s="3"/>
     </row>
     <row r="304" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="C304" s="3"/>
     </row>
     <row r="305" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>629</v>
+        <v>374</v>
       </c>
       <c r="C305" s="3"/>
     </row>
     <row r="306" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>556</v>
+        <v>375</v>
       </c>
       <c r="C306" s="3"/>
     </row>
     <row r="307" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>374</v>
+        <v>245</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>591</v>
+        <v>461</v>
       </c>
       <c r="C307" s="3"/>
     </row>
     <row r="308" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>592</v>
+        <v>545</v>
       </c>
       <c r="C308" s="3"/>
     </row>
     <row r="309" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>258</v>
+        <v>976</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="C309" s="3"/>
     </row>
     <row r="310" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
-        <v>322</v>
+        <v>247</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="C310" s="3" t="s">
-        <v>759</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="C310" s="3"/>
     </row>
     <row r="311" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>420</v>
+        <v>546</v>
       </c>
       <c r="C311" s="3"/>
     </row>
     <row r="312" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>421</v>
+        <v>547</v>
       </c>
       <c r="C312" s="3"/>
     </row>
     <row r="313" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="C313" s="3"/>
     </row>
     <row r="314" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>631</v>
+        <v>548</v>
       </c>
       <c r="C314" s="3"/>
     </row>
     <row r="315" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>263</v>
+        <v>367</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="C315" s="3"/>
     </row>
     <row r="316" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>632</v>
+        <v>584</v>
       </c>
       <c r="C316" s="3"/>
     </row>
     <row r="317" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
-        <v>749</v>
+        <v>255</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>633</v>
+        <v>549</v>
       </c>
       <c r="C317" s="3"/>
     </row>
     <row r="318" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="C318" s="3"/>
+        <v>746</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="319" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>635</v>
+        <v>413</v>
       </c>
       <c r="C319" s="3"/>
     </row>
     <row r="320" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>471</v>
+        <v>414</v>
       </c>
       <c r="C320" s="3"/>
     </row>
     <row r="321" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>270</v>
+        <v>966</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>594</v>
+        <v>918</v>
       </c>
       <c r="C321" s="3"/>
     </row>
     <row r="322" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
-        <v>272</v>
+        <v>967</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="C322" s="3"/>
     </row>
     <row r="323" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>558</v>
+        <v>585</v>
       </c>
       <c r="C323" s="3"/>
     </row>
     <row r="324" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>559</v>
+        <v>622</v>
       </c>
       <c r="C324" s="3"/>
     </row>
     <row r="325" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
-        <v>277</v>
+        <v>737</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="C325" s="3"/>
     </row>
     <row r="326" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>501</v>
+        <v>624</v>
       </c>
       <c r="C326" s="3"/>
     </row>
     <row r="327" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
       <c r="C327" s="3"/>
     </row>
     <row r="328" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>637</v>
+        <v>463</v>
       </c>
       <c r="C328" s="3"/>
     </row>
     <row r="329" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
       <c r="C329" s="3"/>
     </row>
     <row r="330" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>638</v>
+        <v>587</v>
       </c>
       <c r="C330" s="3"/>
     </row>
     <row r="331" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>639</v>
+        <v>550</v>
       </c>
       <c r="C331" s="3"/>
     </row>
     <row r="332" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C332" s="3" t="s">
-        <v>766</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="C332" s="3"/>
     </row>
     <row r="333" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>665</v>
+        <v>626</v>
       </c>
       <c r="C333" s="3"/>
     </row>
     <row r="334" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>666</v>
+        <v>493</v>
       </c>
       <c r="C334" s="3"/>
     </row>
     <row r="335" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
-        <v>771</v>
+        <v>276</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>502</v>
+        <v>552</v>
       </c>
       <c r="C335" s="3"/>
     </row>
     <row r="336" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>472</v>
+        <v>627</v>
       </c>
       <c r="C336" s="3"/>
     </row>
     <row r="337" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>422</v>
+        <v>553</v>
       </c>
       <c r="C337" s="3"/>
     </row>
     <row r="338" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="C338" s="3"/>
     </row>
     <row r="339" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>765</v>
+        <v>629</v>
       </c>
       <c r="C339" s="3"/>
     </row>
     <row r="340" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="C340" s="3"/>
+        <v>376</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="341" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>473</v>
+        <v>655</v>
       </c>
       <c r="C341" s="3"/>
     </row>
     <row r="342" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="C342" s="3" t="s">
-        <v>700</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="C342" s="3"/>
     </row>
     <row r="343" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
-        <v>304</v>
+        <v>758</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>424</v>
+        <v>494</v>
       </c>
       <c r="C343" s="3"/>
     </row>
     <row r="344" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>641</v>
+        <v>464</v>
       </c>
       <c r="C344" s="3"/>
     </row>
     <row r="345" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>563</v>
+        <v>415</v>
       </c>
       <c r="C345" s="3"/>
     </row>
     <row r="346" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>564</v>
+        <v>630</v>
       </c>
       <c r="C346" s="3"/>
     </row>
     <row r="347" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>354</v>
+        <v>752</v>
       </c>
       <c r="C347" s="3"/>
     </row>
     <row r="348" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>474</v>
+        <v>554</v>
       </c>
       <c r="C348" s="3"/>
     </row>
     <row r="349" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>565</v>
+        <v>465</v>
       </c>
       <c r="C349" s="3"/>
     </row>
     <row r="350" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>767</v>
-      </c>
-      <c r="C350" s="3"/>
+        <v>928</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="351" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>642</v>
+        <v>416</v>
       </c>
       <c r="C351" s="3"/>
     </row>
     <row r="352" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="C352" s="3"/>
     </row>
     <row r="353" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="C353" s="3"/>
     </row>
     <row r="354" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>425</v>
+        <v>556</v>
       </c>
       <c r="C354" s="3"/>
     </row>
     <row r="355" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>567</v>
+        <v>348</v>
       </c>
       <c r="C355" s="3"/>
     </row>
     <row r="356" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="C356" s="3" t="s">
-        <v>645</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="C356" s="3"/>
     </row>
     <row r="357" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>646</v>
+        <v>557</v>
       </c>
       <c r="C357" s="3"/>
     </row>
     <row r="358" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>647</v>
+        <v>754</v>
       </c>
       <c r="C358" s="3"/>
     </row>
     <row r="359" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="C359" s="3"/>
     </row>
     <row r="360" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C360" s="3" t="s">
-        <v>690</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="C360" s="3"/>
     </row>
     <row r="361" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="C361" s="3" t="s">
-        <v>703</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="C361" s="3"/>
     </row>
     <row r="362" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="C362" s="3" t="s">
-        <v>703</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C362" s="3"/>
     </row>
     <row r="363" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>475</v>
+        <v>559</v>
       </c>
       <c r="C363" s="3"/>
     </row>
     <row r="364" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C364" s="3"/>
+        <v>634</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="365" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>568</v>
+        <v>636</v>
       </c>
       <c r="C365" s="3"/>
     </row>
     <row r="366" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>569</v>
+        <v>637</v>
       </c>
       <c r="C366" s="3"/>
     </row>
     <row r="367" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>427</v>
+        <v>638</v>
       </c>
       <c r="C367" s="3"/>
     </row>
     <row r="368" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
-        <v>332</v>
+        <v>968</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="C368" s="3" t="s">
-        <v>684</v>
-      </c>
+        <v>969</v>
+      </c>
+      <c r="C368" s="3"/>
     </row>
     <row r="369" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
-        <v>717</v>
+        <v>318</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C369" s="3"/>
+        <v>639</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="370" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
-        <v>750</v>
+        <v>319</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="C370" s="3"/>
+        <v>691</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="371" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
-        <v>720</v>
+        <v>320</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="C371" s="3"/>
+        <v>692</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="372" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
-        <v>722</v>
+        <v>321</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>723</v>
+        <v>467</v>
       </c>
       <c r="C372" s="3"/>
     </row>
     <row r="373" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
-        <v>778</v>
+        <v>322</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>724</v>
+        <v>418</v>
       </c>
       <c r="C373" s="3"/>
     </row>
     <row r="374" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
-        <v>725</v>
+        <v>323</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>726</v>
+        <v>560</v>
       </c>
       <c r="C374" s="3"/>
     </row>
     <row r="375" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
-        <v>728</v>
+        <v>324</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>729</v>
+        <v>561</v>
       </c>
       <c r="C375" s="3"/>
     </row>
     <row r="376" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
-        <v>730</v>
+        <v>325</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>731</v>
+        <v>419</v>
       </c>
       <c r="C376" s="3"/>
     </row>
     <row r="377" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
-        <v>732</v>
+        <v>326</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="C377" s="3"/>
+        <v>588</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="378" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
-        <v>793</v>
+        <v>707</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>737</v>
+        <v>708</v>
       </c>
       <c r="C378" s="3"/>
     </row>
     <row r="379" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="C379" s="3"/>
     </row>
     <row r="380" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
-        <v>742</v>
+        <v>710</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>743</v>
+        <v>711</v>
       </c>
       <c r="C380" s="3"/>
     </row>
     <row r="381" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
-        <v>746</v>
+        <v>712</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>747</v>
+        <v>713</v>
       </c>
       <c r="C381" s="3"/>
     </row>
     <row r="382" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
-        <v>748</v>
+        <v>765</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>761</v>
+        <v>714</v>
       </c>
       <c r="C382" s="3"/>
     </row>
     <row r="383" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
-        <v>756</v>
+        <v>715</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>757</v>
+        <v>716</v>
       </c>
       <c r="C383" s="3"/>
     </row>
     <row r="384" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
-        <v>760</v>
+        <v>718</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>762</v>
+        <v>719</v>
       </c>
       <c r="C384" s="3"/>
     </row>
     <row r="385" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
-        <v>772</v>
+        <v>720</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>764</v>
+        <v>721</v>
       </c>
       <c r="C385" s="3"/>
     </row>
     <row r="386" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
-        <v>770</v>
+        <v>722</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>769</v>
+        <v>723</v>
       </c>
       <c r="C386" s="3"/>
     </row>
     <row r="387" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>775</v>
+        <v>727</v>
       </c>
       <c r="C387" s="3"/>
     </row>
     <row r="388" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
-        <v>779</v>
+        <v>725</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>780</v>
+        <v>726</v>
       </c>
       <c r="C388" s="3"/>
     </row>
     <row r="389" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
-        <v>783</v>
+        <v>731</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>784</v>
+        <v>732</v>
       </c>
       <c r="C389" s="3"/>
     </row>
     <row r="390" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
-        <v>785</v>
+        <v>735</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>786</v>
+        <v>736</v>
       </c>
       <c r="C390" s="3"/>
     </row>
     <row r="391" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
-        <v>794</v>
+        <v>975</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="C391" s="3"/>
     </row>
     <row r="392" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
-        <v>796</v>
+        <v>744</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>797</v>
+        <v>745</v>
       </c>
       <c r="C392" s="3"/>
     </row>
     <row r="393" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
-        <v>799</v>
+        <v>748</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>801</v>
+        <v>750</v>
       </c>
       <c r="C393" s="3"/>
     </row>
     <row r="394" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
-        <v>800</v>
+        <v>759</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>802</v>
+        <v>751</v>
       </c>
       <c r="C394" s="3"/>
     </row>
     <row r="395" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
-        <v>803</v>
+        <v>757</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>804</v>
+        <v>756</v>
       </c>
       <c r="C395" s="3"/>
     </row>
     <row r="396" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
-        <v>806</v>
+        <v>761</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="C396" s="3" t="s">
-        <v>810</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="C396" s="3"/>
     </row>
     <row r="397" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
-        <v>807</v>
+        <v>766</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>811</v>
-      </c>
+        <v>767</v>
+      </c>
+      <c r="C397" s="3"/>
     </row>
     <row r="398" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
-        <v>814</v>
+        <v>770</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>816</v>
+        <v>771</v>
       </c>
       <c r="C398" s="3"/>
     </row>
     <row r="399" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
-        <v>815</v>
+        <v>772</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>817</v>
+        <v>773</v>
       </c>
       <c r="C399" s="3"/>
     </row>
     <row r="400" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
-        <v>818</v>
+        <v>781</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>820</v>
+        <v>782</v>
       </c>
       <c r="C400" s="3"/>
     </row>
     <row r="401" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
-        <v>819</v>
+        <v>783</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>821</v>
+        <v>784</v>
       </c>
       <c r="C401" s="3"/>
     </row>
     <row r="402" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
-        <v>822</v>
+        <v>786</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>823</v>
+        <v>788</v>
       </c>
       <c r="C402" s="3"/>
     </row>
     <row r="403" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
-        <v>830</v>
+        <v>787</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>831</v>
+        <v>789</v>
       </c>
       <c r="C403" s="3"/>
     </row>
     <row r="404" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="3" t="s">
-        <v>833</v>
+        <v>790</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>834</v>
+        <v>791</v>
       </c>
       <c r="C404" s="3"/>
     </row>
     <row r="405" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
-        <v>835</v>
+        <v>793</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="C405" s="3"/>
+        <v>795</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>797</v>
+      </c>
     </row>
     <row r="406" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="3"/>
-      <c r="B406" s="3"/>
-      <c r="C406" s="3"/>
+      <c r="A406" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="407" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A407" s="3"/>
-      <c r="B407" s="3"/>
+      <c r="A407" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>803</v>
+      </c>
       <c r="C407" s="3"/>
     </row>
     <row r="408" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="3"/>
-      <c r="B408" s="3"/>
+      <c r="A408" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>804</v>
+      </c>
       <c r="C408" s="3"/>
     </row>
     <row r="409" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A409" s="3"/>
-      <c r="B409" s="3"/>
+      <c r="A409" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="C409" s="3"/>
     </row>
     <row r="410" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A410" s="3"/>
-      <c r="B410" s="3"/>
+      <c r="A410" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>808</v>
+      </c>
       <c r="C410" s="3"/>
     </row>
     <row r="411" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="3"/>
-      <c r="B411" s="3"/>
+      <c r="A411" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>810</v>
+      </c>
       <c r="C411" s="3"/>
     </row>
     <row r="412" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A412" s="3"/>
-      <c r="B412" s="3"/>
+      <c r="A412" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>816</v>
+      </c>
       <c r="C412" s="3"/>
     </row>
     <row r="413" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A413" s="3"/>
-      <c r="B413" s="3"/>
+      <c r="A413" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>819</v>
+      </c>
       <c r="C413" s="3"/>
     </row>
     <row r="414" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A414" s="3"/>
-      <c r="B414" s="3"/>
+      <c r="A414" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>821</v>
+      </c>
       <c r="C414" s="3"/>
     </row>
     <row r="415" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="3"/>
-      <c r="B415" s="3"/>
+      <c r="A415" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>907</v>
+      </c>
       <c r="C415" s="3"/>
     </row>
     <row r="416" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="3"/>
-      <c r="B416" s="3"/>
+      <c r="A416" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>908</v>
+      </c>
       <c r="C416" s="3"/>
     </row>
     <row r="417" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A417" s="3"/>
-      <c r="B417" s="3"/>
+      <c r="A417" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>911</v>
+      </c>
       <c r="C417" s="3"/>
     </row>
     <row r="418" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A418" s="3"/>
-      <c r="B418" s="3"/>
+      <c r="A418" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>913</v>
+      </c>
       <c r="C418" s="3"/>
     </row>
     <row r="419" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="3"/>
-      <c r="B419" s="3"/>
+      <c r="A419" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="C419" s="3"/>
     </row>
     <row r="420" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="3"/>
-      <c r="B420" s="3"/>
+      <c r="A420" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>917</v>
+      </c>
       <c r="C420" s="3"/>
     </row>
     <row r="421" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A421" s="3"/>
-      <c r="B421" s="3"/>
+      <c r="A421" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>972</v>
+      </c>
       <c r="C421" s="3"/>
     </row>
     <row r="422" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A422" s="3"/>
-      <c r="B422" s="3"/>
+      <c r="A422" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="C422" s="3"/>
     </row>
     <row r="423" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A423" s="3"/>
-      <c r="B423" s="3"/>
+      <c r="A423" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>923</v>
+      </c>
       <c r="C423" s="3"/>
     </row>
     <row r="424" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A424" s="3"/>
-      <c r="B424" s="3"/>
+      <c r="A424" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>925</v>
+      </c>
       <c r="C424" s="3"/>
     </row>
     <row r="425" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A425" s="3"/>
-      <c r="B425" s="3"/>
+      <c r="A425" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>927</v>
+      </c>
       <c r="C425" s="3"/>
     </row>
     <row r="426" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A426" s="3"/>
-      <c r="B426" s="3"/>
+      <c r="A426" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>933</v>
+      </c>
       <c r="C426" s="3"/>
     </row>
     <row r="427" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A427" s="3"/>
-      <c r="B427" s="3"/>
+      <c r="A427" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>935</v>
+      </c>
       <c r="C427" s="3"/>
     </row>
     <row r="428" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A428" s="3"/>
-      <c r="B428" s="3"/>
+      <c r="A428" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>938</v>
+      </c>
       <c r="C428" s="3"/>
     </row>
     <row r="429" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A429" s="3"/>
-      <c r="B429" s="3"/>
+      <c r="A429" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>940</v>
+      </c>
       <c r="C429" s="3"/>
     </row>
     <row r="430" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A430" s="3"/>
-      <c r="B430" s="3"/>
+      <c r="A430" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>942</v>
+      </c>
       <c r="C430" s="3"/>
     </row>
     <row r="431" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A431" s="3"/>
-      <c r="B431" s="3"/>
+      <c r="A431" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>943</v>
+      </c>
       <c r="C431" s="3"/>
     </row>
     <row r="432" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A432" s="3"/>
-      <c r="B432" s="3"/>
+      <c r="A432" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>945</v>
+      </c>
       <c r="C432" s="3"/>
     </row>
     <row r="433" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A433" s="3"/>
-      <c r="B433" s="3"/>
+      <c r="A433" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>947</v>
+      </c>
       <c r="C433" s="3"/>
     </row>
     <row r="434" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A434" s="3"/>
-      <c r="B434" s="3"/>
-      <c r="C434" s="3"/>
+      <c r="A434" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="435" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A435" s="3"/>
-      <c r="B435" s="3"/>
+      <c r="A435" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>954</v>
+      </c>
       <c r="C435" s="3"/>
     </row>
     <row r="436" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A436" s="3"/>
-      <c r="B436" s="3"/>
+      <c r="A436" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>959</v>
+      </c>
       <c r="C436" s="3"/>
     </row>
     <row r="437" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A437" s="3"/>
-      <c r="B437" s="3"/>
+      <c r="A437" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>960</v>
+      </c>
       <c r="C437" s="3"/>
     </row>
     <row r="438" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A438" s="3"/>
-      <c r="B438" s="3"/>
+      <c r="A438" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>961</v>
+      </c>
       <c r="C438" s="3"/>
     </row>
     <row r="439" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A439" s="3"/>
-      <c r="B439" s="3"/>
+      <c r="A439" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>962</v>
+      </c>
       <c r="C439" s="3"/>
     </row>
     <row r="440" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A440" s="3"/>
-      <c r="B440" s="3"/>
+      <c r="A440" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>965</v>
+      </c>
       <c r="C440" s="3"/>
     </row>
     <row r="441" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A441" s="3"/>
-      <c r="B441" s="3"/>
+      <c r="A441" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>974</v>
+      </c>
       <c r="C441" s="3"/>
     </row>
     <row r="442" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A442" s="3"/>
-      <c r="B442" s="3"/>
+      <c r="A442" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>986</v>
+      </c>
       <c r="C442" s="3"/>
     </row>
     <row r="443" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11357,10 +11933,61 @@
       <c r="B1040" s="3"/>
       <c r="C1040" s="3"/>
     </row>
+    <row r="1041" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1041" s="3"/>
+      <c r="B1041" s="3"/>
+      <c r="C1041" s="3"/>
+    </row>
+    <row r="1042" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1042" s="3"/>
+      <c r="B1042" s="3"/>
+      <c r="C1042" s="3"/>
+    </row>
+    <row r="1043" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1043" s="3"/>
+      <c r="B1043" s="3"/>
+      <c r="C1043" s="3"/>
+    </row>
+    <row r="1044" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1044" s="3"/>
+      <c r="B1044" s="3"/>
+      <c r="C1044" s="3"/>
+    </row>
+    <row r="1045" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1045" s="3"/>
+      <c r="B1045" s="3"/>
+      <c r="C1045" s="3"/>
+    </row>
+    <row r="1046" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1046" s="3"/>
+      <c r="B1046" s="3"/>
+      <c r="C1046" s="3"/>
+    </row>
+    <row r="1047" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1047" s="3"/>
+      <c r="B1047" s="3"/>
+      <c r="C1047" s="3"/>
+    </row>
+    <row r="1048" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1048" s="3"/>
+      <c r="B1048" s="3"/>
+      <c r="C1048" s="3"/>
+    </row>
+    <row r="1049" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1049" s="3"/>
+      <c r="B1049" s="3"/>
+      <c r="C1049" s="3"/>
+    </row>
+    <row r="1050" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1050" s="3"/>
+      <c r="B1050" s="3"/>
+      <c r="C1050" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="C20:C35"/>
+    <mergeCell ref="C207:C213"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11372,8 +11999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA920F1-7AE5-43AC-B38A-BD1569BDAB60}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:R13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -11385,402 +12012,402 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>921</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
+      <c r="A1" s="29" t="s">
+        <v>906</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:18" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
-        <v>919</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
+      <c r="A2" s="31" t="s">
+        <v>904</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>870</v>
+        <v>855</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>907</v>
+        <v>892</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="9" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>848</v>
+        <v>833</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>851</v>
+        <v>836</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>874</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="R5" s="8" t="s">
         <v>875</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>876</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>877</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>878</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>879</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>880</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>881</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>882</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>883</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>884</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>885</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>886</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>887</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>888</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>889</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>890</v>
-      </c>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="9" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>853</v>
+        <v>838</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>855</v>
+        <v>840</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>856</v>
+        <v>841</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>857</v>
+        <v>842</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>28</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
-        <v>867</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>868</v>
+        <v>852</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>853</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>891</v>
+        <v>876</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="9" t="s">
-        <v>892</v>
+        <v>877</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>893</v>
+        <v>878</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
-        <v>894</v>
+        <v>879</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>895</v>
+        <v>880</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>896</v>
+        <v>881</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>897</v>
+        <v>882</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>898</v>
+        <v>883</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>899</v>
+        <v>884</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>900</v>
+        <v>885</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>901</v>
+        <v>886</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>902</v>
+        <v>887</v>
       </c>
       <c r="K9" s="17" t="s">
+        <v>888</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
         <v>903</v>
       </c>
-      <c r="L9" s="17" t="s">
-        <v>904</v>
-      </c>
-      <c r="M9" s="19" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>891</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
-        <v>918</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>906</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>920</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="30" t="s">
-        <v>908</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
+      <c r="A13" s="25" t="s">
+        <v>893</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
     </row>
     <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>910</v>
+        <v>895</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>912</v>
+        <v>897</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>914</v>
+        <v>899</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>913</v>
+        <v>898</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="31"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="20" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>916</v>
+        <v>901</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:R10"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A11:R11"/>
     <mergeCell ref="A12:R12"/>
     <mergeCell ref="A13:R13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A10:R10"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A11:R11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
+++ b/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Websites\hssrgov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48FB028-72E1-41B9-8C9A-9731BAF590C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA8057F-423F-4772-B4DA-6369571D0189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CCB781DE-C1B4-4E71-9129-23ABA5B611FE}"/>
   </bookViews>
@@ -3440,15 +3440,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>internaci</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>国际歌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Internaci Kant</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3820,6 +3812,14 @@
       </rPr>
       <t>ʔ</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internatsi Kant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>internatsi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4302,6 +4302,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4314,19 +4317,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4335,7 +4332,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4863,8 +4863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB56768-82A6-42FF-B107-45016A59F08E}">
   <dimension ref="A1:C1050"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A435" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A441" sqref="A441"/>
+    <sheetView tabSelected="1" topLeftCell="A417" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A427" sqref="A427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -4876,11 +4876,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -5057,7 +5057,7 @@
       <c r="B20" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="23" t="s">
         <v>675</v>
       </c>
     </row>
@@ -5068,7 +5068,7 @@
       <c r="B21" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="C21" s="23"/>
+      <c r="C21" s="24"/>
     </row>
     <row r="22" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
@@ -5077,7 +5077,7 @@
       <c r="B22" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="24"/>
     </row>
     <row r="23" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
@@ -5086,7 +5086,7 @@
       <c r="B23" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="24"/>
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -5095,7 +5095,7 @@
       <c r="B24" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
@@ -5104,7 +5104,7 @@
       <c r="B25" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="C25" s="23"/>
+      <c r="C25" s="24"/>
     </row>
     <row r="26" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
@@ -5113,7 +5113,7 @@
       <c r="B26" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="C26" s="23"/>
+      <c r="C26" s="24"/>
     </row>
     <row r="27" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
@@ -5122,7 +5122,7 @@
       <c r="B27" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="24"/>
     </row>
     <row r="28" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
@@ -5131,7 +5131,7 @@
       <c r="B28" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="C28" s="23"/>
+      <c r="C28" s="24"/>
     </row>
     <row r="29" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
@@ -5140,7 +5140,7 @@
       <c r="B29" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="C29" s="23"/>
+      <c r="C29" s="24"/>
     </row>
     <row r="30" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
@@ -5149,7 +5149,7 @@
       <c r="B30" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="24"/>
     </row>
     <row r="31" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
@@ -5158,7 +5158,7 @@
       <c r="B31" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="24"/>
     </row>
     <row r="32" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
@@ -5167,7 +5167,7 @@
       <c r="B32" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="C32" s="23"/>
+      <c r="C32" s="24"/>
     </row>
     <row r="33" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
@@ -5176,7 +5176,7 @@
       <c r="B33" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C33" s="23"/>
+      <c r="C33" s="24"/>
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
@@ -5185,7 +5185,7 @@
       <c r="B34" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="C34" s="23"/>
+      <c r="C34" s="24"/>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
@@ -5194,7 +5194,7 @@
       <c r="B35" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="C35" s="24"/>
+      <c r="C35" s="25"/>
     </row>
     <row r="36" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
@@ -5218,7 +5218,7 @@
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>424</v>
@@ -5776,13 +5776,13 @@
     </row>
     <row r="98" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>687</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="99" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5982,37 +5982,37 @@
     </row>
     <row r="120" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C120" s="3"/>
     </row>
     <row r="121" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C121" s="3"/>
     </row>
     <row r="122" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C122" s="3"/>
     </row>
     <row r="123" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C123" s="3"/>
     </row>
@@ -6784,8 +6784,8 @@
       <c r="B207" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="C207" s="22" t="s">
-        <v>996</v>
+      <c r="C207" s="23" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="208" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6795,7 +6795,7 @@
       <c r="B208" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="C208" s="23"/>
+      <c r="C208" s="24"/>
     </row>
     <row r="209" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
@@ -6804,47 +6804,47 @@
       <c r="B209" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="C209" s="23"/>
+      <c r="C209" s="24"/>
     </row>
     <row r="210" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="B210" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="B210" s="3" t="s">
-        <v>994</v>
-      </c>
-      <c r="C210" s="23"/>
+      <c r="C210" s="24"/>
     </row>
     <row r="211" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="B211" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="B211" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="C211" s="23"/>
+      <c r="C211" s="24"/>
     </row>
     <row r="212" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>988</v>
-      </c>
-      <c r="C212" s="23"/>
+        <v>986</v>
+      </c>
+      <c r="C212" s="24"/>
     </row>
     <row r="213" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>990</v>
-      </c>
-      <c r="C213" s="24"/>
+        <v>988</v>
+      </c>
+      <c r="C213" s="25"/>
     </row>
     <row r="214" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>455</v>
@@ -7329,7 +7329,7 @@
     </row>
     <row r="267" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>458</v>
@@ -7428,7 +7428,7 @@
     </row>
     <row r="278" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>531</v>
@@ -7437,7 +7437,7 @@
     </row>
     <row r="279" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>532</v>
@@ -7717,7 +7717,7 @@
     </row>
     <row r="309" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>582</v>
@@ -7827,7 +7827,7 @@
     </row>
     <row r="321" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>918</v>
@@ -7836,7 +7836,7 @@
     </row>
     <row r="322" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>621</v>
@@ -8093,7 +8093,7 @@
         <v>297</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>690</v>
@@ -8256,10 +8256,10 @@
     </row>
     <row r="368" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C368" s="3"/>
     </row>
@@ -8471,7 +8471,7 @@
     </row>
     <row r="391" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>749</v>
@@ -8664,7 +8664,7 @@
     </row>
     <row r="412" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>816</v>
@@ -8691,7 +8691,7 @@
     </row>
     <row r="415" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>907</v>
@@ -8745,10 +8745,10 @@
     </row>
     <row r="421" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C421" s="3"/>
     </row>
@@ -8775,171 +8775,171 @@
         <v>924</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>925</v>
+        <v>996</v>
       </c>
       <c r="C424" s="3"/>
     </row>
     <row r="425" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>927</v>
+        <v>995</v>
       </c>
       <c r="C425" s="3"/>
     </row>
     <row r="426" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C426" s="3"/>
     </row>
     <row r="427" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C427" s="3"/>
     </row>
     <row r="428" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C428" s="3"/>
     </row>
     <row r="429" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C429" s="3"/>
     </row>
     <row r="430" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C430" s="3"/>
     </row>
     <row r="431" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C431" s="3"/>
     </row>
     <row r="432" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="3" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C432" s="3"/>
     </row>
     <row r="433" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C433" s="3"/>
     </row>
     <row r="434" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="435" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C435" s="3"/>
     </row>
     <row r="436" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C436" s="3"/>
     </row>
     <row r="437" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C437" s="3"/>
     </row>
     <row r="438" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C438" s="3"/>
     </row>
     <row r="439" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C439" s="3"/>
     </row>
     <row r="440" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="3" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C440" s="3"/>
     </row>
     <row r="441" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C441" s="3"/>
     </row>
     <row r="442" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C442" s="3"/>
     </row>
@@ -12012,51 +12012,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>906</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
     </row>
     <row r="2" spans="1:18" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>904</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>830</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -12100,7 +12100,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>836</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -12210,10 +12210,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>852</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="21" t="s">
         <v>853</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -12271,95 +12271,95 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>903</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="31" t="s">
         <v>891</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="31" t="s">
         <v>905</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="31" t="s">
         <v>893</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
     </row>
     <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="27" t="s">
         <v>894</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -12379,7 +12379,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="20" t="s">
         <v>900</v>
       </c>
@@ -12398,16 +12398,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A12:R12"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A10:R10"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A11:R11"/>
-    <mergeCell ref="A12:R12"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
+++ b/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Websites\hssrgov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA8057F-423F-4772-B4DA-6369571D0189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B03466-520E-4A3F-B2C7-CF7CFD9DFB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CCB781DE-C1B4-4E71-9129-23ABA5B611FE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="1027">
   <si>
     <t>中文</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2009,9 +2009,6 @@
     <t>koveh</t>
   </si>
   <si>
-    <t>nedekvedarov</t>
-  </si>
-  <si>
     <t>pobveda</t>
   </si>
   <si>
@@ -2090,9 +2087,6 @@
     <t>synen</t>
   </si>
   <si>
-    <t>uayk</t>
-  </si>
-  <si>
     <t>nehyevarovitek</t>
   </si>
   <si>
@@ -2207,15 +2201,9 @@
     <t>ezek</t>
   </si>
   <si>
-    <t>udsafoz</t>
-  </si>
-  <si>
     <t>pisroz</t>
   </si>
   <si>
-    <t>nagruzova</t>
-  </si>
-  <si>
     <t>hetaroz</t>
   </si>
   <si>
@@ -2544,10 +2532,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>执行/奉命/遵命/遵照/照办</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>vipoleni</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2959,10 +2943,6 @@
   </si>
   <si>
     <t>ŭetiked</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络/链接/信号（信息技术方面）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3424,18 +3404,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>用/使用/采用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提季提格勒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tiśitigrad</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>国际</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3604,9 +3572,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ś</t>
-  </si>
-  <si>
     <t>提交/递交/赠与/反馈/赠送/上传/上报</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3820,6 +3785,190 @@
   </si>
   <si>
     <t>internatsi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>象征/标志/（因此而远名的）招牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>yevarov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ʔ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明/产品手册/指南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yevarovś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按键/按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>klavisha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>luklavisha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruklavisha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suklavisha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>另存为/保存为/存储为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护/保存/存储</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sav</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>konsav</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取/得到/收入/受赠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>akir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nagruzova</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络/连接/信号（信息技术方面）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何/随机/随时/无时无刻不/每时每刻都/一切情况下/任何情况下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行/奉命/遵命/遵照/照办/遵守/遵循</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用/使用/采用/以</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uayk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>侮辱/羞辱/欺凌/霸凌/施暴/施虐/残虐/残害/虐待</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>misuz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复/修理/维修/修葺/修缮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁坏/破坏/打砸/毁灭/损坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subten</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nesubten</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>udsafoz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考/按照/一模一样地复制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>laŭ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nedekvedarov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为准/作为标准/作为最佳参考/作为格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>vedashtanda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ʔ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tizhitigrad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提季提格勒（哈儿苏维埃社会主义共和国首都）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4317,25 +4466,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4861,10 +5010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB56768-82A6-42FF-B107-45016A59F08E}">
-  <dimension ref="A1:C1050"/>
+  <dimension ref="A1:C1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A417" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A427" sqref="A427"/>
+    <sheetView tabSelected="1" topLeftCell="A421" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A428" sqref="A428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -4877,7 +5026,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -4898,10 +5047,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4909,7 +5058,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -4927,7 +5076,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -4936,7 +5085,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -4945,13 +5094,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>495</v>
@@ -4960,10 +5109,10 @@
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -4990,7 +5139,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -4999,10 +5148,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5010,7 +5159,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -5019,7 +5168,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -5028,7 +5177,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -5037,7 +5186,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -5055,10 +5204,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5066,7 +5215,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C21" s="24"/>
     </row>
@@ -5075,7 +5224,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C22" s="24"/>
     </row>
@@ -5084,7 +5233,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C23" s="24"/>
     </row>
@@ -5093,7 +5242,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C24" s="24"/>
     </row>
@@ -5102,7 +5251,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C25" s="24"/>
     </row>
@@ -5111,7 +5260,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C26" s="24"/>
     </row>
@@ -5120,7 +5269,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C27" s="24"/>
     </row>
@@ -5129,7 +5278,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C28" s="24"/>
     </row>
@@ -5138,7 +5287,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C29" s="24"/>
     </row>
@@ -5147,7 +5296,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C30" s="24"/>
     </row>
@@ -5156,7 +5305,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C31" s="24"/>
     </row>
@@ -5192,7 +5341,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C35" s="25"/>
     </row>
@@ -5204,7 +5353,7 @@
         <v>498</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5212,13 +5361,13 @@
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>424</v>
@@ -5229,10 +5378,10 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C39" s="3"/>
     </row>
@@ -5268,7 +5417,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C43" s="3"/>
     </row>
@@ -5277,7 +5426,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C44" s="3"/>
     </row>
@@ -5286,7 +5435,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C45" s="3"/>
     </row>
@@ -5304,19 +5453,19 @@
         <v>41</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5375,7 +5524,7 @@
     </row>
     <row r="55" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>501</v>
@@ -5408,7 +5557,7 @@
         <v>430</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5452,7 +5601,7 @@
         <v>53</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C63" s="3"/>
     </row>
@@ -5461,10 +5610,10 @@
         <v>199</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5484,7 +5633,7 @@
         <v>506</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5492,7 +5641,7 @@
         <v>56</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C67" s="3"/>
     </row>
@@ -5507,7 +5656,7 @@
     </row>
     <row r="69" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>341</v>
@@ -5546,7 +5695,7 @@
         <v>61</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C73" s="3"/>
     </row>
@@ -5555,7 +5704,7 @@
         <v>62</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C74" s="3"/>
     </row>
@@ -5564,7 +5713,7 @@
         <v>63</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C75" s="3"/>
     </row>
@@ -5573,7 +5722,7 @@
         <v>64</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C76" s="3"/>
     </row>
@@ -5627,7 +5776,7 @@
         <v>214</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C82" s="3"/>
     </row>
@@ -5636,7 +5785,7 @@
         <v>213</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C83" s="3"/>
     </row>
@@ -5675,7 +5824,7 @@
         <v>434</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5686,7 +5835,7 @@
         <v>507</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5706,7 +5855,7 @@
         <v>435</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5770,19 +5919,19 @@
         <v>79</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C97" s="3"/>
     </row>
     <row r="98" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
     </row>
     <row r="99" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5897,7 +6046,7 @@
     </row>
     <row r="111" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>360</v>
@@ -5908,7 +6057,7 @@
     </row>
     <row r="112" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>402</v>
@@ -5958,7 +6107,7 @@
         <v>95</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C117" s="3"/>
     </row>
@@ -5982,37 +6131,37 @@
     </row>
     <row r="120" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="C120" s="3"/>
     </row>
     <row r="121" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="C121" s="3"/>
     </row>
     <row r="122" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="C122" s="3"/>
     </row>
     <row r="123" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="C123" s="3"/>
     </row>
@@ -6048,7 +6197,7 @@
         <v>167</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C127" s="3"/>
     </row>
@@ -6057,7 +6206,7 @@
         <v>242</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C128" s="3"/>
     </row>
@@ -6066,7 +6215,7 @@
         <v>101</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C129" s="3"/>
     </row>
@@ -6075,7 +6224,7 @@
         <v>102</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C130" s="3"/>
     </row>
@@ -6084,7 +6233,7 @@
         <v>103</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C131" s="3"/>
     </row>
@@ -6093,7 +6242,7 @@
         <v>104</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C132" s="3"/>
     </row>
@@ -6120,13 +6269,13 @@
         <v>220</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C135" s="3"/>
     </row>
     <row r="136" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>470</v>
@@ -6153,2869 +6302,2929 @@
     </row>
     <row r="139" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>827</v>
+        <v>992</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>473</v>
+        <v>993</v>
       </c>
       <c r="C139" s="3"/>
     </row>
     <row r="140" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>828</v>
+        <v>994</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>792</v>
-      </c>
+        <v>997</v>
+      </c>
+      <c r="C140" s="3"/>
     </row>
     <row r="141" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>290</v>
+        <v>995</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>475</v>
+        <v>998</v>
       </c>
       <c r="C141" s="3"/>
     </row>
     <row r="142" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>108</v>
+        <v>996</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>512</v>
+        <v>999</v>
       </c>
       <c r="C142" s="3"/>
     </row>
     <row r="143" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>109</v>
+        <v>821</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="C143" s="3"/>
     </row>
     <row r="144" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>705</v>
+        <v>822</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="C144" s="3"/>
+        <v>474</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="145" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>362</v>
+        <v>475</v>
       </c>
       <c r="C145" s="3"/>
     </row>
     <row r="146" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>363</v>
+        <v>512</v>
       </c>
       <c r="C146" s="3"/>
     </row>
     <row r="147" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>824</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="C147" s="3"/>
     </row>
     <row r="148" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>229</v>
+        <v>701</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>443</v>
+        <v>702</v>
       </c>
       <c r="C148" s="3"/>
     </row>
     <row r="149" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="C149" s="3"/>
     </row>
     <row r="150" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>817</v>
+        <v>111</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>404</v>
+        <v>363</v>
       </c>
       <c r="C150" s="3"/>
     </row>
     <row r="151" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C151" s="3"/>
+        <v>817</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>818</v>
+      </c>
     </row>
     <row r="152" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>114</v>
+        <v>229</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>571</v>
+        <v>443</v>
       </c>
       <c r="C152" s="3"/>
     </row>
     <row r="153" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>513</v>
+        <v>391</v>
       </c>
       <c r="C153" s="3"/>
     </row>
     <row r="154" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>234</v>
+        <v>812</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>572</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="C154" s="3"/>
     </row>
     <row r="155" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="C155" s="3"/>
     </row>
     <row r="156" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="C156" s="3"/>
     </row>
     <row r="157" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>448</v>
+        <v>513</v>
       </c>
       <c r="C157" s="3"/>
     </row>
     <row r="158" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>119</v>
+        <v>234</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C158" s="3"/>
+        <v>444</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="159" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>368</v>
+        <v>445</v>
       </c>
       <c r="C159" s="3"/>
     </row>
     <row r="160" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>260</v>
+        <v>117</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C160" s="3"/>
+        <v>446</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="161" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="C161" s="3"/>
     </row>
     <row r="162" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="C162" s="3"/>
     </row>
     <row r="163" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="C163" s="3"/>
     </row>
     <row r="164" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>124</v>
+        <v>260</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>681</v>
+        <v>369</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row r="165" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>679</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="C165" s="3"/>
     </row>
     <row r="166" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>700</v>
+        <v>393</v>
       </c>
       <c r="C166" s="3"/>
     </row>
     <row r="167" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>688</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="C167" s="3"/>
     </row>
     <row r="168" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>514</v>
+        <v>677</v>
       </c>
       <c r="C168" s="3"/>
     </row>
     <row r="169" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C169" s="3"/>
+        <v>476</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="170" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>408</v>
+        <v>696</v>
       </c>
       <c r="C170" s="3"/>
     </row>
     <row r="171" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C171" s="3"/>
+        <v>477</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="172" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>410</v>
+        <v>514</v>
       </c>
       <c r="C172" s="3"/>
     </row>
     <row r="173" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>131</v>
+        <v>251</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C173" s="3"/>
     </row>
     <row r="174" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>240</v>
+        <v>128</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>478</v>
+        <v>408</v>
       </c>
       <c r="C174" s="3"/>
     </row>
     <row r="175" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>515</v>
+        <v>409</v>
       </c>
       <c r="C175" s="3"/>
     </row>
     <row r="176" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>701</v>
+        <v>410</v>
       </c>
       <c r="C176" s="3"/>
     </row>
     <row r="177" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>573</v>
+        <v>411</v>
       </c>
       <c r="C177" s="3"/>
     </row>
     <row r="178" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>574</v>
+        <v>478</v>
       </c>
       <c r="C178" s="3"/>
     </row>
     <row r="179" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>575</v>
+        <v>515</v>
       </c>
       <c r="C179" s="3"/>
     </row>
     <row r="180" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>289</v>
+        <v>133</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>353</v>
+        <v>697</v>
       </c>
       <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>327</v>
+        <v>134</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C181" s="3"/>
     </row>
     <row r="182" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>516</v>
+        <v>135</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>517</v>
+        <v>573</v>
       </c>
       <c r="C182" s="3"/>
     </row>
     <row r="183" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>449</v>
+        <v>574</v>
       </c>
       <c r="C183" s="3"/>
     </row>
     <row r="184" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>138</v>
+        <v>289</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>450</v>
+        <v>353</v>
       </c>
       <c r="C184" s="3"/>
     </row>
     <row r="185" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>139</v>
+        <v>327</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>395</v>
+        <v>575</v>
       </c>
       <c r="C185" s="3"/>
     </row>
     <row r="186" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>140</v>
+        <v>516</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>396</v>
+        <v>517</v>
       </c>
       <c r="C186" s="3"/>
     </row>
     <row r="187" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>518</v>
+        <v>449</v>
       </c>
       <c r="C187" s="3"/>
     </row>
     <row r="188" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>332</v>
+        <v>450</v>
       </c>
       <c r="C188" s="3"/>
     </row>
     <row r="189" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>451</v>
+        <v>395</v>
       </c>
       <c r="C189" s="3"/>
     </row>
     <row r="190" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="C190" s="3"/>
     </row>
     <row r="191" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>452</v>
+        <v>518</v>
       </c>
       <c r="C191" s="3"/>
     </row>
     <row r="192" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>269</v>
+        <v>142</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>453</v>
+        <v>332</v>
       </c>
       <c r="C192" s="3"/>
     </row>
     <row r="193" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C193" s="3"/>
     </row>
     <row r="194" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="C194" s="3"/>
     </row>
     <row r="195" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>226</v>
+        <v>146</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>825</v>
+        <v>452</v>
       </c>
       <c r="C195" s="3"/>
     </row>
     <row r="196" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>520</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C196" s="3"/>
     </row>
     <row r="197" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>521</v>
+        <v>454</v>
       </c>
       <c r="C197" s="3"/>
     </row>
     <row r="198" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>785</v>
+        <v>148</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>577</v>
+        <v>412</v>
       </c>
       <c r="C198" s="3"/>
     </row>
     <row r="199" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>593</v>
+        <v>819</v>
       </c>
       <c r="C199" s="3"/>
     </row>
     <row r="200" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="C200" s="3"/>
+        <v>519</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="201" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>595</v>
+        <v>521</v>
       </c>
       <c r="C201" s="3"/>
     </row>
     <row r="202" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>153</v>
+        <v>780</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>522</v>
+        <v>576</v>
       </c>
       <c r="C202" s="3"/>
     </row>
     <row r="203" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>154</v>
+        <v>1020</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>338</v>
+        <v>1021</v>
       </c>
       <c r="C203" s="3"/>
     </row>
     <row r="204" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>333</v>
+        <v>591</v>
       </c>
       <c r="C204" s="3"/>
     </row>
     <row r="205" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>479</v>
+        <v>592</v>
       </c>
       <c r="C205" s="3"/>
     </row>
     <row r="206" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>334</v>
+        <v>593</v>
       </c>
       <c r="C206" s="3"/>
     </row>
     <row r="207" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="C207" s="23" t="s">
-        <v>994</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="C207" s="3"/>
     </row>
     <row r="208" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="C208" s="24"/>
+        <v>338</v>
+      </c>
+      <c r="C208" s="3"/>
     </row>
     <row r="209" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="C209" s="24"/>
+        <v>333</v>
+      </c>
+      <c r="C209" s="3"/>
     </row>
     <row r="210" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>990</v>
+        <v>156</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="C210" s="24"/>
+        <v>479</v>
+      </c>
+      <c r="C210" s="3"/>
     </row>
     <row r="211" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>991</v>
+        <v>157</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>993</v>
-      </c>
-      <c r="C211" s="24"/>
+        <v>334</v>
+      </c>
+      <c r="C211" s="3"/>
     </row>
     <row r="212" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>985</v>
+        <v>158</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>986</v>
-      </c>
-      <c r="C212" s="24"/>
+        <v>680</v>
+      </c>
+      <c r="C212" s="23" t="s">
+        <v>984</v>
+      </c>
     </row>
     <row r="213" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>987</v>
+        <v>159</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>988</v>
-      </c>
-      <c r="C213" s="25"/>
+        <v>678</v>
+      </c>
+      <c r="C213" s="24"/>
     </row>
     <row r="214" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>989</v>
+        <v>160</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="C214" s="3" t="s">
         <v>685</v>
       </c>
+      <c r="C214" s="24"/>
     </row>
     <row r="215" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>161</v>
+        <v>980</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>686</v>
-      </c>
+        <v>982</v>
+      </c>
+      <c r="C215" s="24"/>
     </row>
     <row r="216" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>162</v>
+        <v>981</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="C216" s="3"/>
+        <v>983</v>
+      </c>
+      <c r="C216" s="24"/>
     </row>
     <row r="217" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>163</v>
+        <v>975</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="C217" s="3"/>
+        <v>976</v>
+      </c>
+      <c r="C217" s="24"/>
     </row>
     <row r="218" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>164</v>
+        <v>977</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C218" s="3"/>
+        <v>978</v>
+      </c>
+      <c r="C218" s="25"/>
     </row>
     <row r="219" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>165</v>
+        <v>979</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="C219" s="3"/>
+        <v>455</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="220" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="C220" s="3"/>
+        <v>577</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="221" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>829</v>
+        <v>162</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>365</v>
+        <v>578</v>
       </c>
       <c r="C221" s="3"/>
     </row>
     <row r="222" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>523</v>
+        <v>456</v>
       </c>
       <c r="C222" s="3"/>
     </row>
     <row r="223" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>826</v>
+        <v>364</v>
       </c>
       <c r="C223" s="3"/>
     </row>
     <row r="224" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>775</v>
+        <v>165</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>354</v>
+        <v>469</v>
       </c>
       <c r="C224" s="3"/>
     </row>
     <row r="225" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>171</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C225" s="3"/>
     </row>
     <row r="226" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>172</v>
+        <v>823</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>724</v>
+        <v>365</v>
       </c>
       <c r="C226" s="3"/>
     </row>
     <row r="227" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C227" s="3"/>
     </row>
     <row r="228" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>525</v>
+        <v>820</v>
       </c>
       <c r="C228" s="3"/>
     </row>
     <row r="229" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>175</v>
+        <v>770</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>596</v>
+        <v>354</v>
       </c>
       <c r="C229" s="3"/>
     </row>
     <row r="230" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="C230" s="3"/>
+        <v>480</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="231" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>268</v>
+        <v>172</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>598</v>
+        <v>719</v>
       </c>
       <c r="C231" s="3"/>
     </row>
     <row r="232" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>481</v>
+        <v>524</v>
       </c>
       <c r="C232" s="3"/>
     </row>
     <row r="233" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>482</v>
+        <v>525</v>
       </c>
       <c r="C233" s="3"/>
     </row>
     <row r="234" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>483</v>
+        <v>594</v>
       </c>
       <c r="C234" s="3"/>
     </row>
     <row r="235" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>484</v>
+        <v>595</v>
       </c>
       <c r="C235" s="3"/>
     </row>
     <row r="236" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>181</v>
+        <v>268</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>486</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="C236" s="3"/>
     </row>
     <row r="237" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C237" s="3"/>
     </row>
     <row r="238" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C238" s="3"/>
     </row>
     <row r="239" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>599</v>
+        <v>483</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row r="240" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>600</v>
+        <v>484</v>
       </c>
       <c r="C240" s="3"/>
     </row>
     <row r="241" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="C241" s="3"/>
+        <v>485</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="242" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>702</v>
+        <v>180</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="C242" s="3"/>
     </row>
     <row r="243" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>602</v>
+        <v>488</v>
       </c>
       <c r="C243" s="3"/>
     </row>
     <row r="244" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>397</v>
+        <v>597</v>
       </c>
       <c r="C244" s="3"/>
     </row>
     <row r="245" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>398</v>
+        <v>598</v>
       </c>
       <c r="C245" s="3"/>
     </row>
     <row r="246" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>777</v>
+        <v>185</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>651</v>
+        <v>599</v>
       </c>
       <c r="C246" s="3"/>
     </row>
     <row r="247" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>776</v>
+        <v>698</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>778</v>
+        <v>526</v>
       </c>
       <c r="C247" s="3"/>
     </row>
     <row r="248" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>527</v>
+        <v>600</v>
       </c>
       <c r="C248" s="3"/>
     </row>
     <row r="249" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>769</v>
+        <v>187</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>528</v>
+        <v>397</v>
       </c>
       <c r="C249" s="3"/>
     </row>
     <row r="250" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>489</v>
+        <v>398</v>
       </c>
       <c r="C250" s="3"/>
     </row>
     <row r="251" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>191</v>
+        <v>772</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>490</v>
+        <v>647</v>
       </c>
       <c r="C251" s="3"/>
     </row>
     <row r="252" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>192</v>
+        <v>771</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>329</v>
+        <v>773</v>
       </c>
       <c r="C252" s="3"/>
     </row>
     <row r="253" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>603</v>
+        <v>527</v>
       </c>
       <c r="C253" s="3"/>
     </row>
     <row r="254" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>194</v>
+        <v>764</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>346</v>
+        <v>528</v>
       </c>
       <c r="C254" s="3"/>
     </row>
     <row r="255" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="C255" s="3"/>
     </row>
     <row r="256" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>704</v>
+        <v>191</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>335</v>
+        <v>490</v>
       </c>
       <c r="C256" s="3"/>
     </row>
     <row r="257" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>733</v>
+        <v>192</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>734</v>
+        <v>329</v>
       </c>
       <c r="C257" s="3"/>
     </row>
     <row r="258" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
-        <v>921</v>
+        <v>193</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>813</v>
+        <v>601</v>
       </c>
       <c r="C258" s="3"/>
     </row>
     <row r="259" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>812</v>
+        <v>194</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>814</v>
+        <v>346</v>
       </c>
       <c r="C259" s="3"/>
     </row>
     <row r="260" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="C260" s="3"/>
     </row>
     <row r="261" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>218</v>
+        <v>700</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>652</v>
+        <v>335</v>
       </c>
       <c r="C261" s="3"/>
     </row>
     <row r="262" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>195</v>
+        <v>728</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>580</v>
+        <v>729</v>
       </c>
       <c r="C262" s="3"/>
     </row>
     <row r="263" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>196</v>
+        <v>1011</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>604</v>
+        <v>808</v>
       </c>
       <c r="C263" s="3"/>
     </row>
     <row r="264" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>197</v>
+        <v>807</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>605</v>
+        <v>809</v>
       </c>
       <c r="C264" s="3"/>
     </row>
     <row r="265" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>315</v>
+        <v>221</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>606</v>
+        <v>399</v>
       </c>
       <c r="C265" s="3"/>
     </row>
     <row r="266" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>607</v>
+        <v>648</v>
       </c>
       <c r="C266" s="3"/>
     </row>
     <row r="267" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>961</v>
+        <v>195</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>458</v>
+        <v>1012</v>
       </c>
       <c r="C267" s="3"/>
     </row>
     <row r="268" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C268" s="3"/>
     </row>
     <row r="269" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>328</v>
+        <v>197</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>529</v>
+        <v>603</v>
       </c>
       <c r="C269" s="3"/>
     </row>
     <row r="270" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
-        <v>755</v>
+        <v>315</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>459</v>
+        <v>604</v>
       </c>
       <c r="C270" s="3"/>
     </row>
     <row r="271" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>347</v>
+        <v>605</v>
       </c>
       <c r="C271" s="3"/>
     </row>
     <row r="272" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
-        <v>317</v>
+        <v>952</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
       <c r="C272" s="3"/>
     </row>
     <row r="273" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>530</v>
+        <v>606</v>
       </c>
       <c r="C273" s="3"/>
     </row>
     <row r="274" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>203</v>
+        <v>328</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>460</v>
+        <v>529</v>
       </c>
       <c r="C274" s="3"/>
     </row>
     <row r="275" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>204</v>
+        <v>750</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>581</v>
+        <v>459</v>
       </c>
       <c r="C275" s="3"/>
     </row>
     <row r="276" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>653</v>
+        <v>347</v>
       </c>
       <c r="C276" s="3"/>
     </row>
     <row r="277" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>206</v>
+        <v>317</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>609</v>
+        <v>491</v>
       </c>
       <c r="C277" s="3"/>
     </row>
     <row r="278" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>928</v>
+        <v>225</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C278" s="3"/>
     </row>
     <row r="279" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>929</v>
+        <v>203</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>532</v>
+        <v>460</v>
       </c>
       <c r="C279" s="3"/>
     </row>
     <row r="280" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>654</v>
+        <v>579</v>
       </c>
       <c r="C280" s="3"/>
     </row>
     <row r="281" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
       <c r="C281" s="3"/>
     </row>
     <row r="282" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C282" s="3"/>
     </row>
     <row r="283" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>209</v>
+        <v>919</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>492</v>
+        <v>531</v>
       </c>
       <c r="C283" s="3"/>
     </row>
     <row r="284" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>211</v>
+        <v>920</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C284" s="3"/>
     </row>
     <row r="285" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>534</v>
+        <v>650</v>
       </c>
       <c r="C285" s="3"/>
     </row>
     <row r="286" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>535</v>
+        <v>608</v>
       </c>
       <c r="C286" s="3"/>
     </row>
     <row r="287" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>613</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="C287" s="3"/>
     </row>
     <row r="288" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>536</v>
+        <v>492</v>
       </c>
       <c r="C288" s="3"/>
     </row>
     <row r="289" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>371</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="C289" s="3"/>
     </row>
     <row r="290" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>366</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="C290" s="3"/>
     </row>
     <row r="291" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>339</v>
+        <v>535</v>
       </c>
       <c r="C291" s="3"/>
     </row>
     <row r="292" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="C292" s="3"/>
+        <v>610</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="293" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>366</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="C293" s="3"/>
     </row>
     <row r="294" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>281</v>
+        <v>216</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="C294" s="3"/>
+        <v>370</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="295" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="C295" s="3"/>
+        <v>612</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="296" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>539</v>
+        <v>339</v>
       </c>
       <c r="C296" s="3"/>
     </row>
     <row r="297" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>540</v>
+        <v>224</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>815</v>
+        <v>613</v>
       </c>
       <c r="C297" s="3"/>
     </row>
     <row r="298" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="C298" s="3"/>
+        <v>614</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="299" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>618</v>
+        <v>537</v>
       </c>
       <c r="C299" s="3"/>
     </row>
     <row r="300" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>542</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="C300" s="3"/>
     </row>
     <row r="301" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C301" s="3"/>
     </row>
     <row r="302" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>238</v>
+        <v>540</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>619</v>
+        <v>810</v>
       </c>
       <c r="C302" s="3"/>
     </row>
     <row r="303" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>763</v>
+        <v>232</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>764</v>
+        <v>615</v>
       </c>
       <c r="C303" s="3"/>
     </row>
     <row r="304" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>544</v>
+        <v>616</v>
       </c>
       <c r="C304" s="3"/>
     </row>
     <row r="305" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C305" s="3"/>
+        <v>541</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="306" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>375</v>
+        <v>543</v>
       </c>
       <c r="C306" s="3"/>
     </row>
     <row r="307" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>461</v>
+        <v>1019</v>
       </c>
       <c r="C307" s="3"/>
     </row>
     <row r="308" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
-        <v>246</v>
+        <v>758</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>545</v>
+        <v>759</v>
       </c>
       <c r="C308" s="3"/>
     </row>
     <row r="309" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>974</v>
+        <v>241</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>582</v>
+        <v>544</v>
       </c>
       <c r="C309" s="3"/>
     </row>
     <row r="310" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>462</v>
+        <v>374</v>
       </c>
       <c r="C310" s="3"/>
     </row>
     <row r="311" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>546</v>
+        <v>375</v>
       </c>
       <c r="C311" s="3"/>
     </row>
     <row r="312" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>547</v>
+        <v>461</v>
       </c>
       <c r="C312" s="3"/>
     </row>
     <row r="313" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>620</v>
+        <v>545</v>
       </c>
       <c r="C313" s="3"/>
     </row>
     <row r="314" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
-        <v>279</v>
+        <v>964</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>548</v>
+        <v>580</v>
       </c>
       <c r="C314" s="3"/>
     </row>
     <row r="315" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>367</v>
+        <v>247</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>583</v>
+        <v>462</v>
       </c>
       <c r="C315" s="3"/>
     </row>
     <row r="316" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>584</v>
+        <v>546</v>
       </c>
       <c r="C316" s="3"/>
     </row>
     <row r="317" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C317" s="3"/>
     </row>
     <row r="318" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
-        <v>316</v>
+        <v>250</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>747</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="C318" s="3"/>
     </row>
     <row r="319" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>413</v>
+        <v>548</v>
       </c>
       <c r="C319" s="3"/>
     </row>
     <row r="320" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
-        <v>257</v>
+        <v>367</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>414</v>
+        <v>581</v>
       </c>
       <c r="C320" s="3"/>
     </row>
     <row r="321" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>964</v>
+        <v>254</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>918</v>
+        <v>582</v>
       </c>
       <c r="C321" s="3"/>
     </row>
     <row r="322" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
-        <v>965</v>
+        <v>255</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>621</v>
+        <v>549</v>
       </c>
       <c r="C322" s="3"/>
     </row>
     <row r="323" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
-        <v>258</v>
+        <v>316</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="C323" s="3"/>
+        <v>741</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="324" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>622</v>
+        <v>413</v>
       </c>
       <c r="C324" s="3"/>
     </row>
     <row r="325" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
-        <v>737</v>
+        <v>257</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>623</v>
+        <v>414</v>
       </c>
       <c r="C325" s="3"/>
     </row>
     <row r="326" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
-        <v>261</v>
+        <v>954</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>624</v>
+        <v>912</v>
       </c>
       <c r="C326" s="3"/>
     </row>
     <row r="327" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
-        <v>262</v>
+        <v>955</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>625</v>
+        <v>1006</v>
       </c>
       <c r="C327" s="3"/>
     </row>
     <row r="328" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>463</v>
+        <v>583</v>
       </c>
       <c r="C328" s="3"/>
     </row>
     <row r="329" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>586</v>
+        <v>618</v>
       </c>
       <c r="C329" s="3"/>
     </row>
     <row r="330" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
-        <v>267</v>
+        <v>732</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>587</v>
+        <v>619</v>
       </c>
       <c r="C330" s="3"/>
     </row>
     <row r="331" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="C331" s="3"/>
     </row>
     <row r="332" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>551</v>
+        <v>621</v>
       </c>
       <c r="C332" s="3"/>
     </row>
     <row r="333" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>626</v>
+        <v>463</v>
       </c>
       <c r="C333" s="3"/>
     </row>
     <row r="334" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>493</v>
+        <v>584</v>
       </c>
       <c r="C334" s="3"/>
     </row>
     <row r="335" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>552</v>
+        <v>585</v>
       </c>
       <c r="C335" s="3"/>
     </row>
     <row r="336" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>627</v>
+        <v>550</v>
       </c>
       <c r="C336" s="3"/>
     </row>
     <row r="337" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C337" s="3"/>
     </row>
     <row r="338" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C338" s="3"/>
     </row>
     <row r="339" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>629</v>
+        <v>493</v>
       </c>
       <c r="C339" s="3"/>
     </row>
     <row r="340" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C340" s="3" t="s">
-        <v>753</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="C340" s="3"/>
     </row>
     <row r="341" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>655</v>
+        <v>623</v>
       </c>
       <c r="C341" s="3"/>
     </row>
     <row r="342" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>656</v>
+        <v>1022</v>
       </c>
       <c r="C342" s="3"/>
     </row>
     <row r="343" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
-        <v>758</v>
+        <v>282</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>494</v>
+        <v>624</v>
       </c>
       <c r="C343" s="3"/>
     </row>
     <row r="344" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>464</v>
+        <v>625</v>
       </c>
       <c r="C344" s="3"/>
     </row>
     <row r="345" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C345" s="3"/>
+        <v>376</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="346" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>630</v>
+        <v>651</v>
       </c>
       <c r="C346" s="3"/>
     </row>
     <row r="347" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>752</v>
+        <v>652</v>
       </c>
       <c r="C347" s="3"/>
     </row>
     <row r="348" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
-        <v>294</v>
+        <v>753</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>554</v>
+        <v>494</v>
       </c>
       <c r="C348" s="3"/>
     </row>
     <row r="349" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C349" s="3"/>
     </row>
     <row r="350" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>926</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>690</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="C350" s="3"/>
     </row>
     <row r="351" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>416</v>
+        <v>626</v>
       </c>
       <c r="C351" s="3"/>
     </row>
     <row r="352" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>631</v>
+        <v>747</v>
       </c>
       <c r="C352" s="3"/>
     </row>
     <row r="353" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C353" s="3"/>
     </row>
     <row r="354" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>556</v>
+        <v>465</v>
       </c>
       <c r="C354" s="3"/>
     </row>
     <row r="355" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C355" s="3"/>
+        <v>917</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="356" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>466</v>
+        <v>416</v>
       </c>
       <c r="C356" s="3"/>
     </row>
     <row r="357" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>557</v>
+        <v>627</v>
       </c>
       <c r="C357" s="3"/>
     </row>
     <row r="358" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>754</v>
+        <v>554</v>
       </c>
       <c r="C358" s="3"/>
     </row>
     <row r="359" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
       <c r="C359" s="3"/>
     </row>
     <row r="360" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>633</v>
+        <v>348</v>
       </c>
       <c r="C360" s="3"/>
     </row>
     <row r="361" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>558</v>
+        <v>466</v>
       </c>
       <c r="C361" s="3"/>
     </row>
     <row r="362" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>417</v>
+        <v>556</v>
       </c>
       <c r="C362" s="3"/>
     </row>
     <row r="363" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>559</v>
+        <v>749</v>
       </c>
       <c r="C363" s="3"/>
     </row>
     <row r="364" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>635</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="C364" s="3"/>
     </row>
     <row r="365" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="C365" s="3"/>
     </row>
     <row r="366" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>637</v>
+        <v>557</v>
       </c>
       <c r="C366" s="3"/>
     </row>
     <row r="367" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>638</v>
+        <v>417</v>
       </c>
       <c r="C367" s="3"/>
     </row>
     <row r="368" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
-        <v>966</v>
+        <v>310</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>967</v>
+        <v>558</v>
       </c>
       <c r="C368" s="3"/>
     </row>
     <row r="369" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>680</v>
+        <v>631</v>
       </c>
     </row>
     <row r="370" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="C370" s="3" t="s">
-        <v>693</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="C370" s="3"/>
     </row>
     <row r="371" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="C371" s="3" t="s">
-        <v>693</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="C371" s="3"/>
     </row>
     <row r="372" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>467</v>
+        <v>634</v>
       </c>
       <c r="C372" s="3"/>
     </row>
     <row r="373" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
-        <v>322</v>
+        <v>956</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>418</v>
+        <v>957</v>
       </c>
       <c r="C373" s="3"/>
     </row>
     <row r="374" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C374" s="3"/>
+        <v>635</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="375" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="C375" s="3"/>
+        <v>687</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="376" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="C376" s="3"/>
+        <v>688</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="377" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="C377" s="3" t="s">
-        <v>674</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="C377" s="3"/>
     </row>
     <row r="378" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
-        <v>707</v>
+        <v>322</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>708</v>
+        <v>418</v>
       </c>
       <c r="C378" s="3"/>
     </row>
     <row r="379" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
-        <v>738</v>
+        <v>323</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>739</v>
+        <v>559</v>
       </c>
       <c r="C379" s="3"/>
     </row>
     <row r="380" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
-        <v>710</v>
+        <v>324</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>711</v>
+        <v>560</v>
       </c>
       <c r="C380" s="3"/>
     </row>
     <row r="381" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
-        <v>712</v>
+        <v>325</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>713</v>
+        <v>419</v>
       </c>
       <c r="C381" s="3"/>
     </row>
     <row r="382" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
-        <v>765</v>
+        <v>326</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="C382" s="3"/>
+        <v>586</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="383" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="C383" s="3"/>
     </row>
     <row r="384" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="C384" s="3"/>
     </row>
     <row r="385" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="C385" s="3"/>
     </row>
     <row r="386" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="C386" s="3"/>
     </row>
     <row r="387" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="C387" s="3"/>
     </row>
     <row r="388" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
-        <v>725</v>
+        <v>1010</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
       <c r="C388" s="3"/>
     </row>
     <row r="389" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
-        <v>731</v>
+        <v>713</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="C389" s="3"/>
     </row>
     <row r="390" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="C390" s="3"/>
     </row>
     <row r="391" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
-        <v>973</v>
+        <v>717</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>749</v>
+        <v>718</v>
       </c>
       <c r="C391" s="3"/>
     </row>
     <row r="392" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
-        <v>744</v>
+        <v>775</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>745</v>
+        <v>722</v>
       </c>
       <c r="C392" s="3"/>
     </row>
     <row r="393" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
-        <v>748</v>
+        <v>720</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>750</v>
+        <v>721</v>
       </c>
       <c r="C393" s="3"/>
     </row>
     <row r="394" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
-        <v>759</v>
+        <v>726</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>751</v>
+        <v>727</v>
       </c>
       <c r="C394" s="3"/>
     </row>
     <row r="395" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
-        <v>757</v>
+        <v>730</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>756</v>
+        <v>731</v>
       </c>
       <c r="C395" s="3"/>
     </row>
     <row r="396" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
-        <v>761</v>
+        <v>963</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>762</v>
+        <v>744</v>
       </c>
       <c r="C396" s="3"/>
     </row>
     <row r="397" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
-        <v>766</v>
+        <v>739</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>767</v>
+        <v>740</v>
       </c>
       <c r="C397" s="3"/>
     </row>
     <row r="398" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
-        <v>770</v>
+        <v>743</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>771</v>
+        <v>745</v>
       </c>
       <c r="C398" s="3"/>
     </row>
     <row r="399" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
-        <v>772</v>
+        <v>754</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>773</v>
+        <v>746</v>
       </c>
       <c r="C399" s="3"/>
     </row>
     <row r="400" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
-        <v>781</v>
+        <v>752</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>782</v>
+        <v>751</v>
       </c>
       <c r="C400" s="3"/>
     </row>
     <row r="401" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
-        <v>783</v>
+        <v>756</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>784</v>
+        <v>757</v>
       </c>
       <c r="C401" s="3"/>
     </row>
     <row r="402" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
-        <v>786</v>
+        <v>761</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>788</v>
+        <v>762</v>
       </c>
       <c r="C402" s="3"/>
     </row>
     <row r="403" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
       <c r="C403" s="3"/>
     </row>
     <row r="404" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="3" t="s">
-        <v>790</v>
+        <v>767</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
       <c r="C404" s="3"/>
     </row>
     <row r="405" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="C405" s="3" t="s">
-        <v>797</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="C405" s="3"/>
     </row>
     <row r="406" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="C406" s="3" t="s">
-        <v>798</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="C406" s="3"/>
     </row>
     <row r="407" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
       <c r="C407" s="3"/>
     </row>
     <row r="408" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
-        <v>802</v>
+        <v>782</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="C408" s="3"/>
     </row>
     <row r="409" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
       <c r="C409" s="3"/>
     </row>
     <row r="410" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="C410" s="3"/>
+        <v>790</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="411" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="C411" s="3"/>
+        <v>791</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>793</v>
+      </c>
     </row>
     <row r="412" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
-        <v>968</v>
+        <v>796</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>816</v>
+        <v>798</v>
       </c>
       <c r="C412" s="3"/>
     </row>
     <row r="413" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
-        <v>818</v>
+        <v>797</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="C413" s="3"/>
     </row>
     <row r="414" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="3" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="C414" s="3"/>
     </row>
     <row r="415" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
-        <v>927</v>
+        <v>801</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>907</v>
+        <v>803</v>
       </c>
       <c r="C415" s="3"/>
     </row>
     <row r="416" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
-        <v>910</v>
+        <v>804</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>908</v>
+        <v>805</v>
       </c>
       <c r="C416" s="3"/>
     </row>
     <row r="417" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
-        <v>909</v>
+        <v>958</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>911</v>
+        <v>811</v>
       </c>
       <c r="C417" s="3"/>
     </row>
     <row r="418" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
-        <v>912</v>
+        <v>813</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>913</v>
+        <v>814</v>
       </c>
       <c r="C418" s="3"/>
     </row>
     <row r="419" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
-        <v>914</v>
+        <v>1007</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>915</v>
+        <v>815</v>
       </c>
       <c r="C419" s="3"/>
     </row>
     <row r="420" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>917</v>
+        <v>901</v>
       </c>
       <c r="C420" s="3"/>
     </row>
     <row r="421" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
-        <v>969</v>
+        <v>904</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>970</v>
+        <v>902</v>
       </c>
       <c r="C421" s="3"/>
     </row>
     <row r="422" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
-        <v>919</v>
+        <v>903</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>920</v>
+        <v>905</v>
       </c>
       <c r="C422" s="3"/>
     </row>
     <row r="423" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="C423" s="3"/>
     </row>
     <row r="424" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
-        <v>924</v>
+        <v>908</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>996</v>
+        <v>909</v>
       </c>
       <c r="C424" s="3"/>
     </row>
     <row r="425" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>995</v>
+        <v>911</v>
       </c>
       <c r="C425" s="3"/>
     </row>
     <row r="426" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
-        <v>930</v>
+        <v>959</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>931</v>
+        <v>960</v>
       </c>
       <c r="C426" s="3"/>
     </row>
     <row r="427" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
-        <v>932</v>
+        <v>913</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>933</v>
+        <v>914</v>
       </c>
       <c r="C427" s="3"/>
     </row>
     <row r="428" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
-        <v>935</v>
+        <v>1026</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>936</v>
+        <v>1025</v>
       </c>
       <c r="C428" s="3"/>
     </row>
     <row r="429" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
-        <v>937</v>
+        <v>915</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>938</v>
+        <v>986</v>
       </c>
       <c r="C429" s="3"/>
     </row>
     <row r="430" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
-        <v>939</v>
+        <v>916</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>940</v>
+        <v>985</v>
       </c>
       <c r="C430" s="3"/>
     </row>
     <row r="431" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
-        <v>946</v>
+        <v>921</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>941</v>
+        <v>922</v>
       </c>
       <c r="C431" s="3"/>
     </row>
     <row r="432" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="3" t="s">
-        <v>942</v>
+        <v>923</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>943</v>
+        <v>924</v>
       </c>
       <c r="C432" s="3"/>
     </row>
     <row r="433" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
-        <v>944</v>
+        <v>926</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>945</v>
+        <v>927</v>
       </c>
       <c r="C433" s="3"/>
     </row>
     <row r="434" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>950</v>
-      </c>
-      <c r="C434" s="3" t="s">
-        <v>948</v>
-      </c>
+        <v>929</v>
+      </c>
+      <c r="C434" s="3"/>
     </row>
     <row r="435" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
-        <v>951</v>
+        <v>930</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>952</v>
+        <v>931</v>
       </c>
       <c r="C435" s="3"/>
     </row>
     <row r="436" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
-        <v>953</v>
+        <v>937</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>957</v>
+        <v>932</v>
       </c>
       <c r="C436" s="3"/>
     </row>
     <row r="437" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
-        <v>954</v>
+        <v>1023</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>958</v>
+        <v>1024</v>
       </c>
       <c r="C437" s="3"/>
     </row>
     <row r="438" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>959</v>
+        <v>934</v>
       </c>
       <c r="C438" s="3"/>
     </row>
     <row r="439" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>960</v>
+        <v>936</v>
       </c>
       <c r="C439" s="3"/>
     </row>
     <row r="440" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="3" t="s">
-        <v>962</v>
+        <v>940</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>963</v>
-      </c>
-      <c r="C440" s="3"/>
+        <v>941</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>939</v>
+      </c>
     </row>
     <row r="441" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
-        <v>971</v>
+        <v>942</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>972</v>
+        <v>943</v>
       </c>
       <c r="C441" s="3"/>
     </row>
     <row r="442" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
-        <v>983</v>
+        <v>944</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>984</v>
+        <v>948</v>
       </c>
       <c r="C442" s="3"/>
     </row>
     <row r="443" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A443" s="3"/>
-      <c r="B443" s="3"/>
+      <c r="A443" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>949</v>
+      </c>
       <c r="C443" s="3"/>
     </row>
     <row r="444" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A444" s="3"/>
-      <c r="B444" s="3"/>
+      <c r="A444" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>950</v>
+      </c>
       <c r="C444" s="3"/>
     </row>
     <row r="445" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A445" s="3"/>
-      <c r="B445" s="3"/>
+      <c r="A445" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>951</v>
+      </c>
       <c r="C445" s="3"/>
     </row>
     <row r="446" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A446" s="3"/>
-      <c r="B446" s="3"/>
+      <c r="A446" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>990</v>
+      </c>
       <c r="C446" s="3"/>
     </row>
     <row r="447" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A447" s="3"/>
-      <c r="B447" s="3"/>
+      <c r="A447" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>962</v>
+      </c>
       <c r="C447" s="3"/>
     </row>
     <row r="448" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A448" s="3"/>
-      <c r="B448" s="3"/>
+      <c r="A448" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>974</v>
+      </c>
       <c r="C448" s="3"/>
     </row>
     <row r="449" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A449" s="3"/>
-      <c r="B449" s="3"/>
+      <c r="A449" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>988</v>
+      </c>
       <c r="C449" s="3"/>
     </row>
     <row r="450" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A450" s="3"/>
-      <c r="B450" s="3"/>
+      <c r="A450" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>991</v>
+      </c>
       <c r="C450" s="3"/>
     </row>
     <row r="451" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A451" s="3"/>
-      <c r="B451" s="3"/>
+      <c r="A451" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>1002</v>
+      </c>
       <c r="C451" s="3"/>
     </row>
     <row r="452" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A452" s="3"/>
-      <c r="B452" s="3"/>
+      <c r="A452" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>1003</v>
+      </c>
       <c r="C452" s="3"/>
     </row>
     <row r="453" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A453" s="3"/>
-      <c r="B453" s="3"/>
+      <c r="A453" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>1005</v>
+      </c>
       <c r="C453" s="3"/>
     </row>
     <row r="454" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A454" s="3"/>
-      <c r="B454" s="3"/>
+      <c r="A454" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>1009</v>
+      </c>
       <c r="C454" s="3"/>
     </row>
     <row r="455" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A455" s="3"/>
-      <c r="B455" s="3"/>
+      <c r="A455" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>1014</v>
+      </c>
       <c r="C455" s="3"/>
     </row>
     <row r="456" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A456" s="3"/>
-      <c r="B456" s="3"/>
+      <c r="A456" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>1018</v>
+      </c>
       <c r="C456" s="3"/>
     </row>
     <row r="457" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A457" s="3"/>
-      <c r="B457" s="3"/>
+      <c r="A457" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>1017</v>
+      </c>
       <c r="C457" s="3"/>
     </row>
     <row r="458" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11983,11 +12192,41 @@
       <c r="B1050" s="3"/>
       <c r="C1050" s="3"/>
     </row>
+    <row r="1051" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1051" s="3"/>
+      <c r="B1051" s="3"/>
+      <c r="C1051" s="3"/>
+    </row>
+    <row r="1052" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1052" s="3"/>
+      <c r="B1052" s="3"/>
+      <c r="C1052" s="3"/>
+    </row>
+    <row r="1053" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1053" s="3"/>
+      <c r="B1053" s="3"/>
+      <c r="C1053" s="3"/>
+    </row>
+    <row r="1054" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1054" s="3"/>
+      <c r="B1054" s="3"/>
+      <c r="C1054" s="3"/>
+    </row>
+    <row r="1055" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1055" s="3"/>
+      <c r="B1055" s="3"/>
+      <c r="C1055" s="3"/>
+    </row>
+    <row r="1056" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1056" s="3"/>
+      <c r="B1056" s="3"/>
+      <c r="C1056" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="C20:C35"/>
-    <mergeCell ref="C207:C213"/>
+    <mergeCell ref="C212:C218"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12012,402 +12251,402 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>906</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
+      <c r="A1" s="30" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
     </row>
     <row r="2" spans="1:18" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
-        <v>904</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
+      <c r="A2" s="32" t="s">
+        <v>898</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="9" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
+        <v>830</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="29"/>
+      <c r="B6" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>836</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>859</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>860</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>861</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>862</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>863</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>864</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>865</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>866</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>869</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>870</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>871</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>872</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>874</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="28"/>
-      <c r="B6" s="9" t="s">
+      <c r="H6" s="12" t="s">
         <v>837</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="I6" s="12" t="s">
         <v>838</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>839</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>840</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>841</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>842</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>843</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>844</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>28</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>96</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="9" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>82</v>
       </c>
       <c r="G9" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>880</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>881</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>882</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>883</v>
+      </c>
+      <c r="M9" s="19" t="s">
         <v>884</v>
       </c>
-      <c r="H9" s="17" t="s">
+    </row>
+    <row r="10" spans="1:18" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>897</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
         <v>885</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>886</v>
-      </c>
-      <c r="J9" s="17" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>899</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
         <v>887</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>888</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>889</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>903</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
-        <v>891</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
-        <v>905</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31" t="s">
-        <v>893</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
     </row>
     <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
+        <v>888</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
+      <c r="B15" s="20" t="s">
         <v>894</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C15" s="12" t="s">
         <v>895</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>896</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>897</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>899</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="32"/>
-      <c r="B15" s="20" t="s">
-        <v>900</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>901</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:R10"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A11:R11"/>
     <mergeCell ref="A12:R12"/>
     <mergeCell ref="A13:R13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A10:R10"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A11:R11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
+++ b/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Websites\hssrgov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B03466-520E-4A3F-B2C7-CF7CFD9DFB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95F4CB6-1EA6-44C4-BBEF-DC45D7BF8C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CCB781DE-C1B4-4E71-9129-23ABA5B611FE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="2" xr2:uid="{CCB781DE-C1B4-4E71-9129-23ABA5B611FE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Haer Langu" sheetId="1" r:id="rId1"/>
+    <sheet name="Haer Langu Nedekayhoyna" sheetId="1" r:id="rId1"/>
     <sheet name="“讧中   车匕   灵   冮   十扌寸”方案" sheetId="2" r:id="rId2"/>
+    <sheet name="Кирива Хаер Лангу Недекаĵхоĵна" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="1072">
   <si>
     <t>中文</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -175,10 +176,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>常用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>单词/字</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -535,18 +532,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>明天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>后天</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>昨天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>前天</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1003,10 +992,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>根据/依据/证据/依靠/证词/口供</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>当地</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1291,10 +1276,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>发布/公示/告示/通报/通知/报告/宣布</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>第…次全国代表大会</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1847,9 +1828,6 @@
     <t>lev</t>
   </si>
   <si>
-    <t>强制…去做…：stag…+v.</t>
-  </si>
-  <si>
     <t>bev</t>
   </si>
   <si>
@@ -1988,9 +1966,6 @@
     <t>mestniv</t>
   </si>
   <si>
-    <t>kiriliva</t>
-  </si>
-  <si>
     <t>gretsiva</t>
   </si>
   <si>
@@ -2375,10 +2350,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>万岁：lot lev  表达激动：ura</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>苏维埃社会主义自治共和国：Sovet Sotsialism Ayivedanarod Respublik (SSAR)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2698,10 +2669,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>通过/批准/许可/放行（通常为政令或关卡）/同意/认同/认可/允许</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>辞职/辞去/辞退/被辞退/离职/下岗/失业/卸任/退休/终止工作</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3268,10 +3235,6 @@
   </si>
   <si>
     <t>巾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：以句为单位，自左至右依次表示第一、二、三个单词间的空格，一句内空格超过12个时自左至右循环，但形如Haer Langu、Haer Labotiy的专用名词（大写）中间的空格只能写成“灵”，且不参与整句的空格循环。人名中间的空格不写出，不参与整句的空格循环。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3971,12 +3934,229 @@
     <t>提季提格勒（哈儿苏维埃社会主义共和国首都）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>注：以句为单位，自左至右依次表示第一、二、三个单词间的空格，一句内空格超过12个时自左至右循环，但形如Haer Langu、Haer Labotiy的专用名词（大写）中间的空格只能全部写成“灵”，且不参与整句的空格循环。人名中间的空格不写出，不参与整句的空格循环。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万岁：lot lev  表达激动：loevaśʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律/法规/规则/守则/纪律/准则/法典/法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宪法/根本法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刑法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（自成单字，与前后分开）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西里尔哈儿语字母</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉丁哈儿语字母</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Аа</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Бб</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Дд</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Фф</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Гг</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Хх</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ии</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Кк</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Лл</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Мм</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Нн</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Оо</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Пп</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Рр</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Сс</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Тт</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Уу</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Вв</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ŷŷ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Зз</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ćć</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ʡ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ĵĵ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ее</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案/方法/解决办法/出路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoyna</t>
+  </si>
+  <si>
+    <t>nedekhoyna</t>
+  </si>
+  <si>
+    <t>busalahoyna</t>
+  </si>
+  <si>
+    <t>nedekayhoyna</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiriva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西里尔哈儿语方案                Кирива Хаер Лангу Недекаĵхоĵна</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据/依据/证据/依靠/证词/口供/证明/证实</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假依据/假证据/伪证/虚假的证明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spedfrek</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>书籍/书本/图书/典籍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>botsan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大典：bin botsan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布/公示/告示/通报/通知/报告/宣布/公布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天/昨日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天/明日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用/经常/总是/常规/一般/正常/常见</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常/不常用/罕见/几乎不出现/几乎不存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>neuzefa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过/批准/许可/放行（通常为政令或关卡）/同意/认同/认可/允许/（现）予</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现予：lis fehiu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vdog</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4098,6 +4278,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="二简字楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4107,7 +4295,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -4378,6 +4566,124 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4387,7 +4693,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4454,6 +4760,30 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4485,6 +4815,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4534,7 +4879,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="4198879" y="80056"/>
-          <a:ext cx="3135371" cy="3908780"/>
+          <a:ext cx="3135371" cy="4277080"/>
           <a:chOff x="4198879" y="80056"/>
           <a:chExt cx="3135371" cy="3908780"/>
         </a:xfrm>
@@ -5010,10 +5355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB56768-82A6-42FF-B107-45016A59F08E}">
-  <dimension ref="A1:C1056"/>
+  <dimension ref="A1:C1060"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A428" sqref="A428"/>
+    <sheetView topLeftCell="A279" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B285" sqref="B285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5025,11 +5370,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>653</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="A1" s="30" t="s">
+        <v>646</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -5047,10 +5392,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5058,7 +5403,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -5067,7 +5412,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -5076,7 +5421,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -5085,7 +5430,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -5094,25 +5439,25 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -5121,7 +5466,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -5130,7 +5475,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -5139,7 +5484,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -5148,10 +5493,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5159,7 +5504,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -5168,7 +5513,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -5177,7 +5522,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -5186,7 +5531,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -5195,7 +5540,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -5204,10 +5549,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>671</v>
+        <v>650</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5215,145 +5560,145 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="C21" s="24"/>
+        <v>651</v>
+      </c>
+      <c r="C21" s="32"/>
     </row>
     <row r="22" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="C22" s="24"/>
+        <v>652</v>
+      </c>
+      <c r="C22" s="32"/>
     </row>
     <row r="23" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="C23" s="24"/>
+        <v>653</v>
+      </c>
+      <c r="C23" s="32"/>
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="C24" s="24"/>
+        <v>654</v>
+      </c>
+      <c r="C24" s="32"/>
     </row>
     <row r="25" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="C25" s="24"/>
+        <v>655</v>
+      </c>
+      <c r="C25" s="32"/>
     </row>
     <row r="26" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="C26" s="24"/>
+        <v>656</v>
+      </c>
+      <c r="C26" s="32"/>
     </row>
     <row r="27" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="C27" s="24"/>
+        <v>657</v>
+      </c>
+      <c r="C27" s="32"/>
     </row>
     <row r="28" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="C28" s="24"/>
+        <v>658</v>
+      </c>
+      <c r="C28" s="32"/>
     </row>
     <row r="29" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C29" s="24"/>
+        <v>659</v>
+      </c>
+      <c r="C29" s="32"/>
     </row>
     <row r="30" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="C30" s="24"/>
+        <v>660</v>
+      </c>
+      <c r="C30" s="32"/>
     </row>
     <row r="31" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="C31" s="24"/>
+        <v>661</v>
+      </c>
+      <c r="C31" s="32"/>
     </row>
     <row r="32" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="C32" s="24"/>
+        <v>492</v>
+      </c>
+      <c r="C32" s="32"/>
     </row>
     <row r="33" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C33" s="24"/>
+        <v>417</v>
+      </c>
+      <c r="C33" s="32"/>
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="C34" s="24"/>
+        <v>418</v>
+      </c>
+      <c r="C34" s="32"/>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="C35" s="25"/>
+        <v>580</v>
+      </c>
+      <c r="C35" s="33"/>
     </row>
     <row r="36" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>669</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5361,36 +5706,34 @@
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>499</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C40" s="3"/>
     </row>
@@ -5399,7 +5742,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C41" s="3"/>
     </row>
@@ -5408,7 +5751,7 @@
         <v>36</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C42" s="3"/>
     </row>
@@ -5417,850 +5760,850 @@
         <v>37</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>38</v>
+        <v>1065</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>39</v>
+        <v>1066</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>641</v>
+        <v>1067</v>
       </c>
       <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>379</v>
+        <v>634</v>
       </c>
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>642</v>
+        <v>374</v>
       </c>
       <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>737</v>
+        <v>40</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>774</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>42</v>
+        <v>729</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C49" s="3"/>
+        <v>730</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="50" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>426</v>
+        <v>335</v>
       </c>
       <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>356</v>
+        <v>424</v>
       </c>
       <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>806</v>
+        <v>45</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>400</v>
+        <v>496</v>
       </c>
       <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>672</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="C59" s="3"/>
+        <v>425</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="60" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>237</v>
+        <v>49</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
       <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>51</v>
+        <v>234</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>504</v>
+        <v>426</v>
       </c>
       <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>691</v>
+        <v>499</v>
       </c>
       <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>816</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>54</v>
+        <v>196</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C65" s="3"/>
+        <v>556</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="66" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>673</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="C67" s="3"/>
+        <v>500</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="68" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>468</v>
+        <v>557</v>
       </c>
       <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>755</v>
+        <v>56</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>341</v>
+        <v>463</v>
       </c>
       <c r="C69" s="3"/>
     </row>
     <row r="70" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>58</v>
+        <v>746</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>432</v>
+        <v>336</v>
       </c>
       <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>590</v>
+        <v>376</v>
       </c>
       <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>692</v>
+        <v>583</v>
       </c>
       <c r="C74" s="3"/>
     </row>
     <row r="75" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="C75" s="3"/>
     </row>
     <row r="76" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>433</v>
+        <v>686</v>
       </c>
       <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>342</v>
+        <v>428</v>
       </c>
       <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C79" s="3"/>
     </row>
     <row r="80" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>202</v>
+        <v>66</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>277</v>
+        <v>199</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="C81" s="3"/>
     </row>
     <row r="82" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>643</v>
+        <v>352</v>
       </c>
       <c r="C82" s="3"/>
     </row>
     <row r="83" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>68</v>
+        <v>210</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>350</v>
+        <v>637</v>
       </c>
       <c r="C84" s="3"/>
     </row>
     <row r="85" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="C85" s="3"/>
     </row>
     <row r="86" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C86" s="3"/>
     </row>
     <row r="87" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>679</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>507</v>
+        <v>429</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C89" s="3"/>
+        <v>501</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="90" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>263</v>
+        <v>72</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>705</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="C90" s="3"/>
     </row>
     <row r="91" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C91" s="3"/>
+        <v>430</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="92" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C93" s="3"/>
     </row>
     <row r="94" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
       <c r="C94" s="3"/>
     </row>
     <row r="95" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C95" s="3"/>
     </row>
     <row r="96" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>440</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="C96" s="3"/>
     </row>
     <row r="97" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="C97" s="3"/>
+        <v>434</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="98" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>938</v>
+        <v>78</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>939</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="C98" s="3"/>
     </row>
     <row r="99" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>80</v>
+        <v>928</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="C99" s="3"/>
+        <v>675</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>929</v>
+      </c>
     </row>
     <row r="100" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="C100" s="3"/>
     </row>
     <row r="101" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="C101" s="3"/>
     </row>
     <row r="102" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C102" s="3"/>
     </row>
     <row r="103" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>401</v>
+        <v>331</v>
       </c>
       <c r="C103" s="3"/>
     </row>
     <row r="104" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="C104" s="3"/>
     </row>
     <row r="105" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="C105" s="3"/>
     </row>
     <row r="106" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>383</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="C106" s="3"/>
     </row>
     <row r="107" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C107" s="3"/>
+        <v>377</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="108" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C108" s="3"/>
     </row>
     <row r="109" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C109" s="3"/>
     </row>
     <row r="110" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C110" s="3"/>
     </row>
     <row r="111" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>794</v>
+        <v>89</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>388</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="C111" s="3"/>
     </row>
     <row r="112" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
     </row>
     <row r="113" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>91</v>
+        <v>786</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="C113" s="3"/>
+        <v>397</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="114" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>509</v>
+        <v>436</v>
       </c>
       <c r="C114" s="3"/>
     </row>
     <row r="115" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="C115" s="3"/>
     </row>
     <row r="116" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="C116" s="3"/>
     </row>
     <row r="117" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>565</v>
+        <v>505</v>
       </c>
       <c r="C117" s="3"/>
     </row>
     <row r="118" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>389</v>
+        <v>558</v>
       </c>
       <c r="C118" s="3"/>
     </row>
     <row r="119" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C119" s="3"/>
     </row>
     <row r="120" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>965</v>
+        <v>96</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>969</v>
+        <v>385</v>
       </c>
       <c r="C120" s="3"/>
     </row>
     <row r="121" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="C121" s="3"/>
     </row>
     <row r="122" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>972</v>
+        <v>960</v>
       </c>
       <c r="C122" s="3"/>
     </row>
     <row r="123" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="C123" s="3"/>
     </row>
     <row r="124" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>98</v>
+        <v>958</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>344</v>
+        <v>961</v>
       </c>
       <c r="C124" s="3"/>
     </row>
     <row r="125" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>469</v>
+        <v>339</v>
       </c>
       <c r="C125" s="3"/>
     </row>
     <row r="126" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>345</v>
+        <v>464</v>
       </c>
       <c r="C126" s="3"/>
     </row>
     <row r="127" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>645</v>
+        <v>340</v>
       </c>
       <c r="C127" s="3"/>
     </row>
     <row r="128" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>242</v>
+        <v>164</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>769</v>
+        <v>638</v>
       </c>
       <c r="C128" s="3"/>
     </row>
     <row r="129" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>566</v>
+        <v>760</v>
       </c>
       <c r="C129" s="3"/>
     </row>
     <row r="130" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="C130" s="3"/>
     </row>
     <row r="131" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C132" s="3"/>
     </row>
     <row r="133" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>337</v>
+        <v>562</v>
       </c>
       <c r="C133" s="3"/>
     </row>
     <row r="134" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="C134" s="3"/>
     </row>
@@ -6269,2653 +6612,2657 @@
         <v>220</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>646</v>
+        <v>356</v>
       </c>
       <c r="C135" s="3"/>
     </row>
     <row r="136" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>712</v>
+        <v>217</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>470</v>
+        <v>639</v>
       </c>
       <c r="C136" s="3"/>
     </row>
     <row r="137" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>106</v>
+        <v>704</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C137" s="3"/>
     </row>
     <row r="138" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C138" s="3"/>
     </row>
     <row r="139" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>992</v>
+        <v>106</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>993</v>
+        <v>467</v>
       </c>
       <c r="C139" s="3"/>
     </row>
     <row r="140" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>997</v>
+        <v>983</v>
       </c>
       <c r="C140" s="3"/>
     </row>
     <row r="141" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="C141" s="3"/>
     </row>
     <row r="142" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="C142" s="3"/>
     </row>
     <row r="143" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>821</v>
+        <v>986</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>473</v>
+        <v>989</v>
       </c>
       <c r="C143" s="3"/>
     </row>
     <row r="144" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>787</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="C144" s="3"/>
     </row>
     <row r="145" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>290</v>
+        <v>813</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C145" s="3"/>
+        <v>469</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="146" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>108</v>
+        <v>286</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>512</v>
+        <v>470</v>
       </c>
       <c r="C146" s="3"/>
     </row>
     <row r="147" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>442</v>
+        <v>506</v>
       </c>
       <c r="C147" s="3"/>
     </row>
     <row r="148" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>701</v>
+        <v>108</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>702</v>
+        <v>437</v>
       </c>
       <c r="C148" s="3"/>
     </row>
     <row r="149" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>110</v>
+        <v>693</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>362</v>
+        <v>694</v>
       </c>
       <c r="C149" s="3"/>
     </row>
     <row r="150" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C150" s="3"/>
     </row>
     <row r="151" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>818</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="C151" s="3"/>
     </row>
     <row r="152" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>229</v>
+        <v>111</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="C152" s="3"/>
+        <v>808</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="153" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="C153" s="3"/>
     </row>
     <row r="154" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>812</v>
+        <v>227</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row r="155" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>113</v>
+        <v>803</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C155" s="3"/>
     </row>
     <row r="156" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>570</v>
+        <v>400</v>
       </c>
       <c r="C156" s="3"/>
     </row>
     <row r="157" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>513</v>
+        <v>563</v>
       </c>
       <c r="C157" s="3"/>
     </row>
     <row r="158" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>571</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="C158" s="3"/>
     </row>
     <row r="159" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>116</v>
+        <v>231</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C159" s="3"/>
+        <v>439</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="160" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="C160" s="3"/>
     </row>
     <row r="161" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C161" s="3"/>
+        <v>441</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="162" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="C162" s="3"/>
     </row>
     <row r="163" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="C163" s="3"/>
     </row>
     <row r="164" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>260</v>
+        <v>119</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row r="165" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>121</v>
+        <v>256</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="C165" s="3"/>
     </row>
     <row r="166" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C166" s="3"/>
     </row>
     <row r="167" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C167" s="3"/>
     </row>
     <row r="168" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>677</v>
+        <v>389</v>
       </c>
       <c r="C168" s="3"/>
     </row>
     <row r="169" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>198</v>
+        <v>123</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>675</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="C169" s="3"/>
     </row>
     <row r="170" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="C170" s="3"/>
+        <v>471</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="171" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>684</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="C171" s="3"/>
     </row>
     <row r="172" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="C172" s="3"/>
+        <v>472</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="173" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>407</v>
+        <v>508</v>
       </c>
       <c r="C173" s="3"/>
     </row>
     <row r="174" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C174" s="3"/>
     </row>
     <row r="175" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>129</v>
+        <v>1064</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C175" s="3"/>
     </row>
     <row r="176" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C176" s="3"/>
     </row>
     <row r="177" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>131</v>
+        <v>1063</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C177" s="3"/>
     </row>
     <row r="178" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>240</v>
+        <v>128</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>478</v>
+        <v>406</v>
       </c>
       <c r="C178" s="3"/>
     </row>
     <row r="179" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>515</v>
+        <v>473</v>
       </c>
       <c r="C179" s="3"/>
     </row>
     <row r="180" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>697</v>
+        <v>509</v>
       </c>
       <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>572</v>
+        <v>689</v>
       </c>
       <c r="C181" s="3"/>
     </row>
     <row r="182" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="C182" s="3"/>
     </row>
     <row r="183" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C183" s="3"/>
     </row>
     <row r="184" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>289</v>
+        <v>133</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>353</v>
+        <v>567</v>
       </c>
       <c r="C184" s="3"/>
     </row>
     <row r="185" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>575</v>
+        <v>348</v>
       </c>
       <c r="C185" s="3"/>
     </row>
     <row r="186" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>516</v>
+        <v>322</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>517</v>
+        <v>568</v>
       </c>
       <c r="C186" s="3"/>
     </row>
     <row r="187" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>137</v>
+        <v>510</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>449</v>
+        <v>511</v>
       </c>
       <c r="C187" s="3"/>
     </row>
     <row r="188" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C188" s="3"/>
     </row>
     <row r="189" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>139</v>
+        <v>1059</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C189" s="3"/>
+        <v>1060</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>1061</v>
+      </c>
     </row>
     <row r="190" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="C190" s="3"/>
     </row>
     <row r="191" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>518</v>
+        <v>390</v>
       </c>
       <c r="C191" s="3"/>
     </row>
     <row r="192" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
       <c r="C192" s="3"/>
     </row>
     <row r="193" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>451</v>
+        <v>512</v>
       </c>
       <c r="C193" s="3"/>
     </row>
     <row r="194" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="C194" s="3"/>
     </row>
     <row r="195" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C195" s="3"/>
     </row>
     <row r="196" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>269</v>
+        <v>141</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>453</v>
+        <v>368</v>
       </c>
       <c r="C196" s="3"/>
     </row>
     <row r="197" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C197" s="3"/>
     </row>
     <row r="198" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="C198" s="3"/>
     </row>
     <row r="199" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>226</v>
+        <v>144</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>819</v>
+        <v>449</v>
       </c>
       <c r="C199" s="3"/>
     </row>
     <row r="200" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>520</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="C200" s="3"/>
     </row>
     <row r="201" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>521</v>
+        <v>810</v>
       </c>
       <c r="C201" s="3"/>
     </row>
     <row r="202" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>780</v>
+        <v>236</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="C202" s="3"/>
+        <v>513</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="203" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>1020</v>
+        <v>146</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1021</v>
+        <v>515</v>
       </c>
       <c r="C203" s="3"/>
     </row>
     <row r="204" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>150</v>
+        <v>771</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>591</v>
+        <v>569</v>
       </c>
       <c r="C204" s="3"/>
     </row>
     <row r="205" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>151</v>
+        <v>1010</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>592</v>
+        <v>1011</v>
       </c>
       <c r="C205" s="3"/>
     </row>
     <row r="206" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="C206" s="3"/>
     </row>
     <row r="207" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>522</v>
+        <v>585</v>
       </c>
       <c r="C207" s="3"/>
     </row>
     <row r="208" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>338</v>
+        <v>586</v>
       </c>
       <c r="C208" s="3"/>
     </row>
     <row r="209" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>333</v>
+        <v>516</v>
       </c>
       <c r="C209" s="3"/>
     </row>
     <row r="210" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>479</v>
+        <v>333</v>
       </c>
       <c r="C210" s="3"/>
     </row>
     <row r="211" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C211" s="3"/>
     </row>
     <row r="212" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="C212" s="23" t="s">
-        <v>984</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="C212" s="3"/>
     </row>
     <row r="213" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C213" s="24"/>
+        <v>329</v>
+      </c>
+      <c r="C213" s="3"/>
     </row>
     <row r="214" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="C214" s="24"/>
+        <v>672</v>
+      </c>
+      <c r="C214" s="31" t="s">
+        <v>974</v>
+      </c>
     </row>
     <row r="215" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>980</v>
+        <v>156</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>982</v>
-      </c>
-      <c r="C215" s="24"/>
+        <v>670</v>
+      </c>
+      <c r="C215" s="32"/>
     </row>
     <row r="216" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>981</v>
+        <v>157</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>983</v>
-      </c>
-      <c r="C216" s="24"/>
+        <v>677</v>
+      </c>
+      <c r="C216" s="32"/>
     </row>
     <row r="217" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>976</v>
-      </c>
-      <c r="C217" s="24"/>
+        <v>972</v>
+      </c>
+      <c r="C217" s="32"/>
     </row>
     <row r="218" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>978</v>
-      </c>
-      <c r="C218" s="25"/>
+        <v>973</v>
+      </c>
+      <c r="C218" s="32"/>
     </row>
     <row r="219" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>979</v>
+        <v>965</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>681</v>
-      </c>
+        <v>966</v>
+      </c>
+      <c r="C219" s="32"/>
     </row>
     <row r="220" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>161</v>
+        <v>967</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>682</v>
-      </c>
+        <v>968</v>
+      </c>
+      <c r="C220" s="33"/>
     </row>
     <row r="221" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>162</v>
+        <v>969</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="C221" s="3"/>
+        <v>450</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="222" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="C222" s="3"/>
+        <v>570</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="223" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>364</v>
+        <v>571</v>
       </c>
       <c r="C223" s="3"/>
     </row>
     <row r="224" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="C224" s="3"/>
     </row>
     <row r="225" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>470</v>
+        <v>359</v>
       </c>
       <c r="C225" s="3"/>
     </row>
     <row r="226" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>823</v>
+        <v>162</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>365</v>
+        <v>464</v>
       </c>
       <c r="C226" s="3"/>
     </row>
     <row r="227" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>523</v>
+        <v>465</v>
       </c>
       <c r="C227" s="3"/>
     </row>
     <row r="228" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>169</v>
+        <v>814</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>820</v>
+        <v>360</v>
       </c>
       <c r="C228" s="3"/>
     </row>
     <row r="229" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>770</v>
+        <v>165</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>354</v>
+        <v>517</v>
       </c>
       <c r="C229" s="3"/>
     </row>
     <row r="230" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>171</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="C230" s="3"/>
     </row>
     <row r="231" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>172</v>
+        <v>761</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>719</v>
+        <v>349</v>
       </c>
       <c r="C231" s="3"/>
     </row>
     <row r="232" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="C232" s="3"/>
+        <v>475</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="233" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>525</v>
+        <v>711</v>
       </c>
       <c r="C233" s="3"/>
     </row>
     <row r="234" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
       <c r="C234" s="3"/>
     </row>
     <row r="235" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>595</v>
+        <v>519</v>
       </c>
       <c r="C235" s="3"/>
     </row>
     <row r="236" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>268</v>
+        <v>172</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="C236" s="3"/>
     </row>
     <row r="237" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>481</v>
+        <v>588</v>
       </c>
       <c r="C237" s="3"/>
     </row>
     <row r="238" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>482</v>
+        <v>589</v>
       </c>
       <c r="C238" s="3"/>
     </row>
     <row r="239" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row r="240" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C240" s="3"/>
     </row>
     <row r="241" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>486</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="C241" s="3"/>
     </row>
     <row r="242" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C242" s="3"/>
     </row>
     <row r="243" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C243" s="3"/>
+        <v>480</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="244" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>597</v>
+        <v>482</v>
       </c>
       <c r="C244" s="3"/>
     </row>
     <row r="245" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>598</v>
+        <v>483</v>
       </c>
       <c r="C245" s="3"/>
     </row>
     <row r="246" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="C246" s="3"/>
     </row>
     <row r="247" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>698</v>
+        <v>181</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>526</v>
+        <v>591</v>
       </c>
       <c r="C247" s="3"/>
     </row>
     <row r="248" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C248" s="3"/>
     </row>
     <row r="249" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>187</v>
+        <v>690</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>397</v>
+        <v>520</v>
       </c>
       <c r="C249" s="3"/>
     </row>
     <row r="250" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>398</v>
+        <v>593</v>
       </c>
       <c r="C250" s="3"/>
     </row>
     <row r="251" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>772</v>
+        <v>184</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>647</v>
+        <v>392</v>
       </c>
       <c r="C251" s="3"/>
     </row>
     <row r="252" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>771</v>
+        <v>185</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>773</v>
+        <v>393</v>
       </c>
       <c r="C252" s="3"/>
     </row>
     <row r="253" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>189</v>
+        <v>763</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>527</v>
+        <v>640</v>
       </c>
       <c r="C253" s="3"/>
     </row>
     <row r="254" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B254" s="3" t="s">
         <v>764</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>528</v>
       </c>
       <c r="C254" s="3"/>
     </row>
     <row r="255" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>489</v>
+        <v>521</v>
       </c>
       <c r="C255" s="3"/>
     </row>
     <row r="256" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>191</v>
+        <v>755</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="C256" s="3"/>
     </row>
     <row r="257" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>329</v>
+        <v>484</v>
       </c>
       <c r="C257" s="3"/>
     </row>
     <row r="258" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>601</v>
+        <v>485</v>
       </c>
       <c r="C258" s="3"/>
     </row>
     <row r="259" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="C259" s="3"/>
     </row>
     <row r="260" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>457</v>
+        <v>594</v>
       </c>
       <c r="C260" s="3"/>
     </row>
     <row r="261" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>700</v>
+        <v>191</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C261" s="3"/>
     </row>
     <row r="262" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>728</v>
+        <v>228</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>729</v>
+        <v>452</v>
       </c>
       <c r="C262" s="3"/>
     </row>
     <row r="263" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>1011</v>
+        <v>692</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>808</v>
+        <v>330</v>
       </c>
       <c r="C263" s="3"/>
     </row>
     <row r="264" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>807</v>
+        <v>720</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>809</v>
+        <v>721</v>
       </c>
       <c r="C264" s="3"/>
     </row>
     <row r="265" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>221</v>
+        <v>1001</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>399</v>
+        <v>799</v>
       </c>
       <c r="C265" s="3"/>
     </row>
     <row r="266" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>218</v>
+        <v>798</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>648</v>
+        <v>800</v>
       </c>
       <c r="C266" s="3"/>
     </row>
     <row r="267" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>1012</v>
+        <v>394</v>
       </c>
       <c r="C267" s="3"/>
     </row>
     <row r="268" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>602</v>
+        <v>641</v>
       </c>
       <c r="C268" s="3"/>
     </row>
     <row r="269" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>603</v>
+        <v>1002</v>
       </c>
       <c r="C269" s="3"/>
     </row>
     <row r="270" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
-        <v>315</v>
+        <v>193</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="C270" s="3"/>
     </row>
     <row r="271" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="C271" s="3"/>
     </row>
     <row r="272" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
-        <v>952</v>
+        <v>311</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>458</v>
+        <v>597</v>
       </c>
       <c r="C272" s="3"/>
     </row>
     <row r="273" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>295</v>
+        <v>214</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C273" s="3"/>
     </row>
     <row r="274" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>328</v>
+        <v>942</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>529</v>
+        <v>453</v>
       </c>
       <c r="C274" s="3"/>
     </row>
     <row r="275" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>750</v>
+        <v>291</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>459</v>
+        <v>599</v>
       </c>
       <c r="C275" s="3"/>
     </row>
     <row r="276" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
-        <v>200</v>
+        <v>323</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>347</v>
+        <v>523</v>
       </c>
       <c r="C276" s="3"/>
     </row>
     <row r="277" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>317</v>
+        <v>742</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>491</v>
+        <v>454</v>
       </c>
       <c r="C277" s="3"/>
     </row>
     <row r="278" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>530</v>
+        <v>342</v>
       </c>
       <c r="C278" s="3"/>
     </row>
     <row r="279" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>203</v>
+        <v>1062</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="C279" s="3"/>
     </row>
     <row r="280" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>579</v>
+        <v>524</v>
       </c>
       <c r="C280" s="3"/>
     </row>
     <row r="281" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>649</v>
+        <v>455</v>
       </c>
       <c r="C281" s="3"/>
     </row>
     <row r="282" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>607</v>
+        <v>572</v>
       </c>
       <c r="C282" s="3"/>
     </row>
     <row r="283" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>919</v>
+        <v>202</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>531</v>
+        <v>642</v>
       </c>
       <c r="C283" s="3"/>
     </row>
     <row r="284" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>920</v>
+        <v>203</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>532</v>
+        <v>600</v>
       </c>
       <c r="C284" s="3"/>
     </row>
     <row r="285" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>207</v>
+        <v>1070</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>650</v>
+        <v>1071</v>
       </c>
       <c r="C285" s="3"/>
     </row>
     <row r="286" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
-        <v>252</v>
+        <v>909</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>608</v>
+        <v>525</v>
       </c>
       <c r="C286" s="3"/>
     </row>
     <row r="287" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>208</v>
+        <v>910</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>609</v>
+        <v>526</v>
       </c>
       <c r="C287" s="3"/>
     </row>
     <row r="288" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>492</v>
+        <v>643</v>
       </c>
       <c r="C288" s="3"/>
     </row>
     <row r="289" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>533</v>
+        <v>601</v>
       </c>
       <c r="C289" s="3"/>
     </row>
     <row r="290" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="C290" s="3"/>
     </row>
     <row r="291" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>275</v>
+        <v>206</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>535</v>
+        <v>487</v>
       </c>
       <c r="C291" s="3"/>
     </row>
     <row r="292" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>611</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="C292" s="3"/>
     </row>
     <row r="293" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C293" s="3"/>
     </row>
     <row r="294" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>216</v>
+        <v>271</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>371</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="C294" s="3"/>
     </row>
     <row r="295" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>366</v>
+        <v>604</v>
       </c>
     </row>
     <row r="296" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>339</v>
+        <v>530</v>
       </c>
       <c r="C296" s="3"/>
     </row>
     <row r="297" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="C297" s="3"/>
+        <v>365</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="298" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="299" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>537</v>
+        <v>334</v>
       </c>
       <c r="C299" s="3"/>
     </row>
     <row r="300" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>538</v>
+        <v>606</v>
       </c>
       <c r="C300" s="3"/>
     </row>
     <row r="301" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="C301" s="3"/>
+        <v>607</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="302" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>540</v>
+        <v>277</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>810</v>
+        <v>531</v>
       </c>
       <c r="C302" s="3"/>
     </row>
     <row r="303" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>615</v>
+        <v>532</v>
       </c>
       <c r="C303" s="3"/>
     </row>
     <row r="304" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>616</v>
+        <v>533</v>
       </c>
       <c r="C304" s="3"/>
     </row>
     <row r="305" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>235</v>
+        <v>534</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>542</v>
-      </c>
+        <v>801</v>
+      </c>
+      <c r="C305" s="3"/>
     </row>
     <row r="306" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>543</v>
+        <v>608</v>
       </c>
       <c r="C306" s="3"/>
     </row>
     <row r="307" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>1019</v>
+        <v>609</v>
       </c>
       <c r="C307" s="3"/>
     </row>
     <row r="308" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
-        <v>758</v>
+        <v>232</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="C308" s="3"/>
+        <v>535</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="309" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C309" s="3"/>
     </row>
     <row r="310" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>374</v>
+        <v>1009</v>
       </c>
       <c r="C310" s="3"/>
     </row>
     <row r="311" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>244</v>
+        <v>749</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="C311" s="3"/>
     </row>
     <row r="312" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>461</v>
+        <v>538</v>
       </c>
       <c r="C312" s="3"/>
     </row>
     <row r="313" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>545</v>
+        <v>369</v>
       </c>
       <c r="C313" s="3"/>
     </row>
     <row r="314" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
-        <v>964</v>
+        <v>241</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>580</v>
+        <v>370</v>
       </c>
       <c r="C314" s="3"/>
     </row>
     <row r="315" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>247</v>
+        <v>1056</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C315" s="3"/>
     </row>
     <row r="316" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
-        <v>248</v>
+        <v>1057</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>546</v>
+        <v>1058</v>
       </c>
       <c r="C316" s="3"/>
     </row>
     <row r="317" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C317" s="3"/>
     </row>
     <row r="318" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
-        <v>250</v>
+        <v>954</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>617</v>
+        <v>573</v>
       </c>
       <c r="C318" s="3"/>
     </row>
     <row r="319" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>548</v>
+        <v>457</v>
       </c>
       <c r="C319" s="3"/>
     </row>
     <row r="320" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>581</v>
+        <v>1054</v>
       </c>
       <c r="C320" s="3"/>
     </row>
     <row r="321" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>582</v>
+        <v>540</v>
       </c>
       <c r="C321" s="3"/>
     </row>
     <row r="322" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>549</v>
+        <v>610</v>
       </c>
       <c r="C322" s="3"/>
     </row>
     <row r="323" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="C323" s="3" t="s">
-        <v>742</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="C323" s="3"/>
     </row>
     <row r="324" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
-        <v>256</v>
+        <v>362</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>413</v>
+        <v>574</v>
       </c>
       <c r="C324" s="3"/>
     </row>
     <row r="325" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>414</v>
+        <v>575</v>
       </c>
       <c r="C325" s="3"/>
     </row>
     <row r="326" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
-        <v>954</v>
+        <v>251</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>912</v>
+        <v>542</v>
       </c>
       <c r="C326" s="3"/>
     </row>
     <row r="327" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
-        <v>955</v>
+        <v>312</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C327" s="3"/>
+        <v>733</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="328" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>583</v>
+        <v>408</v>
       </c>
       <c r="C328" s="3"/>
     </row>
     <row r="329" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>618</v>
+        <v>409</v>
       </c>
       <c r="C329" s="3"/>
     </row>
     <row r="330" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
-        <v>732</v>
+        <v>944</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>619</v>
+        <v>902</v>
       </c>
       <c r="C330" s="3"/>
     </row>
     <row r="331" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>261</v>
+        <v>945</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>620</v>
+        <v>996</v>
       </c>
       <c r="C331" s="3"/>
     </row>
     <row r="332" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>621</v>
+        <v>576</v>
       </c>
       <c r="C332" s="3"/>
     </row>
     <row r="333" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>463</v>
+        <v>611</v>
       </c>
       <c r="C333" s="3"/>
     </row>
     <row r="334" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
-        <v>265</v>
+        <v>724</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="C334" s="3"/>
     </row>
     <row r="335" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>585</v>
+        <v>613</v>
       </c>
       <c r="C335" s="3"/>
     </row>
     <row r="336" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>550</v>
+        <v>614</v>
       </c>
       <c r="C336" s="3"/>
     </row>
     <row r="337" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>551</v>
+        <v>458</v>
       </c>
       <c r="C337" s="3"/>
     </row>
     <row r="338" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>622</v>
+        <v>577</v>
       </c>
       <c r="C338" s="3"/>
     </row>
     <row r="339" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>493</v>
+        <v>578</v>
       </c>
       <c r="C339" s="3"/>
     </row>
     <row r="340" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="C340" s="3"/>
     </row>
     <row r="341" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>623</v>
+        <v>544</v>
       </c>
       <c r="C341" s="3"/>
     </row>
     <row r="342" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>1022</v>
+        <v>615</v>
       </c>
       <c r="C342" s="3"/>
     </row>
     <row r="343" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>624</v>
+        <v>488</v>
       </c>
       <c r="C343" s="3"/>
     </row>
     <row r="344" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>625</v>
+        <v>545</v>
       </c>
       <c r="C344" s="3"/>
     </row>
     <row r="345" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C345" s="3" t="s">
-        <v>748</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="C345" s="3"/>
     </row>
     <row r="346" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>651</v>
+        <v>1012</v>
       </c>
       <c r="C346" s="3"/>
     </row>
     <row r="347" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>652</v>
+        <v>617</v>
       </c>
       <c r="C347" s="3"/>
     </row>
     <row r="348" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
-        <v>753</v>
+        <v>279</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>494</v>
+        <v>618</v>
       </c>
       <c r="C348" s="3"/>
     </row>
     <row r="349" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="C349" s="3"/>
+        <v>371</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="350" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>415</v>
+        <v>644</v>
       </c>
       <c r="C350" s="3"/>
     </row>
     <row r="351" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="C351" s="3"/>
     </row>
     <row r="352" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
-        <v>292</v>
+        <v>1068</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="C352" s="3"/>
+        <v>489</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>1069</v>
+      </c>
     </row>
     <row r="353" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>553</v>
+        <v>459</v>
       </c>
       <c r="C353" s="3"/>
     </row>
     <row r="354" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>465</v>
+        <v>410</v>
       </c>
       <c r="C354" s="3"/>
     </row>
     <row r="355" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>917</v>
-      </c>
-      <c r="C355" s="3" t="s">
-        <v>686</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="C355" s="3"/>
     </row>
     <row r="356" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>416</v>
+        <v>739</v>
       </c>
       <c r="C356" s="3"/>
     </row>
     <row r="357" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>627</v>
+        <v>546</v>
       </c>
       <c r="C357" s="3"/>
     </row>
     <row r="358" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>554</v>
+        <v>460</v>
       </c>
       <c r="C358" s="3"/>
     </row>
     <row r="359" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="C359" s="3"/>
+        <v>907</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="360" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>348</v>
+        <v>411</v>
       </c>
       <c r="C360" s="3"/>
     </row>
     <row r="361" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>466</v>
+        <v>620</v>
       </c>
       <c r="C361" s="3"/>
     </row>
     <row r="362" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="C362" s="3"/>
     </row>
     <row r="363" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>749</v>
+        <v>548</v>
       </c>
       <c r="C363" s="3"/>
     </row>
     <row r="364" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>628</v>
+        <v>343</v>
       </c>
       <c r="C364" s="3"/>
     </row>
     <row r="365" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>629</v>
+        <v>461</v>
       </c>
       <c r="C365" s="3"/>
     </row>
     <row r="366" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="C366" s="3"/>
     </row>
     <row r="367" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>417</v>
+        <v>741</v>
       </c>
       <c r="C367" s="3"/>
     </row>
     <row r="368" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>558</v>
+        <v>621</v>
       </c>
       <c r="C368" s="3"/>
     </row>
     <row r="369" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="C369" s="3" t="s">
-        <v>631</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="C369" s="3"/>
     </row>
     <row r="370" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>632</v>
+        <v>550</v>
       </c>
       <c r="C370" s="3"/>
     </row>
     <row r="371" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>633</v>
+        <v>412</v>
       </c>
       <c r="C371" s="3"/>
     </row>
     <row r="372" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>634</v>
+        <v>551</v>
       </c>
       <c r="C372" s="3"/>
     </row>
     <row r="373" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
-        <v>956</v>
+        <v>307</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>957</v>
-      </c>
-      <c r="C373" s="3"/>
+        <v>623</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="374" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="C374" s="3" t="s">
-        <v>676</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="C374" s="3"/>
     </row>
     <row r="375" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="C375" s="3" t="s">
-        <v>689</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="C375" s="3"/>
     </row>
     <row r="376" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>689</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="C376" s="3"/>
     </row>
     <row r="377" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
-        <v>321</v>
+        <v>946</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>467</v>
+        <v>947</v>
       </c>
       <c r="C377" s="3"/>
     </row>
     <row r="378" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="C378" s="3"/>
+        <v>628</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="379" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C379" s="3"/>
+        <v>679</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="380" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C380" s="3"/>
+        <v>680</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="381" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>419</v>
+        <v>462</v>
       </c>
       <c r="C381" s="3"/>
     </row>
     <row r="382" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="C382" s="3" t="s">
-        <v>670</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="C382" s="3"/>
     </row>
     <row r="383" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
-        <v>703</v>
+        <v>318</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>704</v>
+        <v>552</v>
       </c>
       <c r="C383" s="3"/>
     </row>
     <row r="384" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
-        <v>733</v>
+        <v>319</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>734</v>
+        <v>553</v>
       </c>
       <c r="C384" s="3"/>
     </row>
     <row r="385" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
-        <v>706</v>
+        <v>320</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>707</v>
+        <v>414</v>
       </c>
       <c r="C385" s="3"/>
     </row>
     <row r="386" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
-        <v>708</v>
+        <v>321</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="C386" s="3"/>
+        <v>579</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="387" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
-        <v>760</v>
+        <v>695</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="C387" s="3"/>
     </row>
     <row r="388" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
-        <v>1010</v>
+        <v>725</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="C388" s="3"/>
     </row>
     <row r="389" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="C389" s="3"/>
     </row>
     <row r="390" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="C390" s="3"/>
     </row>
     <row r="391" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="C391" s="3"/>
     </row>
     <row r="392" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
-        <v>775</v>
+        <v>1000</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>722</v>
+        <v>703</v>
       </c>
       <c r="C392" s="3"/>
     </row>
     <row r="393" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="C393" s="3"/>
     </row>
     <row r="394" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="C394" s="3"/>
     </row>
     <row r="395" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
       <c r="C395" s="3"/>
     </row>
     <row r="396" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
-        <v>963</v>
+        <v>766</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>744</v>
+        <v>714</v>
       </c>
       <c r="C396" s="3"/>
     </row>
     <row r="397" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
-        <v>739</v>
+        <v>712</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>740</v>
+        <v>713</v>
       </c>
       <c r="C397" s="3"/>
     </row>
     <row r="398" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
-        <v>743</v>
+        <v>718</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>745</v>
+        <v>719</v>
       </c>
       <c r="C398" s="3"/>
     </row>
     <row r="399" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
-        <v>754</v>
+        <v>722</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>746</v>
+        <v>723</v>
       </c>
       <c r="C399" s="3"/>
     </row>
     <row r="400" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
-        <v>752</v>
+        <v>953</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="C400" s="3"/>
     </row>
     <row r="401" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
-        <v>756</v>
+        <v>731</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>757</v>
+        <v>732</v>
       </c>
       <c r="C401" s="3"/>
     </row>
     <row r="402" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
-        <v>761</v>
+        <v>735</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>762</v>
+        <v>737</v>
       </c>
       <c r="C402" s="3"/>
     </row>
     <row r="403" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
-        <v>765</v>
+        <v>745</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
       <c r="C403" s="3"/>
     </row>
     <row r="404" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="3" t="s">
-        <v>767</v>
+        <v>744</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>768</v>
+        <v>743</v>
       </c>
       <c r="C404" s="3"/>
     </row>
     <row r="405" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
-        <v>776</v>
+        <v>747</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>777</v>
+        <v>748</v>
       </c>
       <c r="C405" s="3"/>
     </row>
     <row r="406" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
-        <v>778</v>
+        <v>752</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="C406" s="3"/>
     </row>
     <row r="407" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
-        <v>781</v>
+        <v>756</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>783</v>
+        <v>757</v>
       </c>
       <c r="C407" s="3"/>
     </row>
     <row r="408" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
-        <v>782</v>
+        <v>758</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>784</v>
+        <v>759</v>
       </c>
       <c r="C408" s="3"/>
     </row>
     <row r="409" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="C409" s="3"/>
     </row>
     <row r="410" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="C410" s="3" t="s">
-        <v>792</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="C410" s="3"/>
     </row>
     <row r="411" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="C411" s="3" t="s">
-        <v>793</v>
-      </c>
+        <v>774</v>
+      </c>
+      <c r="C411" s="3"/>
     </row>
     <row r="412" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
-        <v>796</v>
+        <v>773</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
       <c r="C412" s="3"/>
     </row>
     <row r="413" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
-        <v>797</v>
+        <v>776</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>799</v>
+        <v>777</v>
       </c>
       <c r="C413" s="3"/>
     </row>
     <row r="414" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="3" t="s">
-        <v>800</v>
+        <v>779</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="C414" s="3"/>
+        <v>781</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="415" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
-        <v>801</v>
+        <v>780</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="C415" s="3"/>
+        <v>782</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="416" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
-        <v>804</v>
+        <v>787</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="C416" s="3"/>
     </row>
     <row r="417" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
-        <v>958</v>
+        <v>788</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>811</v>
+        <v>790</v>
       </c>
       <c r="C417" s="3"/>
     </row>
     <row r="418" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
-        <v>813</v>
+        <v>791</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>814</v>
+        <v>793</v>
       </c>
       <c r="C418" s="3"/>
     </row>
     <row r="419" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
-        <v>1007</v>
+        <v>792</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>815</v>
+        <v>794</v>
       </c>
       <c r="C419" s="3"/>
     </row>
     <row r="420" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
-        <v>918</v>
+        <v>795</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="C420" s="3"/>
     </row>
     <row r="421" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
-        <v>904</v>
+        <v>948</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>902</v>
+        <v>802</v>
       </c>
       <c r="C421" s="3"/>
     </row>
     <row r="422" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
-        <v>903</v>
+        <v>804</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>905</v>
+        <v>805</v>
       </c>
       <c r="C422" s="3"/>
     </row>
     <row r="423" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
-        <v>906</v>
+        <v>997</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>907</v>
+        <v>806</v>
       </c>
       <c r="C423" s="3"/>
     </row>
@@ -8924,347 +9271,379 @@
         <v>908</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>909</v>
+        <v>891</v>
       </c>
       <c r="C424" s="3"/>
     </row>
     <row r="425" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
-        <v>910</v>
+        <v>894</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>911</v>
+        <v>892</v>
       </c>
       <c r="C425" s="3"/>
     </row>
     <row r="426" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
-        <v>959</v>
+        <v>893</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>960</v>
+        <v>895</v>
       </c>
       <c r="C426" s="3"/>
     </row>
     <row r="427" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>914</v>
+        <v>897</v>
       </c>
       <c r="C427" s="3"/>
     </row>
     <row r="428" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
-        <v>1026</v>
+        <v>898</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1025</v>
+        <v>899</v>
       </c>
       <c r="C428" s="3"/>
     </row>
     <row r="429" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>986</v>
+        <v>901</v>
       </c>
       <c r="C429" s="3"/>
     </row>
     <row r="430" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
-        <v>916</v>
+        <v>949</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>985</v>
+        <v>950</v>
       </c>
       <c r="C430" s="3"/>
     </row>
     <row r="431" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
-        <v>921</v>
+        <v>903</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>922</v>
+        <v>904</v>
       </c>
       <c r="C431" s="3"/>
     </row>
     <row r="432" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="3" t="s">
-        <v>923</v>
+        <v>1016</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>924</v>
+        <v>1015</v>
       </c>
       <c r="C432" s="3"/>
     </row>
     <row r="433" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
-        <v>926</v>
+        <v>905</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>927</v>
+        <v>976</v>
       </c>
       <c r="C433" s="3"/>
     </row>
     <row r="434" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>929</v>
+        <v>975</v>
       </c>
       <c r="C434" s="3"/>
     </row>
     <row r="435" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
-        <v>930</v>
+        <v>911</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>931</v>
+        <v>912</v>
       </c>
       <c r="C435" s="3"/>
     </row>
     <row r="436" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
-        <v>937</v>
+        <v>913</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>932</v>
+        <v>914</v>
       </c>
       <c r="C436" s="3"/>
     </row>
     <row r="437" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
-        <v>1023</v>
+        <v>916</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>1024</v>
+        <v>917</v>
       </c>
       <c r="C437" s="3"/>
     </row>
     <row r="438" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>934</v>
+        <v>919</v>
       </c>
       <c r="C438" s="3"/>
     </row>
     <row r="439" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>936</v>
+        <v>921</v>
       </c>
       <c r="C439" s="3"/>
     </row>
     <row r="440" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="3" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>941</v>
-      </c>
-      <c r="C440" s="3" t="s">
-        <v>939</v>
-      </c>
+        <v>922</v>
+      </c>
+      <c r="C440" s="3"/>
     </row>
     <row r="441" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
-        <v>942</v>
+        <v>1013</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>943</v>
+        <v>1014</v>
       </c>
       <c r="C441" s="3"/>
     </row>
     <row r="442" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
-        <v>944</v>
+        <v>923</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>948</v>
+        <v>924</v>
       </c>
       <c r="C442" s="3"/>
     </row>
     <row r="443" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
-        <v>945</v>
+        <v>925</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>949</v>
+        <v>926</v>
       </c>
       <c r="C443" s="3"/>
     </row>
     <row r="444" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="3" t="s">
-        <v>946</v>
+        <v>930</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>950</v>
-      </c>
-      <c r="C444" s="3"/>
+        <v>931</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>929</v>
+      </c>
     </row>
     <row r="445" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
-        <v>947</v>
+        <v>932</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>951</v>
+        <v>933</v>
       </c>
       <c r="C445" s="3"/>
     </row>
     <row r="446" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="3" t="s">
-        <v>953</v>
+        <v>934</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>990</v>
+        <v>938</v>
       </c>
       <c r="C446" s="3"/>
     </row>
     <row r="447" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
-        <v>961</v>
+        <v>935</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>962</v>
+        <v>939</v>
       </c>
       <c r="C447" s="3"/>
     </row>
     <row r="448" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="3" t="s">
-        <v>973</v>
+        <v>936</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>974</v>
+        <v>940</v>
       </c>
       <c r="C448" s="3"/>
     </row>
     <row r="449" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
-        <v>987</v>
+        <v>937</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>988</v>
+        <v>941</v>
       </c>
       <c r="C449" s="3"/>
     </row>
     <row r="450" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="3" t="s">
-        <v>989</v>
+        <v>943</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="C450" s="3"/>
     </row>
     <row r="451" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
-        <v>1001</v>
+        <v>951</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>1002</v>
+        <v>952</v>
       </c>
       <c r="C451" s="3"/>
     </row>
     <row r="452" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="3" t="s">
-        <v>1000</v>
+        <v>963</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>1003</v>
+        <v>964</v>
       </c>
       <c r="C452" s="3"/>
     </row>
     <row r="453" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
-        <v>1004</v>
+        <v>977</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>1005</v>
+        <v>978</v>
       </c>
       <c r="C453" s="3"/>
     </row>
     <row r="454" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="3" t="s">
-        <v>1008</v>
+        <v>979</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>1009</v>
+        <v>981</v>
       </c>
       <c r="C454" s="3"/>
     </row>
     <row r="455" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
-        <v>1013</v>
+        <v>991</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>1014</v>
+        <v>992</v>
       </c>
       <c r="C455" s="3"/>
     </row>
     <row r="456" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="3" t="s">
-        <v>1016</v>
+        <v>990</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>1018</v>
+        <v>993</v>
       </c>
       <c r="C456" s="3"/>
     </row>
     <row r="457" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
-        <v>1015</v>
+        <v>994</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>1017</v>
+        <v>995</v>
       </c>
       <c r="C457" s="3"/>
     </row>
     <row r="458" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A458" s="3"/>
-      <c r="B458" s="3"/>
+      <c r="A458" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>999</v>
+      </c>
       <c r="C458" s="3"/>
     </row>
     <row r="459" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A459" s="3"/>
-      <c r="B459" s="3"/>
+      <c r="A459" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>1004</v>
+      </c>
       <c r="C459" s="3"/>
     </row>
     <row r="460" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A460" s="3"/>
-      <c r="B460" s="3"/>
+      <c r="A460" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>1008</v>
+      </c>
       <c r="C460" s="3"/>
     </row>
     <row r="461" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A461" s="3"/>
-      <c r="B461" s="3"/>
+      <c r="A461" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>1007</v>
+      </c>
       <c r="C461" s="3"/>
     </row>
     <row r="462" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A462" s="3"/>
-      <c r="B462" s="3"/>
+      <c r="A462" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>1050</v>
+      </c>
       <c r="C462" s="3"/>
     </row>
     <row r="463" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A463" s="3"/>
-      <c r="B463" s="3"/>
+      <c r="A463" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>1051</v>
+      </c>
       <c r="C463" s="3"/>
     </row>
     <row r="464" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A464" s="3"/>
-      <c r="B464" s="3"/>
+      <c r="A464" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>1052</v>
+      </c>
       <c r="C464" s="3"/>
     </row>
     <row r="465" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A465" s="3"/>
-      <c r="B465" s="3"/>
+      <c r="A465" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>1053</v>
+      </c>
       <c r="C465" s="3"/>
     </row>
     <row r="466" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12222,11 +12601,31 @@
       <c r="B1056" s="3"/>
       <c r="C1056" s="3"/>
     </row>
+    <row r="1057" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1057" s="3"/>
+      <c r="B1057" s="3"/>
+      <c r="C1057" s="3"/>
+    </row>
+    <row r="1058" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1058" s="3"/>
+      <c r="B1058" s="3"/>
+      <c r="C1058" s="3"/>
+    </row>
+    <row r="1059" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1059" s="3"/>
+      <c r="B1059" s="3"/>
+      <c r="C1059" s="3"/>
+    </row>
+    <row r="1060" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1060" s="3"/>
+      <c r="B1060" s="3"/>
+      <c r="C1060" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="C20:C35"/>
-    <mergeCell ref="C212:C218"/>
+    <mergeCell ref="C214:C220"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12239,7 +12638,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -12251,397 +12650,420 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>900</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
+      <c r="A1" s="38" t="s">
+        <v>890</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
     </row>
     <row r="2" spans="1:18" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
-        <v>898</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
+      <c r="A2" s="40" t="s">
+        <v>888</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
+        <v>815</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="37"/>
+      <c r="B4" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
+        <v>821</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="37"/>
+      <c r="B6" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>824</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>849</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>850</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>851</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29"/>
-      <c r="B4" s="9" t="s">
+      <c r="E6" s="12" t="s">
         <v>825</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="F6" s="12" t="s">
         <v>826</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="G6" s="12" t="s">
         <v>827</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="H6" s="12" t="s">
         <v>828</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="I6" s="12" t="s">
         <v>829</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>830</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>854</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>855</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>856</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>857</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>858</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>859</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>860</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>861</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>862</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>863</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>864</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>865</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>866</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="29"/>
-      <c r="B6" s="9" t="s">
-        <v>831</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>832</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>833</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>834</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>835</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>836</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>837</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>838</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>28</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>846</v>
+        <v>836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
+        <v>837</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>870</v>
-      </c>
+        <v>861</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="29"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="9" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>872</v>
-      </c>
+        <v>863</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
+        <v>864</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>865</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>866</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>867</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>868</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>869</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>870</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>871</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>872</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>873</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="L9" s="17" t="s">
         <v>874</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="M9" s="19" t="s">
         <v>875</v>
       </c>
-      <c r="D9" s="17" t="s">
+    </row>
+    <row r="10" spans="1:18" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
         <v>876</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>877</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="17" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
+        <v>889</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="34" t="s">
         <v>878</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+    </row>
+    <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
         <v>879</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="B14" s="6" t="s">
         <v>880</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="C14" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="D14" s="7" t="s">
         <v>882</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="E14" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>883</v>
       </c>
-      <c r="M9" s="19" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
-        <v>897</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+    </row>
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="36"/>
+      <c r="B15" s="20" t="s">
         <v>885</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
-        <v>899</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="26" t="s">
+      <c r="C15" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>887</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-    </row>
-    <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
-        <v>888</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>890</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>891</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>893</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28"/>
-      <c r="B15" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>895</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>843</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>896</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A10:R10"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A11:R11"/>
+    <mergeCell ref="D7:M8"/>
     <mergeCell ref="A12:R12"/>
     <mergeCell ref="A13:R13"/>
     <mergeCell ref="A14:A15"/>
@@ -12653,4 +13075,234 @@
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0CABD2-02E4-4D8C-A8ED-3F367937EF2E}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.4140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="114" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B1" s="45"/>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>839</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>844</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>845</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>840</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>846</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>847</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>848</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>849</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>850</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>851</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>852</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
+        <v>842</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>853</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>854</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>855</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>856</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>843</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>857</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>858</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>859</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>860</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
+        <v>861</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
+++ b/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Websites\hssrgov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95F4CB6-1EA6-44C4-BBEF-DC45D7BF8C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F05FE3-23CA-41F8-80FA-9FD346EBBF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="2" xr2:uid="{CCB781DE-C1B4-4E71-9129-23ABA5B611FE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CCB781DE-C1B4-4E71-9129-23ABA5B611FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Haer Langu Nedekayhoyna" sheetId="1" r:id="rId1"/>
     <sheet name="“讧中   车匕   灵   冮   十扌寸”方案" sheetId="2" r:id="rId2"/>
     <sheet name="Кирива Хаер Лангу Недекаĵхоĵна" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="1094">
   <si>
     <t>中文</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -62,10 +62,6 @@
   </si>
   <si>
     <t>他们/她们/它们</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈儿</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3659,10 +3655,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>纯正</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>alaka</t>
     </r>
@@ -4149,6 +4141,158 @@
   </si>
   <si>
     <t>vdog</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宾拉托夫萨多斯帕拉德</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binlatrovsadosparad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯正/正统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（量词）个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（量词）则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（量词）杯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>geeś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zeeś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>neeś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>量词</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数词/数字/数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>someeś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alkeeś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼制/冶炼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nedekvedaś</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ʔ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（后缀）-e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ʔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="二简字楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ś</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deʔś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feʔś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ʔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="二简字楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ś</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈儿（意为：智慧的愚者）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4796,25 +4940,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4827,6 +4968,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -5355,10 +5499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB56768-82A6-42FF-B107-45016A59F08E}">
-  <dimension ref="A1:C1060"/>
+  <dimension ref="A1:C1062"/>
   <sheetViews>
-    <sheetView topLeftCell="A279" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B285" sqref="B285"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5371,7 +5515,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -5392,10 +5536,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5403,7 +5547,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -5412,7 +5556,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -5421,7 +5565,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -5430,7 +5574,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -5439,4266 +5583,4310 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>728</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>1093</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C21" s="32"/>
     </row>
     <row r="22" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C22" s="32"/>
     </row>
     <row r="23" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C23" s="32"/>
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C24" s="32"/>
     </row>
     <row r="25" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C25" s="32"/>
     </row>
     <row r="26" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C26" s="32"/>
     </row>
     <row r="27" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C27" s="32"/>
     </row>
     <row r="28" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C28" s="32"/>
     </row>
     <row r="29" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C29" s="32"/>
     </row>
     <row r="30" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C30" s="32"/>
     </row>
     <row r="31" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C31" s="32"/>
     </row>
     <row r="32" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C32" s="32"/>
     </row>
     <row r="33" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C33" s="32"/>
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C34" s="32"/>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C35" s="33"/>
     </row>
     <row r="36" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>715</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>716</v>
       </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>730</v>
-      </c>
       <c r="C49" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C69" s="3"/>
     </row>
     <row r="70" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C74" s="3"/>
     </row>
     <row r="75" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C75" s="3"/>
     </row>
     <row r="76" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C79" s="3"/>
     </row>
     <row r="80" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C81" s="3"/>
     </row>
     <row r="82" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C82" s="3"/>
     </row>
     <row r="83" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C84" s="3"/>
     </row>
     <row r="85" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C85" s="3"/>
     </row>
     <row r="86" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C86" s="3"/>
     </row>
     <row r="87" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C90" s="3"/>
     </row>
     <row r="91" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C93" s="3"/>
     </row>
     <row r="94" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C94" s="3"/>
     </row>
     <row r="95" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C95" s="3"/>
     </row>
     <row r="96" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C96" s="3"/>
     </row>
     <row r="97" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C98" s="3"/>
     </row>
     <row r="99" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>928</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C100" s="3"/>
     </row>
     <row r="101" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C101" s="3"/>
     </row>
     <row r="102" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C102" s="3"/>
     </row>
     <row r="103" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C103" s="3"/>
     </row>
     <row r="104" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C104" s="3"/>
     </row>
     <row r="105" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C105" s="3"/>
     </row>
     <row r="106" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C106" s="3"/>
     </row>
     <row r="107" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="108" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C108" s="3"/>
     </row>
     <row r="109" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C109" s="3"/>
     </row>
     <row r="110" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C110" s="3"/>
     </row>
     <row r="111" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C111" s="3"/>
     </row>
     <row r="112" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="113" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="114" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C114" s="3"/>
     </row>
     <row r="115" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C115" s="3"/>
     </row>
     <row r="116" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C116" s="3"/>
     </row>
     <row r="117" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C117" s="3"/>
     </row>
     <row r="118" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C118" s="3"/>
     </row>
     <row r="119" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C119" s="3"/>
     </row>
     <row r="120" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C120" s="3"/>
     </row>
     <row r="121" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C121" s="3"/>
     </row>
     <row r="122" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C122" s="3"/>
     </row>
     <row r="123" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C123" s="3"/>
     </row>
     <row r="124" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C124" s="3"/>
     </row>
     <row r="125" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C125" s="3"/>
     </row>
     <row r="126" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C126" s="3"/>
     </row>
     <row r="127" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C127" s="3"/>
     </row>
     <row r="128" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C128" s="3"/>
     </row>
     <row r="129" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C129" s="3"/>
     </row>
     <row r="130" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C130" s="3"/>
     </row>
     <row r="131" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C132" s="3"/>
     </row>
     <row r="133" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C133" s="3"/>
     </row>
     <row r="134" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C134" s="3"/>
     </row>
     <row r="135" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C135" s="3"/>
     </row>
     <row r="136" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C136" s="3"/>
     </row>
     <row r="137" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C137" s="3"/>
     </row>
     <row r="138" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C138" s="3"/>
     </row>
     <row r="139" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C139" s="3"/>
     </row>
     <row r="140" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C140" s="3"/>
     </row>
     <row r="141" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C141" s="3"/>
     </row>
     <row r="142" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C142" s="3"/>
     </row>
     <row r="143" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C143" s="3"/>
     </row>
     <row r="144" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C144" s="3"/>
     </row>
     <row r="145" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="146" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C146" s="3"/>
     </row>
     <row r="147" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C147" s="3"/>
     </row>
     <row r="148" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C148" s="3"/>
     </row>
     <row r="149" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B149" s="3" t="s">
         <v>693</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>694</v>
       </c>
       <c r="C149" s="3"/>
     </row>
     <row r="150" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C150" s="3"/>
     </row>
     <row r="151" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C151" s="3"/>
     </row>
     <row r="152" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B152" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>808</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="153" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C153" s="3"/>
     </row>
     <row r="154" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row r="155" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C155" s="3"/>
     </row>
     <row r="156" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C156" s="3"/>
     </row>
     <row r="157" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C157" s="3"/>
     </row>
     <row r="158" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C158" s="3"/>
     </row>
     <row r="159" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="160" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C160" s="3"/>
     </row>
     <row r="161" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B161" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>441</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="162" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C162" s="3"/>
     </row>
     <row r="163" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C163" s="3"/>
     </row>
     <row r="164" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row r="165" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C165" s="3"/>
     </row>
     <row r="166" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C166" s="3"/>
     </row>
     <row r="167" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C167" s="3"/>
     </row>
     <row r="168" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C168" s="3"/>
     </row>
     <row r="169" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C169" s="3"/>
     </row>
     <row r="170" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="171" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C171" s="3"/>
     </row>
     <row r="172" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="173" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C173" s="3"/>
     </row>
     <row r="174" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C174" s="3"/>
     </row>
     <row r="175" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C175" s="3"/>
     </row>
     <row r="176" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C176" s="3"/>
     </row>
     <row r="177" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C177" s="3"/>
     </row>
     <row r="178" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C178" s="3"/>
     </row>
     <row r="179" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C179" s="3"/>
     </row>
     <row r="180" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C181" s="3"/>
     </row>
     <row r="182" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C182" s="3"/>
     </row>
     <row r="183" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C183" s="3"/>
     </row>
     <row r="184" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C184" s="3"/>
     </row>
     <row r="185" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C185" s="3"/>
     </row>
     <row r="186" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C186" s="3"/>
     </row>
     <row r="187" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>510</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>511</v>
       </c>
       <c r="C187" s="3"/>
     </row>
     <row r="188" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C188" s="3"/>
     </row>
     <row r="189" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>1059</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="190" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C190" s="3"/>
     </row>
     <row r="191" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C191" s="3"/>
     </row>
     <row r="192" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C192" s="3"/>
     </row>
     <row r="193" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C193" s="3"/>
     </row>
     <row r="194" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C194" s="3"/>
     </row>
     <row r="195" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C195" s="3"/>
     </row>
     <row r="196" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C196" s="3"/>
     </row>
     <row r="197" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C197" s="3"/>
     </row>
     <row r="198" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C198" s="3"/>
     </row>
     <row r="199" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C199" s="3"/>
     </row>
     <row r="200" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C200" s="3"/>
     </row>
     <row r="201" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C201" s="3"/>
     </row>
     <row r="202" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B202" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C202" s="3" t="s">
         <v>513</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="203" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C203" s="3"/>
     </row>
     <row r="204" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C204" s="3"/>
     </row>
     <row r="205" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C205" s="3"/>
     </row>
     <row r="206" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C206" s="3"/>
     </row>
     <row r="207" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C207" s="3"/>
     </row>
     <row r="208" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C208" s="3"/>
     </row>
     <row r="209" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C209" s="3"/>
     </row>
     <row r="210" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C210" s="3"/>
     </row>
     <row r="211" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C211" s="3"/>
     </row>
     <row r="212" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C212" s="3"/>
     </row>
     <row r="213" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C213" s="3"/>
     </row>
     <row r="214" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C214" s="31" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="215" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C215" s="32"/>
     </row>
     <row r="216" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C216" s="32"/>
     </row>
     <row r="217" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="B217" s="3" t="s">
         <v>970</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>972</v>
       </c>
       <c r="C217" s="32"/>
     </row>
     <row r="218" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="B218" s="3" t="s">
         <v>971</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>973</v>
       </c>
       <c r="C218" s="32"/>
     </row>
     <row r="219" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C219" s="32"/>
     </row>
     <row r="220" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C220" s="33"/>
     </row>
     <row r="221" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="222" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="223" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C223" s="3"/>
     </row>
     <row r="224" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C224" s="3"/>
     </row>
     <row r="225" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C225" s="3"/>
     </row>
     <row r="226" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C226" s="3"/>
     </row>
     <row r="227" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C227" s="3"/>
     </row>
     <row r="228" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C228" s="3"/>
     </row>
     <row r="229" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C229" s="3"/>
     </row>
     <row r="230" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C230" s="3"/>
     </row>
     <row r="231" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C231" s="3"/>
     </row>
     <row r="232" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C232" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="233" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C233" s="3"/>
     </row>
     <row r="234" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C234" s="3"/>
     </row>
     <row r="235" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C235" s="3"/>
     </row>
     <row r="236" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C236" s="3"/>
     </row>
     <row r="237" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C237" s="3"/>
     </row>
     <row r="238" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C238" s="3"/>
     </row>
     <row r="239" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row r="240" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C240" s="3"/>
     </row>
     <row r="241" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C241" s="3"/>
     </row>
     <row r="242" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C242" s="3"/>
     </row>
     <row r="243" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B243" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C243" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="244" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C244" s="3"/>
     </row>
     <row r="245" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C245" s="3"/>
     </row>
     <row r="246" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C246" s="3"/>
     </row>
     <row r="247" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C247" s="3"/>
     </row>
     <row r="248" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C248" s="3"/>
     </row>
     <row r="249" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C249" s="3"/>
     </row>
     <row r="250" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C250" s="3"/>
     </row>
     <row r="251" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C251" s="3"/>
     </row>
     <row r="252" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C252" s="3"/>
     </row>
     <row r="253" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C253" s="3"/>
     </row>
     <row r="254" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C254" s="3"/>
     </row>
     <row r="255" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C255" s="3"/>
     </row>
     <row r="256" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C256" s="3"/>
     </row>
     <row r="257" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C257" s="3"/>
     </row>
     <row r="258" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C258" s="3"/>
     </row>
     <row r="259" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C259" s="3"/>
     </row>
     <row r="260" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C260" s="3"/>
     </row>
     <row r="261" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C261" s="3"/>
     </row>
     <row r="262" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C262" s="3"/>
     </row>
     <row r="263" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C263" s="3"/>
     </row>
     <row r="264" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="B264" s="3" t="s">
         <v>720</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>721</v>
       </c>
       <c r="C264" s="3"/>
     </row>
     <row r="265" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C265" s="3"/>
     </row>
     <row r="266" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C266" s="3"/>
     </row>
     <row r="267" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C267" s="3"/>
     </row>
     <row r="268" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C268" s="3"/>
     </row>
     <row r="269" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C269" s="3"/>
     </row>
     <row r="270" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C270" s="3"/>
     </row>
     <row r="271" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C271" s="3"/>
     </row>
     <row r="272" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C272" s="3"/>
     </row>
     <row r="273" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C273" s="3"/>
     </row>
     <row r="274" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C274" s="3"/>
     </row>
     <row r="275" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C275" s="3"/>
     </row>
     <row r="276" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C276" s="3"/>
     </row>
     <row r="277" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C277" s="3"/>
     </row>
     <row r="278" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C278" s="3"/>
     </row>
     <row r="279" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C279" s="3"/>
     </row>
     <row r="280" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C280" s="3"/>
     </row>
     <row r="281" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C281" s="3"/>
     </row>
     <row r="282" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C282" s="3"/>
     </row>
     <row r="283" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C283" s="3"/>
     </row>
     <row r="284" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C284" s="3"/>
     </row>
     <row r="285" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C285" s="3"/>
     </row>
     <row r="286" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C286" s="3"/>
     </row>
     <row r="287" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C287" s="3"/>
     </row>
     <row r="288" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C288" s="3"/>
     </row>
     <row r="289" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C289" s="3"/>
     </row>
     <row r="290" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C290" s="3"/>
     </row>
     <row r="291" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C291" s="3"/>
     </row>
     <row r="292" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C292" s="3"/>
     </row>
     <row r="293" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C293" s="3"/>
     </row>
     <row r="294" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C294" s="3"/>
     </row>
     <row r="295" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B295" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C295" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="296" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C296" s="3"/>
     </row>
     <row r="297" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B297" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C297" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="298" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="299" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C299" s="3"/>
     </row>
     <row r="300" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C300" s="3"/>
     </row>
     <row r="301" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="302" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C302" s="3"/>
     </row>
     <row r="303" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C303" s="3"/>
     </row>
     <row r="304" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C304" s="3"/>
     </row>
     <row r="305" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C305" s="3"/>
     </row>
     <row r="306" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C306" s="3"/>
     </row>
     <row r="307" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C307" s="3"/>
     </row>
     <row r="308" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B308" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C308" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="309" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C309" s="3"/>
     </row>
     <row r="310" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C310" s="3"/>
     </row>
     <row r="311" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="B311" s="3" t="s">
         <v>749</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>750</v>
       </c>
       <c r="C311" s="3"/>
     </row>
     <row r="312" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C312" s="3"/>
     </row>
     <row r="313" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C313" s="3"/>
     </row>
     <row r="314" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C314" s="3"/>
     </row>
     <row r="315" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C315" s="3"/>
     </row>
     <row r="316" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C316" s="3"/>
     </row>
     <row r="317" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C317" s="3"/>
     </row>
     <row r="318" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C318" s="3"/>
     </row>
     <row r="319" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C319" s="3"/>
     </row>
     <row r="320" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C320" s="3"/>
     </row>
     <row r="321" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C321" s="3"/>
     </row>
     <row r="322" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C322" s="3"/>
     </row>
     <row r="323" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C323" s="3"/>
     </row>
     <row r="324" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C324" s="3"/>
     </row>
     <row r="325" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C325" s="3"/>
     </row>
     <row r="326" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C326" s="3"/>
     </row>
     <row r="327" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B327" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C327" s="3" t="s">
         <v>733</v>
-      </c>
-      <c r="C327" s="3" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="328" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C328" s="3"/>
     </row>
     <row r="329" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C329" s="3"/>
     </row>
     <row r="330" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C330" s="3"/>
     </row>
     <row r="331" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C331" s="3"/>
     </row>
     <row r="332" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C332" s="3"/>
     </row>
     <row r="333" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C333" s="3"/>
     </row>
     <row r="334" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C334" s="3"/>
     </row>
     <row r="335" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C335" s="3"/>
     </row>
     <row r="336" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C336" s="3"/>
     </row>
     <row r="337" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C337" s="3"/>
     </row>
     <row r="338" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C338" s="3"/>
     </row>
     <row r="339" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C339" s="3"/>
     </row>
     <row r="340" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C340" s="3"/>
     </row>
     <row r="341" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C341" s="3"/>
     </row>
     <row r="342" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C342" s="3"/>
     </row>
     <row r="343" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C343" s="3"/>
     </row>
     <row r="344" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C344" s="3"/>
     </row>
     <row r="345" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C345" s="3"/>
     </row>
     <row r="346" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C346" s="3"/>
     </row>
     <row r="347" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C347" s="3"/>
     </row>
     <row r="348" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C348" s="3"/>
     </row>
     <row r="349" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="350" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C350" s="3"/>
     </row>
     <row r="351" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C351" s="3"/>
     </row>
     <row r="352" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="353" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C353" s="3"/>
     </row>
     <row r="354" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C354" s="3"/>
     </row>
     <row r="355" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C355" s="3"/>
     </row>
     <row r="356" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C356" s="3"/>
     </row>
     <row r="357" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C357" s="3"/>
     </row>
     <row r="358" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C358" s="3"/>
     </row>
     <row r="359" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="360" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C360" s="3"/>
     </row>
     <row r="361" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C361" s="3"/>
     </row>
     <row r="362" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C362" s="3"/>
     </row>
     <row r="363" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C363" s="3"/>
     </row>
     <row r="364" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C364" s="3"/>
     </row>
     <row r="365" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C365" s="3"/>
     </row>
     <row r="366" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C366" s="3"/>
     </row>
     <row r="367" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C367" s="3"/>
     </row>
     <row r="368" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C368" s="3"/>
     </row>
     <row r="369" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C369" s="3"/>
     </row>
     <row r="370" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C370" s="3"/>
     </row>
     <row r="371" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C371" s="3"/>
     </row>
     <row r="372" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C372" s="3"/>
     </row>
     <row r="373" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B373" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C373" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="C373" s="3" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="374" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C374" s="3"/>
     </row>
     <row r="375" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C375" s="3"/>
     </row>
     <row r="376" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C376" s="3"/>
     </row>
     <row r="377" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="B377" s="3" t="s">
         <v>946</v>
-      </c>
-      <c r="B377" s="3" t="s">
-        <v>947</v>
       </c>
       <c r="C377" s="3"/>
     </row>
     <row r="378" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="379" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="380" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B380" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="C380" s="3" t="s">
         <v>680</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="381" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C381" s="3"/>
     </row>
     <row r="382" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C382" s="3"/>
     </row>
     <row r="383" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C383" s="3"/>
     </row>
     <row r="384" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C384" s="3"/>
     </row>
     <row r="385" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C385" s="3"/>
     </row>
     <row r="386" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="387" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B387" s="3" t="s">
         <v>695</v>
-      </c>
-      <c r="B387" s="3" t="s">
-        <v>696</v>
       </c>
       <c r="C387" s="3"/>
     </row>
     <row r="388" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="B388" s="3" t="s">
         <v>725</v>
-      </c>
-      <c r="B388" s="3" t="s">
-        <v>726</v>
       </c>
       <c r="C388" s="3"/>
     </row>
     <row r="389" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B389" s="3" t="s">
         <v>698</v>
-      </c>
-      <c r="B389" s="3" t="s">
-        <v>699</v>
       </c>
       <c r="C389" s="3"/>
     </row>
     <row r="390" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B390" s="3" t="s">
         <v>700</v>
-      </c>
-      <c r="B390" s="3" t="s">
-        <v>701</v>
       </c>
       <c r="C390" s="3"/>
     </row>
     <row r="391" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C391" s="3"/>
     </row>
     <row r="392" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C392" s="3"/>
     </row>
     <row r="393" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B393" s="3" t="s">
         <v>705</v>
-      </c>
-      <c r="B393" s="3" t="s">
-        <v>706</v>
       </c>
       <c r="C393" s="3"/>
     </row>
     <row r="394" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="B394" s="3" t="s">
         <v>707</v>
-      </c>
-      <c r="B394" s="3" t="s">
-        <v>708</v>
       </c>
       <c r="C394" s="3"/>
     </row>
     <row r="395" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="B395" s="3" t="s">
         <v>709</v>
-      </c>
-      <c r="B395" s="3" t="s">
-        <v>710</v>
       </c>
       <c r="C395" s="3"/>
     </row>
     <row r="396" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C396" s="3"/>
     </row>
     <row r="397" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="B397" s="3" t="s">
         <v>712</v>
-      </c>
-      <c r="B397" s="3" t="s">
-        <v>713</v>
       </c>
       <c r="C397" s="3"/>
     </row>
     <row r="398" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B398" s="3" t="s">
         <v>718</v>
-      </c>
-      <c r="B398" s="3" t="s">
-        <v>719</v>
       </c>
       <c r="C398" s="3"/>
     </row>
     <row r="399" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B399" s="3" t="s">
         <v>722</v>
-      </c>
-      <c r="B399" s="3" t="s">
-        <v>723</v>
       </c>
       <c r="C399" s="3"/>
     </row>
     <row r="400" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C400" s="3"/>
     </row>
     <row r="401" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="B401" s="3" t="s">
         <v>731</v>
-      </c>
-      <c r="B401" s="3" t="s">
-        <v>732</v>
       </c>
       <c r="C401" s="3"/>
     </row>
     <row r="402" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C402" s="3"/>
     </row>
     <row r="403" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C403" s="3"/>
     </row>
     <row r="404" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C404" s="3"/>
     </row>
     <row r="405" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="B405" s="3" t="s">
         <v>747</v>
-      </c>
-      <c r="B405" s="3" t="s">
-        <v>748</v>
       </c>
       <c r="C405" s="3"/>
     </row>
     <row r="406" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="B406" s="3" t="s">
         <v>752</v>
-      </c>
-      <c r="B406" s="3" t="s">
-        <v>753</v>
       </c>
       <c r="C406" s="3"/>
     </row>
     <row r="407" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="B407" s="3" t="s">
         <v>756</v>
-      </c>
-      <c r="B407" s="3" t="s">
-        <v>757</v>
       </c>
       <c r="C407" s="3"/>
     </row>
     <row r="408" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="B408" s="3" t="s">
         <v>758</v>
-      </c>
-      <c r="B408" s="3" t="s">
-        <v>759</v>
       </c>
       <c r="C408" s="3"/>
     </row>
     <row r="409" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="B409" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="B409" s="3" t="s">
-        <v>768</v>
       </c>
       <c r="C409" s="3"/>
     </row>
     <row r="410" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="B410" s="3" t="s">
         <v>769</v>
-      </c>
-      <c r="B410" s="3" t="s">
-        <v>770</v>
       </c>
       <c r="C410" s="3"/>
     </row>
     <row r="411" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C411" s="3"/>
     </row>
     <row r="412" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C412" s="3"/>
     </row>
     <row r="413" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B413" s="3" t="s">
         <v>776</v>
-      </c>
-      <c r="B413" s="3" t="s">
-        <v>777</v>
       </c>
       <c r="C413" s="3"/>
     </row>
     <row r="414" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="415" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="416" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C416" s="3"/>
     </row>
     <row r="417" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C417" s="3"/>
     </row>
     <row r="418" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C418" s="3"/>
     </row>
     <row r="419" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C419" s="3"/>
     </row>
     <row r="420" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="B420" s="3" t="s">
         <v>795</v>
-      </c>
-      <c r="B420" s="3" t="s">
-        <v>796</v>
       </c>
       <c r="C420" s="3"/>
     </row>
     <row r="421" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C421" s="3"/>
     </row>
     <row r="422" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="B422" s="3" t="s">
         <v>804</v>
-      </c>
-      <c r="B422" s="3" t="s">
-        <v>805</v>
       </c>
       <c r="C422" s="3"/>
     </row>
     <row r="423" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C423" s="3"/>
     </row>
     <row r="424" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C424" s="3"/>
     </row>
     <row r="425" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C425" s="3"/>
     </row>
     <row r="426" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C426" s="3"/>
     </row>
     <row r="427" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="B427" s="3" t="s">
         <v>896</v>
-      </c>
-      <c r="B427" s="3" t="s">
-        <v>897</v>
       </c>
       <c r="C427" s="3"/>
     </row>
     <row r="428" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="B428" s="3" t="s">
         <v>898</v>
-      </c>
-      <c r="B428" s="3" t="s">
-        <v>899</v>
       </c>
       <c r="C428" s="3"/>
     </row>
     <row r="429" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="B429" s="3" t="s">
         <v>900</v>
-      </c>
-      <c r="B429" s="3" t="s">
-        <v>901</v>
       </c>
       <c r="C429" s="3"/>
     </row>
     <row r="430" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="B430" s="3" t="s">
         <v>949</v>
-      </c>
-      <c r="B430" s="3" t="s">
-        <v>950</v>
       </c>
       <c r="C430" s="3"/>
     </row>
     <row r="431" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="B431" s="3" t="s">
         <v>903</v>
-      </c>
-      <c r="B431" s="3" t="s">
-        <v>904</v>
       </c>
       <c r="C431" s="3"/>
     </row>
     <row r="432" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="3" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C432" s="3"/>
     </row>
     <row r="433" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C433" s="3"/>
     </row>
     <row r="434" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C434" s="3"/>
     </row>
     <row r="435" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="B435" s="3" t="s">
         <v>911</v>
-      </c>
-      <c r="B435" s="3" t="s">
-        <v>912</v>
       </c>
       <c r="C435" s="3"/>
     </row>
     <row r="436" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="B436" s="3" t="s">
         <v>913</v>
-      </c>
-      <c r="B436" s="3" t="s">
-        <v>914</v>
       </c>
       <c r="C436" s="3"/>
     </row>
     <row r="437" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="B437" s="3" t="s">
         <v>916</v>
-      </c>
-      <c r="B437" s="3" t="s">
-        <v>917</v>
       </c>
       <c r="C437" s="3"/>
     </row>
     <row r="438" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B438" s="3" t="s">
         <v>918</v>
-      </c>
-      <c r="B438" s="3" t="s">
-        <v>919</v>
       </c>
       <c r="C438" s="3"/>
     </row>
     <row r="439" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B439" s="3" t="s">
         <v>920</v>
-      </c>
-      <c r="B439" s="3" t="s">
-        <v>921</v>
       </c>
       <c r="C439" s="3"/>
     </row>
     <row r="440" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C440" s="3"/>
     </row>
     <row r="441" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C441" s="3"/>
     </row>
     <row r="442" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="B442" s="3" t="s">
         <v>923</v>
-      </c>
-      <c r="B442" s="3" t="s">
-        <v>924</v>
       </c>
       <c r="C442" s="3"/>
     </row>
     <row r="443" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="B443" s="3" t="s">
         <v>925</v>
-      </c>
-      <c r="B443" s="3" t="s">
-        <v>926</v>
       </c>
       <c r="C443" s="3"/>
     </row>
     <row r="444" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="B444" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="B444" s="3" t="s">
-        <v>931</v>
-      </c>
       <c r="C444" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="445" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="B445" s="3" t="s">
         <v>932</v>
-      </c>
-      <c r="B445" s="3" t="s">
-        <v>933</v>
       </c>
       <c r="C445" s="3"/>
     </row>
     <row r="446" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C446" s="3"/>
     </row>
     <row r="447" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C447" s="3"/>
     </row>
     <row r="448" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C448" s="3"/>
     </row>
     <row r="449" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C449" s="3"/>
     </row>
     <row r="450" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C450" s="3"/>
     </row>
     <row r="451" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="B451" s="3" t="s">
         <v>951</v>
-      </c>
-      <c r="B451" s="3" t="s">
-        <v>952</v>
       </c>
       <c r="C451" s="3"/>
     </row>
     <row r="452" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="3" t="s">
-        <v>963</v>
+        <v>1072</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C452" s="3"/>
     </row>
     <row r="453" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C453" s="3"/>
     </row>
     <row r="454" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="B454" s="3" t="s">
         <v>979</v>
-      </c>
-      <c r="B454" s="3" t="s">
-        <v>981</v>
       </c>
       <c r="C454" s="3"/>
     </row>
     <row r="455" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C455" s="3"/>
     </row>
     <row r="456" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="3" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C456" s="3"/>
     </row>
     <row r="457" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C457" s="3"/>
     </row>
     <row r="458" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="3" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C458" s="3"/>
     </row>
     <row r="459" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C459" s="3"/>
     </row>
     <row r="460" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B460" s="3" t="s">
         <v>1006</v>
-      </c>
-      <c r="B460" s="3" t="s">
-        <v>1008</v>
       </c>
       <c r="C460" s="3"/>
     </row>
     <row r="461" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B461" s="3" t="s">
         <v>1005</v>
-      </c>
-      <c r="B461" s="3" t="s">
-        <v>1007</v>
       </c>
       <c r="C461" s="3"/>
     </row>
     <row r="462" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="3" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C462" s="3"/>
     </row>
     <row r="463" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C463" s="3"/>
     </row>
     <row r="464" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="3" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C464" s="3"/>
     </row>
     <row r="465" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C465" s="3"/>
     </row>
     <row r="466" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A466" s="3"/>
-      <c r="B466" s="3"/>
+      <c r="A466" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>1071</v>
+      </c>
       <c r="C466" s="3"/>
     </row>
     <row r="467" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A467" s="3"/>
-      <c r="B467" s="3"/>
+      <c r="A467" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>1081</v>
+      </c>
       <c r="C467" s="3"/>
     </row>
     <row r="468" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A468" s="3"/>
-      <c r="B468" s="3"/>
+      <c r="A468" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>1082</v>
+      </c>
       <c r="C468" s="3"/>
     </row>
     <row r="469" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A469" s="3"/>
-      <c r="B469" s="3"/>
+      <c r="A469" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>1076</v>
+      </c>
       <c r="C469" s="3"/>
     </row>
     <row r="470" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A470" s="3"/>
-      <c r="B470" s="3"/>
+      <c r="A470" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>1077</v>
+      </c>
       <c r="C470" s="3"/>
     </row>
     <row r="471" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A471" s="3"/>
-      <c r="B471" s="3"/>
+      <c r="A471" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>1078</v>
+      </c>
       <c r="C471" s="3"/>
     </row>
     <row r="472" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A472" s="3"/>
-      <c r="B472" s="3"/>
+      <c r="A472" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>1084</v>
+      </c>
       <c r="C472" s="3"/>
     </row>
     <row r="473" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A473" s="3"/>
-      <c r="B473" s="3"/>
+      <c r="A473" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>1086</v>
+      </c>
       <c r="C473" s="3"/>
     </row>
     <row r="474" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A474" s="3"/>
-      <c r="B474" s="3"/>
+      <c r="A474" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>1092</v>
+      </c>
       <c r="C474" s="3"/>
     </row>
     <row r="475" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A475" s="3"/>
-      <c r="B475" s="3"/>
+      <c r="A475" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>1090</v>
+      </c>
       <c r="C475" s="3"/>
     </row>
     <row r="476" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A476" s="3"/>
-      <c r="B476" s="3"/>
+      <c r="A476" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>1091</v>
+      </c>
       <c r="C476" s="3"/>
     </row>
     <row r="477" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12620,6 +12808,16 @@
       <c r="A1060" s="3"/>
       <c r="B1060" s="3"/>
       <c r="C1060" s="3"/>
+    </row>
+    <row r="1061" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1061" s="3"/>
+      <c r="B1061" s="3"/>
+      <c r="C1061" s="3"/>
+    </row>
+    <row r="1062" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1062" s="3"/>
+      <c r="B1062" s="3"/>
+      <c r="C1062" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12650,425 +12848,425 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>890</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
+      <c r="A1" s="34" t="s">
+        <v>889</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
     </row>
     <row r="2" spans="1:18" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
-        <v>888</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
+      <c r="A2" s="38" t="s">
+        <v>887</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
+        <v>814</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="36"/>
+      <c r="B4" s="9" t="s">
         <v>815</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>840</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>841</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>843</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37"/>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>816</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>817</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>818</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>819</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
+        <v>820</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="36"/>
+      <c r="B6" s="9" t="s">
         <v>821</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>844</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>845</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>846</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>848</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>849</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>850</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>851</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>853</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>854</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>855</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>856</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>857</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>858</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>859</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37"/>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>822</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="12" t="s">
         <v>823</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>824</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>825</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="12" t="s">
         <v>826</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="H6" s="12" t="s">
         <v>827</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="12" t="s">
         <v>828</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="J6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>829</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="12" t="s">
+      <c r="L6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="13" t="s">
         <v>830</v>
       </c>
-      <c r="L6" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="M6" s="13" t="s">
+      <c r="N6" s="12" t="s">
         <v>831</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="O6" s="12" t="s">
         <v>832</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="P6" s="12" t="s">
         <v>833</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="Q6" s="12" t="s">
         <v>834</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="R6" s="14" t="s">
         <v>835</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>837</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>838</v>
-      </c>
       <c r="C7" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="36"/>
+      <c r="B8" s="9" t="s">
         <v>861</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-    </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37"/>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>862</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>863</v>
-      </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>864</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>865</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="17" t="s">
         <v>866</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="18" t="s">
         <v>867</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="F9" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>868</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="17" t="s">
+      <c r="H9" s="17" t="s">
         <v>869</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="I9" s="17" t="s">
         <v>870</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="J9" s="17" t="s">
         <v>871</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="K9" s="17" t="s">
         <v>872</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="L9" s="17" t="s">
         <v>873</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="M9" s="19" t="s">
         <v>874</v>
       </c>
-      <c r="M9" s="19" t="s">
+    </row>
+    <row r="10" spans="1:18" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
-        <v>876</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
-        <v>889</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
+      <c r="A12" s="39" t="s">
+        <v>888</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="34" t="s">
-        <v>878</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
+      <c r="A13" s="39" t="s">
+        <v>877</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
     </row>
     <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
+        <v>878</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>882</v>
       </c>
-      <c r="E14" s="7" t="s">
+    </row>
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="44"/>
+      <c r="B15" s="20" t="s">
         <v>884</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="36"/>
-      <c r="B15" s="20" t="s">
+      <c r="C15" s="12" t="s">
         <v>885</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>886</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>834</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>887</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A12:R12"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A10:R10"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A11:R11"/>
     <mergeCell ref="D7:M8"/>
-    <mergeCell ref="A12:R12"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13081,7 +13279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0CABD2-02E4-4D8C-A8ED-3F367937EF2E}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -13094,208 +13292,208 @@
   <sheetData>
     <row r="1" spans="1:2" ht="114" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="45" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="29" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
   </sheetData>

--- a/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
+++ b/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Websites\hssrgov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F05FE3-23CA-41F8-80FA-9FD346EBBF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B01CD5-2CA6-4010-A88E-18B8EA622065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CCB781DE-C1B4-4E71-9129-23ABA5B611FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Haer Langu Nedekayhoyna" sheetId="1" r:id="rId1"/>
-    <sheet name="“讧中   车匕   灵   冮   十扌寸”方案" sheetId="2" r:id="rId2"/>
-    <sheet name="Кирива Хаер Лангу Недекаĵхоĵна" sheetId="3" r:id="rId3"/>
+    <sheet name="一些固定表达" sheetId="4" r:id="rId2"/>
+    <sheet name="“讧中   车匕   灵   冮   十扌寸”方案" sheetId="2" r:id="rId3"/>
+    <sheet name="Кирива Хаер Лангу Недекаĵхоĵна" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="1185">
   <si>
     <t>中文</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -764,10 +765,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>很</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>比</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -804,10 +801,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>找寻/搜索/查找/查询</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>领导/带领/领导人/上司/老板/上级/率领</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -868,10 +861,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>声音/声响/听/聆听</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>限制</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1064,10 +1053,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>姓名/名字/名称/称呼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>岁/年/年龄</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1284,10 +1269,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>无产者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>出发</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2019,12 +2000,6 @@
     <t>vopoy</t>
   </si>
   <si>
-    <t>yesf</t>
-  </si>
-  <si>
-    <t>bye</t>
-  </si>
-  <si>
     <t>dlotay</t>
   </si>
   <si>
@@ -2235,9 +2210,6 @@
     <t>respublik</t>
   </si>
   <si>
-    <t>kommunism</t>
-  </si>
-  <si>
     <t>imperialism</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2546,10 +2518,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>弱小/被强制/软弱/妥协/委曲（坏影响的）/被强权压制/过分依赖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>nestag</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2689,10 +2657,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>命令/指示/指令/下令/令/指导/指引/决定/决议</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>任命/赋予职位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2729,10 +2693,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>全部/所有/整个/均/都/一切/全都/完全</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>关闭/关/停止/终止/中止/倒闭/闭会/结束</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2870,10 +2830,6 @@
   </si>
   <si>
     <t>regulirovad</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请/请求</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3391,8 +3347,1145 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>届时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>klotaś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换/替换/换/更替/交替/交接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anstataŭig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证/确定/确保</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>garantŭ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附上/附带/附赠/又及/附加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shtandart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片/图形/图案/图样</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bild</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>矢量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vektor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准/最佳参考/格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国/中华</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉化：Kitay vedaś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedaś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlotaś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分部/支部/分支/部门/部/区/分区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>各/分别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交/递交/赠与/反馈/赠送/上传/上报</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载/接收</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现象/状况/表现/外观/看上去/情况/状态/情形</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺术/美术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prozveś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>素养/素质/文明程度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挫折/打击/困难/教训（n.）/教育/培养/教授/教学/施教</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发/研制/开发/发明/创造/发现/认识到/设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长宽比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pemz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n边形</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n角星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正（n边形/n角星）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五角星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六角星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nyakśʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rokśʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internatsi Kant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>internatsi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>象征/标志/（因此而远名的）招牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明/产品手册/指南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yevarovś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按键/按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>klavisha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>luklavisha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruklavisha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suklavisha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>另存为/保存为/存储为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护/保存/存储</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sav</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>konsav</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取/得到/收入/受赠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>akir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nagruzova</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络/连接/信号（信息技术方面）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何/随机/随时/无时无刻不/每时每刻都/一切情况下/任何情况下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行/奉命/遵命/遵照/照办/遵守/遵循</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用/使用/采用/以</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uayk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>misuz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复/修理/维修/修葺/修缮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁坏/破坏/打砸/毁灭/损坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subten</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nesubten</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>udsafoz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考/按照/一模一样地复制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>laŭ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nedekvedarov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为准/作为标准/作为最佳参考/作为格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tizhitigrad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提季提格勒（哈儿苏维埃社会主义共和国首都）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：以句为单位，自左至右依次表示第一、二、三个单词间的空格，一句内空格超过12个时自左至右循环，但形如Haer Langu、Haer Labotiy的专用名词（大写）中间的空格只能全部写成“灵”，且不参与整句的空格循环。人名中间的空格不写出，不参与整句的空格循环。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万岁：lot lev  表达激动：loevaśʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律/法规/规则/守则/纪律/准则/法典/法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宪法/根本法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刑法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（自成单字，与前后分开）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西里尔哈儿语字母</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉丁哈儿语字母</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Аа</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Бб</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Дд</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Фф</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Гг</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Хх</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ии</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Кк</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Лл</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Мм</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Нн</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Оо</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Пп</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Рр</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Сс</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Тт</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Уу</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Вв</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ŷŷ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Зз</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ćć</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ʡ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ĵĵ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ее</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案/方法/解决办法/出路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoyna</t>
+  </si>
+  <si>
+    <t>nedekhoyna</t>
+  </si>
+  <si>
+    <t>busalahoyna</t>
+  </si>
+  <si>
+    <t>nedekayhoyna</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiriva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西里尔哈儿语方案                Кирива Хаер Лангу Недекаĵхоĵна</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据/依据/证据/依靠/证词/口供/证明/证实</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假依据/假证据/伪证/虚假的证明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spedfrek</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>书籍/书本/图书/典籍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>botsan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大典：bin botsan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布/公示/告示/通报/通知/报告/宣布/公布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天/昨日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天/明日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常/不常用/罕见/几乎不出现/几乎不存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>neuzefa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过/批准/许可/放行（通常为政令或关卡）/同意/认同/认可/允许/（现）予</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现予：lis fehiu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vdog</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宾拉托夫萨多斯帕拉德</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binlatrovsadosparad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯正/正统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（量词）个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（量词）则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（量词）杯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>geeś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zeeś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>neeś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>量词</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数词/数字/数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>someeś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alkeeś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼制/冶炼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deʔś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feʔś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈儿（意为：智慧的愚者）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强烈/剧烈/急剧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表扬/赞许/赞荣/赞叹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批评/谴责/责备/痛骂/痛斥/斥骂/斥责/呵斥/喝斥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ulʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>premzulʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n边形：[数字]z；n角星：[数字]kśʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kśʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ŭśʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedaʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedashtandaʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>legopoʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alakaʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yevarovʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nedekvedaśʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（后缀）-eʔś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beʔś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trekspedaʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>克里瓦斯特（哈儿国宾拉托夫萨多斯帕拉德自治共和国首府）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Krivastavay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用/经常/总是/常规/一般/正常/常见/例行/日常/例行公事/一般行为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找寻/搜索/查找/查询/检查/监视/检测/监测/审查/审核</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目/工程/目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目/条目/词条</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adesa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>edase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部/所有/整个/均/都/一切/全都/完全/完整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容/内涵/包含/正文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yevarovavedarovagś</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题/书名/大体提纲/概况/概括/题目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yevarovavedarovagʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nevarovanedarovagśʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱/金钱/财富/资产/资本/钞票和硬币的统称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钞票/纸钞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费/付款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很/更/更加/比起来更</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>侮辱/羞辱/欺凌/霸凌/施暴/施虐/残虐/残害/虐待/耻辱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有廉耻之心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trekmisuz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无廉耻之心/无耻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>frekmisuz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为/行径/所作所为/作为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>……学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>studaya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amlnedekyevarovgśʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alnedekyevarovgśʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mlnedekyevarovgśʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trekamlnedekyevarovgśʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>frekamlnedekyevarovgśʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如，行为学：nedekvgśʔ studaya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卑劣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dekvanvedarumila</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶级/地位/等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gangsk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产阶级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无产者/无产阶级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强大/强制/强硬/强势/强力/强权/必须/压迫/剥削</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱小/被强制/软弱/妥协/委曲（坏影响的）/被强权压制/过分依赖/被压迫/被剥削</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解放（共产主义）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nedekŭaŭ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共/公有/公共所有/国家所有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>私人/私有/个人所有/私人所有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ubb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>neubb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公敌/公共敌人/公共的敌人/共同敌人/共同的敌人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ubbrokti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>严肃/严正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kitdeka</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令/指示/指令/下令/令/指导/指引/决定/决议/要求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音/声响/听/聆听/声明/声称/表示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些固定表达</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告/告知/最后通牒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dekvedaŭez</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外事/外交/国际交往</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内务/个人清洁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>opnedeka</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ennedeka</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eruna</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上善若水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>善良/善意/友善/和善/亲和/亲和力/具有亲和力的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凶恶/恶意/令人难以接近的/（情感上的）排斥/（情感上的）排斥力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emulomay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnemulomay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相似/像/若/类似/好似</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑似/可能是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedaneveda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eravedaneveda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火/火焰/烈焰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nedekspasiv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nedekvoeak</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedanedekvoeak</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勿谓言之不预也</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>neh sped yayi neh dekvedaŭez ye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>voe emulomay vedaneveda nedekspasiv（非正式：vevn）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全世界无产者，联合起来！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alak mir proletar, soz!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧/火烧/烧火/火灾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期/一直/长时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时/短时/临时/短期/短时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spesavie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spasevia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁移/移动/迁居/搬家/乔迁/位移/位置变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vokanehvedatet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名/名字/名称/称呼/名为/名字是/叫做/姓名是/称作/更名为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近期/不久/即将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ŭilavay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请/请求/邀请/诚邀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置/设为/定为/作为/设定/选项/设置为/开设</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kommunism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>节目/栏目/系列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stagaʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>frekspedaʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amlnedekyevarovgśgangskʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nedekvgśʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>veda</t>
+      <t>latyevarovś</t>
     </r>
     <r>
       <rPr>
@@ -3406,901 +4499,12 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>届时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>klotaś</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>强大/强制/强硬/强势/强力/强权/必须</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换/替换/换/更替/交替/交接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>anstataŭig</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保证/确定/确保</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>garantŭ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>附上/附带/附赠/又及/附加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>alig</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shtandart</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片/图形/图案/图样</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bild</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>矢量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vektor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准/最佳参考/格式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国/中华</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉化：Kitay vedaś</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>…化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vedaś</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dlotaś</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>东</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>西</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>南</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>北</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aʔ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>eʔ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iʔ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>oʔ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分部/支部/分支/部门/部/区/分区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>各/分别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交/递交/赠与/反馈/赠送/上传/上报</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载/接收</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ŭś</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ʔ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>现象/状况/表现/外观/看上去/情况/状态/情形</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>艺术/美术</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>prozveś</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>素养/素质/文明程度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>legopo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ʔ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挫折/打击/困难/教训（n.）/教育/培养/教授/教学/施教</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>研发/研制/开发/发明/创造/发现/认识到/设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>长</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>比例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>长宽比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pemz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>remz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>premzul</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ʔ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ul</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ʔ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>alaka</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ʔ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n边形</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>z</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n角星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>kś</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ʔ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>正（n边形/n角星）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>五角星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>六角星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nyakśʔ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rokśʔ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>n边形：[数字]z；n角星：[数字]kś</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ʔ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Internatsi Kant</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>internatsi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>象征/标志/（因此而远名的）招牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>yevarov</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ʔ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明/产品手册/指南</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ś</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yevarovś</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按键/按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>klavisha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>左键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>右键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>luklavisha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruklavisha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>suklavisha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>另存为/保存为/存储为</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保护/保存/存储</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sav</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>konsav</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取/得到/收入/受赠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>akir</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nagruzova</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络/连接/信号（信息技术方面）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任何/随机/随时/无时无刻不/每时每刻都/一切情况下/任何情况下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>beś</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行/奉命/遵命/遵照/照办/遵守/遵循</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用/使用/采用/以</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uayk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>侮辱/羞辱/欺凌/霸凌/施暴/施虐/残虐/残害/虐待</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>misuz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复/修理/维修/修葺/修缮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>毁坏/破坏/打砸/毁灭/损坏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>subten</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nesubten</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>udsafoz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考/按照/一模一样地复制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>laŭ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nedekvedarov</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>为准/作为标准/作为最佳参考/作为格式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>vedashtanda</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ʔ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tizhitigrad</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提季提格勒（哈儿苏维埃社会主义共和国首都）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：以句为单位，自左至右依次表示第一、二、三个单词间的空格，一句内空格超过12个时自左至右循环，但形如Haer Langu、Haer Labotiy的专用名词（大写）中间的空格只能全部写成“灵”，且不参与整句的空格循环。人名中间的空格不写出，不参与整句的空格循环。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>万岁：lot lev  表达激动：loevaśʔ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法律/法规/规则/守则/纪律/准则/法典/法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宪法/根本法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刑法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（自成单字，与前后分开）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>西里尔哈儿语字母</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉丁哈儿语字母</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Аа</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Бб</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Дд</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Фф</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Гг</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Хх</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ии</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Кк</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Лл</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Мм</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Нн</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Оо</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Пп</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Рр</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Сс</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Тт</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Уу</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Вв</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ŷŷ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Зз</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ćć</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ʡ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ĵĵ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ее</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案/方法/解决办法/出路</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hoyna</t>
-  </si>
-  <si>
-    <t>nedekhoyna</t>
-  </si>
-  <si>
-    <t>busalahoyna</t>
-  </si>
-  <si>
-    <t>nedekayhoyna</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiriva</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>西里尔哈儿语方案                Кирива Хаер Лангу Недекаĵхоĵна</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据/依据/证据/依靠/证词/口供/证明/证实</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>假依据/假证据/伪证/虚假的证明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>spedfrek</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>书籍/书本/图书/典籍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>botsan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大典：bin botsan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布/公示/告示/通报/通知/报告/宣布/公布</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>昨天/昨日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>明天/明日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>常用/经常/总是/常规/一般/正常/常见</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>非常/不常用/罕见/几乎不出现/几乎不存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>neuzefa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过/批准/许可/放行（通常为政令或关卡）/同意/认同/认可/允许/（现）予</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>现予：lis fehiu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vdog</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宾拉托夫萨多斯帕拉德</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binlatrovsadosparad</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯正/正统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（量词）个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（量词）则</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（量词）杯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>geeś</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zeeś</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>neeś</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>量词</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数词/数字/数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>someeś</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>alkeeś</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼制/冶炼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>nedekvedaś</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ʔ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金属</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>（后缀）-e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ʔ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="二简字楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ś</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deʔś</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>feʔś</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>be</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ʔ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="二简字楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ś</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈儿（意为：智慧的愚者）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4411,13 +4615,6 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="MS Mincho"/>
       <family val="3"/>
       <charset val="128"/>
@@ -4430,16 +4627,44 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="二简字楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="二简字楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFD700"/>
+      <name val="二简字楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -4828,6 +5053,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4837,7 +5088,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4928,6 +5179,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4938,6 +5195,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4973,7 +5236,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4983,6 +5246,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFD700"/>
+      <color rgb="FFCC0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5499,10 +5768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB56768-82A6-42FF-B107-45016A59F08E}">
-  <dimension ref="A1:C1062"/>
+  <dimension ref="A1:C1072"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A514" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B518" sqref="B518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5514,11 +5783,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>645</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="A1" s="32" t="s">
+        <v>637</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -5536,10 +5805,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5547,7 +5816,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -5556,7 +5825,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -5565,7 +5834,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -5574,7 +5843,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -5583,34 +5852,34 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>1093</v>
+        <v>1065</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -5619,7 +5888,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -5628,7 +5897,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -5637,10 +5906,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>630</v>
+        <v>1178</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5648,7 +5917,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -5657,7 +5926,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -5666,7 +5935,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -5675,7 +5944,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -5684,7 +5953,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -5693,10 +5962,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>662</v>
+        <v>641</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5704,145 +5973,145 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="C21" s="32"/>
+        <v>642</v>
+      </c>
+      <c r="C21" s="34"/>
     </row>
     <row r="22" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="C22" s="32"/>
+        <v>643</v>
+      </c>
+      <c r="C22" s="34"/>
     </row>
     <row r="23" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="C23" s="32"/>
+        <v>644</v>
+      </c>
+      <c r="C23" s="34"/>
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="C24" s="32"/>
+        <v>645</v>
+      </c>
+      <c r="C24" s="34"/>
     </row>
     <row r="25" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="C25" s="32"/>
+        <v>646</v>
+      </c>
+      <c r="C25" s="34"/>
     </row>
     <row r="26" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="C26" s="32"/>
+        <v>647</v>
+      </c>
+      <c r="C26" s="34"/>
     </row>
     <row r="27" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="C27" s="32"/>
+        <v>648</v>
+      </c>
+      <c r="C27" s="34"/>
     </row>
     <row r="28" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="C28" s="32"/>
+        <v>649</v>
+      </c>
+      <c r="C28" s="34"/>
     </row>
     <row r="29" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="C29" s="32"/>
+        <v>650</v>
+      </c>
+      <c r="C29" s="34"/>
     </row>
     <row r="30" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="C30" s="32"/>
+        <v>651</v>
+      </c>
+      <c r="C30" s="34"/>
     </row>
     <row r="31" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="C31" s="32"/>
+        <v>652</v>
+      </c>
+      <c r="C31" s="34"/>
     </row>
     <row r="32" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="C32" s="32"/>
+        <v>486</v>
+      </c>
+      <c r="C32" s="34"/>
     </row>
     <row r="33" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="C33" s="32"/>
+        <v>411</v>
+      </c>
+      <c r="C33" s="34"/>
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C34" s="32"/>
+        <v>412</v>
+      </c>
+      <c r="C34" s="34"/>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="C35" s="33"/>
+        <v>572</v>
+      </c>
+      <c r="C35" s="35"/>
     </row>
     <row r="36" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1016</v>
+        <v>992</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5850,913 +6119,913 @@
         <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>914</v>
+        <v>1123</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>714</v>
+        <v>1066</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>715</v>
+        <v>1180</v>
       </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>288</v>
+        <v>1124</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>493</v>
+        <v>706</v>
       </c>
       <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>372</v>
+        <v>488</v>
       </c>
       <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>419</v>
+        <v>367</v>
       </c>
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>580</v>
+        <v>414</v>
       </c>
       <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>1063</v>
+        <v>36</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>1064</v>
+        <v>1085</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1065</v>
+        <v>574</v>
       </c>
       <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>37</v>
+        <v>1039</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>633</v>
+        <v>1040</v>
       </c>
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>373</v>
+        <v>625</v>
       </c>
       <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>634</v>
+        <v>368</v>
       </c>
       <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>728</v>
+        <v>39</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>764</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>40</v>
+        <v>719</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C50" s="3"/>
+        <v>720</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="51" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>420</v>
+        <v>329</v>
       </c>
       <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>350</v>
+        <v>418</v>
       </c>
       <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>796</v>
+        <v>44</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>494</v>
+        <v>345</v>
       </c>
       <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>45</v>
+        <v>1176</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>394</v>
+        <v>490</v>
       </c>
       <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>663</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="C60" s="3"/>
+        <v>419</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="61" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>233</v>
+        <v>48</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>425</v>
+        <v>491</v>
       </c>
       <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>49</v>
+        <v>230</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>497</v>
+        <v>420</v>
       </c>
       <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>682</v>
+        <v>493</v>
       </c>
       <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>806</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>52</v>
+        <v>1086</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C66" s="3"/>
+        <v>550</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="67" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>664</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="C68" s="3"/>
+        <v>494</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="69" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>462</v>
+        <v>551</v>
       </c>
       <c r="C69" s="3"/>
     </row>
     <row r="70" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>745</v>
+        <v>55</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>335</v>
+        <v>457</v>
       </c>
       <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>56</v>
+        <v>736</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>426</v>
+        <v>330</v>
       </c>
       <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>582</v>
+        <v>370</v>
       </c>
       <c r="C74" s="3"/>
     </row>
     <row r="75" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>683</v>
+        <v>575</v>
       </c>
       <c r="C75" s="3"/>
     </row>
     <row r="76" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>427</v>
+        <v>677</v>
       </c>
       <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>336</v>
+        <v>422</v>
       </c>
       <c r="C79" s="3"/>
     </row>
     <row r="80" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="C81" s="3"/>
     </row>
     <row r="82" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="C82" s="3"/>
     </row>
     <row r="83" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>635</v>
+        <v>346</v>
       </c>
       <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="C84" s="3"/>
     </row>
     <row r="85" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>66</v>
+        <v>207</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>344</v>
+        <v>628</v>
       </c>
       <c r="C85" s="3"/>
     </row>
     <row r="86" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C86" s="3"/>
     </row>
     <row r="87" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>670</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="C88" s="3"/>
     </row>
     <row r="89" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>500</v>
+        <v>423</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C90" s="3"/>
+        <v>495</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="91" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>258</v>
+        <v>71</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>696</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="C91" s="3"/>
     </row>
     <row r="92" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C92" s="3"/>
+        <v>424</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="93" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C93" s="3"/>
     </row>
     <row r="94" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C94" s="3"/>
     </row>
     <row r="95" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>349</v>
+        <v>427</v>
       </c>
       <c r="C95" s="3"/>
     </row>
     <row r="96" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C96" s="3"/>
     </row>
     <row r="97" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>434</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C97" s="3"/>
     </row>
     <row r="98" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="C98" s="3"/>
+        <v>428</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="99" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>927</v>
+        <v>77</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>928</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="C99" s="3"/>
     </row>
     <row r="100" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>78</v>
+        <v>913</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C100" s="3"/>
+        <v>666</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="101" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="C101" s="3"/>
     </row>
     <row r="102" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="C102" s="3"/>
     </row>
     <row r="103" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C103" s="3"/>
     </row>
     <row r="104" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>395</v>
+        <v>325</v>
       </c>
       <c r="C104" s="3"/>
     </row>
     <row r="105" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>324</v>
+        <v>390</v>
       </c>
       <c r="C105" s="3"/>
     </row>
     <row r="106" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="C106" s="3"/>
     </row>
     <row r="107" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>377</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="C107" s="3"/>
     </row>
     <row r="108" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C108" s="3"/>
+        <v>371</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="109" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C109" s="3"/>
     </row>
     <row r="110" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C110" s="3"/>
     </row>
     <row r="111" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C111" s="3"/>
     </row>
     <row r="112" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>784</v>
+        <v>88</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>382</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="C112" s="3"/>
     </row>
     <row r="113" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="114" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>89</v>
+        <v>774</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C114" s="3"/>
+        <v>391</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="115" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>502</v>
+        <v>430</v>
       </c>
       <c r="C115" s="3"/>
     </row>
     <row r="116" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C116" s="3"/>
     </row>
     <row r="117" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C117" s="3"/>
     </row>
     <row r="118" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>557</v>
+        <v>499</v>
       </c>
       <c r="C118" s="3"/>
     </row>
     <row r="119" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>383</v>
+        <v>552</v>
       </c>
       <c r="C119" s="3"/>
     </row>
     <row r="120" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C120" s="3"/>
     </row>
     <row r="121" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>954</v>
+        <v>95</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>958</v>
+        <v>379</v>
       </c>
       <c r="C121" s="3"/>
     </row>
     <row r="122" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>955</v>
+        <v>938</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>959</v>
+        <v>942</v>
       </c>
       <c r="C122" s="3"/>
     </row>
     <row r="123" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>956</v>
+        <v>939</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>961</v>
+        <v>943</v>
       </c>
       <c r="C123" s="3"/>
     </row>
     <row r="124" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>960</v>
+        <v>1069</v>
       </c>
       <c r="C124" s="3"/>
     </row>
     <row r="125" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>96</v>
+        <v>941</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>338</v>
+        <v>1070</v>
       </c>
       <c r="C125" s="3"/>
     </row>
     <row r="126" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>463</v>
+        <v>333</v>
       </c>
       <c r="C126" s="3"/>
     </row>
     <row r="127" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>339</v>
+        <v>458</v>
       </c>
       <c r="C127" s="3"/>
     </row>
     <row r="128" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>637</v>
+        <v>334</v>
       </c>
       <c r="C128" s="3"/>
     </row>
     <row r="129" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>759</v>
+        <v>629</v>
       </c>
       <c r="C129" s="3"/>
     </row>
     <row r="130" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>99</v>
+        <v>235</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>558</v>
+        <v>749</v>
       </c>
       <c r="C130" s="3"/>
     </row>
     <row r="131" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>559</v>
+        <v>1166</v>
       </c>
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>560</v>
+        <v>1165</v>
       </c>
       <c r="C132" s="3"/>
     </row>
     <row r="133" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="C133" s="3"/>
     </row>
     <row r="134" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>331</v>
+        <v>554</v>
       </c>
       <c r="C134" s="3"/>
     </row>
     <row r="135" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="C135" s="3"/>
     </row>
@@ -6765,695 +7034,695 @@
         <v>216</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>638</v>
+        <v>350</v>
       </c>
       <c r="C136" s="3"/>
     </row>
     <row r="137" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>703</v>
+        <v>213</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>464</v>
+        <v>630</v>
       </c>
       <c r="C137" s="3"/>
     </row>
     <row r="138" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>104</v>
+        <v>695</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C138" s="3"/>
     </row>
     <row r="139" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C139" s="3"/>
     </row>
     <row r="140" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>980</v>
+        <v>105</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>981</v>
+        <v>461</v>
       </c>
       <c r="C140" s="3"/>
     </row>
     <row r="141" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>982</v>
+        <v>958</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>985</v>
+        <v>959</v>
       </c>
       <c r="C141" s="3"/>
     </row>
     <row r="142" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>983</v>
+        <v>960</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>986</v>
+        <v>963</v>
       </c>
       <c r="C142" s="3"/>
     </row>
     <row r="143" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>984</v>
+        <v>961</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>987</v>
+        <v>964</v>
       </c>
       <c r="C143" s="3"/>
     </row>
     <row r="144" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>811</v>
+        <v>962</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>467</v>
+        <v>965</v>
       </c>
       <c r="C144" s="3"/>
     </row>
     <row r="145" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>777</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="C145" s="3"/>
     </row>
     <row r="146" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>285</v>
+        <v>800</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="C146" s="3"/>
+        <v>463</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="147" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>106</v>
+        <v>281</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C147" s="3"/>
     </row>
     <row r="148" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
       <c r="C148" s="3"/>
     </row>
     <row r="149" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>692</v>
+        <v>107</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>693</v>
+        <v>431</v>
       </c>
       <c r="C149" s="3"/>
     </row>
     <row r="150" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>108</v>
+        <v>684</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>356</v>
+        <v>685</v>
       </c>
       <c r="C150" s="3"/>
     </row>
     <row r="151" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C151" s="3"/>
     </row>
     <row r="152" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>808</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="C152" s="3"/>
     </row>
     <row r="153" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C153" s="3"/>
+        <v>795</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="154" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row r="155" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>802</v>
+        <v>223</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="C155" s="3"/>
     </row>
     <row r="156" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>111</v>
+        <v>790</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C156" s="3"/>
     </row>
     <row r="157" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>562</v>
+        <v>394</v>
       </c>
       <c r="C157" s="3"/>
     </row>
     <row r="158" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>506</v>
+        <v>555</v>
       </c>
       <c r="C158" s="3"/>
     </row>
     <row r="159" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>230</v>
+        <v>113</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>563</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="C159" s="3"/>
     </row>
     <row r="160" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>114</v>
+        <v>227</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="C160" s="3"/>
+        <v>433</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="161" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>441</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="C161" s="3"/>
     </row>
     <row r="162" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="C162" s="3"/>
+        <v>435</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="163" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>400</v>
+        <v>437</v>
       </c>
       <c r="C163" s="3"/>
     </row>
     <row r="164" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row r="165" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>255</v>
+        <v>118</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C165" s="3"/>
     </row>
     <row r="166" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>119</v>
+        <v>252</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="C166" s="3"/>
     </row>
     <row r="167" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C167" s="3"/>
     </row>
     <row r="168" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C168" s="3"/>
     </row>
     <row r="169" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>668</v>
+        <v>383</v>
       </c>
       <c r="C169" s="3"/>
     </row>
     <row r="170" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>666</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="C170" s="3"/>
     </row>
     <row r="171" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="C171" s="3"/>
+        <v>465</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="172" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>675</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="C172" s="3"/>
     </row>
     <row r="173" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="C173" s="3"/>
+        <v>466</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="174" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>246</v>
+        <v>125</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>401</v>
+        <v>502</v>
       </c>
       <c r="C174" s="3"/>
     </row>
     <row r="175" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>1062</v>
+        <v>243</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C175" s="3"/>
     </row>
     <row r="176" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>126</v>
+        <v>1038</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C176" s="3"/>
     </row>
     <row r="177" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>1061</v>
+        <v>126</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C177" s="3"/>
     </row>
     <row r="178" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>127</v>
+        <v>1037</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C178" s="3"/>
     </row>
     <row r="179" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>236</v>
+        <v>127</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>472</v>
+        <v>400</v>
       </c>
       <c r="C179" s="3"/>
     </row>
     <row r="180" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>508</v>
+        <v>467</v>
       </c>
       <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>688</v>
+        <v>503</v>
       </c>
       <c r="C181" s="3"/>
     </row>
     <row r="182" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>564</v>
+        <v>680</v>
       </c>
       <c r="C182" s="3"/>
     </row>
     <row r="183" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C183" s="3"/>
     </row>
     <row r="184" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C184" s="3"/>
     </row>
     <row r="185" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>284</v>
+        <v>132</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>347</v>
+        <v>559</v>
       </c>
       <c r="C185" s="3"/>
     </row>
     <row r="186" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>567</v>
+        <v>342</v>
       </c>
       <c r="C186" s="3"/>
     </row>
     <row r="187" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>509</v>
+        <v>316</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>510</v>
+        <v>560</v>
       </c>
       <c r="C187" s="3"/>
     </row>
     <row r="188" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>133</v>
+        <v>504</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>443</v>
+        <v>505</v>
       </c>
       <c r="C188" s="3"/>
     </row>
     <row r="189" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>1057</v>
+        <v>133</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>1059</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="C189" s="3"/>
     </row>
     <row r="190" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>134</v>
+        <v>1033</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C190" s="3"/>
+        <v>1034</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>1035</v>
+      </c>
     </row>
     <row r="191" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="C191" s="3"/>
     </row>
     <row r="192" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C192" s="3"/>
     </row>
     <row r="193" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>511</v>
+        <v>385</v>
       </c>
       <c r="C193" s="3"/>
     </row>
     <row r="194" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>326</v>
+        <v>506</v>
       </c>
       <c r="C194" s="3"/>
     </row>
     <row r="195" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>445</v>
+        <v>321</v>
       </c>
       <c r="C195" s="3"/>
     </row>
     <row r="196" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>367</v>
+        <v>440</v>
       </c>
       <c r="C196" s="3"/>
     </row>
     <row r="197" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>446</v>
+        <v>362</v>
       </c>
       <c r="C197" s="3"/>
     </row>
     <row r="198" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>264</v>
+        <v>142</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C198" s="3"/>
     </row>
     <row r="199" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C199" s="3"/>
     </row>
     <row r="200" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="C200" s="3"/>
     </row>
     <row r="201" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>809</v>
+        <v>401</v>
       </c>
       <c r="C201" s="3"/>
     </row>
     <row r="202" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>513</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="C202" s="3"/>
     </row>
     <row r="203" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>145</v>
+        <v>232</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="C203" s="3"/>
+        <v>507</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="204" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>770</v>
+        <v>145</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>568</v>
+        <v>509</v>
       </c>
       <c r="C204" s="3"/>
     </row>
     <row r="205" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>1008</v>
+        <v>759</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>1009</v>
+        <v>561</v>
       </c>
       <c r="C205" s="3"/>
     </row>
     <row r="206" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>146</v>
+        <v>985</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>583</v>
+        <v>986</v>
       </c>
       <c r="C206" s="3"/>
     </row>
     <row r="207" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="C207" s="3"/>
     </row>
     <row r="208" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="C208" s="3"/>
     </row>
     <row r="209" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="C209" s="3"/>
     </row>
     <row r="210" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>332</v>
+        <v>510</v>
       </c>
       <c r="C210" s="3"/>
     </row>
     <row r="211" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>327</v>
@@ -7462,515 +7731,515 @@
     </row>
     <row r="212" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>473</v>
+        <v>322</v>
       </c>
       <c r="C212" s="3"/>
     </row>
     <row r="213" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>328</v>
+        <v>468</v>
       </c>
       <c r="C213" s="3"/>
     </row>
     <row r="214" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="C214" s="31" t="s">
-        <v>972</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C214" s="3"/>
     </row>
     <row r="215" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="C215" s="32"/>
+        <v>663</v>
+      </c>
+      <c r="C215" s="33" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="216" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="C216" s="32"/>
+        <v>661</v>
+      </c>
+      <c r="C216" s="34"/>
     </row>
     <row r="217" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>968</v>
+        <v>156</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>970</v>
-      </c>
-      <c r="C217" s="32"/>
+        <v>668</v>
+      </c>
+      <c r="C217" s="34"/>
     </row>
     <row r="218" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>969</v>
+        <v>948</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>971</v>
-      </c>
-      <c r="C218" s="32"/>
+        <v>950</v>
+      </c>
+      <c r="C218" s="34"/>
     </row>
     <row r="219" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>963</v>
+        <v>949</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>964</v>
-      </c>
-      <c r="C219" s="32"/>
+        <v>951</v>
+      </c>
+      <c r="C219" s="34"/>
     </row>
     <row r="220" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>965</v>
+        <v>944</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>966</v>
-      </c>
-      <c r="C220" s="33"/>
+        <v>945</v>
+      </c>
+      <c r="C220" s="34"/>
     </row>
     <row r="221" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>967</v>
+        <v>946</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>672</v>
-      </c>
+        <v>1072</v>
+      </c>
+      <c r="C221" s="35"/>
     </row>
     <row r="222" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>157</v>
+        <v>947</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>569</v>
+        <v>444</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
     </row>
     <row r="223" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="C223" s="3"/>
+        <v>562</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="224" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>450</v>
+        <v>563</v>
       </c>
       <c r="C224" s="3"/>
     </row>
     <row r="225" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>358</v>
+        <v>445</v>
       </c>
       <c r="C225" s="3"/>
     </row>
     <row r="226" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>463</v>
+        <v>353</v>
       </c>
       <c r="C226" s="3"/>
     </row>
     <row r="227" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C227" s="3"/>
     </row>
     <row r="228" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>813</v>
+        <v>162</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>359</v>
+        <v>459</v>
       </c>
       <c r="C228" s="3"/>
     </row>
     <row r="229" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>164</v>
+        <v>801</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>516</v>
+        <v>354</v>
       </c>
       <c r="C229" s="3"/>
     </row>
     <row r="230" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>810</v>
+        <v>511</v>
       </c>
       <c r="C230" s="3"/>
     </row>
     <row r="231" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>760</v>
+        <v>165</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>348</v>
+        <v>798</v>
       </c>
       <c r="C231" s="3"/>
     </row>
     <row r="232" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>166</v>
+        <v>1091</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>167</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C232" s="3"/>
     </row>
     <row r="233" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="C233" s="3"/>
+        <v>469</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="234" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>517</v>
+        <v>702</v>
       </c>
       <c r="C234" s="3"/>
     </row>
     <row r="235" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C235" s="3"/>
     </row>
     <row r="236" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>586</v>
+        <v>513</v>
       </c>
       <c r="C236" s="3"/>
     </row>
     <row r="237" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C237" s="3"/>
     </row>
     <row r="238" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>263</v>
+        <v>172</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C238" s="3"/>
     </row>
     <row r="239" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>475</v>
+        <v>581</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row r="240" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C240" s="3"/>
     </row>
     <row r="241" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C241" s="3"/>
     </row>
     <row r="242" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C242" s="3"/>
     </row>
     <row r="243" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>480</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="C243" s="3"/>
     </row>
     <row r="244" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="C244" s="3"/>
+        <v>474</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="245" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C245" s="3"/>
     </row>
     <row r="246" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>589</v>
+        <v>477</v>
       </c>
       <c r="C246" s="3"/>
     </row>
     <row r="247" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C247" s="3"/>
     </row>
     <row r="248" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C248" s="3"/>
     </row>
     <row r="249" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>689</v>
+        <v>181</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>519</v>
+        <v>584</v>
       </c>
       <c r="C249" s="3"/>
     </row>
     <row r="250" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>182</v>
+        <v>681</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>592</v>
+        <v>514</v>
       </c>
       <c r="C250" s="3"/>
     </row>
     <row r="251" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="C251" s="3"/>
     </row>
     <row r="252" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C252" s="3"/>
     </row>
     <row r="253" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>762</v>
+        <v>184</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>639</v>
+        <v>387</v>
       </c>
       <c r="C253" s="3"/>
     </row>
     <row r="254" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>763</v>
+        <v>631</v>
       </c>
       <c r="C254" s="3"/>
     </row>
     <row r="255" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>185</v>
+        <v>750</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>520</v>
+        <v>752</v>
       </c>
       <c r="C255" s="3"/>
     </row>
     <row r="256" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>754</v>
+        <v>1102</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C256" s="3"/>
     </row>
     <row r="257" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>186</v>
+        <v>744</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="C257" s="3"/>
     </row>
     <row r="258" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C258" s="3"/>
     </row>
     <row r="259" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>323</v>
+        <v>479</v>
       </c>
       <c r="C259" s="3"/>
     </row>
     <row r="260" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>593</v>
+        <v>318</v>
       </c>
       <c r="C260" s="3"/>
     </row>
     <row r="261" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>340</v>
+        <v>586</v>
       </c>
       <c r="C261" s="3"/>
     </row>
     <row r="262" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>451</v>
+        <v>335</v>
       </c>
       <c r="C262" s="3"/>
     </row>
     <row r="263" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>691</v>
+        <v>224</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>329</v>
+        <v>446</v>
       </c>
       <c r="C263" s="3"/>
     </row>
     <row r="264" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>719</v>
+        <v>683</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>720</v>
+        <v>324</v>
       </c>
       <c r="C264" s="3"/>
     </row>
     <row r="265" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>999</v>
+        <v>710</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>798</v>
+        <v>711</v>
       </c>
       <c r="C265" s="3"/>
     </row>
     <row r="266" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>797</v>
+        <v>977</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="C266" s="3"/>
     </row>
     <row r="267" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>217</v>
+        <v>785</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>393</v>
+        <v>787</v>
       </c>
       <c r="C267" s="3"/>
     </row>
@@ -7979,310 +8248,306 @@
         <v>214</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>640</v>
+        <v>388</v>
       </c>
       <c r="C268" s="3"/>
     </row>
     <row r="269" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>1000</v>
+        <v>632</v>
       </c>
       <c r="C269" s="3"/>
     </row>
     <row r="270" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>594</v>
+        <v>978</v>
       </c>
       <c r="C270" s="3"/>
     </row>
     <row r="271" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="C271" s="3"/>
     </row>
     <row r="272" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
-        <v>310</v>
+        <v>192</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="C272" s="3"/>
     </row>
     <row r="273" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="C273" s="3"/>
     </row>
     <row r="274" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>941</v>
+        <v>210</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>452</v>
+        <v>590</v>
       </c>
       <c r="C274" s="3"/>
     </row>
     <row r="275" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>290</v>
+        <v>927</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>598</v>
+        <v>447</v>
       </c>
       <c r="C275" s="3"/>
     </row>
     <row r="276" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>522</v>
+        <v>591</v>
       </c>
       <c r="C276" s="3"/>
     </row>
     <row r="277" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>741</v>
+        <v>317</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>453</v>
+        <v>517</v>
       </c>
       <c r="C277" s="3"/>
     </row>
     <row r="278" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>196</v>
+        <v>732</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>341</v>
+        <v>448</v>
       </c>
       <c r="C278" s="3"/>
     </row>
     <row r="279" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>1060</v>
+        <v>194</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>485</v>
+        <v>336</v>
       </c>
       <c r="C279" s="3"/>
     </row>
     <row r="280" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
-        <v>221</v>
+        <v>1036</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>523</v>
+        <v>480</v>
       </c>
       <c r="C280" s="3"/>
     </row>
     <row r="281" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>454</v>
+        <v>518</v>
       </c>
       <c r="C281" s="3"/>
     </row>
     <row r="282" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>571</v>
+        <v>449</v>
       </c>
       <c r="C282" s="3"/>
     </row>
     <row r="283" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>201</v>
+        <v>1127</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>641</v>
+        <v>1129</v>
       </c>
       <c r="C283" s="3"/>
     </row>
     <row r="284" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>202</v>
+        <v>1128</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>599</v>
+        <v>1130</v>
       </c>
       <c r="C284" s="3"/>
     </row>
     <row r="285" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>1068</v>
+        <v>1131</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1069</v>
+        <v>1132</v>
       </c>
       <c r="C285" s="3"/>
     </row>
     <row r="286" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
-        <v>908</v>
+        <v>198</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>524</v>
+        <v>564</v>
       </c>
       <c r="C286" s="3"/>
     </row>
     <row r="287" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>909</v>
+        <v>199</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>525</v>
+        <v>633</v>
       </c>
       <c r="C287" s="3"/>
     </row>
     <row r="288" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>642</v>
+        <v>592</v>
       </c>
       <c r="C288" s="3"/>
     </row>
     <row r="289" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>247</v>
+        <v>1043</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>600</v>
+        <v>1044</v>
       </c>
       <c r="C289" s="3"/>
     </row>
     <row r="290" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>204</v>
+        <v>896</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>601</v>
+        <v>519</v>
       </c>
       <c r="C290" s="3"/>
     </row>
     <row r="291" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>205</v>
+        <v>897</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>486</v>
+        <v>520</v>
       </c>
       <c r="C291" s="3"/>
     </row>
     <row r="292" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>526</v>
+        <v>634</v>
       </c>
       <c r="C292" s="3"/>
     </row>
     <row r="293" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="C293" s="3"/>
     </row>
     <row r="294" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>270</v>
+        <v>202</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>528</v>
+        <v>594</v>
       </c>
       <c r="C294" s="3"/>
     </row>
     <row r="295" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>603</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="C295" s="3"/>
     </row>
     <row r="296" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C296" s="3"/>
     </row>
     <row r="297" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>365</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="C297" s="3"/>
     </row>
     <row r="298" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>360</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="C298" s="3"/>
     </row>
     <row r="299" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C299" s="3"/>
+        <v>595</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="300" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
-        <v>220</v>
+        <v>1136</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>605</v>
+        <v>524</v>
       </c>
       <c r="C300" s="3"/>
     </row>
     <row r="301" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>606</v>
+        <v>359</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>360</v>
@@ -8290,1813 +8555,1987 @@
     </row>
     <row r="302" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>276</v>
+        <v>212</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="C302" s="3"/>
+        <v>597</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="303" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>531</v>
+        <v>328</v>
       </c>
       <c r="C303" s="3"/>
     </row>
     <row r="304" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>532</v>
+        <v>598</v>
       </c>
       <c r="C304" s="3"/>
     </row>
     <row r="305" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>533</v>
+        <v>220</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="C305" s="3"/>
+        <v>599</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="306" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>607</v>
+        <v>525</v>
       </c>
       <c r="C306" s="3"/>
     </row>
     <row r="307" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>608</v>
+        <v>526</v>
       </c>
       <c r="C307" s="3"/>
     </row>
     <row r="308" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>535</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="C308" s="3"/>
     </row>
     <row r="309" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>232</v>
+        <v>528</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>536</v>
+        <v>788</v>
       </c>
       <c r="C309" s="3"/>
     </row>
     <row r="310" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1007</v>
+        <v>600</v>
       </c>
       <c r="C310" s="3"/>
     </row>
     <row r="311" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>748</v>
+        <v>226</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>749</v>
+        <v>601</v>
       </c>
       <c r="C311" s="3"/>
     </row>
     <row r="312" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="C312" s="3"/>
+        <v>529</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="313" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>368</v>
+        <v>531</v>
       </c>
       <c r="C313" s="3"/>
     </row>
     <row r="314" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>369</v>
+        <v>984</v>
       </c>
       <c r="C314" s="3"/>
     </row>
     <row r="315" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>1054</v>
+        <v>739</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>455</v>
+        <v>740</v>
       </c>
       <c r="C315" s="3"/>
     </row>
     <row r="316" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
-        <v>1055</v>
+        <v>234</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1056</v>
+        <v>532</v>
       </c>
       <c r="C316" s="3"/>
     </row>
     <row r="317" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>538</v>
+        <v>363</v>
       </c>
       <c r="C317" s="3"/>
     </row>
     <row r="318" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
-        <v>953</v>
+        <v>237</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>572</v>
+        <v>364</v>
       </c>
       <c r="C318" s="3"/>
     </row>
     <row r="319" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>242</v>
+        <v>1030</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C319" s="3"/>
     </row>
     <row r="320" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
-        <v>243</v>
+        <v>1031</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1052</v>
+        <v>1032</v>
       </c>
       <c r="C320" s="3"/>
     </row>
     <row r="321" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C321" s="3"/>
     </row>
     <row r="322" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
-        <v>245</v>
+        <v>937</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>609</v>
+        <v>565</v>
       </c>
       <c r="C322" s="3"/>
     </row>
     <row r="323" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="C323" s="3"/>
     </row>
     <row r="324" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
-        <v>361</v>
+        <v>240</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>573</v>
+        <v>1028</v>
       </c>
       <c r="C324" s="3"/>
     </row>
     <row r="325" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="C325" s="3"/>
     </row>
     <row r="326" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>541</v>
+        <v>602</v>
       </c>
       <c r="C326" s="3"/>
     </row>
     <row r="327" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="C327" s="3" t="s">
-        <v>733</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="C327" s="3"/>
     </row>
     <row r="328" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
-        <v>251</v>
+        <v>356</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>407</v>
+        <v>566</v>
       </c>
       <c r="C328" s="3"/>
     </row>
     <row r="329" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>408</v>
+        <v>567</v>
       </c>
       <c r="C329" s="3"/>
     </row>
     <row r="330" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
-        <v>943</v>
+        <v>247</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>901</v>
+        <v>536</v>
       </c>
       <c r="C330" s="3"/>
     </row>
     <row r="331" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>944</v>
+        <v>307</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>994</v>
-      </c>
-      <c r="C331" s="3"/>
+        <v>723</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="332" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>575</v>
+        <v>402</v>
       </c>
       <c r="C332" s="3"/>
     </row>
     <row r="333" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>610</v>
+        <v>403</v>
       </c>
       <c r="C333" s="3"/>
     </row>
     <row r="334" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
-        <v>723</v>
+        <v>929</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>611</v>
+        <v>889</v>
       </c>
       <c r="C334" s="3"/>
     </row>
     <row r="335" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
-        <v>256</v>
+        <v>930</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>612</v>
+        <v>972</v>
       </c>
       <c r="C335" s="3"/>
     </row>
     <row r="336" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
       <c r="C336" s="3"/>
     </row>
     <row r="337" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>457</v>
+        <v>603</v>
       </c>
       <c r="C337" s="3"/>
     </row>
     <row r="338" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
-        <v>260</v>
+        <v>714</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
       <c r="C338" s="3"/>
     </row>
     <row r="339" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="C339" s="3"/>
     </row>
     <row r="340" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>542</v>
+        <v>606</v>
       </c>
       <c r="C340" s="3"/>
     </row>
     <row r="341" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>543</v>
+        <v>452</v>
       </c>
       <c r="C341" s="3"/>
     </row>
     <row r="342" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
-        <v>267</v>
+        <v>1173</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
       <c r="C342" s="3"/>
     </row>
     <row r="343" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>487</v>
+        <v>570</v>
       </c>
       <c r="C343" s="3"/>
     </row>
     <row r="344" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C344" s="3"/>
     </row>
     <row r="345" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>615</v>
+        <v>538</v>
       </c>
       <c r="C345" s="3"/>
     </row>
     <row r="346" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>1010</v>
+        <v>607</v>
       </c>
       <c r="C346" s="3"/>
     </row>
     <row r="347" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>616</v>
+        <v>482</v>
       </c>
       <c r="C347" s="3"/>
     </row>
     <row r="348" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>617</v>
+        <v>539</v>
       </c>
       <c r="C348" s="3"/>
     </row>
     <row r="349" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C349" s="3" t="s">
-        <v>739</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="C349" s="3"/>
     </row>
     <row r="350" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>643</v>
+        <v>987</v>
       </c>
       <c r="C350" s="3"/>
     </row>
     <row r="351" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>644</v>
+        <v>609</v>
       </c>
       <c r="C351" s="3"/>
     </row>
     <row r="352" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
-        <v>1066</v>
+        <v>274</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>1067</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="C352" s="3"/>
     </row>
     <row r="353" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="C353" s="3"/>
+        <v>365</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="354" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>409</v>
+        <v>635</v>
       </c>
       <c r="C354" s="3"/>
     </row>
     <row r="355" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="C355" s="3"/>
     </row>
     <row r="356" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
-        <v>287</v>
+        <v>1041</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="C356" s="3"/>
+        <v>483</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="357" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>545</v>
+        <v>453</v>
       </c>
       <c r="C357" s="3"/>
     </row>
     <row r="358" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>459</v>
+        <v>404</v>
       </c>
       <c r="C358" s="3"/>
     </row>
     <row r="359" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="C359" s="3" t="s">
-        <v>677</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="C359" s="3"/>
     </row>
     <row r="360" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>410</v>
+        <v>729</v>
       </c>
       <c r="C360" s="3"/>
     </row>
     <row r="361" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>619</v>
+        <v>540</v>
       </c>
       <c r="C361" s="3"/>
     </row>
     <row r="362" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>546</v>
+        <v>454</v>
       </c>
       <c r="C362" s="3"/>
     </row>
     <row r="363" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="C363" s="3"/>
+        <v>894</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="364" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>342</v>
+        <v>405</v>
       </c>
       <c r="C364" s="3"/>
     </row>
     <row r="365" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>460</v>
+        <v>612</v>
       </c>
       <c r="C365" s="3"/>
     </row>
     <row r="366" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C366" s="3"/>
     </row>
     <row r="367" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>740</v>
+        <v>542</v>
       </c>
       <c r="C367" s="3"/>
     </row>
     <row r="368" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>620</v>
+        <v>337</v>
       </c>
       <c r="C368" s="3"/>
     </row>
     <row r="369" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>621</v>
+        <v>455</v>
       </c>
       <c r="C369" s="3"/>
     </row>
     <row r="370" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C370" s="3"/>
     </row>
     <row r="371" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>411</v>
+        <v>731</v>
       </c>
       <c r="C371" s="3"/>
     </row>
     <row r="372" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>550</v>
+        <v>613</v>
       </c>
       <c r="C372" s="3"/>
     </row>
     <row r="373" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="C373" s="3" t="s">
-        <v>623</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="C373" s="3"/>
     </row>
     <row r="374" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>624</v>
+        <v>544</v>
       </c>
       <c r="C374" s="3"/>
     </row>
     <row r="375" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>625</v>
+        <v>406</v>
       </c>
       <c r="C375" s="3"/>
     </row>
     <row r="376" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>626</v>
+        <v>545</v>
       </c>
       <c r="C376" s="3"/>
     </row>
     <row r="377" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
-        <v>945</v>
+        <v>302</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="C377" s="3"/>
+        <v>615</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="378" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>667</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="C378" s="3"/>
     </row>
     <row r="379" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C379" s="3" t="s">
-        <v>680</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="C379" s="3"/>
     </row>
     <row r="380" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>680</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="C380" s="3"/>
     </row>
     <row r="381" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
-        <v>315</v>
+        <v>931</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>461</v>
+        <v>1073</v>
       </c>
       <c r="C381" s="3"/>
     </row>
     <row r="382" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="C382" s="3"/>
+        <v>620</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="383" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="C383" s="3"/>
+        <v>670</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="384" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="C384" s="3"/>
+        <v>671</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="385" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
-        <v>319</v>
+        <v>1122</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="C385" s="3"/>
     </row>
     <row r="386" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="C386" s="3" t="s">
-        <v>661</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="C386" s="3"/>
     </row>
     <row r="387" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
-        <v>694</v>
+        <v>312</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>695</v>
+        <v>546</v>
       </c>
       <c r="C387" s="3"/>
     </row>
     <row r="388" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
-        <v>724</v>
+        <v>313</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>725</v>
+        <v>547</v>
       </c>
       <c r="C388" s="3"/>
     </row>
     <row r="389" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
-        <v>697</v>
+        <v>314</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>698</v>
+        <v>408</v>
       </c>
       <c r="C389" s="3"/>
     </row>
     <row r="390" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
-        <v>699</v>
+        <v>315</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="C390" s="3"/>
+        <v>571</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="391" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
-        <v>750</v>
+        <v>686</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="C391" s="3"/>
     </row>
     <row r="392" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
-        <v>998</v>
+        <v>715</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="C392" s="3"/>
     </row>
     <row r="393" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="C393" s="3"/>
     </row>
     <row r="394" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="C394" s="3"/>
     </row>
     <row r="395" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
-        <v>708</v>
+        <v>1135</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="C395" s="3"/>
     </row>
     <row r="396" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
-        <v>765</v>
+        <v>976</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>713</v>
+        <v>694</v>
       </c>
       <c r="C396" s="3"/>
     </row>
     <row r="397" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="C397" s="3"/>
     </row>
     <row r="398" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
       <c r="C398" s="3"/>
     </row>
     <row r="399" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
-        <v>721</v>
+        <v>1117</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>722</v>
+        <v>1118</v>
       </c>
       <c r="C399" s="3"/>
     </row>
     <row r="400" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
-        <v>952</v>
+        <v>700</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>735</v>
+        <v>701</v>
       </c>
       <c r="C400" s="3"/>
     </row>
     <row r="401" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
-        <v>730</v>
+        <v>754</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>731</v>
+        <v>705</v>
       </c>
       <c r="C401" s="3"/>
     </row>
     <row r="402" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
-        <v>734</v>
+        <v>703</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>736</v>
+        <v>704</v>
       </c>
       <c r="C402" s="3"/>
     </row>
     <row r="403" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
-        <v>744</v>
+        <v>708</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>737</v>
+        <v>709</v>
       </c>
       <c r="C403" s="3"/>
     </row>
     <row r="404" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="3" t="s">
-        <v>743</v>
+        <v>712</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>742</v>
+        <v>713</v>
       </c>
       <c r="C404" s="3"/>
     </row>
     <row r="405" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
-        <v>746</v>
+        <v>936</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
       <c r="C405" s="3"/>
     </row>
     <row r="406" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
-        <v>751</v>
+        <v>721</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>752</v>
+        <v>722</v>
       </c>
       <c r="C406" s="3"/>
     </row>
     <row r="407" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
-        <v>755</v>
+        <v>725</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>756</v>
+        <v>727</v>
       </c>
       <c r="C407" s="3"/>
     </row>
     <row r="408" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
-        <v>757</v>
+        <v>735</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>758</v>
+        <v>728</v>
       </c>
       <c r="C408" s="3"/>
     </row>
     <row r="409" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
-        <v>766</v>
+        <v>734</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>767</v>
+        <v>733</v>
       </c>
       <c r="C409" s="3"/>
     </row>
     <row r="410" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
-        <v>768</v>
+        <v>737</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>769</v>
+        <v>738</v>
       </c>
       <c r="C410" s="3"/>
     </row>
     <row r="411" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
-        <v>771</v>
+        <v>741</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>773</v>
+        <v>742</v>
       </c>
       <c r="C411" s="3"/>
     </row>
     <row r="412" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
-        <v>772</v>
+        <v>745</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>774</v>
+        <v>746</v>
       </c>
       <c r="C412" s="3"/>
     </row>
     <row r="413" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
-        <v>775</v>
+        <v>747</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>776</v>
+        <v>748</v>
       </c>
       <c r="C413" s="3"/>
     </row>
     <row r="414" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="3" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="C414" s="3" t="s">
-        <v>782</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="C414" s="3"/>
     </row>
     <row r="415" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="C415" s="3" t="s">
-        <v>783</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="C415" s="3"/>
     </row>
     <row r="416" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
-        <v>786</v>
+        <v>760</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>788</v>
+        <v>762</v>
       </c>
       <c r="C416" s="3"/>
     </row>
     <row r="417" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
-        <v>787</v>
+        <v>761</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>789</v>
+        <v>763</v>
       </c>
       <c r="C417" s="3"/>
     </row>
     <row r="418" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
-        <v>790</v>
+        <v>764</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>792</v>
+        <v>765</v>
       </c>
       <c r="C418" s="3"/>
     </row>
     <row r="419" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
-        <v>791</v>
+        <v>767</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="C419" s="3"/>
+        <v>769</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="420" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
-        <v>794</v>
+        <v>768</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="C420" s="3"/>
+        <v>770</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="421" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
-        <v>947</v>
+        <v>775</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>801</v>
+        <v>777</v>
       </c>
       <c r="C421" s="3"/>
     </row>
     <row r="422" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
-        <v>803</v>
+        <v>776</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>804</v>
+        <v>778</v>
       </c>
       <c r="C422" s="3"/>
     </row>
     <row r="423" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
-        <v>995</v>
+        <v>779</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>805</v>
+        <v>781</v>
       </c>
       <c r="C423" s="3"/>
     </row>
     <row r="424" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
-        <v>907</v>
+        <v>780</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>890</v>
+        <v>782</v>
       </c>
       <c r="C424" s="3"/>
     </row>
     <row r="425" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
-        <v>893</v>
+        <v>783</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>891</v>
+        <v>784</v>
       </c>
       <c r="C425" s="3"/>
     </row>
     <row r="426" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
-        <v>892</v>
+        <v>932</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>894</v>
+        <v>789</v>
       </c>
       <c r="C426" s="3"/>
     </row>
     <row r="427" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
-        <v>895</v>
+        <v>791</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>896</v>
+        <v>792</v>
       </c>
       <c r="C427" s="3"/>
     </row>
     <row r="428" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
-        <v>897</v>
+        <v>973</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>898</v>
+        <v>793</v>
       </c>
       <c r="C428" s="3"/>
     </row>
     <row r="429" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>900</v>
+        <v>878</v>
       </c>
       <c r="C429" s="3"/>
     </row>
     <row r="430" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
-        <v>948</v>
+        <v>881</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>949</v>
+        <v>879</v>
       </c>
       <c r="C430" s="3"/>
     </row>
     <row r="431" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
-        <v>902</v>
+        <v>880</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>903</v>
+        <v>882</v>
       </c>
       <c r="C431" s="3"/>
     </row>
     <row r="432" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="3" t="s">
-        <v>1014</v>
+        <v>883</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>1013</v>
+        <v>884</v>
       </c>
       <c r="C432" s="3"/>
     </row>
     <row r="433" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
-        <v>904</v>
+        <v>885</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>974</v>
+        <v>886</v>
       </c>
       <c r="C433" s="3"/>
     </row>
     <row r="434" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
-        <v>905</v>
+        <v>887</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>973</v>
+        <v>888</v>
       </c>
       <c r="C434" s="3"/>
     </row>
     <row r="435" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
-        <v>910</v>
+        <v>933</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>911</v>
+        <v>934</v>
       </c>
       <c r="C435" s="3"/>
     </row>
     <row r="436" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
-        <v>912</v>
+        <v>890</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>913</v>
+        <v>891</v>
       </c>
       <c r="C436" s="3"/>
     </row>
     <row r="437" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
-        <v>915</v>
+        <v>990</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>916</v>
+        <v>989</v>
       </c>
       <c r="C437" s="3"/>
     </row>
     <row r="438" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
-        <v>917</v>
+        <v>892</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>918</v>
+        <v>953</v>
       </c>
       <c r="C438" s="3"/>
     </row>
     <row r="439" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
-        <v>919</v>
+        <v>893</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>920</v>
+        <v>952</v>
       </c>
       <c r="C439" s="3"/>
     </row>
     <row r="440" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="3" t="s">
-        <v>926</v>
+        <v>898</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>921</v>
+        <v>1074</v>
       </c>
       <c r="C440" s="3"/>
     </row>
     <row r="441" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
-        <v>1011</v>
+        <v>899</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>1012</v>
+        <v>900</v>
       </c>
       <c r="C441" s="3"/>
     </row>
     <row r="442" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
       <c r="C442" s="3"/>
     </row>
     <row r="443" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
-        <v>924</v>
+        <v>903</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>925</v>
+        <v>904</v>
       </c>
       <c r="C443" s="3"/>
     </row>
     <row r="444" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="3" t="s">
-        <v>929</v>
+        <v>905</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="C444" s="3" t="s">
-        <v>928</v>
-      </c>
+        <v>906</v>
+      </c>
+      <c r="C444" s="3"/>
     </row>
     <row r="445" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
-        <v>931</v>
+        <v>912</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>932</v>
+        <v>907</v>
       </c>
       <c r="C445" s="3"/>
     </row>
     <row r="446" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="3" t="s">
-        <v>933</v>
+        <v>988</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>937</v>
+        <v>1075</v>
       </c>
       <c r="C446" s="3"/>
     </row>
     <row r="447" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
-        <v>934</v>
+        <v>908</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>938</v>
+        <v>909</v>
       </c>
       <c r="C447" s="3"/>
     </row>
     <row r="448" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="3" t="s">
-        <v>935</v>
+        <v>910</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
       <c r="C448" s="3"/>
     </row>
     <row r="449" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
-        <v>936</v>
+        <v>915</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>940</v>
-      </c>
-      <c r="C449" s="3"/>
+        <v>916</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="450" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="3" t="s">
-        <v>942</v>
+        <v>917</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>978</v>
+        <v>918</v>
       </c>
       <c r="C450" s="3"/>
     </row>
     <row r="451" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
-        <v>950</v>
+        <v>919</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>951</v>
+        <v>923</v>
       </c>
       <c r="C451" s="3"/>
     </row>
     <row r="452" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="3" t="s">
-        <v>1072</v>
+        <v>920</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>962</v>
+        <v>924</v>
       </c>
       <c r="C452" s="3"/>
     </row>
     <row r="453" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
-        <v>975</v>
+        <v>921</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>976</v>
+        <v>925</v>
       </c>
       <c r="C453" s="3"/>
     </row>
     <row r="454" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="3" t="s">
-        <v>977</v>
+        <v>922</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>979</v>
+        <v>926</v>
       </c>
       <c r="C454" s="3"/>
     </row>
     <row r="455" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
-        <v>989</v>
+        <v>928</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>990</v>
+        <v>956</v>
       </c>
       <c r="C455" s="3"/>
     </row>
     <row r="456" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="3" t="s">
-        <v>988</v>
+        <v>935</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>991</v>
+        <v>1076</v>
       </c>
       <c r="C456" s="3"/>
     </row>
     <row r="457" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
-        <v>992</v>
+        <v>1047</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>993</v>
+        <v>1077</v>
       </c>
       <c r="C457" s="3"/>
     </row>
     <row r="458" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="3" t="s">
-        <v>996</v>
+        <v>954</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>997</v>
+        <v>1078</v>
       </c>
       <c r="C458" s="3"/>
     </row>
     <row r="459" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
-        <v>1001</v>
+        <v>955</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>1002</v>
+        <v>957</v>
       </c>
       <c r="C459" s="3"/>
     </row>
     <row r="460" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="3" t="s">
-        <v>1004</v>
+        <v>967</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>1006</v>
+        <v>968</v>
       </c>
       <c r="C460" s="3"/>
     </row>
     <row r="461" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
-        <v>1003</v>
+        <v>966</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>1005</v>
+        <v>969</v>
       </c>
       <c r="C461" s="3"/>
     </row>
     <row r="462" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="3" t="s">
-        <v>1017</v>
+        <v>970</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>1048</v>
+        <v>971</v>
       </c>
       <c r="C462" s="3"/>
     </row>
     <row r="463" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
-        <v>1018</v>
+        <v>974</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>1049</v>
+        <v>975</v>
       </c>
       <c r="C463" s="3"/>
     </row>
     <row r="464" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="3" t="s">
-        <v>1019</v>
+        <v>1103</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>1050</v>
+        <v>979</v>
       </c>
       <c r="C464" s="3"/>
     </row>
     <row r="465" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
-        <v>1047</v>
+        <v>1104</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>1051</v>
+        <v>1105</v>
       </c>
       <c r="C465" s="3"/>
     </row>
     <row r="466" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="3" t="s">
-        <v>1070</v>
+        <v>1106</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>1071</v>
+        <v>1107</v>
       </c>
       <c r="C466" s="3"/>
     </row>
     <row r="467" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
-        <v>1079</v>
+        <v>981</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>1081</v>
+        <v>983</v>
       </c>
       <c r="C467" s="3"/>
     </row>
     <row r="468" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="3" t="s">
-        <v>1080</v>
+        <v>980</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>1082</v>
+        <v>982</v>
       </c>
       <c r="C468" s="3"/>
     </row>
     <row r="469" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
-        <v>1073</v>
+        <v>993</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>1076</v>
+        <v>1024</v>
       </c>
       <c r="C469" s="3"/>
     </row>
     <row r="470" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="3" t="s">
-        <v>1074</v>
+        <v>994</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>1077</v>
+        <v>1025</v>
       </c>
       <c r="C470" s="3"/>
     </row>
     <row r="471" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
-        <v>1075</v>
+        <v>995</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>1078</v>
+        <v>1026</v>
       </c>
       <c r="C471" s="3"/>
     </row>
     <row r="472" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="3" t="s">
-        <v>1083</v>
+        <v>1023</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>1084</v>
+        <v>1027</v>
       </c>
       <c r="C472" s="3"/>
     </row>
     <row r="473" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
-        <v>1085</v>
+        <v>1045</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="C473" s="3"/>
     </row>
     <row r="474" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="3" t="s">
-        <v>1087</v>
+        <v>1054</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>1092</v>
+        <v>1056</v>
       </c>
       <c r="C474" s="3"/>
     </row>
     <row r="475" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
-        <v>1088</v>
+        <v>1055</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>1090</v>
+        <v>1057</v>
       </c>
       <c r="C475" s="3"/>
     </row>
     <row r="476" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C476" s="3"/>
+    </row>
+    <row r="477" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A477" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C477" s="3"/>
+    </row>
+    <row r="478" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A478" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C478" s="3"/>
+    </row>
+    <row r="479" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A479" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C479" s="3"/>
+    </row>
+    <row r="480" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A480" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C480" s="3"/>
+    </row>
+    <row r="481" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A481" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C481" s="3"/>
+    </row>
+    <row r="482" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A482" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C482" s="3"/>
+    </row>
+    <row r="483" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A483" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C483" s="3"/>
+    </row>
+    <row r="484" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A484" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C484" s="3"/>
+    </row>
+    <row r="485" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A485" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C485" s="3"/>
+    </row>
+    <row r="486" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A486" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C486" s="3"/>
+    </row>
+    <row r="487" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A487" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B487" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="B476" s="3" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C476" s="3"/>
-    </row>
-    <row r="477" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A477" s="3"/>
-      <c r="B477" s="3"/>
-      <c r="C477" s="3"/>
-    </row>
-    <row r="478" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A478" s="3"/>
-      <c r="B478" s="3"/>
-      <c r="C478" s="3"/>
-    </row>
-    <row r="479" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A479" s="3"/>
-      <c r="B479" s="3"/>
-      <c r="C479" s="3"/>
-    </row>
-    <row r="480" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A480" s="3"/>
-      <c r="B480" s="3"/>
-      <c r="C480" s="3"/>
-    </row>
-    <row r="481" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A481" s="3"/>
-      <c r="B481" s="3"/>
-      <c r="C481" s="3"/>
-    </row>
-    <row r="482" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A482" s="3"/>
-      <c r="B482" s="3"/>
-      <c r="C482" s="3"/>
-    </row>
-    <row r="483" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A483" s="3"/>
-      <c r="B483" s="3"/>
-      <c r="C483" s="3"/>
-    </row>
-    <row r="484" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A484" s="3"/>
-      <c r="B484" s="3"/>
-      <c r="C484" s="3"/>
-    </row>
-    <row r="485" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A485" s="3"/>
-      <c r="B485" s="3"/>
-      <c r="C485" s="3"/>
-    </row>
-    <row r="486" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A486" s="3"/>
-      <c r="B486" s="3"/>
-      <c r="C486" s="3"/>
-    </row>
-    <row r="487" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A487" s="3"/>
-      <c r="B487" s="3"/>
       <c r="C487" s="3"/>
     </row>
     <row r="488" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A488" s="3"/>
-      <c r="B488" s="3"/>
+      <c r="A488" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>1090</v>
+      </c>
       <c r="C488" s="3"/>
     </row>
     <row r="489" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A489" s="3"/>
-      <c r="B489" s="3"/>
+      <c r="A489" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>1093</v>
+      </c>
       <c r="C489" s="3"/>
     </row>
     <row r="490" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A490" s="3"/>
-      <c r="B490" s="3"/>
+      <c r="A490" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>1095</v>
+      </c>
       <c r="C490" s="3"/>
     </row>
     <row r="491" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A491" s="3"/>
-      <c r="B491" s="3"/>
+      <c r="A491" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>1096</v>
+      </c>
       <c r="C491" s="3"/>
     </row>
     <row r="492" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A492" s="3"/>
-      <c r="B492" s="3"/>
+      <c r="A492" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>1111</v>
+      </c>
       <c r="C492" s="3"/>
     </row>
     <row r="493" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A493" s="3"/>
-      <c r="B493" s="3"/>
+      <c r="A493" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>1120</v>
+      </c>
       <c r="C493" s="3"/>
     </row>
     <row r="494" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A494" s="3"/>
-      <c r="B494" s="3"/>
+      <c r="A494" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>1182</v>
+      </c>
       <c r="C494" s="3"/>
     </row>
     <row r="495" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A495" s="3"/>
-      <c r="B495" s="3"/>
+      <c r="A495" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>1112</v>
+      </c>
       <c r="C495" s="3"/>
     </row>
     <row r="496" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A496" s="3"/>
-      <c r="B496" s="3"/>
+      <c r="A496" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>1113</v>
+      </c>
       <c r="C496" s="3"/>
     </row>
     <row r="497" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A497" s="3"/>
-      <c r="B497" s="3"/>
+      <c r="A497" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>1114</v>
+      </c>
       <c r="C497" s="3"/>
     </row>
     <row r="498" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A498" s="3"/>
-      <c r="B498" s="3"/>
+      <c r="A498" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>1115</v>
+      </c>
       <c r="C498" s="3"/>
     </row>
     <row r="499" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A499" s="3"/>
-      <c r="B499" s="3"/>
+      <c r="A499" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>1183</v>
+      </c>
       <c r="C499" s="3"/>
     </row>
     <row r="500" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A500" s="3"/>
-      <c r="B500" s="3"/>
-      <c r="C500" s="3"/>
+      <c r="A500" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="501" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A501" s="3"/>
-      <c r="B501" s="3"/>
+      <c r="A501" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>1126</v>
+      </c>
       <c r="C501" s="3"/>
     </row>
     <row r="502" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A502" s="3"/>
-      <c r="B502" s="3"/>
+      <c r="A502" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>1134</v>
+      </c>
       <c r="C502" s="3"/>
     </row>
     <row r="503" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A503" s="3"/>
-      <c r="B503" s="3"/>
+      <c r="A503" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>1139</v>
+      </c>
       <c r="C503" s="3"/>
     </row>
     <row r="504" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A504" s="3"/>
-      <c r="B504" s="3"/>
+      <c r="A504" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>1143</v>
+      </c>
       <c r="C504" s="3"/>
     </row>
     <row r="505" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A505" s="3"/>
-      <c r="B505" s="3"/>
+      <c r="A505" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>1142</v>
+      </c>
       <c r="C505" s="3"/>
     </row>
     <row r="506" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A506" s="3"/>
-      <c r="B506" s="3"/>
+      <c r="A506" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>1145</v>
+      </c>
       <c r="C506" s="3"/>
     </row>
     <row r="507" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A507" s="3"/>
-      <c r="B507" s="3"/>
+      <c r="A507" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>1149</v>
+      </c>
       <c r="C507" s="3"/>
     </row>
     <row r="508" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A508" s="3"/>
-      <c r="B508" s="3"/>
+      <c r="A508" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B508" s="3" t="s">
+        <v>1150</v>
+      </c>
       <c r="C508" s="3"/>
     </row>
     <row r="509" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A509" s="3"/>
-      <c r="B509" s="3"/>
+      <c r="A509" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>1153</v>
+      </c>
       <c r="C509" s="3"/>
     </row>
     <row r="510" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A510" s="3"/>
-      <c r="B510" s="3"/>
+      <c r="A510" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B510" s="3" t="s">
+        <v>1154</v>
+      </c>
       <c r="C510" s="3"/>
     </row>
     <row r="511" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A511" s="3"/>
-      <c r="B511" s="3"/>
+      <c r="A511" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>1156</v>
+      </c>
       <c r="C511" s="3"/>
     </row>
     <row r="512" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A512" s="3"/>
-      <c r="B512" s="3"/>
+      <c r="A512" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B512" s="3" t="s">
+        <v>1157</v>
+      </c>
       <c r="C512" s="3"/>
     </row>
     <row r="513" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A513" s="3"/>
-      <c r="B513" s="3"/>
+      <c r="A513" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>1158</v>
+      </c>
       <c r="C513" s="3"/>
     </row>
     <row r="514" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A514" s="3"/>
-      <c r="B514" s="3"/>
+      <c r="A514" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>1169</v>
+      </c>
       <c r="C514" s="3"/>
     </row>
     <row r="515" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A515" s="3"/>
-      <c r="B515" s="3"/>
+      <c r="A515" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>1170</v>
+      </c>
       <c r="C515" s="3"/>
     </row>
     <row r="516" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A516" s="3"/>
-      <c r="B516" s="3"/>
+      <c r="A516" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B516" s="3" t="s">
+        <v>1172</v>
+      </c>
       <c r="C516" s="3"/>
     </row>
     <row r="517" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A517" s="3"/>
-      <c r="B517" s="3"/>
+      <c r="A517" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>1175</v>
+      </c>
       <c r="C517" s="3"/>
     </row>
     <row r="518" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A518" s="3"/>
-      <c r="B518" s="3"/>
+      <c r="A518" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>1184</v>
+      </c>
       <c r="C518" s="3"/>
     </row>
     <row r="519" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12819,11 +13258,61 @@
       <c r="B1062" s="3"/>
       <c r="C1062" s="3"/>
     </row>
+    <row r="1063" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1063" s="3"/>
+      <c r="B1063" s="3"/>
+      <c r="C1063" s="3"/>
+    </row>
+    <row r="1064" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1064" s="3"/>
+      <c r="B1064" s="3"/>
+      <c r="C1064" s="3"/>
+    </row>
+    <row r="1065" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1065" s="3"/>
+      <c r="B1065" s="3"/>
+      <c r="C1065" s="3"/>
+    </row>
+    <row r="1066" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1066" s="3"/>
+      <c r="B1066" s="3"/>
+      <c r="C1066" s="3"/>
+    </row>
+    <row r="1067" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1067" s="3"/>
+      <c r="B1067" s="3"/>
+      <c r="C1067" s="3"/>
+    </row>
+    <row r="1068" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1068" s="3"/>
+      <c r="B1068" s="3"/>
+      <c r="C1068" s="3"/>
+    </row>
+    <row r="1069" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1069" s="3"/>
+      <c r="B1069" s="3"/>
+      <c r="C1069" s="3"/>
+    </row>
+    <row r="1070" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1070" s="3"/>
+      <c r="B1070" s="3"/>
+      <c r="C1070" s="3"/>
+    </row>
+    <row r="1071" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1071" s="3"/>
+      <c r="B1071" s="3"/>
+      <c r="C1071" s="3"/>
+    </row>
+    <row r="1072" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1072" s="3"/>
+      <c r="B1072" s="3"/>
+      <c r="C1072" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="C20:C35"/>
-    <mergeCell ref="C214:C220"/>
+    <mergeCell ref="C215:C221"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12832,11 +13321,72 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96C31DF-83EA-48D1-9E85-BF6EA5716842}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="50.58203125" defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="50.58203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA920F1-7AE5-43AC-B38A-BD1569BDAB60}">
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -12848,410 +13398,410 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>889</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
+      <c r="A1" s="38" t="s">
+        <v>877</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
     </row>
     <row r="2" spans="1:18" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
-        <v>887</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
+      <c r="A2" s="42" t="s">
+        <v>875</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
-        <v>814</v>
+      <c r="A3" s="39" t="s">
+        <v>802</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="9" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
-        <v>820</v>
+      <c r="A5" s="39" t="s">
+        <v>808</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="N5" s="7" t="s">
         <v>843</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="O5" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>845</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>846</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="R5" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>848</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>849</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>850</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>851</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>853</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>854</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>855</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>856</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>857</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>858</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>859</v>
-      </c>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="36"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="9" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>27</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>94</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
-        <v>836</v>
+      <c r="A7" s="39" t="s">
+        <v>824</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>860</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
+        <v>848</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>996</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
     </row>
     <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="36"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="9" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
+        <v>850</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>80</v>
       </c>
       <c r="G9" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>860</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>861</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
+        <v>991</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="43" t="s">
+        <v>863</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="43" t="s">
+        <v>876</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="43" t="s">
+        <v>865</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+    </row>
+    <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.3">
+      <c r="A14" s="39" t="s">
+        <v>866</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="D14" s="7" t="s">
         <v>869</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="E14" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>870</v>
       </c>
-      <c r="J9" s="17" t="s">
-        <v>871</v>
-      </c>
-      <c r="K9" s="17" t="s">
+    </row>
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="48"/>
+      <c r="B15" s="20" t="s">
         <v>872</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="C15" s="12" t="s">
         <v>873</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
-        <v>875</v>
-      </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
-        <v>888</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="39" t="s">
-        <v>877</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-    </row>
-    <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
-        <v>878</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>879</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>880</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>881</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>883</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="44"/>
-      <c r="B15" s="20" t="s">
-        <v>884</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>885</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -13275,7 +13825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0CABD2-02E4-4D8C-A8ED-3F367937EF2E}">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -13291,209 +13841,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="114" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B1" s="45"/>
+      <c r="A1" s="49" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B1" s="49"/>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>1022</v>
+        <v>998</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>1021</v>
+        <v>997</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>1023</v>
+        <v>999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1024</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1025</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1046</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1026</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1027</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1028</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1029</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1030</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1031</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1032</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1033</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1034</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1035</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1036</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1037</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1038</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1039</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1040</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1041</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1045</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1042</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1043</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="29" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>1044</v>
+        <v>1020</v>
       </c>
     </row>
   </sheetData>

--- a/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
+++ b/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Websites\hssrgov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E927679F-AF4A-42ED-98A5-FE7314DC5F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCE474F-0AB3-4881-B77E-1CD520F7F8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="769" xr2:uid="{CCB781DE-C1B4-4E71-9129-23ABA5B611FE}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="1511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="1517">
   <si>
     <t>中文</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3921,10 +3921,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>数词/数字/数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>someeś</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5990,6 +5986,34 @@
   </si>
   <si>
     <t>ebda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合/综上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isedsa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruzaŭa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力/才能/才干/才华/能源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数词/数字/数/数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（哈儿的）负责人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>haerona</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6904,22 +6928,25 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6932,9 +6959,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -7480,8 +7504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB56768-82A6-42FF-B107-45016A59F08E}">
   <dimension ref="A1:C1075"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A538" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B547" sqref="B547"/>
+    <sheetView tabSelected="1" topLeftCell="A549" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B550" sqref="B550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -7586,7 +7610,7 @@
     </row>
     <row r="11" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>363</v>
@@ -7616,7 +7640,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>702</v>
@@ -7835,7 +7859,7 @@
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>410</v>
@@ -7844,16 +7868,16 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>701</v>
@@ -7898,7 +7922,7 @@
     </row>
     <row r="45" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>571</v>
@@ -8008,7 +8032,7 @@
     </row>
     <row r="57" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>486</v>
@@ -8091,7 +8115,7 @@
     </row>
     <row r="66" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>547</v>
@@ -8206,7 +8230,7 @@
         <v>62</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C78" s="3"/>
     </row>
@@ -8636,7 +8660,7 @@
         <v>929</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C124" s="3"/>
     </row>
@@ -8645,7 +8669,7 @@
         <v>930</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C125" s="3"/>
     </row>
@@ -8699,7 +8723,7 @@
         <v>99</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C131" s="3"/>
     </row>
@@ -8708,7 +8732,7 @@
         <v>100</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C132" s="3"/>
     </row>
@@ -8750,7 +8774,7 @@
     </row>
     <row r="137" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>627</v>
@@ -9230,10 +9254,10 @@
     </row>
     <row r="189" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B189" s="3" t="s">
         <v>1499</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>1500</v>
       </c>
       <c r="C189" s="3"/>
     </row>
@@ -9483,7 +9507,7 @@
         <v>660</v>
       </c>
       <c r="C216" s="51" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="217" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9536,7 +9560,7 @@
         <v>935</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C222" s="53"/>
     </row>
@@ -9609,7 +9633,7 @@
     </row>
     <row r="230" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>351</v>
@@ -9636,7 +9660,7 @@
     </row>
     <row r="233" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>340</v>
@@ -9856,7 +9880,7 @@
     </row>
     <row r="257" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>512</v>
@@ -9991,7 +10015,7 @@
     </row>
     <row r="272" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>584</v>
@@ -10072,7 +10096,7 @@
     </row>
     <row r="281" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>477</v>
@@ -10099,28 +10123,28 @@
     </row>
     <row r="284" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C284" s="3"/>
     </row>
     <row r="285" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C285" s="3"/>
     </row>
     <row r="286" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B286" s="3" t="s">
         <v>1118</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>1119</v>
       </c>
       <c r="C286" s="3"/>
     </row>
@@ -10234,7 +10258,7 @@
     </row>
     <row r="299" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>520</v>
@@ -10254,7 +10278,7 @@
     </row>
     <row r="301" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>521</v>
@@ -10642,7 +10666,7 @@
     </row>
     <row r="343" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>566</v>
@@ -10747,7 +10771,7 @@
         <v>362</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="355" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11004,7 +11028,7 @@
         <v>920</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C382" s="3"/>
     </row>
@@ -11043,7 +11067,7 @@
     </row>
     <row r="386" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>453</v>
@@ -11135,7 +11159,7 @@
     </row>
     <row r="396" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>689</v>
@@ -11153,7 +11177,7 @@
     </row>
     <row r="398" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>692</v>
@@ -11171,10 +11195,10 @@
     </row>
     <row r="400" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B400" s="3" t="s">
         <v>1104</v>
-      </c>
-      <c r="B400" s="3" t="s">
-        <v>1105</v>
       </c>
       <c r="C400" s="3"/>
     </row>
@@ -11261,7 +11285,7 @@
     </row>
     <row r="410" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>727</v>
@@ -11279,7 +11303,7 @@
     </row>
     <row r="412" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>734</v>
@@ -11315,7 +11339,7 @@
     </row>
     <row r="416" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>749</v>
@@ -11342,16 +11366,16 @@
     </row>
     <row r="419" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B419" s="3" t="s">
         <v>1182</v>
-      </c>
-      <c r="B419" s="3" t="s">
-        <v>1183</v>
       </c>
       <c r="C419" s="3"/>
     </row>
     <row r="420" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>755</v>
@@ -11556,7 +11580,7 @@
         <v>887</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C442" s="3"/>
     </row>
@@ -11610,7 +11634,7 @@
         <v>977</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C448" s="3"/>
     </row>
@@ -11702,7 +11726,7 @@
         <v>924</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C458" s="3"/>
     </row>
@@ -11711,7 +11735,7 @@
         <v>1035</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C459" s="3"/>
     </row>
@@ -11720,7 +11744,7 @@
         <v>943</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C460" s="3"/>
     </row>
@@ -11771,7 +11795,7 @@
     </row>
     <row r="466" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>968</v>
@@ -11780,19 +11804,19 @@
     </row>
     <row r="467" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B467" s="3" t="s">
         <v>1092</v>
-      </c>
-      <c r="B467" s="3" t="s">
-        <v>1093</v>
       </c>
       <c r="C467" s="3"/>
     </row>
     <row r="468" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B468" s="3" t="s">
         <v>1094</v>
-      </c>
-      <c r="B468" s="3" t="s">
-        <v>1095</v>
       </c>
       <c r="C468" s="3"/>
     </row>
@@ -11864,16 +11888,16 @@
         <v>1042</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C476" s="3"/>
     </row>
     <row r="477" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
-        <v>1043</v>
+        <v>1514</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C477" s="3"/>
     </row>
@@ -11906,291 +11930,291 @@
     </row>
     <row r="481" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C481" s="3"/>
     </row>
     <row r="482" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C482" s="3"/>
     </row>
     <row r="483" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C483" s="3"/>
     </row>
     <row r="484" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C484" s="3"/>
     </row>
     <row r="485" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C485" s="3"/>
     </row>
     <row r="486" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C486" s="3"/>
     </row>
     <row r="487" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C487" s="3"/>
     </row>
     <row r="488" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B488" s="3" t="s">
         <v>1071</v>
-      </c>
-      <c r="B488" s="3" t="s">
-        <v>1072</v>
       </c>
       <c r="C488" s="3"/>
     </row>
     <row r="489" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C489" s="3"/>
     </row>
     <row r="490" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C490" s="3"/>
     </row>
     <row r="491" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B491" s="3" t="s">
         <v>1080</v>
-      </c>
-      <c r="B491" s="3" t="s">
-        <v>1081</v>
       </c>
       <c r="C491" s="3"/>
     </row>
     <row r="492" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B492" s="3" t="s">
         <v>1082</v>
-      </c>
-      <c r="B492" s="3" t="s">
-        <v>1083</v>
       </c>
       <c r="C492" s="3"/>
     </row>
     <row r="493" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C493" s="3"/>
     </row>
     <row r="494" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C494" s="3"/>
     </row>
     <row r="495" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B495" s="3" t="s">
         <v>1106</v>
-      </c>
-      <c r="B495" s="3" t="s">
-        <v>1107</v>
       </c>
       <c r="C495" s="3"/>
     </row>
     <row r="496" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C496" s="3"/>
     </row>
     <row r="497" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C497" s="3"/>
     </row>
     <row r="498" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C498" s="3"/>
     </row>
     <row r="499" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C499" s="3"/>
     </row>
     <row r="500" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C500" s="3"/>
     </row>
     <row r="501" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C501" s="3"/>
     </row>
     <row r="502" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B502" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="B502" s="3" t="s">
-        <v>1098</v>
-      </c>
       <c r="C502" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="503" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B503" s="3" t="s">
         <v>1112</v>
-      </c>
-      <c r="B503" s="3" t="s">
-        <v>1113</v>
       </c>
       <c r="C503" s="3"/>
     </row>
     <row r="504" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="3" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C504" s="3"/>
     </row>
     <row r="505" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B505" s="3" t="s">
         <v>1124</v>
-      </c>
-      <c r="B505" s="3" t="s">
-        <v>1125</v>
       </c>
       <c r="C505" s="3"/>
     </row>
     <row r="506" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C506" s="3"/>
     </row>
     <row r="507" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C507" s="3"/>
     </row>
     <row r="508" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B508" s="3" t="s">
         <v>1130</v>
-      </c>
-      <c r="B508" s="3" t="s">
-        <v>1131</v>
       </c>
       <c r="C508" s="3"/>
     </row>
     <row r="509" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C509" s="3"/>
     </row>
     <row r="510" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C510" s="3"/>
     </row>
     <row r="511" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C511" s="3"/>
     </row>
     <row r="512" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C512" s="3"/>
     </row>
@@ -12199,333 +12223,345 @@
         <v>845</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C513" s="3"/>
     </row>
     <row r="514" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C514" s="3"/>
     </row>
     <row r="515" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C515" s="3"/>
     </row>
     <row r="516" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B516" s="3" t="s">
         <v>1154</v>
-      </c>
-      <c r="B516" s="3" t="s">
-        <v>1155</v>
       </c>
       <c r="C516" s="3"/>
     </row>
     <row r="517" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C517" s="3"/>
     </row>
     <row r="518" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B518" s="3" t="s">
         <v>1157</v>
-      </c>
-      <c r="B518" s="3" t="s">
-        <v>1158</v>
       </c>
       <c r="C518" s="3"/>
     </row>
     <row r="519" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B519" s="3" t="s">
         <v>1160</v>
-      </c>
-      <c r="B519" s="3" t="s">
-        <v>1161</v>
       </c>
       <c r="C519" s="3"/>
     </row>
     <row r="520" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C520" s="3"/>
     </row>
     <row r="521" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="3" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C521" s="3"/>
     </row>
     <row r="522" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="3" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C522" s="3"/>
     </row>
     <row r="523" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B523" s="3" t="s">
         <v>1179</v>
-      </c>
-      <c r="B523" s="3" t="s">
-        <v>1180</v>
       </c>
       <c r="C523" s="3"/>
     </row>
     <row r="524" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B524" s="3" t="s">
         <v>1184</v>
-      </c>
-      <c r="B524" s="3" t="s">
-        <v>1185</v>
       </c>
       <c r="C524" s="3"/>
     </row>
     <row r="525" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C525" s="3"/>
     </row>
     <row r="526" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B526" s="3" t="s">
         <v>1187</v>
-      </c>
-      <c r="B526" s="3" t="s">
-        <v>1188</v>
       </c>
       <c r="C526" s="3"/>
     </row>
     <row r="527" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="3" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C527" s="3"/>
     </row>
     <row r="528" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B528" s="3" t="s">
         <v>1456</v>
-      </c>
-      <c r="B528" s="3" t="s">
-        <v>1457</v>
       </c>
       <c r="C528" s="3"/>
     </row>
     <row r="529" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B529" s="3" t="s">
         <v>1474</v>
-      </c>
-      <c r="B529" s="3" t="s">
-        <v>1475</v>
       </c>
       <c r="C529" s="3"/>
     </row>
     <row r="530" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B530" s="3" t="s">
         <v>1459</v>
-      </c>
-      <c r="B530" s="3" t="s">
-        <v>1460</v>
       </c>
       <c r="C530" s="3"/>
     </row>
     <row r="531" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="3" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C531" s="3"/>
     </row>
     <row r="532" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C532" s="3"/>
     </row>
     <row r="533" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B533" s="3" t="s">
         <v>1465</v>
-      </c>
-      <c r="B533" s="3" t="s">
-        <v>1466</v>
       </c>
       <c r="C533" s="3"/>
     </row>
     <row r="534" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C534" s="3"/>
     </row>
     <row r="535" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="3" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C535" s="3"/>
     </row>
     <row r="536" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B536" s="3" t="s">
         <v>1472</v>
-      </c>
-      <c r="B536" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="C536" s="3"/>
     </row>
     <row r="537" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="3" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C537" s="3"/>
     </row>
     <row r="538" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B538" s="3" t="s">
         <v>1481</v>
       </c>
-      <c r="B538" s="3" t="s">
+      <c r="C538" s="3" t="s">
         <v>1482</v>
-      </c>
-      <c r="C538" s="3" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="539" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="3" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C539" s="3"/>
     </row>
     <row r="540" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="3" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="541" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C541" s="3"/>
     </row>
     <row r="542" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C542" s="3"/>
     </row>
     <row r="543" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="3" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C543" s="3"/>
     </row>
     <row r="544" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="3" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C544" s="3"/>
     </row>
     <row r="545" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="3" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C545" s="3"/>
     </row>
     <row r="546" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B546" s="3" t="s">
         <v>1507</v>
-      </c>
-      <c r="B546" s="3" t="s">
-        <v>1508</v>
       </c>
       <c r="C546" s="3"/>
     </row>
     <row r="547" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B547" s="3" t="s">
         <v>1509</v>
       </c>
-      <c r="B547" s="3" t="s">
+      <c r="C547" s="3"/>
+    </row>
+    <row r="548" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A548" s="3" t="s">
         <v>1510</v>
       </c>
-      <c r="C547" s="3"/>
-    </row>
-    <row r="548" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A548" s="3"/>
-      <c r="B548" s="3"/>
+      <c r="B548" s="3" t="s">
+        <v>1511</v>
+      </c>
       <c r="C548" s="3"/>
     </row>
     <row r="549" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A549" s="3"/>
-      <c r="B549" s="3"/>
+      <c r="A549" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>1512</v>
+      </c>
       <c r="C549" s="3"/>
     </row>
     <row r="550" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A550" s="3"/>
-      <c r="B550" s="3"/>
+      <c r="A550" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>1516</v>
+      </c>
       <c r="C550" s="3"/>
     </row>
     <row r="551" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -15180,7 +15216,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="3"/>
@@ -15195,26 +15231,26 @@
     </row>
     <row r="3" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>1148</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>1145</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
   </sheetData>
@@ -15243,48 +15279,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="60" t="s">
         <v>866</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
     </row>
     <row r="2" spans="1:18" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="62" t="s">
         <v>864</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
@@ -15310,7 +15346,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="58"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="9" t="s">
         <v>792</v>
       </c>
@@ -15387,7 +15423,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="58"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="9" t="s">
         <v>798</v>
       </c>
@@ -15450,37 +15486,37 @@
       <c r="C7" s="8" t="s">
         <v>837</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="63" t="s">
         <v>985</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
     </row>
     <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="58"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="9" t="s">
         <v>838</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>839</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
@@ -15524,92 +15560,92 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="61" t="s">
         <v>980</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="56" t="s">
         <v>852</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="56" t="s">
         <v>865</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="56" t="s">
         <v>854</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
     </row>
     <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.3">
       <c r="A14" s="57" t="s">
@@ -15632,7 +15668,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="66"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="20" t="s">
         <v>861</v>
       </c>
@@ -15651,17 +15687,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A12:R12"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A10:R10"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A11:R11"/>
     <mergeCell ref="D7:M8"/>
+    <mergeCell ref="A12:R12"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15940,7 +15976,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="68" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -15969,7 +16005,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -15998,7 +16034,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="69" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -16027,7 +16063,7 @@
     </row>
     <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="70" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
@@ -16059,153 +16095,153 @@
         <v>0</v>
       </c>
       <c r="B5" s="33" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>1189</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="D5" s="37" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>1190</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="F5" s="38" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>1194</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>1196</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>1197</v>
+      </c>
+      <c r="M5" s="37" t="s">
         <v>1199</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>1191</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>1194</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>1195</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>1196</v>
-      </c>
-      <c r="K5" s="43" t="s">
-        <v>1197</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>1198</v>
-      </c>
-      <c r="M5" s="37" t="s">
+      <c r="N5" s="38" t="s">
         <v>1200</v>
       </c>
-      <c r="N5" s="38" t="s">
+      <c r="O5" s="38" t="s">
         <v>1201</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="P5" s="41" t="s">
         <v>1202</v>
       </c>
-      <c r="P5" s="41" t="s">
+      <c r="Q5" s="38" t="s">
+        <v>1225</v>
+      </c>
+      <c r="R5" s="44" t="s">
+        <v>1226</v>
+      </c>
+      <c r="S5" s="41" t="s">
+        <v>1229</v>
+      </c>
+      <c r="T5" s="36" t="s">
         <v>1203</v>
       </c>
-      <c r="Q5" s="38" t="s">
-        <v>1226</v>
-      </c>
-      <c r="R5" s="44" t="s">
-        <v>1227</v>
-      </c>
-      <c r="S5" s="41" t="s">
-        <v>1230</v>
-      </c>
-      <c r="T5" s="36" t="s">
+      <c r="U5" s="37" t="s">
+        <v>1205</v>
+      </c>
+      <c r="V5" s="37" t="s">
+        <v>1206</v>
+      </c>
+      <c r="W5" s="43" t="s">
         <v>1204</v>
       </c>
-      <c r="U5" s="37" t="s">
-        <v>1206</v>
-      </c>
-      <c r="V5" s="37" t="s">
+      <c r="X5" s="33" t="s">
+        <v>1208</v>
+      </c>
+      <c r="Y5" s="26" t="s">
         <v>1207</v>
-      </c>
-      <c r="W5" s="43" t="s">
-        <v>1205</v>
-      </c>
-      <c r="X5" s="33" t="s">
-        <v>1209</v>
-      </c>
-      <c r="Y5" s="26" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>1423</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="C6" s="46" t="s">
         <v>1424</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="D6" s="47" t="s">
         <v>1425</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="E6" s="47" t="s">
         <v>1426</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="F6" s="47" t="s">
         <v>1427</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="G6" s="48" t="s">
         <v>1428</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="H6" s="46" t="s">
         <v>1429</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="I6" s="47" t="s">
         <v>1430</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="J6" s="47" t="s">
         <v>1431</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="K6" s="48" t="s">
         <v>1432</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="L6" s="46" t="s">
         <v>1433</v>
       </c>
-      <c r="L6" s="46" t="s">
+      <c r="M6" s="47" t="s">
         <v>1434</v>
       </c>
-      <c r="M6" s="47" t="s">
+      <c r="N6" s="47" t="s">
         <v>1435</v>
       </c>
-      <c r="N6" s="47" t="s">
+      <c r="O6" s="47" t="s">
         <v>1436</v>
       </c>
-      <c r="O6" s="47" t="s">
+      <c r="P6" s="48" t="s">
         <v>1437</v>
       </c>
-      <c r="P6" s="48" t="s">
+      <c r="Q6" s="47" t="s">
         <v>1438</v>
       </c>
-      <c r="Q6" s="47" t="s">
+      <c r="R6" s="35" t="s">
         <v>1439</v>
       </c>
-      <c r="R6" s="35" t="s">
+      <c r="S6" s="48" t="s">
         <v>1440</v>
       </c>
-      <c r="S6" s="48" t="s">
+      <c r="T6" s="46" t="s">
         <v>1441</v>
       </c>
-      <c r="T6" s="46" t="s">
+      <c r="U6" s="47" t="s">
         <v>1442</v>
       </c>
-      <c r="U6" s="47" t="s">
+      <c r="V6" s="47" t="s">
         <v>1443</v>
       </c>
-      <c r="V6" s="47" t="s">
+      <c r="W6" s="48" t="s">
         <v>1444</v>
       </c>
-      <c r="W6" s="48" t="s">
+      <c r="X6" s="34" t="s">
         <v>1445</v>
       </c>
-      <c r="X6" s="34" t="s">
+      <c r="Y6" s="32" t="s">
         <v>1446</v>
-      </c>
-      <c r="Y6" s="32" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -16213,73 +16249,73 @@
         <v>3</v>
       </c>
       <c r="B7" s="39" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>1210</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="D7" s="4" t="s">
         <v>1211</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>1212</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>1213</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="42" t="s">
         <v>1214</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="H7" s="40" t="s">
         <v>1215</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="I7" s="4" t="s">
         <v>1216</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>1217</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="42" t="s">
         <v>1218</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="L7" s="40" t="s">
         <v>1219</v>
       </c>
-      <c r="L7" s="40" t="s">
+      <c r="M7" s="4" t="s">
         <v>1220</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>1221</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>1222</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="P7" s="42" t="s">
         <v>1223</v>
       </c>
-      <c r="P7" s="42" t="s">
+      <c r="Q7" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="R7" s="45" t="s">
+        <v>1228</v>
+      </c>
+      <c r="S7" s="42" t="s">
+        <v>1230</v>
+      </c>
+      <c r="T7" s="40" t="s">
         <v>1224</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>1228</v>
-      </c>
-      <c r="R7" s="45" t="s">
-        <v>1229</v>
-      </c>
-      <c r="S7" s="42" t="s">
+      <c r="U7" s="4" t="s">
         <v>1231</v>
       </c>
-      <c r="T7" s="40" t="s">
-        <v>1225</v>
-      </c>
-      <c r="U7" s="4" t="s">
+      <c r="V7" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="W7" s="42" t="s">
+        <v>1300</v>
+      </c>
+      <c r="X7" s="39" t="s">
         <v>1233</v>
-      </c>
-      <c r="W7" s="42" t="s">
-        <v>1301</v>
-      </c>
-      <c r="X7" s="39" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -16287,73 +16323,73 @@
         <v>4</v>
       </c>
       <c r="B8" s="39" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>1235</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="D8" s="4" t="s">
         <v>1236</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>1237</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>1238</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="42" t="s">
         <v>1239</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="H8" s="40" t="s">
         <v>1240</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="I8" s="4" t="s">
         <v>1241</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>1242</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="42" t="s">
         <v>1243</v>
       </c>
-      <c r="K8" s="42" t="s">
+      <c r="L8" s="40" t="s">
         <v>1244</v>
       </c>
-      <c r="L8" s="40" t="s">
+      <c r="M8" s="4" t="s">
         <v>1245</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>1246</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>1247</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="42" t="s">
         <v>1248</v>
       </c>
-      <c r="P8" s="42" t="s">
+      <c r="Q8" s="4" t="s">
         <v>1249</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="R8" s="45" t="s">
         <v>1250</v>
       </c>
-      <c r="R8" s="45" t="s">
+      <c r="S8" s="42" t="s">
         <v>1251</v>
       </c>
-      <c r="S8" s="42" t="s">
+      <c r="T8" s="40" t="s">
         <v>1252</v>
       </c>
-      <c r="T8" s="40" t="s">
+      <c r="U8" s="4" t="s">
         <v>1253</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>1254</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="W8" s="42" t="s">
+        <v>1299</v>
+      </c>
+      <c r="X8" s="39" t="s">
         <v>1255</v>
-      </c>
-      <c r="W8" s="42" t="s">
-        <v>1300</v>
-      </c>
-      <c r="X8" s="39" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
@@ -16361,520 +16397,520 @@
         <v>5</v>
       </c>
       <c r="B9" s="39" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C9" s="40" t="s">
         <v>1257</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="D9" s="4" t="s">
         <v>1258</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>1259</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>1260</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="42" t="s">
         <v>1261</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="H9" s="40" t="s">
         <v>1262</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="I9" s="4" t="s">
         <v>1263</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>1264</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="42" t="s">
         <v>1265</v>
       </c>
-      <c r="K9" s="42" t="s">
+      <c r="L9" s="40" t="s">
         <v>1266</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="M9" s="4" t="s">
         <v>1267</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>1268</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>1269</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="42" t="s">
         <v>1270</v>
       </c>
-      <c r="P9" s="42" t="s">
+      <c r="Q9" s="4" t="s">
         <v>1271</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="R9" s="45" t="s">
         <v>1272</v>
       </c>
-      <c r="R9" s="45" t="s">
+      <c r="S9" s="42" t="s">
         <v>1273</v>
       </c>
-      <c r="S9" s="42" t="s">
+      <c r="T9" s="40" t="s">
         <v>1274</v>
       </c>
-      <c r="T9" s="40" t="s">
+      <c r="U9" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>1276</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="W9" s="42" t="s">
+        <v>1298</v>
+      </c>
+      <c r="X9" s="39" t="s">
         <v>1277</v>
-      </c>
-      <c r="W9" s="42" t="s">
-        <v>1299</v>
-      </c>
-      <c r="X9" s="39" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B10" s="39" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>1279</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="D10" s="4" t="s">
         <v>1280</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>1281</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>1282</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="42" t="s">
         <v>1283</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="H10" s="40" t="s">
         <v>1284</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="I10" s="4" t="s">
         <v>1285</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>1286</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="42" t="s">
         <v>1287</v>
       </c>
-      <c r="K10" s="42" t="s">
+      <c r="L10" s="40" t="s">
         <v>1288</v>
       </c>
-      <c r="L10" s="40" t="s">
+      <c r="M10" s="4" t="s">
         <v>1289</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>1290</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>1291</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="42" t="s">
+        <v>1477</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="R10" s="45" t="s">
         <v>1292</v>
       </c>
-      <c r="P10" s="42" t="s">
-        <v>1478</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>1320</v>
-      </c>
-      <c r="R10" s="45" t="s">
+      <c r="S10" s="42" t="s">
         <v>1293</v>
       </c>
-      <c r="S10" s="42" t="s">
+      <c r="T10" s="40" t="s">
         <v>1294</v>
       </c>
-      <c r="T10" s="40" t="s">
+      <c r="U10" s="4" t="s">
         <v>1295</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="W10" s="42" t="s">
         <v>1297</v>
       </c>
-      <c r="W10" s="42" t="s">
-        <v>1298</v>
-      </c>
       <c r="X10" s="39" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="Y10" s="28" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>1303</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="C11" s="40" t="s">
         <v>1304</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="D11" s="4" t="s">
         <v>1305</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>1306</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>1307</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="42" t="s">
         <v>1308</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="H11" s="40" t="s">
         <v>1309</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="I11" s="4" t="s">
         <v>1310</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>1311</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="42" t="s">
         <v>1312</v>
       </c>
-      <c r="K11" s="42" t="s">
+      <c r="L11" s="40" t="s">
         <v>1313</v>
       </c>
-      <c r="L11" s="40" t="s">
+      <c r="M11" s="4" t="s">
         <v>1314</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>1315</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>1316</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="P11" s="42" t="s">
         <v>1317</v>
       </c>
-      <c r="P11" s="42" t="s">
+      <c r="Q11" s="4" t="s">
         <v>1318</v>
       </c>
-      <c r="Q11" s="4" t="s">
-        <v>1319</v>
-      </c>
       <c r="R11" s="45" t="s">
+        <v>1320</v>
+      </c>
+      <c r="S11" s="42" t="s">
         <v>1321</v>
       </c>
-      <c r="S11" s="42" t="s">
+      <c r="T11" s="40" t="s">
         <v>1322</v>
       </c>
-      <c r="T11" s="40" t="s">
+      <c r="U11" s="4" t="s">
         <v>1323</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="V11" s="4" t="s">
         <v>1324</v>
       </c>
-      <c r="V11" s="4" t="s">
+      <c r="W11" s="42" t="s">
         <v>1325</v>
       </c>
-      <c r="W11" s="42" t="s">
+      <c r="X11" s="39" t="s">
         <v>1326</v>
-      </c>
-      <c r="X11" s="39" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B12" s="39" t="s">
         <v>1328</v>
       </c>
-      <c r="B12" s="39" t="s">
-        <v>1329</v>
-      </c>
       <c r="C12" s="40" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>1334</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>1335</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>1336</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="42" t="s">
         <v>1337</v>
       </c>
-      <c r="G12" s="42" t="s">
-        <v>1338</v>
-      </c>
       <c r="H12" s="40" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>1341</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>1342</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="42" t="s">
         <v>1343</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="L12" s="40" t="s">
         <v>1344</v>
       </c>
-      <c r="L12" s="40" t="s">
+      <c r="M12" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>1346</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>1347</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="P12" s="42" t="s">
         <v>1348</v>
       </c>
-      <c r="P12" s="42" t="s">
+      <c r="Q12" s="4" t="s">
         <v>1349</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="R12" s="45" t="s">
         <v>1350</v>
       </c>
-      <c r="R12" s="45" t="s">
+      <c r="S12" s="42" t="s">
         <v>1351</v>
       </c>
-      <c r="S12" s="42" t="s">
+      <c r="T12" s="40" t="s">
         <v>1352</v>
       </c>
-      <c r="T12" s="40" t="s">
+      <c r="U12" s="4" t="s">
         <v>1353</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="V12" s="4" t="s">
         <v>1354</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="W12" s="42" t="s">
         <v>1355</v>
       </c>
-      <c r="W12" s="42" t="s">
+      <c r="X12" s="39" t="s">
         <v>1356</v>
-      </c>
-      <c r="X12" s="39" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C13" s="40" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>1358</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>1359</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>1360</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="42" t="s">
         <v>1361</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="H13" s="40" t="s">
         <v>1362</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="I13" s="4" t="s">
         <v>1363</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>1364</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="42" t="s">
         <v>1365</v>
       </c>
-      <c r="K13" s="42" t="s">
+      <c r="L13" s="40" t="s">
         <v>1366</v>
       </c>
-      <c r="L13" s="40" t="s">
+      <c r="M13" s="4" t="s">
         <v>1367</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>1368</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>1369</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="P13" s="42" t="s">
         <v>1370</v>
       </c>
-      <c r="P13" s="42" t="s">
+      <c r="Q13" s="4" t="s">
         <v>1371</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="45" t="s">
         <v>1372</v>
       </c>
-      <c r="R13" s="45" t="s">
+      <c r="S13" s="42" t="s">
         <v>1373</v>
       </c>
-      <c r="S13" s="42" t="s">
+      <c r="T13" s="40" t="s">
         <v>1374</v>
       </c>
-      <c r="T13" s="40" t="s">
+      <c r="U13" s="4" t="s">
         <v>1375</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="V13" s="4" t="s">
         <v>1376</v>
       </c>
-      <c r="V13" s="4" t="s">
+      <c r="W13" s="42" t="s">
         <v>1377</v>
       </c>
-      <c r="W13" s="42" t="s">
+      <c r="X13" s="39" t="s">
         <v>1378</v>
-      </c>
-      <c r="X13" s="39" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C14" s="40" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>1380</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>1381</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H14" s="40" t="s">
         <v>1382</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>1389</v>
-      </c>
-      <c r="G14" s="42" t="s">
+      <c r="I14" s="4" t="s">
+        <v>1383</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>1384</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>1385</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>1386</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="O14" s="4" t="s">
         <v>1390</v>
       </c>
-      <c r="H14" s="40" t="s">
-        <v>1383</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>1384</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>1385</v>
-      </c>
-      <c r="K14" s="42" t="s">
-        <v>1386</v>
-      </c>
-      <c r="L14" s="40" t="s">
-        <v>1387</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>1387</v>
-      </c>
-      <c r="O14" s="4" t="s">
+      <c r="P14" s="42" t="s">
         <v>1391</v>
       </c>
-      <c r="P14" s="42" t="s">
+      <c r="Q14" s="4" t="s">
         <v>1392</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="R14" s="45" t="s">
         <v>1393</v>
       </c>
-      <c r="R14" s="45" t="s">
+      <c r="S14" s="42" t="s">
         <v>1394</v>
       </c>
-      <c r="S14" s="42" t="s">
+      <c r="T14" s="40" t="s">
         <v>1395</v>
       </c>
-      <c r="T14" s="40" t="s">
+      <c r="U14" s="4" t="s">
         <v>1396</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="V14" s="4" t="s">
         <v>1397</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="W14" s="42" t="s">
         <v>1398</v>
       </c>
-      <c r="W14" s="42" t="s">
+      <c r="X14" s="39" t="s">
         <v>1399</v>
-      </c>
-      <c r="X14" s="39" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B15" s="39" t="s">
         <v>1339</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>1340</v>
-      </c>
       <c r="C15" s="40" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>1401</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>1403</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="42" t="s">
         <v>1404</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="H15" s="40" t="s">
         <v>1405</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="I15" s="4" t="s">
         <v>1406</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>1407</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="42" t="s">
         <v>1408</v>
       </c>
-      <c r="K15" s="42" t="s">
+      <c r="L15" s="40" t="s">
         <v>1409</v>
       </c>
-      <c r="L15" s="40" t="s">
+      <c r="M15" s="4" t="s">
         <v>1410</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>1411</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>1412</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="P15" s="42" t="s">
         <v>1413</v>
       </c>
-      <c r="P15" s="42" t="s">
+      <c r="Q15" s="4" t="s">
         <v>1414</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="R15" s="45" t="s">
         <v>1415</v>
       </c>
-      <c r="R15" s="45" t="s">
+      <c r="S15" s="42" t="s">
         <v>1416</v>
       </c>
-      <c r="S15" s="42" t="s">
+      <c r="T15" s="40" t="s">
         <v>1417</v>
       </c>
-      <c r="T15" s="40" t="s">
+      <c r="U15" s="4" t="s">
         <v>1418</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="V15" s="4" t="s">
         <v>1419</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="W15" s="42" t="s">
         <v>1420</v>
       </c>
-      <c r="W15" s="42" t="s">
+      <c r="X15" s="39" t="s">
         <v>1421</v>
-      </c>
-      <c r="X15" s="39" t="s">
-        <v>1422</v>
       </c>
     </row>
   </sheetData>

--- a/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
+++ b/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Websites\hssrgov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCE474F-0AB3-4881-B77E-1CD520F7F8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CE1670-1C1A-4D18-9E7F-1BA744BEAE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="769" xr2:uid="{CCB781DE-C1B4-4E71-9129-23ABA5B611FE}"/>
   </bookViews>
@@ -987,10 +987,6 @@
   </si>
   <si>
     <t>字母</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>今天/现在/当前/目前/当下</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6014,6 +6010,10 @@
   </si>
   <si>
     <t>haerona</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天/现在/当前/目前/当下/今日</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6928,25 +6928,22 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6959,6 +6956,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -7504,8 +7504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB56768-82A6-42FF-B107-45016A59F08E}">
   <dimension ref="A1:C1075"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A549" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B550" sqref="B550"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -7518,7 +7518,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -7539,10 +7539,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7550,7 +7550,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -7559,7 +7559,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -7568,7 +7568,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -7577,7 +7577,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -7586,34 +7586,34 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>712</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>713</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -7622,7 +7622,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -7631,7 +7631,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -7640,10 +7640,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7651,7 +7651,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -7660,7 +7660,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -7669,7 +7669,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -7678,7 +7678,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -7687,7 +7687,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -7696,10 +7696,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7707,7 +7707,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C21" s="52"/>
     </row>
@@ -7716,7 +7716,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C22" s="52"/>
     </row>
@@ -7725,7 +7725,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C23" s="52"/>
     </row>
@@ -7734,7 +7734,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C24" s="52"/>
     </row>
@@ -7743,7 +7743,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C25" s="52"/>
     </row>
@@ -7752,7 +7752,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C26" s="52"/>
     </row>
@@ -7761,7 +7761,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C27" s="52"/>
     </row>
@@ -7770,7 +7770,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C28" s="52"/>
     </row>
@@ -7779,7 +7779,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C29" s="52"/>
     </row>
@@ -7788,7 +7788,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C30" s="52"/>
     </row>
@@ -7797,7 +7797,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C31" s="52"/>
     </row>
@@ -7806,7 +7806,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C32" s="52"/>
     </row>
@@ -7815,7 +7815,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C33" s="52"/>
     </row>
@@ -7824,7 +7824,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C34" s="52"/>
     </row>
@@ -7833,19 +7833,19 @@
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C35" s="53"/>
     </row>
     <row r="36" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7853,43 +7853,43 @@
         <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C41" s="3"/>
     </row>
@@ -7898,7 +7898,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C42" s="3"/>
     </row>
@@ -7907,7 +7907,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C43" s="3"/>
     </row>
@@ -7916,25 +7916,25 @@
         <v>36</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>1027</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>1028</v>
       </c>
       <c r="C46" s="3"/>
     </row>
@@ -7943,7 +7943,7 @@
         <v>37</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C47" s="3"/>
     </row>
@@ -7952,7 +7952,7 @@
         <v>38</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C48" s="3"/>
     </row>
@@ -7961,19 +7961,19 @@
         <v>39</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>715</v>
-      </c>
       <c r="C50" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7981,7 +7981,7 @@
         <v>40</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C51" s="3"/>
     </row>
@@ -7990,7 +7990,7 @@
         <v>41</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C52" s="3"/>
     </row>
@@ -7999,7 +7999,7 @@
         <v>203</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C53" s="3"/>
     </row>
@@ -8008,7 +8008,7 @@
         <v>42</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C54" s="3"/>
     </row>
@@ -8017,7 +8017,7 @@
         <v>43</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C55" s="3"/>
     </row>
@@ -8026,16 +8026,16 @@
         <v>44</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C57" s="3"/>
     </row>
@@ -8044,7 +8044,7 @@
         <v>45</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C58" s="3"/>
     </row>
@@ -8053,7 +8053,7 @@
         <v>46</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C59" s="3"/>
     </row>
@@ -8062,10 +8062,10 @@
         <v>47</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8073,7 +8073,7 @@
         <v>48</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C61" s="3"/>
     </row>
@@ -8082,7 +8082,7 @@
         <v>228</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C62" s="3"/>
     </row>
@@ -8091,7 +8091,7 @@
         <v>49</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C63" s="3"/>
     </row>
@@ -8100,7 +8100,7 @@
         <v>50</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C64" s="3"/>
     </row>
@@ -8109,19 +8109,19 @@
         <v>51</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8129,7 +8129,7 @@
         <v>52</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C67" s="3"/>
     </row>
@@ -8138,10 +8138,10 @@
         <v>53</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8149,7 +8149,7 @@
         <v>54</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C69" s="3"/>
     </row>
@@ -8158,16 +8158,16 @@
         <v>55</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C71" s="3"/>
     </row>
@@ -8176,7 +8176,7 @@
         <v>56</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C72" s="3"/>
     </row>
@@ -8185,7 +8185,7 @@
         <v>57</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C73" s="3"/>
     </row>
@@ -8194,7 +8194,7 @@
         <v>58</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C74" s="3"/>
     </row>
@@ -8203,7 +8203,7 @@
         <v>59</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C75" s="3"/>
     </row>
@@ -8212,7 +8212,7 @@
         <v>60</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C76" s="3"/>
     </row>
@@ -8221,7 +8221,7 @@
         <v>61</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C77" s="3"/>
     </row>
@@ -8230,7 +8230,7 @@
         <v>62</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C78" s="3"/>
     </row>
@@ -8239,7 +8239,7 @@
         <v>63</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C79" s="3"/>
     </row>
@@ -8248,7 +8248,7 @@
         <v>64</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C80" s="3"/>
     </row>
@@ -8257,7 +8257,7 @@
         <v>65</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C81" s="3"/>
     </row>
@@ -8266,16 +8266,16 @@
         <v>195</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C82" s="3"/>
     </row>
     <row r="83" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C83" s="3"/>
     </row>
@@ -8284,7 +8284,7 @@
         <v>207</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C84" s="3"/>
     </row>
@@ -8293,7 +8293,7 @@
         <v>206</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C85" s="3"/>
     </row>
@@ -8302,7 +8302,7 @@
         <v>66</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C86" s="3"/>
     </row>
@@ -8311,7 +8311,7 @@
         <v>67</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C87" s="3"/>
     </row>
@@ -8320,7 +8320,7 @@
         <v>68</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C88" s="3"/>
     </row>
@@ -8329,10 +8329,10 @@
         <v>69</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8340,10 +8340,10 @@
         <v>70</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8351,19 +8351,19 @@
         <v>71</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C91" s="3"/>
     </row>
     <row r="92" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8371,7 +8371,7 @@
         <v>194</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C93" s="3"/>
     </row>
@@ -8380,7 +8380,7 @@
         <v>72</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C94" s="3"/>
     </row>
@@ -8389,7 +8389,7 @@
         <v>73</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C95" s="3"/>
     </row>
@@ -8398,7 +8398,7 @@
         <v>74</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C96" s="3"/>
     </row>
@@ -8407,7 +8407,7 @@
         <v>75</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C97" s="3"/>
     </row>
@@ -8416,10 +8416,10 @@
         <v>76</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="99" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8427,19 +8427,19 @@
         <v>77</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C99" s="3"/>
     </row>
     <row r="100" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>902</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8447,7 +8447,7 @@
         <v>78</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C101" s="3"/>
     </row>
@@ -8456,7 +8456,7 @@
         <v>79</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C102" s="3"/>
     </row>
@@ -8465,7 +8465,7 @@
         <v>80</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C103" s="3"/>
     </row>
@@ -8474,7 +8474,7 @@
         <v>81</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C104" s="3"/>
     </row>
@@ -8483,7 +8483,7 @@
         <v>82</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C105" s="3"/>
     </row>
@@ -8492,7 +8492,7 @@
         <v>83</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C106" s="3"/>
     </row>
@@ -8501,7 +8501,7 @@
         <v>84</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C107" s="3"/>
     </row>
@@ -8510,10 +8510,10 @@
         <v>141</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="109" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8521,7 +8521,7 @@
         <v>85</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C109" s="3"/>
     </row>
@@ -8530,7 +8530,7 @@
         <v>86</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C110" s="3"/>
     </row>
@@ -8539,7 +8539,7 @@
         <v>87</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C111" s="3"/>
     </row>
@@ -8548,30 +8548,30 @@
         <v>88</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C112" s="3"/>
     </row>
     <row r="113" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="114" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="115" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8579,7 +8579,7 @@
         <v>89</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C115" s="3"/>
     </row>
@@ -8588,7 +8588,7 @@
         <v>90</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C116" s="3"/>
     </row>
@@ -8597,7 +8597,7 @@
         <v>91</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C117" s="3"/>
     </row>
@@ -8606,7 +8606,7 @@
         <v>92</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C118" s="3"/>
     </row>
@@ -8615,7 +8615,7 @@
         <v>93</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C119" s="3"/>
     </row>
@@ -8624,7 +8624,7 @@
         <v>94</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C120" s="3"/>
     </row>
@@ -8633,43 +8633,43 @@
         <v>95</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C121" s="3"/>
     </row>
     <row r="122" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C122" s="3"/>
     </row>
     <row r="123" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C123" s="3"/>
     </row>
     <row r="124" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C124" s="3"/>
     </row>
     <row r="125" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C125" s="3"/>
     </row>
@@ -8678,7 +8678,7 @@
         <v>96</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C126" s="3"/>
     </row>
@@ -8687,7 +8687,7 @@
         <v>97</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C127" s="3"/>
     </row>
@@ -8696,7 +8696,7 @@
         <v>98</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C128" s="3"/>
     </row>
@@ -8705,7 +8705,7 @@
         <v>163</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C129" s="3"/>
     </row>
@@ -8714,7 +8714,7 @@
         <v>233</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C130" s="3"/>
     </row>
@@ -8723,7 +8723,7 @@
         <v>99</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C131" s="3"/>
     </row>
@@ -8732,7 +8732,7 @@
         <v>100</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C132" s="3"/>
     </row>
@@ -8741,7 +8741,7 @@
         <v>101</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C133" s="3"/>
     </row>
@@ -8750,7 +8750,7 @@
         <v>102</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C134" s="3"/>
     </row>
@@ -8759,7 +8759,7 @@
         <v>103</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C135" s="3"/>
     </row>
@@ -8768,25 +8768,25 @@
         <v>214</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C136" s="3"/>
     </row>
     <row r="137" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C137" s="3"/>
     </row>
     <row r="138" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C138" s="3"/>
     </row>
@@ -8795,7 +8795,7 @@
         <v>104</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C139" s="3"/>
     </row>
@@ -8804,72 +8804,72 @@
         <v>105</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C140" s="3"/>
     </row>
     <row r="141" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>947</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>948</v>
       </c>
       <c r="C141" s="3"/>
     </row>
     <row r="142" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C142" s="3"/>
     </row>
     <row r="143" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C143" s="3"/>
     </row>
     <row r="144" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C144" s="3"/>
     </row>
     <row r="145" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C145" s="3"/>
     </row>
     <row r="146" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="147" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C147" s="3"/>
     </row>
@@ -8878,7 +8878,7 @@
         <v>106</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C148" s="3"/>
     </row>
@@ -8887,16 +8887,16 @@
         <v>107</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C149" s="3"/>
     </row>
     <row r="150" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>680</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>681</v>
       </c>
       <c r="C150" s="3"/>
     </row>
@@ -8905,7 +8905,7 @@
         <v>108</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C151" s="3"/>
     </row>
@@ -8914,7 +8914,7 @@
         <v>109</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C152" s="3"/>
     </row>
@@ -8923,10 +8923,10 @@
         <v>110</v>
       </c>
       <c r="B153" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>785</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="154" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8934,7 +8934,7 @@
         <v>220</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C154" s="3"/>
     </row>
@@ -8943,16 +8943,16 @@
         <v>221</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C155" s="3"/>
     </row>
     <row r="156" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C156" s="3"/>
     </row>
@@ -8961,7 +8961,7 @@
         <v>111</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C157" s="3"/>
     </row>
@@ -8970,7 +8970,7 @@
         <v>112</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C158" s="3"/>
     </row>
@@ -8979,7 +8979,7 @@
         <v>113</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C159" s="3"/>
     </row>
@@ -8988,10 +8988,10 @@
         <v>225</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="161" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8999,7 +8999,7 @@
         <v>114</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C161" s="3"/>
     </row>
@@ -9008,10 +9008,10 @@
         <v>115</v>
       </c>
       <c r="B162" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="163" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9019,7 +9019,7 @@
         <v>116</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C163" s="3"/>
     </row>
@@ -9028,7 +9028,7 @@
         <v>117</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C164" s="3"/>
     </row>
@@ -9037,16 +9037,16 @@
         <v>118</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C165" s="3"/>
     </row>
     <row r="166" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C166" s="3"/>
     </row>
@@ -9055,7 +9055,7 @@
         <v>119</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C167" s="3"/>
     </row>
@@ -9064,7 +9064,7 @@
         <v>120</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C168" s="3"/>
     </row>
@@ -9073,7 +9073,7 @@
         <v>121</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C169" s="3"/>
     </row>
@@ -9082,7 +9082,7 @@
         <v>122</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C170" s="3"/>
     </row>
@@ -9091,10 +9091,10 @@
         <v>192</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="172" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9102,7 +9102,7 @@
         <v>123</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C172" s="3"/>
     </row>
@@ -9111,10 +9111,10 @@
         <v>124</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="174" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9122,25 +9122,25 @@
         <v>125</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C174" s="3"/>
     </row>
     <row r="175" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>241</v>
+        <v>1516</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C175" s="3"/>
     </row>
     <row r="176" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C176" s="3"/>
     </row>
@@ -9149,16 +9149,16 @@
         <v>126</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C177" s="3"/>
     </row>
     <row r="178" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C178" s="3"/>
     </row>
@@ -9167,7 +9167,7 @@
         <v>127</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C179" s="3"/>
     </row>
@@ -9176,7 +9176,7 @@
         <v>231</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C180" s="3"/>
     </row>
@@ -9185,7 +9185,7 @@
         <v>128</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C181" s="3"/>
     </row>
@@ -9194,7 +9194,7 @@
         <v>129</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C182" s="3"/>
     </row>
@@ -9203,7 +9203,7 @@
         <v>130</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C183" s="3"/>
     </row>
@@ -9212,7 +9212,7 @@
         <v>131</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C184" s="3"/>
     </row>
@@ -9221,43 +9221,43 @@
         <v>132</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C185" s="3"/>
     </row>
     <row r="186" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C186" s="3"/>
     </row>
     <row r="187" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C187" s="3"/>
     </row>
     <row r="188" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>501</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>502</v>
       </c>
       <c r="C188" s="3"/>
     </row>
     <row r="189" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B189" s="3" t="s">
         <v>1498</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>1499</v>
       </c>
       <c r="C189" s="3"/>
     </row>
@@ -9266,19 +9266,19 @@
         <v>133</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C190" s="3"/>
     </row>
     <row r="191" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B191" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="C191" s="3" t="s">
         <v>1023</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="192" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9286,7 +9286,7 @@
         <v>134</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C192" s="3"/>
     </row>
@@ -9295,7 +9295,7 @@
         <v>135</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C193" s="3"/>
     </row>
@@ -9304,7 +9304,7 @@
         <v>136</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C194" s="3"/>
     </row>
@@ -9313,7 +9313,7 @@
         <v>137</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C195" s="3"/>
     </row>
@@ -9322,7 +9322,7 @@
         <v>138</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C196" s="3"/>
     </row>
@@ -9331,7 +9331,7 @@
         <v>139</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C197" s="3"/>
     </row>
@@ -9340,7 +9340,7 @@
         <v>140</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C198" s="3"/>
     </row>
@@ -9349,16 +9349,16 @@
         <v>142</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C199" s="3"/>
     </row>
     <row r="200" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C200" s="3"/>
     </row>
@@ -9367,7 +9367,7 @@
         <v>143</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C201" s="3"/>
     </row>
@@ -9376,7 +9376,7 @@
         <v>144</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C202" s="3"/>
     </row>
@@ -9385,7 +9385,7 @@
         <v>217</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C203" s="3"/>
     </row>
@@ -9394,10 +9394,10 @@
         <v>230</v>
       </c>
       <c r="B204" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="205" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9405,25 +9405,25 @@
         <v>145</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C205" s="3"/>
     </row>
     <row r="206" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C206" s="3"/>
     </row>
     <row r="207" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>974</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>975</v>
       </c>
       <c r="C207" s="3"/>
     </row>
@@ -9432,7 +9432,7 @@
         <v>146</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C208" s="3"/>
     </row>
@@ -9441,7 +9441,7 @@
         <v>147</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C209" s="3"/>
     </row>
@@ -9450,7 +9450,7 @@
         <v>148</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C210" s="3"/>
     </row>
@@ -9459,7 +9459,7 @@
         <v>149</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C211" s="3"/>
     </row>
@@ -9468,7 +9468,7 @@
         <v>150</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C212" s="3"/>
     </row>
@@ -9477,7 +9477,7 @@
         <v>151</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C213" s="3"/>
     </row>
@@ -9486,7 +9486,7 @@
         <v>152</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C214" s="3"/>
     </row>
@@ -9495,7 +9495,7 @@
         <v>153</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C215" s="3"/>
     </row>
@@ -9504,10 +9504,10 @@
         <v>154</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C216" s="51" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="217" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9515,7 +9515,7 @@
         <v>155</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C217" s="52"/>
     </row>
@@ -9524,55 +9524,55 @@
         <v>156</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C218" s="52"/>
     </row>
     <row r="219" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C219" s="52"/>
     </row>
     <row r="220" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C220" s="52"/>
     </row>
     <row r="221" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B221" s="3" t="s">
         <v>933</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>934</v>
       </c>
       <c r="C221" s="52"/>
     </row>
     <row r="222" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C222" s="53"/>
     </row>
     <row r="223" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="224" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9580,10 +9580,10 @@
         <v>157</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="225" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9591,7 +9591,7 @@
         <v>158</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C225" s="3"/>
     </row>
@@ -9600,7 +9600,7 @@
         <v>159</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C226" s="3"/>
     </row>
@@ -9609,7 +9609,7 @@
         <v>160</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C227" s="3"/>
     </row>
@@ -9618,7 +9618,7 @@
         <v>161</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C228" s="3"/>
     </row>
@@ -9627,16 +9627,16 @@
         <v>162</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C229" s="3"/>
     </row>
     <row r="230" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C230" s="3"/>
     </row>
@@ -9645,7 +9645,7 @@
         <v>164</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C231" s="3"/>
     </row>
@@ -9654,16 +9654,16 @@
         <v>165</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C232" s="3"/>
     </row>
     <row r="233" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C233" s="3"/>
     </row>
@@ -9672,7 +9672,7 @@
         <v>166</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>167</v>
@@ -9683,7 +9683,7 @@
         <v>168</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C235" s="3"/>
     </row>
@@ -9692,7 +9692,7 @@
         <v>169</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C236" s="3"/>
     </row>
@@ -9701,7 +9701,7 @@
         <v>170</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C237" s="3"/>
     </row>
@@ -9710,7 +9710,7 @@
         <v>171</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C238" s="3"/>
     </row>
@@ -9719,16 +9719,16 @@
         <v>172</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row r="240" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C240" s="3"/>
     </row>
@@ -9737,7 +9737,7 @@
         <v>173</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C241" s="3"/>
     </row>
@@ -9746,7 +9746,7 @@
         <v>174</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C242" s="3"/>
     </row>
@@ -9755,7 +9755,7 @@
         <v>175</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C243" s="3"/>
     </row>
@@ -9764,7 +9764,7 @@
         <v>176</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C244" s="3"/>
     </row>
@@ -9773,10 +9773,10 @@
         <v>177</v>
       </c>
       <c r="B245" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C245" s="3" t="s">
         <v>471</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="246" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9784,7 +9784,7 @@
         <v>176</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C246" s="3"/>
     </row>
@@ -9793,7 +9793,7 @@
         <v>178</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C247" s="3"/>
     </row>
@@ -9802,7 +9802,7 @@
         <v>179</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C248" s="3"/>
     </row>
@@ -9811,7 +9811,7 @@
         <v>180</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C249" s="3"/>
     </row>
@@ -9820,16 +9820,16 @@
         <v>181</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C250" s="3"/>
     </row>
     <row r="251" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C251" s="3"/>
     </row>
@@ -9838,7 +9838,7 @@
         <v>182</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C252" s="3"/>
     </row>
@@ -9847,7 +9847,7 @@
         <v>183</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C253" s="3"/>
     </row>
@@ -9856,43 +9856,43 @@
         <v>184</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C254" s="3"/>
     </row>
     <row r="255" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C255" s="3"/>
     </row>
     <row r="256" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C256" s="3"/>
     </row>
     <row r="257" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C257" s="3"/>
     </row>
     <row r="258" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C258" s="3"/>
     </row>
@@ -9901,7 +9901,7 @@
         <v>185</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C259" s="3"/>
     </row>
@@ -9910,7 +9910,7 @@
         <v>186</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C260" s="3"/>
     </row>
@@ -9919,7 +9919,7 @@
         <v>187</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C261" s="3"/>
     </row>
@@ -9928,7 +9928,7 @@
         <v>188</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C262" s="3"/>
     </row>
@@ -9937,7 +9937,7 @@
         <v>189</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C263" s="3"/>
     </row>
@@ -9946,43 +9946,43 @@
         <v>222</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C264" s="3"/>
     </row>
     <row r="265" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C265" s="3"/>
     </row>
     <row r="266" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B266" s="3" t="s">
         <v>705</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>706</v>
       </c>
       <c r="C266" s="3"/>
     </row>
     <row r="267" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C267" s="3"/>
     </row>
     <row r="268" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C268" s="3"/>
     </row>
@@ -9991,7 +9991,7 @@
         <v>212</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C269" s="3"/>
     </row>
@@ -10000,7 +10000,7 @@
         <v>210</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C270" s="3"/>
     </row>
@@ -10009,16 +10009,16 @@
         <v>190</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C271" s="3"/>
     </row>
     <row r="272" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C272" s="3"/>
     </row>
@@ -10027,16 +10027,16 @@
         <v>191</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C273" s="3"/>
     </row>
     <row r="274" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C274" s="3"/>
     </row>
@@ -10045,43 +10045,43 @@
         <v>209</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C275" s="3"/>
     </row>
     <row r="276" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C276" s="3"/>
     </row>
     <row r="277" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C277" s="3"/>
     </row>
     <row r="278" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C278" s="3"/>
     </row>
     <row r="279" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C279" s="3"/>
     </row>
@@ -10090,16 +10090,16 @@
         <v>193</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C280" s="3"/>
     </row>
     <row r="281" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C281" s="3"/>
     </row>
@@ -10108,7 +10108,7 @@
         <v>216</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C282" s="3"/>
     </row>
@@ -10117,34 +10117,34 @@
         <v>196</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C283" s="3"/>
     </row>
     <row r="284" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C284" s="3"/>
     </row>
     <row r="285" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C285" s="3"/>
     </row>
     <row r="286" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B286" s="3" t="s">
         <v>1117</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>1118</v>
       </c>
       <c r="C286" s="3"/>
     </row>
@@ -10153,7 +10153,7 @@
         <v>197</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C287" s="3"/>
     </row>
@@ -10162,7 +10162,7 @@
         <v>198</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C288" s="3"/>
     </row>
@@ -10171,34 +10171,34 @@
         <v>199</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C289" s="3"/>
     </row>
     <row r="290" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B290" s="3" t="s">
         <v>1031</v>
-      </c>
-      <c r="B290" s="3" t="s">
-        <v>1032</v>
       </c>
       <c r="C290" s="3"/>
     </row>
     <row r="291" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C291" s="3"/>
     </row>
     <row r="292" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C292" s="3"/>
     </row>
@@ -10207,16 +10207,16 @@
         <v>200</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C293" s="3"/>
     </row>
     <row r="294" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C294" s="3"/>
     </row>
@@ -10225,7 +10225,7 @@
         <v>201</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C295" s="3"/>
     </row>
@@ -10234,7 +10234,7 @@
         <v>202</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C296" s="3"/>
     </row>
@@ -10243,7 +10243,7 @@
         <v>204</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C297" s="3"/>
     </row>
@@ -10252,36 +10252,36 @@
         <v>205</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C298" s="3"/>
     </row>
     <row r="299" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C299" s="3"/>
     </row>
     <row r="300" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B300" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C300" s="3" t="s">
         <v>592</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="301" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C301" s="3"/>
     </row>
@@ -10290,10 +10290,10 @@
         <v>208</v>
       </c>
       <c r="B302" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C302" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="303" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10301,10 +10301,10 @@
         <v>211</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="304" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10312,7 +10312,7 @@
         <v>213</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C304" s="3"/>
     </row>
@@ -10321,7 +10321,7 @@
         <v>215</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C305" s="3"/>
     </row>
@@ -10330,27 +10330,27 @@
         <v>218</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="307" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C307" s="3"/>
     </row>
     <row r="308" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C308" s="3"/>
     </row>
@@ -10359,16 +10359,16 @@
         <v>219</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C309" s="3"/>
     </row>
     <row r="310" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C310" s="3"/>
     </row>
@@ -10377,7 +10377,7 @@
         <v>223</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C311" s="3"/>
     </row>
@@ -10386,7 +10386,7 @@
         <v>224</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C312" s="3"/>
     </row>
@@ -10395,10 +10395,10 @@
         <v>226</v>
       </c>
       <c r="B313" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C313" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="C313" s="3" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="314" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10406,7 +10406,7 @@
         <v>227</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C314" s="3"/>
     </row>
@@ -10415,16 +10415,16 @@
         <v>229</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C315" s="3"/>
     </row>
     <row r="316" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B316" s="3" t="s">
         <v>732</v>
-      </c>
-      <c r="B316" s="3" t="s">
-        <v>733</v>
       </c>
       <c r="C316" s="3"/>
     </row>
@@ -10433,7 +10433,7 @@
         <v>232</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C317" s="3"/>
     </row>
@@ -10442,7 +10442,7 @@
         <v>234</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C318" s="3"/>
     </row>
@@ -10451,25 +10451,25 @@
         <v>235</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C319" s="3"/>
     </row>
     <row r="320" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C320" s="3"/>
     </row>
     <row r="321" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B321" s="3" t="s">
         <v>1020</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>1021</v>
       </c>
       <c r="C321" s="3"/>
     </row>
@@ -10478,16 +10478,16 @@
         <v>236</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C322" s="3"/>
     </row>
     <row r="323" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C323" s="3"/>
     </row>
@@ -10496,7 +10496,7 @@
         <v>237</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C324" s="3"/>
     </row>
@@ -10505,7 +10505,7 @@
         <v>238</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C325" s="3"/>
     </row>
@@ -10514,7 +10514,7 @@
         <v>239</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C326" s="3"/>
     </row>
@@ -10523,2044 +10523,2044 @@
         <v>240</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C327" s="3"/>
     </row>
     <row r="328" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C328" s="3"/>
     </row>
     <row r="329" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C329" s="3"/>
     </row>
     <row r="330" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C330" s="3"/>
     </row>
     <row r="331" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C331" s="3"/>
     </row>
     <row r="332" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B332" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C332" s="3" t="s">
         <v>718</v>
-      </c>
-      <c r="C332" s="3" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="333" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C333" s="3"/>
     </row>
     <row r="334" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C334" s="3"/>
     </row>
     <row r="335" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C335" s="3"/>
     </row>
     <row r="336" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C336" s="3"/>
     </row>
     <row r="337" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C337" s="3"/>
     </row>
     <row r="338" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C338" s="3"/>
     </row>
     <row r="339" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C339" s="3"/>
     </row>
     <row r="340" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C340" s="3"/>
     </row>
     <row r="341" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C341" s="3"/>
     </row>
     <row r="342" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C342" s="3"/>
     </row>
     <row r="343" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C343" s="3"/>
     </row>
     <row r="344" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C344" s="3"/>
     </row>
     <row r="345" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C345" s="3"/>
     </row>
     <row r="346" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C346" s="3"/>
     </row>
     <row r="347" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C347" s="3"/>
     </row>
     <row r="348" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C348" s="3"/>
     </row>
     <row r="349" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C349" s="3"/>
     </row>
     <row r="350" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C350" s="3"/>
     </row>
     <row r="351" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C351" s="3"/>
     </row>
     <row r="352" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C352" s="3"/>
     </row>
     <row r="353" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C353" s="3"/>
     </row>
     <row r="354" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="355" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C355" s="3"/>
     </row>
     <row r="356" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C356" s="3"/>
     </row>
     <row r="357" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>1029</v>
-      </c>
-      <c r="B357" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="358" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C358" s="3"/>
     </row>
     <row r="359" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C359" s="3"/>
     </row>
     <row r="360" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C360" s="3"/>
     </row>
     <row r="361" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C361" s="3"/>
     </row>
     <row r="362" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C362" s="3"/>
     </row>
     <row r="363" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C363" s="3"/>
     </row>
     <row r="364" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="365" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C365" s="3"/>
     </row>
     <row r="366" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C366" s="3"/>
     </row>
     <row r="367" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C367" s="3"/>
     </row>
     <row r="368" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C368" s="3"/>
     </row>
     <row r="369" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C369" s="3"/>
     </row>
     <row r="370" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C370" s="3"/>
     </row>
     <row r="371" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C371" s="3"/>
     </row>
     <row r="372" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C372" s="3"/>
     </row>
     <row r="373" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C373" s="3"/>
     </row>
     <row r="374" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C374" s="3"/>
     </row>
     <row r="375" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C375" s="3"/>
     </row>
     <row r="376" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C376" s="3"/>
     </row>
     <row r="377" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C377" s="3"/>
     </row>
     <row r="378" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B378" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C378" s="3" t="s">
         <v>612</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="379" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C379" s="3"/>
     </row>
     <row r="380" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C380" s="3"/>
     </row>
     <row r="381" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C381" s="3"/>
     </row>
     <row r="382" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C382" s="3"/>
     </row>
     <row r="383" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="384" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="385" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B385" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C385" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="C385" s="3" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="386" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C386" s="3"/>
     </row>
     <row r="387" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C387" s="3"/>
     </row>
     <row r="388" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C388" s="3"/>
     </row>
     <row r="389" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C389" s="3"/>
     </row>
     <row r="390" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C390" s="3"/>
     </row>
     <row r="391" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="392" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="B392" s="3" t="s">
         <v>682</v>
-      </c>
-      <c r="B392" s="3" t="s">
-        <v>683</v>
       </c>
       <c r="C392" s="3"/>
     </row>
     <row r="393" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="B393" s="3" t="s">
         <v>710</v>
-      </c>
-      <c r="B393" s="3" t="s">
-        <v>711</v>
       </c>
       <c r="C393" s="3"/>
     </row>
     <row r="394" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B394" s="3" t="s">
         <v>685</v>
-      </c>
-      <c r="B394" s="3" t="s">
-        <v>686</v>
       </c>
       <c r="C394" s="3"/>
     </row>
     <row r="395" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="B395" s="3" t="s">
         <v>687</v>
-      </c>
-      <c r="B395" s="3" t="s">
-        <v>688</v>
       </c>
       <c r="C395" s="3"/>
     </row>
     <row r="396" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C396" s="3"/>
     </row>
     <row r="397" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C397" s="3"/>
     </row>
     <row r="398" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C398" s="3"/>
     </row>
     <row r="399" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B399" s="3" t="s">
         <v>693</v>
-      </c>
-      <c r="B399" s="3" t="s">
-        <v>694</v>
       </c>
       <c r="C399" s="3"/>
     </row>
     <row r="400" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B400" s="3" t="s">
         <v>1103</v>
-      </c>
-      <c r="B400" s="3" t="s">
-        <v>1104</v>
       </c>
       <c r="C400" s="3"/>
     </row>
     <row r="401" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B401" s="3" t="s">
         <v>695</v>
-      </c>
-      <c r="B401" s="3" t="s">
-        <v>696</v>
       </c>
       <c r="C401" s="3"/>
     </row>
     <row r="402" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C402" s="3"/>
     </row>
     <row r="403" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B403" s="3" t="s">
         <v>698</v>
-      </c>
-      <c r="B403" s="3" t="s">
-        <v>699</v>
       </c>
       <c r="C403" s="3"/>
     </row>
     <row r="404" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B404" s="3" t="s">
         <v>703</v>
-      </c>
-      <c r="B404" s="3" t="s">
-        <v>704</v>
       </c>
       <c r="C404" s="3"/>
     </row>
     <row r="405" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="B405" s="3" t="s">
         <v>707</v>
-      </c>
-      <c r="B405" s="3" t="s">
-        <v>708</v>
       </c>
       <c r="C405" s="3"/>
     </row>
     <row r="406" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C406" s="3"/>
     </row>
     <row r="407" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="B407" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="B407" s="3" t="s">
-        <v>717</v>
       </c>
       <c r="C407" s="3"/>
     </row>
     <row r="408" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C408" s="3"/>
     </row>
     <row r="409" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C409" s="3"/>
     </row>
     <row r="410" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C410" s="3"/>
     </row>
     <row r="411" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="B411" s="3" t="s">
         <v>730</v>
-      </c>
-      <c r="B411" s="3" t="s">
-        <v>731</v>
       </c>
       <c r="C411" s="3"/>
     </row>
     <row r="412" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C412" s="3"/>
     </row>
     <row r="413" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="B413" s="3" t="s">
         <v>737</v>
-      </c>
-      <c r="B413" s="3" t="s">
-        <v>738</v>
       </c>
       <c r="C413" s="3"/>
     </row>
     <row r="414" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B414" s="3" t="s">
         <v>739</v>
-      </c>
-      <c r="B414" s="3" t="s">
-        <v>740</v>
       </c>
       <c r="C414" s="3"/>
     </row>
     <row r="415" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="B415" s="3" t="s">
         <v>747</v>
-      </c>
-      <c r="B415" s="3" t="s">
-        <v>748</v>
       </c>
       <c r="C415" s="3"/>
     </row>
     <row r="416" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C416" s="3"/>
     </row>
     <row r="417" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C417" s="3"/>
     </row>
     <row r="418" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C418" s="3"/>
     </row>
     <row r="419" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B419" s="3" t="s">
         <v>1181</v>
-      </c>
-      <c r="B419" s="3" t="s">
-        <v>1182</v>
       </c>
       <c r="C419" s="3"/>
     </row>
     <row r="420" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C420" s="3"/>
     </row>
     <row r="421" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="422" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="423" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C423" s="3"/>
     </row>
     <row r="424" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C424" s="3"/>
     </row>
     <row r="425" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C425" s="3"/>
     </row>
     <row r="426" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C426" s="3"/>
     </row>
     <row r="427" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="B427" s="3" t="s">
         <v>773</v>
-      </c>
-      <c r="B427" s="3" t="s">
-        <v>774</v>
       </c>
       <c r="C427" s="3"/>
     </row>
     <row r="428" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C428" s="3"/>
     </row>
     <row r="429" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="B429" s="3" t="s">
         <v>781</v>
-      </c>
-      <c r="B429" s="3" t="s">
-        <v>782</v>
       </c>
       <c r="C429" s="3"/>
     </row>
     <row r="430" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C430" s="3"/>
     </row>
     <row r="431" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C431" s="3"/>
     </row>
     <row r="432" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C432" s="3"/>
     </row>
     <row r="433" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C433" s="3"/>
     </row>
     <row r="434" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="B434" s="3" t="s">
         <v>872</v>
-      </c>
-      <c r="B434" s="3" t="s">
-        <v>873</v>
       </c>
       <c r="C434" s="3"/>
     </row>
     <row r="435" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="B435" s="3" t="s">
         <v>874</v>
-      </c>
-      <c r="B435" s="3" t="s">
-        <v>875</v>
       </c>
       <c r="C435" s="3"/>
     </row>
     <row r="436" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="B436" s="3" t="s">
         <v>876</v>
-      </c>
-      <c r="B436" s="3" t="s">
-        <v>877</v>
       </c>
       <c r="C436" s="3"/>
     </row>
     <row r="437" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="B437" s="3" t="s">
         <v>922</v>
-      </c>
-      <c r="B437" s="3" t="s">
-        <v>923</v>
       </c>
       <c r="C437" s="3"/>
     </row>
     <row r="438" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="B438" s="3" t="s">
         <v>879</v>
-      </c>
-      <c r="B438" s="3" t="s">
-        <v>880</v>
       </c>
       <c r="C438" s="3"/>
     </row>
     <row r="439" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C439" s="3"/>
     </row>
     <row r="440" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C440" s="3"/>
     </row>
     <row r="441" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C441" s="3"/>
     </row>
     <row r="442" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C442" s="3"/>
     </row>
     <row r="443" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="B443" s="3" t="s">
         <v>888</v>
-      </c>
-      <c r="B443" s="3" t="s">
-        <v>889</v>
       </c>
       <c r="C443" s="3"/>
     </row>
     <row r="444" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="B444" s="3" t="s">
         <v>890</v>
-      </c>
-      <c r="B444" s="3" t="s">
-        <v>891</v>
       </c>
       <c r="C444" s="3"/>
     </row>
     <row r="445" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="B445" s="3" t="s">
         <v>892</v>
-      </c>
-      <c r="B445" s="3" t="s">
-        <v>893</v>
       </c>
       <c r="C445" s="3"/>
     </row>
     <row r="446" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="B446" s="3" t="s">
         <v>894</v>
-      </c>
-      <c r="B446" s="3" t="s">
-        <v>895</v>
       </c>
       <c r="C446" s="3"/>
     </row>
     <row r="447" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C447" s="3"/>
     </row>
     <row r="448" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C448" s="3"/>
     </row>
     <row r="449" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="B449" s="3" t="s">
         <v>897</v>
-      </c>
-      <c r="B449" s="3" t="s">
-        <v>898</v>
       </c>
       <c r="C449" s="3"/>
     </row>
     <row r="450" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="B450" s="3" t="s">
         <v>899</v>
-      </c>
-      <c r="B450" s="3" t="s">
-        <v>900</v>
       </c>
       <c r="C450" s="3"/>
     </row>
     <row r="451" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="B451" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="B451" s="3" t="s">
-        <v>905</v>
-      </c>
       <c r="C451" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="452" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="B452" s="3" t="s">
         <v>906</v>
-      </c>
-      <c r="B452" s="3" t="s">
-        <v>907</v>
       </c>
       <c r="C452" s="3"/>
     </row>
     <row r="453" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C453" s="3"/>
     </row>
     <row r="454" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C454" s="3"/>
     </row>
     <row r="455" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C455" s="3"/>
     </row>
     <row r="456" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C456" s="3"/>
     </row>
     <row r="457" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C457" s="3"/>
     </row>
     <row r="458" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C458" s="3"/>
     </row>
     <row r="459" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C459" s="3"/>
     </row>
     <row r="460" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C460" s="3"/>
     </row>
     <row r="461" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C461" s="3"/>
     </row>
     <row r="462" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="B462" s="3" t="s">
         <v>956</v>
-      </c>
-      <c r="B462" s="3" t="s">
-        <v>957</v>
       </c>
       <c r="C462" s="3"/>
     </row>
     <row r="463" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C463" s="3"/>
     </row>
     <row r="464" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="B464" s="3" t="s">
         <v>959</v>
-      </c>
-      <c r="B464" s="3" t="s">
-        <v>960</v>
       </c>
       <c r="C464" s="3"/>
     </row>
     <row r="465" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="B465" s="3" t="s">
         <v>963</v>
-      </c>
-      <c r="B465" s="3" t="s">
-        <v>964</v>
       </c>
       <c r="C465" s="3"/>
     </row>
     <row r="466" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C466" s="3"/>
     </row>
     <row r="467" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B467" s="3" t="s">
         <v>1091</v>
-      </c>
-      <c r="B467" s="3" t="s">
-        <v>1092</v>
       </c>
       <c r="C467" s="3"/>
     </row>
     <row r="468" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B468" s="3" t="s">
         <v>1093</v>
-      </c>
-      <c r="B468" s="3" t="s">
-        <v>1094</v>
       </c>
       <c r="C468" s="3"/>
     </row>
     <row r="469" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C469" s="3"/>
     </row>
     <row r="470" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C470" s="3"/>
     </row>
     <row r="471" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C471" s="3"/>
     </row>
     <row r="472" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C472" s="3"/>
     </row>
     <row r="473" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C473" s="3"/>
     </row>
     <row r="474" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C474" s="3"/>
     </row>
     <row r="475" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B475" s="3" t="s">
         <v>1033</v>
-      </c>
-      <c r="B475" s="3" t="s">
-        <v>1034</v>
       </c>
       <c r="C475" s="3"/>
     </row>
     <row r="476" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B476" s="3" t="s">
         <v>1042</v>
-      </c>
-      <c r="B476" s="3" t="s">
-        <v>1043</v>
       </c>
       <c r="C476" s="3"/>
     </row>
     <row r="477" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C477" s="3"/>
     </row>
     <row r="478" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C478" s="3"/>
     </row>
     <row r="479" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C479" s="3"/>
     </row>
     <row r="480" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C480" s="3"/>
     </row>
     <row r="481" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C481" s="3"/>
     </row>
     <row r="482" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C482" s="3"/>
     </row>
     <row r="483" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C483" s="3"/>
     </row>
     <row r="484" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C484" s="3"/>
     </row>
     <row r="485" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C485" s="3"/>
     </row>
     <row r="486" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C486" s="3"/>
     </row>
     <row r="487" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C487" s="3"/>
     </row>
     <row r="488" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B488" s="3" t="s">
         <v>1070</v>
-      </c>
-      <c r="B488" s="3" t="s">
-        <v>1071</v>
       </c>
       <c r="C488" s="3"/>
     </row>
     <row r="489" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C489" s="3"/>
     </row>
     <row r="490" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C490" s="3"/>
     </row>
     <row r="491" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B491" s="3" t="s">
         <v>1079</v>
-      </c>
-      <c r="B491" s="3" t="s">
-        <v>1080</v>
       </c>
       <c r="C491" s="3"/>
     </row>
     <row r="492" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B492" s="3" t="s">
         <v>1081</v>
-      </c>
-      <c r="B492" s="3" t="s">
-        <v>1082</v>
       </c>
       <c r="C492" s="3"/>
     </row>
     <row r="493" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C493" s="3"/>
     </row>
     <row r="494" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C494" s="3"/>
     </row>
     <row r="495" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B495" s="3" t="s">
         <v>1105</v>
-      </c>
-      <c r="B495" s="3" t="s">
-        <v>1106</v>
       </c>
       <c r="C495" s="3"/>
     </row>
     <row r="496" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C496" s="3"/>
     </row>
     <row r="497" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C497" s="3"/>
     </row>
     <row r="498" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C498" s="3"/>
     </row>
     <row r="499" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C499" s="3"/>
     </row>
     <row r="500" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C500" s="3"/>
     </row>
     <row r="501" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C501" s="3"/>
     </row>
     <row r="502" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B502" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="B502" s="3" t="s">
-        <v>1097</v>
-      </c>
       <c r="C502" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="503" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B503" s="3" t="s">
         <v>1111</v>
-      </c>
-      <c r="B503" s="3" t="s">
-        <v>1112</v>
       </c>
       <c r="C503" s="3"/>
     </row>
     <row r="504" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C504" s="3"/>
     </row>
     <row r="505" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B505" s="3" t="s">
         <v>1123</v>
-      </c>
-      <c r="B505" s="3" t="s">
-        <v>1124</v>
       </c>
       <c r="C505" s="3"/>
     </row>
     <row r="506" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C506" s="3"/>
     </row>
     <row r="507" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C507" s="3"/>
     </row>
     <row r="508" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B508" s="3" t="s">
         <v>1129</v>
-      </c>
-      <c r="B508" s="3" t="s">
-        <v>1130</v>
       </c>
       <c r="C508" s="3"/>
     </row>
     <row r="509" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C509" s="3"/>
     </row>
     <row r="510" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C510" s="3"/>
     </row>
     <row r="511" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C511" s="3"/>
     </row>
     <row r="512" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C512" s="3"/>
     </row>
     <row r="513" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C513" s="3"/>
     </row>
     <row r="514" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C514" s="3"/>
     </row>
     <row r="515" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C515" s="3"/>
     </row>
     <row r="516" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B516" s="3" t="s">
         <v>1153</v>
-      </c>
-      <c r="B516" s="3" t="s">
-        <v>1154</v>
       </c>
       <c r="C516" s="3"/>
     </row>
     <row r="517" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C517" s="3"/>
     </row>
     <row r="518" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B518" s="3" t="s">
         <v>1156</v>
-      </c>
-      <c r="B518" s="3" t="s">
-        <v>1157</v>
       </c>
       <c r="C518" s="3"/>
     </row>
     <row r="519" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B519" s="3" t="s">
         <v>1159</v>
-      </c>
-      <c r="B519" s="3" t="s">
-        <v>1160</v>
       </c>
       <c r="C519" s="3"/>
     </row>
     <row r="520" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C520" s="3"/>
     </row>
     <row r="521" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C521" s="3"/>
     </row>
     <row r="522" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="3" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C522" s="3"/>
     </row>
     <row r="523" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B523" s="3" t="s">
         <v>1178</v>
-      </c>
-      <c r="B523" s="3" t="s">
-        <v>1179</v>
       </c>
       <c r="C523" s="3"/>
     </row>
     <row r="524" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B524" s="3" t="s">
         <v>1183</v>
-      </c>
-      <c r="B524" s="3" t="s">
-        <v>1184</v>
       </c>
       <c r="C524" s="3"/>
     </row>
     <row r="525" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C525" s="3"/>
     </row>
     <row r="526" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B526" s="3" t="s">
         <v>1186</v>
-      </c>
-      <c r="B526" s="3" t="s">
-        <v>1187</v>
       </c>
       <c r="C526" s="3"/>
     </row>
     <row r="527" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="3" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C527" s="3"/>
     </row>
     <row r="528" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B528" s="3" t="s">
         <v>1455</v>
-      </c>
-      <c r="B528" s="3" t="s">
-        <v>1456</v>
       </c>
       <c r="C528" s="3"/>
     </row>
     <row r="529" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B529" s="3" t="s">
         <v>1473</v>
-      </c>
-      <c r="B529" s="3" t="s">
-        <v>1474</v>
       </c>
       <c r="C529" s="3"/>
     </row>
     <row r="530" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B530" s="3" t="s">
         <v>1458</v>
-      </c>
-      <c r="B530" s="3" t="s">
-        <v>1459</v>
       </c>
       <c r="C530" s="3"/>
     </row>
     <row r="531" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C531" s="3"/>
     </row>
     <row r="532" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C532" s="3"/>
     </row>
     <row r="533" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B533" s="3" t="s">
         <v>1464</v>
-      </c>
-      <c r="B533" s="3" t="s">
-        <v>1465</v>
       </c>
       <c r="C533" s="3"/>
     </row>
     <row r="534" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="3" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C534" s="3"/>
     </row>
     <row r="535" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C535" s="3"/>
     </row>
     <row r="536" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B536" s="3" t="s">
         <v>1471</v>
-      </c>
-      <c r="B536" s="3" t="s">
-        <v>1472</v>
       </c>
       <c r="C536" s="3"/>
     </row>
     <row r="537" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="3" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C537" s="3"/>
     </row>
     <row r="538" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B538" s="3" t="s">
         <v>1480</v>
       </c>
-      <c r="B538" s="3" t="s">
+      <c r="C538" s="3" t="s">
         <v>1481</v>
-      </c>
-      <c r="C538" s="3" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="539" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="3" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C539" s="3"/>
     </row>
     <row r="540" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="3" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="541" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="3" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C541" s="3"/>
     </row>
     <row r="542" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C542" s="3"/>
     </row>
     <row r="543" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C543" s="3"/>
     </row>
     <row r="544" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="3" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C544" s="3"/>
     </row>
     <row r="545" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="3" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C545" s="3"/>
     </row>
     <row r="546" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B546" s="3" t="s">
         <v>1506</v>
-      </c>
-      <c r="B546" s="3" t="s">
-        <v>1507</v>
       </c>
       <c r="C546" s="3"/>
     </row>
     <row r="547" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B547" s="3" t="s">
         <v>1508</v>
-      </c>
-      <c r="B547" s="3" t="s">
-        <v>1509</v>
       </c>
       <c r="C547" s="3"/>
     </row>
     <row r="548" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="3" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B548" s="3" t="s">
         <v>1510</v>
-      </c>
-      <c r="B548" s="3" t="s">
-        <v>1511</v>
       </c>
       <c r="C548" s="3"/>
     </row>
     <row r="549" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="3" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C549" s="3"/>
     </row>
     <row r="550" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B550" s="3" t="s">
         <v>1515</v>
-      </c>
-      <c r="B550" s="3" t="s">
-        <v>1516</v>
       </c>
       <c r="C550" s="3"/>
     </row>
@@ -15216,7 +15216,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="3"/>
@@ -15231,26 +15231,26 @@
     </row>
     <row r="3" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>1147</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>1144</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
   </sheetData>
@@ -15279,425 +15279,425 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
-        <v>866</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
+      <c r="A1" s="56" t="s">
+        <v>865</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
     </row>
     <row r="2" spans="1:18" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
-        <v>864</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
+      <c r="A2" s="60" t="s">
+        <v>863</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
+        <v>790</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="58"/>
+      <c r="B4" s="9" t="s">
         <v>791</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>815</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>816</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>817</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>818</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>819</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="59"/>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>792</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>793</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>795</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
+        <v>796</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="58"/>
+      <c r="B6" s="9" t="s">
         <v>797</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>821</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>822</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>823</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>824</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>825</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>826</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>827</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>828</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>829</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>830</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>831</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>832</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>833</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>834</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>835</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="59"/>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>798</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="12" t="s">
         <v>799</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>800</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>801</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="12" t="s">
         <v>802</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="H6" s="12" t="s">
         <v>803</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="12" t="s">
         <v>804</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>805</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>27</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>94</v>
       </c>
       <c r="M6" s="13" t="s">
+        <v>806</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>807</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="O6" s="12" t="s">
         <v>808</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="P6" s="12" t="s">
         <v>809</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="Q6" s="12" t="s">
         <v>810</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="R6" s="14" t="s">
         <v>811</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="57" t="s">
+        <v>812</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>813</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>814</v>
-      </c>
       <c r="C7" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>984</v>
+      </c>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="58"/>
+      <c r="B8" s="9" t="s">
         <v>837</v>
       </c>
-      <c r="D7" s="63" t="s">
-        <v>985</v>
-      </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-    </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="59"/>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>839</v>
-      </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
+        <v>839</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>840</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>841</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="17" t="s">
         <v>842</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="18" t="s">
         <v>843</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>844</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>80</v>
       </c>
       <c r="G9" s="17" t="s">
+        <v>844</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>845</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="I9" s="17" t="s">
         <v>846</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="J9" s="17" t="s">
         <v>847</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="K9" s="17" t="s">
         <v>848</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="L9" s="17" t="s">
         <v>849</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="M9" s="19" t="s">
         <v>850</v>
       </c>
-      <c r="M9" s="19" t="s">
+    </row>
+    <row r="10" spans="1:18" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="59" t="s">
+        <v>979</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="61" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="61" t="s">
-        <v>980</v>
-      </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
-        <v>852</v>
-      </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
-        <v>865</v>
-      </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
+      <c r="A12" s="61" t="s">
+        <v>864</v>
+      </c>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="56" t="s">
-        <v>854</v>
-      </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
+      <c r="A13" s="61" t="s">
+        <v>853</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
     </row>
     <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.3">
       <c r="A14" s="57" t="s">
+        <v>854</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>855</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>856</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>857</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>858</v>
       </c>
-      <c r="E14" s="7" t="s">
+    </row>
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="66"/>
+      <c r="B15" s="20" t="s">
         <v>860</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="58"/>
-      <c r="B15" s="20" t="s">
+      <c r="C15" s="12" t="s">
         <v>861</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>862</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A12:R12"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A10:R10"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A11:R11"/>
     <mergeCell ref="D7:M8"/>
-    <mergeCell ref="A12:R12"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15723,208 +15723,208 @@
   <sheetData>
     <row r="1" spans="1:2" ht="114" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="67" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B1" s="67"/>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="29" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
   </sheetData>
@@ -15976,7 +15976,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="68" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -16005,7 +16005,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -16034,7 +16034,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="69" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -16063,7 +16063,7 @@
     </row>
     <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="70" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
@@ -16095,153 +16095,153 @@
         <v>0</v>
       </c>
       <c r="B5" s="33" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>1188</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="D5" s="37" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>1189</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="F5" s="38" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>1194</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>1195</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>1196</v>
+      </c>
+      <c r="M5" s="37" t="s">
         <v>1198</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>1190</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>1191</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>1193</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>1194</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>1195</v>
-      </c>
-      <c r="K5" s="43" t="s">
-        <v>1196</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M5" s="37" t="s">
+      <c r="N5" s="38" t="s">
         <v>1199</v>
       </c>
-      <c r="N5" s="38" t="s">
+      <c r="O5" s="38" t="s">
         <v>1200</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="P5" s="41" t="s">
         <v>1201</v>
       </c>
-      <c r="P5" s="41" t="s">
+      <c r="Q5" s="38" t="s">
+        <v>1224</v>
+      </c>
+      <c r="R5" s="44" t="s">
+        <v>1225</v>
+      </c>
+      <c r="S5" s="41" t="s">
+        <v>1228</v>
+      </c>
+      <c r="T5" s="36" t="s">
         <v>1202</v>
       </c>
-      <c r="Q5" s="38" t="s">
-        <v>1225</v>
-      </c>
-      <c r="R5" s="44" t="s">
-        <v>1226</v>
-      </c>
-      <c r="S5" s="41" t="s">
-        <v>1229</v>
-      </c>
-      <c r="T5" s="36" t="s">
+      <c r="U5" s="37" t="s">
+        <v>1204</v>
+      </c>
+      <c r="V5" s="37" t="s">
+        <v>1205</v>
+      </c>
+      <c r="W5" s="43" t="s">
         <v>1203</v>
       </c>
-      <c r="U5" s="37" t="s">
-        <v>1205</v>
-      </c>
-      <c r="V5" s="37" t="s">
+      <c r="X5" s="33" t="s">
+        <v>1207</v>
+      </c>
+      <c r="Y5" s="26" t="s">
         <v>1206</v>
-      </c>
-      <c r="W5" s="43" t="s">
-        <v>1204</v>
-      </c>
-      <c r="X5" s="33" t="s">
-        <v>1208</v>
-      </c>
-      <c r="Y5" s="26" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>1422</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="C6" s="46" t="s">
         <v>1423</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="D6" s="47" t="s">
         <v>1424</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="E6" s="47" t="s">
         <v>1425</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="F6" s="47" t="s">
         <v>1426</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="G6" s="48" t="s">
         <v>1427</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="H6" s="46" t="s">
         <v>1428</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="I6" s="47" t="s">
         <v>1429</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="J6" s="47" t="s">
         <v>1430</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="K6" s="48" t="s">
         <v>1431</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="L6" s="46" t="s">
         <v>1432</v>
       </c>
-      <c r="L6" s="46" t="s">
+      <c r="M6" s="47" t="s">
         <v>1433</v>
       </c>
-      <c r="M6" s="47" t="s">
+      <c r="N6" s="47" t="s">
         <v>1434</v>
       </c>
-      <c r="N6" s="47" t="s">
+      <c r="O6" s="47" t="s">
         <v>1435</v>
       </c>
-      <c r="O6" s="47" t="s">
+      <c r="P6" s="48" t="s">
         <v>1436</v>
       </c>
-      <c r="P6" s="48" t="s">
+      <c r="Q6" s="47" t="s">
         <v>1437</v>
       </c>
-      <c r="Q6" s="47" t="s">
+      <c r="R6" s="35" t="s">
         <v>1438</v>
       </c>
-      <c r="R6" s="35" t="s">
+      <c r="S6" s="48" t="s">
         <v>1439</v>
       </c>
-      <c r="S6" s="48" t="s">
+      <c r="T6" s="46" t="s">
         <v>1440</v>
       </c>
-      <c r="T6" s="46" t="s">
+      <c r="U6" s="47" t="s">
         <v>1441</v>
       </c>
-      <c r="U6" s="47" t="s">
+      <c r="V6" s="47" t="s">
         <v>1442</v>
       </c>
-      <c r="V6" s="47" t="s">
+      <c r="W6" s="48" t="s">
         <v>1443</v>
       </c>
-      <c r="W6" s="48" t="s">
+      <c r="X6" s="34" t="s">
         <v>1444</v>
       </c>
-      <c r="X6" s="34" t="s">
+      <c r="Y6" s="32" t="s">
         <v>1445</v>
-      </c>
-      <c r="Y6" s="32" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -16249,73 +16249,73 @@
         <v>3</v>
       </c>
       <c r="B7" s="39" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>1209</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="D7" s="4" t="s">
         <v>1210</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>1211</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>1212</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="42" t="s">
         <v>1213</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="H7" s="40" t="s">
         <v>1214</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="I7" s="4" t="s">
         <v>1215</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>1216</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="42" t="s">
         <v>1217</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="L7" s="40" t="s">
         <v>1218</v>
       </c>
-      <c r="L7" s="40" t="s">
+      <c r="M7" s="4" t="s">
         <v>1219</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>1220</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>1221</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="P7" s="42" t="s">
         <v>1222</v>
       </c>
-      <c r="P7" s="42" t="s">
+      <c r="Q7" s="4" t="s">
+        <v>1226</v>
+      </c>
+      <c r="R7" s="45" t="s">
+        <v>1227</v>
+      </c>
+      <c r="S7" s="42" t="s">
+        <v>1229</v>
+      </c>
+      <c r="T7" s="40" t="s">
         <v>1223</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>1227</v>
-      </c>
-      <c r="R7" s="45" t="s">
-        <v>1228</v>
-      </c>
-      <c r="S7" s="42" t="s">
+      <c r="U7" s="4" t="s">
         <v>1230</v>
       </c>
-      <c r="T7" s="40" t="s">
-        <v>1224</v>
-      </c>
-      <c r="U7" s="4" t="s">
+      <c r="V7" s="4" t="s">
         <v>1231</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="W7" s="42" t="s">
+        <v>1299</v>
+      </c>
+      <c r="X7" s="39" t="s">
         <v>1232</v>
-      </c>
-      <c r="W7" s="42" t="s">
-        <v>1300</v>
-      </c>
-      <c r="X7" s="39" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -16323,73 +16323,73 @@
         <v>4</v>
       </c>
       <c r="B8" s="39" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>1234</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="D8" s="4" t="s">
         <v>1235</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>1236</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>1237</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="42" t="s">
         <v>1238</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="H8" s="40" t="s">
         <v>1239</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="I8" s="4" t="s">
         <v>1240</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>1241</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="42" t="s">
         <v>1242</v>
       </c>
-      <c r="K8" s="42" t="s">
+      <c r="L8" s="40" t="s">
         <v>1243</v>
       </c>
-      <c r="L8" s="40" t="s">
+      <c r="M8" s="4" t="s">
         <v>1244</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>1245</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>1246</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="42" t="s">
         <v>1247</v>
       </c>
-      <c r="P8" s="42" t="s">
+      <c r="Q8" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="R8" s="45" t="s">
         <v>1249</v>
       </c>
-      <c r="R8" s="45" t="s">
+      <c r="S8" s="42" t="s">
         <v>1250</v>
       </c>
-      <c r="S8" s="42" t="s">
+      <c r="T8" s="40" t="s">
         <v>1251</v>
       </c>
-      <c r="T8" s="40" t="s">
+      <c r="U8" s="4" t="s">
         <v>1252</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>1253</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="W8" s="42" t="s">
+        <v>1298</v>
+      </c>
+      <c r="X8" s="39" t="s">
         <v>1254</v>
-      </c>
-      <c r="W8" s="42" t="s">
-        <v>1299</v>
-      </c>
-      <c r="X8" s="39" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
@@ -16397,520 +16397,520 @@
         <v>5</v>
       </c>
       <c r="B9" s="39" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C9" s="40" t="s">
         <v>1256</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="D9" s="4" t="s">
         <v>1257</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>1258</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>1259</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="42" t="s">
         <v>1260</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="H9" s="40" t="s">
         <v>1261</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="I9" s="4" t="s">
         <v>1262</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>1263</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="42" t="s">
         <v>1264</v>
       </c>
-      <c r="K9" s="42" t="s">
+      <c r="L9" s="40" t="s">
         <v>1265</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="M9" s="4" t="s">
         <v>1266</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>1267</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>1268</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="42" t="s">
         <v>1269</v>
       </c>
-      <c r="P9" s="42" t="s">
+      <c r="Q9" s="4" t="s">
         <v>1270</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="R9" s="45" t="s">
         <v>1271</v>
       </c>
-      <c r="R9" s="45" t="s">
+      <c r="S9" s="42" t="s">
         <v>1272</v>
       </c>
-      <c r="S9" s="42" t="s">
+      <c r="T9" s="40" t="s">
         <v>1273</v>
       </c>
-      <c r="T9" s="40" t="s">
+      <c r="U9" s="4" t="s">
         <v>1274</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="W9" s="42" t="s">
+        <v>1297</v>
+      </c>
+      <c r="X9" s="39" t="s">
         <v>1276</v>
-      </c>
-      <c r="W9" s="42" t="s">
-        <v>1298</v>
-      </c>
-      <c r="X9" s="39" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B10" s="39" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>1278</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="D10" s="4" t="s">
         <v>1279</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>1280</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>1281</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="42" t="s">
         <v>1282</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="H10" s="40" t="s">
         <v>1283</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="I10" s="4" t="s">
         <v>1284</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>1285</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="42" t="s">
         <v>1286</v>
       </c>
-      <c r="K10" s="42" t="s">
+      <c r="L10" s="40" t="s">
         <v>1287</v>
       </c>
-      <c r="L10" s="40" t="s">
+      <c r="M10" s="4" t="s">
         <v>1288</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>1289</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>1290</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="42" t="s">
+        <v>1476</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="R10" s="45" t="s">
         <v>1291</v>
       </c>
-      <c r="P10" s="42" t="s">
-        <v>1477</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>1319</v>
-      </c>
-      <c r="R10" s="45" t="s">
+      <c r="S10" s="42" t="s">
         <v>1292</v>
       </c>
-      <c r="S10" s="42" t="s">
+      <c r="T10" s="40" t="s">
         <v>1293</v>
       </c>
-      <c r="T10" s="40" t="s">
+      <c r="U10" s="4" t="s">
         <v>1294</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>1295</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="W10" s="42" t="s">
         <v>1296</v>
       </c>
-      <c r="W10" s="42" t="s">
-        <v>1297</v>
-      </c>
       <c r="X10" s="39" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="Y10" s="28" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>1302</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="C11" s="40" t="s">
         <v>1303</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="D11" s="4" t="s">
         <v>1304</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>1305</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>1306</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="42" t="s">
         <v>1307</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="H11" s="40" t="s">
         <v>1308</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="I11" s="4" t="s">
         <v>1309</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>1310</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="42" t="s">
         <v>1311</v>
       </c>
-      <c r="K11" s="42" t="s">
+      <c r="L11" s="40" t="s">
         <v>1312</v>
       </c>
-      <c r="L11" s="40" t="s">
+      <c r="M11" s="4" t="s">
         <v>1313</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>1314</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>1315</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="P11" s="42" t="s">
         <v>1316</v>
       </c>
-      <c r="P11" s="42" t="s">
+      <c r="Q11" s="4" t="s">
         <v>1317</v>
       </c>
-      <c r="Q11" s="4" t="s">
-        <v>1318</v>
-      </c>
       <c r="R11" s="45" t="s">
+        <v>1319</v>
+      </c>
+      <c r="S11" s="42" t="s">
         <v>1320</v>
       </c>
-      <c r="S11" s="42" t="s">
+      <c r="T11" s="40" t="s">
         <v>1321</v>
       </c>
-      <c r="T11" s="40" t="s">
+      <c r="U11" s="4" t="s">
         <v>1322</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="V11" s="4" t="s">
         <v>1323</v>
       </c>
-      <c r="V11" s="4" t="s">
+      <c r="W11" s="42" t="s">
         <v>1324</v>
       </c>
-      <c r="W11" s="42" t="s">
+      <c r="X11" s="39" t="s">
         <v>1325</v>
-      </c>
-      <c r="X11" s="39" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B12" s="39" t="s">
         <v>1327</v>
       </c>
-      <c r="B12" s="39" t="s">
-        <v>1328</v>
-      </c>
       <c r="C12" s="40" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>1333</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>1334</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>1335</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="42" t="s">
         <v>1336</v>
       </c>
-      <c r="G12" s="42" t="s">
-        <v>1337</v>
-      </c>
       <c r="H12" s="40" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>1340</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>1341</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="42" t="s">
         <v>1342</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="L12" s="40" t="s">
         <v>1343</v>
       </c>
-      <c r="L12" s="40" t="s">
+      <c r="M12" s="4" t="s">
         <v>1344</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>1346</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="P12" s="42" t="s">
         <v>1347</v>
       </c>
-      <c r="P12" s="42" t="s">
+      <c r="Q12" s="4" t="s">
         <v>1348</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="R12" s="45" t="s">
         <v>1349</v>
       </c>
-      <c r="R12" s="45" t="s">
+      <c r="S12" s="42" t="s">
         <v>1350</v>
       </c>
-      <c r="S12" s="42" t="s">
+      <c r="T12" s="40" t="s">
         <v>1351</v>
       </c>
-      <c r="T12" s="40" t="s">
+      <c r="U12" s="4" t="s">
         <v>1352</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="V12" s="4" t="s">
         <v>1353</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="W12" s="42" t="s">
         <v>1354</v>
       </c>
-      <c r="W12" s="42" t="s">
+      <c r="X12" s="39" t="s">
         <v>1355</v>
-      </c>
-      <c r="X12" s="39" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C13" s="40" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>1357</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>1358</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>1359</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="42" t="s">
         <v>1360</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="H13" s="40" t="s">
         <v>1361</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="I13" s="4" t="s">
         <v>1362</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>1363</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="42" t="s">
         <v>1364</v>
       </c>
-      <c r="K13" s="42" t="s">
+      <c r="L13" s="40" t="s">
         <v>1365</v>
       </c>
-      <c r="L13" s="40" t="s">
+      <c r="M13" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>1367</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>1368</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="P13" s="42" t="s">
         <v>1369</v>
       </c>
-      <c r="P13" s="42" t="s">
+      <c r="Q13" s="4" t="s">
         <v>1370</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="45" t="s">
         <v>1371</v>
       </c>
-      <c r="R13" s="45" t="s">
+      <c r="S13" s="42" t="s">
         <v>1372</v>
       </c>
-      <c r="S13" s="42" t="s">
+      <c r="T13" s="40" t="s">
         <v>1373</v>
       </c>
-      <c r="T13" s="40" t="s">
+      <c r="U13" s="4" t="s">
         <v>1374</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="V13" s="4" t="s">
         <v>1375</v>
       </c>
-      <c r="V13" s="4" t="s">
+      <c r="W13" s="42" t="s">
         <v>1376</v>
       </c>
-      <c r="W13" s="42" t="s">
+      <c r="X13" s="39" t="s">
         <v>1377</v>
-      </c>
-      <c r="X13" s="39" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C14" s="40" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>1379</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>1380</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H14" s="40" t="s">
         <v>1381</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>1388</v>
-      </c>
-      <c r="G14" s="42" t="s">
+      <c r="I14" s="4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>1383</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>1384</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>1385</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>1385</v>
+      </c>
+      <c r="O14" s="4" t="s">
         <v>1389</v>
       </c>
-      <c r="H14" s="40" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>1383</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>1384</v>
-      </c>
-      <c r="K14" s="42" t="s">
-        <v>1385</v>
-      </c>
-      <c r="L14" s="40" t="s">
-        <v>1386</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>1387</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>1386</v>
-      </c>
-      <c r="O14" s="4" t="s">
+      <c r="P14" s="42" t="s">
         <v>1390</v>
       </c>
-      <c r="P14" s="42" t="s">
+      <c r="Q14" s="4" t="s">
         <v>1391</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="R14" s="45" t="s">
         <v>1392</v>
       </c>
-      <c r="R14" s="45" t="s">
+      <c r="S14" s="42" t="s">
         <v>1393</v>
       </c>
-      <c r="S14" s="42" t="s">
+      <c r="T14" s="40" t="s">
         <v>1394</v>
       </c>
-      <c r="T14" s="40" t="s">
+      <c r="U14" s="4" t="s">
         <v>1395</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="V14" s="4" t="s">
         <v>1396</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="W14" s="42" t="s">
         <v>1397</v>
       </c>
-      <c r="W14" s="42" t="s">
+      <c r="X14" s="39" t="s">
         <v>1398</v>
-      </c>
-      <c r="X14" s="39" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B15" s="39" t="s">
         <v>1338</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>1339</v>
-      </c>
       <c r="C15" s="40" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>1400</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>1401</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="42" t="s">
         <v>1403</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="H15" s="40" t="s">
         <v>1404</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="I15" s="4" t="s">
         <v>1405</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>1406</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="42" t="s">
         <v>1407</v>
       </c>
-      <c r="K15" s="42" t="s">
+      <c r="L15" s="40" t="s">
         <v>1408</v>
       </c>
-      <c r="L15" s="40" t="s">
+      <c r="M15" s="4" t="s">
         <v>1409</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>1410</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>1411</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="P15" s="42" t="s">
         <v>1412</v>
       </c>
-      <c r="P15" s="42" t="s">
+      <c r="Q15" s="4" t="s">
         <v>1413</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="R15" s="45" t="s">
         <v>1414</v>
       </c>
-      <c r="R15" s="45" t="s">
+      <c r="S15" s="42" t="s">
         <v>1415</v>
       </c>
-      <c r="S15" s="42" t="s">
+      <c r="T15" s="40" t="s">
         <v>1416</v>
       </c>
-      <c r="T15" s="40" t="s">
+      <c r="U15" s="4" t="s">
         <v>1417</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="V15" s="4" t="s">
         <v>1418</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="W15" s="42" t="s">
         <v>1419</v>
       </c>
-      <c r="W15" s="42" t="s">
+      <c r="X15" s="39" t="s">
         <v>1420</v>
-      </c>
-      <c r="X15" s="39" t="s">
-        <v>1421</v>
       </c>
     </row>
   </sheetData>

--- a/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
+++ b/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Websites\hssrgov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CE1670-1C1A-4D18-9E7F-1BA744BEAE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05F6D07-D4AE-49EE-AF0B-F269270A926C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="769" xr2:uid="{CCB781DE-C1B4-4E71-9129-23ABA5B611FE}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="1517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="1524">
   <si>
     <t>中文</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6014,6 +6014,34 @@
   </si>
   <si>
     <t>今天/现在/当前/目前/当下/今日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代指上…个单词</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eld-数字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：eldon：此单词左边自右至左第一个单词</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合/合集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rannosada</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换/转化/转型/转变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>osrana</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6928,22 +6956,25 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6956,9 +6987,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -7504,8 +7532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB56768-82A6-42FF-B107-45016A59F08E}">
   <dimension ref="A1:C1075"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175"/>
+    <sheetView tabSelected="1" topLeftCell="A549" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B553" sqref="B553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -12565,18 +12593,32 @@
       <c r="C550" s="3"/>
     </row>
     <row r="551" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A551" s="3"/>
-      <c r="B551" s="3"/>
-      <c r="C551" s="3"/>
+      <c r="A551" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>1519</v>
+      </c>
     </row>
     <row r="552" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A552" s="3"/>
-      <c r="B552" s="3"/>
+      <c r="A552" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>1521</v>
+      </c>
       <c r="C552" s="3"/>
     </row>
     <row r="553" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A553" s="3"/>
-      <c r="B553" s="3"/>
+      <c r="A553" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>1523</v>
+      </c>
       <c r="C553" s="3"/>
     </row>
     <row r="554" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -15279,48 +15321,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="60" t="s">
         <v>865</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
     </row>
     <row r="2" spans="1:18" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="62" t="s">
         <v>863</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
@@ -15346,7 +15388,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="58"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="9" t="s">
         <v>791</v>
       </c>
@@ -15423,7 +15465,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="58"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="9" t="s">
         <v>797</v>
       </c>
@@ -15486,37 +15528,37 @@
       <c r="C7" s="8" t="s">
         <v>836</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="63" t="s">
         <v>984</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
     </row>
     <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="58"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="9" t="s">
         <v>837</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
@@ -15560,92 +15602,92 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="61" t="s">
         <v>979</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="56" t="s">
         <v>851</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="56" t="s">
         <v>864</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="56" t="s">
         <v>853</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
     </row>
     <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.3">
       <c r="A14" s="57" t="s">
@@ -15668,7 +15710,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="66"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="20" t="s">
         <v>860</v>
       </c>
@@ -15687,17 +15729,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A12:R12"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A10:R10"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A11:R11"/>
     <mergeCell ref="D7:M8"/>
+    <mergeCell ref="A12:R12"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16032,7 +16074,7 @@
       <c r="X2" s="69"/>
       <c r="Y2" s="69"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="69" t="s">
         <v>1483</v>
       </c>

--- a/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
+++ b/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Websites\hssrgov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05F6D07-D4AE-49EE-AF0B-F269270A926C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08515332-7162-4A4B-BC55-541B0B272F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="769" xr2:uid="{CCB781DE-C1B4-4E71-9129-23ABA5B611FE}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="1524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="1528">
   <si>
     <t>中文</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6042,6 +6042,22 @@
   </si>
   <si>
     <t>osrana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开幕/片头/（作品）开始</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>终幕/片尾/（作品）结尾/（作品）结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ŭoretrannosada</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ŭoretrannosade</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6956,25 +6972,22 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6987,6 +7000,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -7532,8 +7548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB56768-82A6-42FF-B107-45016A59F08E}">
   <dimension ref="A1:C1075"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A549" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B553" sqref="B553"/>
+    <sheetView tabSelected="1" topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B556" sqref="B556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -12622,13 +12638,21 @@
       <c r="C553" s="3"/>
     </row>
     <row r="554" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A554" s="3"/>
-      <c r="B554" s="3"/>
+      <c r="A554" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>1526</v>
+      </c>
       <c r="C554" s="3"/>
     </row>
     <row r="555" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A555" s="3"/>
-      <c r="B555" s="3"/>
+      <c r="A555" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>1527</v>
+      </c>
       <c r="C555" s="3"/>
     </row>
     <row r="556" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -15321,48 +15345,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="56" t="s">
         <v>865</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
     </row>
     <row r="2" spans="1:18" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="60" t="s">
         <v>863</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
@@ -15388,7 +15412,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="59"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="9" t="s">
         <v>791</v>
       </c>
@@ -15465,7 +15489,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="59"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="9" t="s">
         <v>797</v>
       </c>
@@ -15528,37 +15552,37 @@
       <c r="C7" s="8" t="s">
         <v>836</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="62" t="s">
         <v>984</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
     </row>
     <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="59"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="9" t="s">
         <v>837</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
@@ -15602,92 +15626,92 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="59" t="s">
         <v>979</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="61" t="s">
         <v>851</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="61" t="s">
         <v>864</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="61" t="s">
         <v>853</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
     </row>
     <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.3">
       <c r="A14" s="57" t="s">
@@ -15710,7 +15734,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="58"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="20" t="s">
         <v>860</v>
       </c>
@@ -15729,17 +15753,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A12:R12"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A10:R10"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A11:R11"/>
     <mergeCell ref="D7:M8"/>
-    <mergeCell ref="A12:R12"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16074,7 +16098,7 @@
       <c r="X2" s="69"/>
       <c r="Y2" s="69"/>
     </row>
-    <row r="3" spans="1:25" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="69" t="s">
         <v>1483</v>
       </c>

--- a/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
+++ b/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Websites\hssrgov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08515332-7162-4A4B-BC55-541B0B272F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE39063D-EB2D-42E3-AD8A-F5CA1C3152B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="769" xr2:uid="{CCB781DE-C1B4-4E71-9129-23ABA5B611FE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="769" activeTab="1" xr2:uid="{CCB781DE-C1B4-4E71-9129-23ABA5B611FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Haer Langu Nedekayhoyna" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="1528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="1586">
   <si>
     <t>中文</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -99,10 +106,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>零</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -174,10 +177,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>单词/字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>表格</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -290,10 +289,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>历史</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>软</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -854,10 +849,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>工人/运营者/运作者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>限制</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -922,10 +913,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>推迟/晚/晚上/下午/傍晚/尽可能晚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>由于/为了/为/因为</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1162,38 +1149,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>红</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>青</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙/橙子/橘子/橙色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>司令</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1274,9 +1229,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>有人/某物（同“sth/sb”）</t>
-  </si>
-  <si>
     <t>由（by）</t>
   </si>
   <si>
@@ -1541,9 +1493,6 @@
     <t>osd</t>
   </si>
   <si>
-    <t>aleens</t>
-  </si>
-  <si>
     <t>sn</t>
   </si>
   <si>
@@ -1766,9 +1715,6 @@
     <t>lu</t>
   </si>
   <si>
-    <t>mu</t>
-  </si>
-  <si>
     <t>okkru</t>
   </si>
   <si>
@@ -1886,9 +1832,6 @@
     <t>trekvdog</t>
   </si>
   <si>
-    <t>frekvdog</t>
-  </si>
-  <si>
     <t>fendvuk</t>
   </si>
   <si>
@@ -1952,9 +1895,6 @@
     <t>vekhi</t>
   </si>
   <si>
-    <t>aleevs</t>
-  </si>
-  <si>
     <t>vedakhi</t>
   </si>
   <si>
@@ -2209,12 +2149,6 @@
     <t>ŭasev</t>
   </si>
   <si>
-    <t>ŭorev</t>
-  </si>
-  <si>
-    <t>ŭoret</t>
-  </si>
-  <si>
     <t>ŭilav</t>
   </si>
   <si>
@@ -2247,14 +2181,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ez</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2404,10 +2330,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>yay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>从/自/来自</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2538,10 +2460,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>出现/诞生/出生/被创造/被开创</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ved</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2615,10 +2533,6 @@
   </si>
   <si>
     <t>raspolozheniye</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择/选举/投票选举/选出/竞选</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3452,10 +3366,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>研发/研制/开发/发明/创造/发现/认识到/设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>长</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3989,10 +3899,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>vedaʔ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>vedashtandaʔ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4077,10 +3983,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nevarovanedarovagśʔ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>钱/金钱/财富/资产/资本/钞票和硬币的统称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4165,10 +4067,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>阶级/地位/等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>gangsk</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4178,10 +4076,6 @@
   </si>
   <si>
     <t>无产者/无产阶级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>强大/强制/强硬/强势/强力/强权/必须/压迫/剥削</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4499,10 +4393,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>战时：pob klota；二战：On Genum Mir Pob（或OGMP）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>侵略/侵入/入侵</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5776,10 +5666,6 @@
   </si>
   <si>
     <t>boguhashda</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布/公示/告示/通报/通知/报告/宣布/公布/公开</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5913,10 +5799,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>改革/革新/改制/改组/改变/变化/使变化/变更</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>任命/赋予职位/授予职位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6058,6 +5940,394 @@
   </si>
   <si>
     <t>ŭoretrannosade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达“电视”时正常语序，表达“电视台”时电视台名称放于tevek之后（如：Suk Tevek HSSR）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>军事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pobsekhia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史/往事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科教</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>khoślia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>khoślistia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（电视台名称）音乐和历史</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（电视台名称）西里尔哈儿语专台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kirih</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（电视台名称）军事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kanbil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Psekhia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bnastrov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题/状况/突发事件/故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hostaspava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全/安然无恙/不可怕/不恐怖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ezasni</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家安全委员会：Ufekke Ezasni Odeŭz（UEO）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战时：pob klota；二战：Sep Genum Mir Pob（或SGMP）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色/橙子/橘子/橙色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pekhi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色/色彩/色调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>khi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜料/墨水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>khia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nekhi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vekhi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推迟/晚/晚上/下午/傍晚/尽可能晚（即一切晚于中午的时间点）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午/午间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>azak</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（早/中/晚）饭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[早/中/晚]-diri</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：早饭：uzukdiri</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（早上/中午/晚上）好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vtrekana [早/中/晚]sk!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：早上好（来自提季提语）：Vtrekana uzuksk!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好/您好（正式，来自提季提语）：Vtrekanayesk!；非正式：Yetreka!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布/公示/告示/通报/通知/报告/宣布/公布/公开/告知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mu（正式褒义用法也可作：edimuskyai/edimusk）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人/运营者/运作者/工作人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现/诞生/出生/被创造/被开创/发生/产生/生成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yay/yayi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yey/yeyi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tey/teyi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ŭorev/yoreva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ŭoret/yoreta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedavi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成器/开创者/出现者/被生成物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>frekvdog（褒义：rekvdoga）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有人/某物/某些（同“sth/sb”）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑问句：陈述句中要问的用somey代替，后加疑问句标志词以成为疑问句。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主义/主张/立场/学说</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ismya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>……分子（人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>śepeta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶级/地位/等级/级别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改革/革新/改制/改组/重组/改变/变化/使变化/变更/更改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发/研制/开发/发明/创造/发现/认识到/设计/创作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词/字/词语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌词</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kantŭore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时/同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>klisanask</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零/〇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>veda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ʔ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nevarovanedarovagś</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ʔ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择/选举/投票选举/选出/竞选/表决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并/加法/兼并/并入/并集/合体/结合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减法/拆分/拆开/交集/分裂/裂开/分开/分手/离婚/分离</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>śob</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>śeb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>除法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>śib</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>śab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强大/强制/强硬/强势/强力/强权/必须/压迫/剥削/应当/应该</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自发布之时起生效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自发布之日起生效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g edimuskyai klota vedaʔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g edimuskyai dlota vedaʔ.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7546,10 +7816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB56768-82A6-42FF-B107-45016A59F08E}">
-  <dimension ref="A1:C1075"/>
+  <dimension ref="A1:C1085"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B556" sqref="B556"/>
+    <sheetView topLeftCell="A277" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A283" sqref="A283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -7562,7 +7832,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -7583,10 +7853,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>668</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7594,7 +7864,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -7603,7 +7873,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -7612,7 +7882,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>677</v>
+        <v>1547</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -7621,7 +7891,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>636</v>
+        <v>1548</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -7630,5149 +7900,5257 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>635</v>
+        <v>1549</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>734</v>
+        <v>709</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>711</v>
+        <v>1546</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>712</v>
+        <v>688</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>1051</v>
+        <v>1553</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>362</v>
+        <v>1552</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>1025</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>481</v>
+        <v>348</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>617</v>
+        <v>465</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>701</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>1132</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="16" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>545</v>
+        <v>601</v>
       </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>618</v>
+        <v>527</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>1557</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>406</v>
+        <v>1558</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>650</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="C21" s="52"/>
+        <v>391</v>
+      </c>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>19</v>
+        <v>1569</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="C22" s="52"/>
+        <v>615</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="23" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="C23" s="52"/>
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="C24" s="52"/>
     </row>
     <row r="25" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
       <c r="C25" s="52"/>
     </row>
     <row r="26" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="C26" s="52"/>
     </row>
     <row r="27" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="C27" s="52"/>
     </row>
     <row r="28" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="C28" s="52"/>
     </row>
     <row r="29" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="C29" s="52"/>
     </row>
     <row r="30" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="C30" s="52"/>
     </row>
     <row r="31" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="C31" s="52"/>
     </row>
     <row r="32" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>482</v>
+        <v>625</v>
       </c>
       <c r="C32" s="52"/>
     </row>
     <row r="33" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>407</v>
+        <v>626</v>
       </c>
       <c r="C33" s="52"/>
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>408</v>
+        <v>466</v>
       </c>
       <c r="C34" s="52"/>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C35" s="53"/>
+        <v>392</v>
+      </c>
+      <c r="C35" s="52"/>
     </row>
     <row r="36" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>980</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="C36" s="52"/>
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="C37" s="3"/>
+        <v>550</v>
+      </c>
+      <c r="C37" s="53"/>
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>1108</v>
+        <v>249</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C38" s="3"/>
+        <v>467</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>954</v>
+      </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>1052</v>
+        <v>32</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1164</v>
+        <v>647</v>
       </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>1109</v>
+        <v>1581</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>700</v>
+        <v>394</v>
       </c>
       <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>280</v>
+        <v>1026</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>484</v>
+        <v>1134</v>
       </c>
       <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>34</v>
+        <v>1079</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>363</v>
+        <v>677</v>
       </c>
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>35</v>
+        <v>275</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>410</v>
+        <v>468</v>
       </c>
       <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>569</v>
+        <v>349</v>
       </c>
       <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>1071</v>
+        <v>34</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>570</v>
+        <v>395</v>
       </c>
       <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>1026</v>
+        <v>35</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1027</v>
+        <v>551</v>
       </c>
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>37</v>
+        <v>1044</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>621</v>
+        <v>552</v>
       </c>
       <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>364</v>
+        <v>1001</v>
       </c>
       <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>39</v>
+        <v>1564</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>713</v>
+        <v>36</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>744</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>325</v>
+        <v>604</v>
       </c>
       <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>41</v>
+        <v>689</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C52" s="3"/>
+        <v>690</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="53" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>412</v>
+        <v>311</v>
       </c>
       <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>341</v>
+        <v>398</v>
       </c>
       <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>1160</v>
+        <v>41</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>485</v>
+        <v>399</v>
       </c>
       <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>486</v>
+        <v>327</v>
       </c>
       <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>46</v>
+        <v>1130</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>385</v>
+        <v>469</v>
       </c>
       <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>651</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>487</v>
+        <v>371</v>
       </c>
       <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="C62" s="3"/>
+        <v>400</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="63" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>50</v>
+        <v>223</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>489</v>
+        <v>401</v>
       </c>
       <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>670</v>
+        <v>472</v>
       </c>
       <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>1072</v>
+        <v>48</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>783</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>334</v>
+        <v>648</v>
       </c>
       <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>53</v>
+        <v>1045</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>652</v>
+        <v>758</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>547</v>
+        <v>320</v>
       </c>
       <c r="C69" s="3"/>
     </row>
     <row r="70" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="C70" s="3"/>
+        <v>474</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="71" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>728</v>
+        <v>52</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>326</v>
+        <v>529</v>
       </c>
       <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>57</v>
+        <v>704</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>365</v>
+        <v>312</v>
       </c>
       <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="C74" s="3"/>
     </row>
     <row r="75" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>571</v>
+        <v>351</v>
       </c>
       <c r="C75" s="3"/>
     </row>
     <row r="76" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>671</v>
+        <v>352</v>
       </c>
       <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1169</v>
+        <v>649</v>
       </c>
       <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>418</v>
+        <v>650</v>
       </c>
       <c r="C79" s="3"/>
     </row>
     <row r="80" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>327</v>
+        <v>1139</v>
       </c>
       <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>315</v>
+        <v>403</v>
       </c>
       <c r="C81" s="3"/>
     </row>
     <row r="82" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>195</v>
+        <v>62</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C82" s="3"/>
     </row>
     <row r="83" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>264</v>
+        <v>63</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>623</v>
+        <v>314</v>
       </c>
       <c r="C84" s="3"/>
     </row>
     <row r="85" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>624</v>
+        <v>328</v>
       </c>
       <c r="C85" s="3"/>
     </row>
     <row r="86" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>66</v>
+        <v>1545</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>335</v>
+        <v>1550</v>
       </c>
       <c r="C86" s="3"/>
     </row>
     <row r="87" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>343</v>
+        <v>1551</v>
       </c>
       <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>68</v>
+        <v>1498</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="C88" s="3"/>
     </row>
     <row r="89" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>658</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="C89" s="3"/>
     </row>
     <row r="90" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>653</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="C90" s="3"/>
     </row>
     <row r="91" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C91" s="3"/>
+        <v>404</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="92" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>252</v>
+        <v>67</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>683</v>
+        <v>631</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="C93" s="3"/>
     </row>
     <row r="94" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C94" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="95" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="C95" s="3"/>
     </row>
     <row r="96" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>340</v>
+        <v>407</v>
       </c>
       <c r="C96" s="3"/>
     </row>
     <row r="97" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
       <c r="C97" s="3"/>
     </row>
     <row r="98" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>425</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="C98" s="3"/>
     </row>
     <row r="99" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>673</v>
+        <v>322</v>
       </c>
       <c r="C99" s="3"/>
     </row>
     <row r="100" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>901</v>
+        <v>73</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>662</v>
+        <v>409</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>902</v>
+        <v>410</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>357</v>
+        <v>651</v>
       </c>
       <c r="C101" s="3"/>
     </row>
     <row r="102" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>79</v>
+        <v>876</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C102" s="3"/>
+        <v>640</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="103" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="C103" s="3"/>
     </row>
     <row r="104" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="C104" s="3"/>
     </row>
     <row r="105" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>386</v>
+        <v>313</v>
       </c>
       <c r="C105" s="3"/>
     </row>
     <row r="106" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C106" s="3"/>
     </row>
     <row r="107" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="C107" s="3"/>
     </row>
     <row r="108" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>368</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="C108" s="3"/>
     </row>
     <row r="109" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="C109" s="3"/>
     </row>
     <row r="110" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C110" s="3"/>
+        <v>353</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="111" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="C111" s="3"/>
     </row>
     <row r="112" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C112" s="3"/>
     </row>
     <row r="113" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>762</v>
+        <v>84</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>373</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C113" s="3"/>
     </row>
     <row r="114" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>763</v>
+        <v>85</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>388</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="C114" s="3"/>
     </row>
     <row r="115" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>89</v>
+        <v>737</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C115" s="3"/>
+        <v>331</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="116" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>90</v>
+        <v>738</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C116" s="3"/>
+        <v>373</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="117" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>494</v>
+        <v>411</v>
       </c>
       <c r="C117" s="3"/>
     </row>
     <row r="118" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="C118" s="3"/>
     </row>
     <row r="119" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>548</v>
+        <v>478</v>
       </c>
       <c r="C119" s="3"/>
     </row>
     <row r="120" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>374</v>
+        <v>479</v>
       </c>
       <c r="C120" s="3"/>
     </row>
     <row r="121" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>375</v>
+        <v>530</v>
       </c>
       <c r="C121" s="3"/>
     </row>
     <row r="122" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>926</v>
+        <v>91</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>930</v>
+        <v>360</v>
       </c>
       <c r="C122" s="3"/>
     </row>
     <row r="123" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>927</v>
+        <v>92</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>931</v>
+        <v>361</v>
       </c>
       <c r="C123" s="3"/>
     </row>
     <row r="124" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>928</v>
+        <v>900</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>1055</v>
+        <v>904</v>
       </c>
       <c r="C124" s="3"/>
     </row>
     <row r="125" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>929</v>
+        <v>901</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>1056</v>
+        <v>905</v>
       </c>
       <c r="C125" s="3"/>
     </row>
     <row r="126" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>96</v>
+        <v>902</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>329</v>
+        <v>1029</v>
       </c>
       <c r="C126" s="3"/>
     </row>
     <row r="127" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>97</v>
+        <v>903</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>454</v>
+        <v>1030</v>
       </c>
       <c r="C127" s="3"/>
     </row>
     <row r="128" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C128" s="3"/>
     </row>
     <row r="129" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>625</v>
+        <v>439</v>
       </c>
       <c r="C129" s="3"/>
     </row>
     <row r="130" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>233</v>
+        <v>95</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>740</v>
+        <v>316</v>
       </c>
       <c r="C130" s="3"/>
     </row>
     <row r="131" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>1150</v>
+        <v>605</v>
       </c>
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>1149</v>
+        <v>715</v>
       </c>
       <c r="C132" s="3"/>
     </row>
     <row r="133" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>549</v>
+        <v>1120</v>
       </c>
       <c r="C133" s="3"/>
     </row>
     <row r="134" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>550</v>
+        <v>1119</v>
       </c>
       <c r="C134" s="3"/>
     </row>
     <row r="135" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>322</v>
+        <v>531</v>
       </c>
       <c r="C135" s="3"/>
     </row>
     <row r="136" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>214</v>
+        <v>99</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>346</v>
+        <v>532</v>
       </c>
       <c r="C136" s="3"/>
     </row>
     <row r="137" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>1503</v>
+        <v>100</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>626</v>
+        <v>308</v>
       </c>
       <c r="C137" s="3"/>
     </row>
     <row r="138" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>690</v>
+        <v>210</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>455</v>
+        <v>332</v>
       </c>
       <c r="C138" s="3"/>
     </row>
     <row r="139" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>104</v>
+        <v>1470</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>456</v>
+        <v>606</v>
       </c>
       <c r="C139" s="3"/>
     </row>
     <row r="140" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>105</v>
+        <v>667</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="C140" s="3"/>
     </row>
     <row r="141" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>946</v>
+        <v>101</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>947</v>
+        <v>441</v>
       </c>
       <c r="C141" s="3"/>
     </row>
     <row r="142" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>948</v>
+        <v>102</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>951</v>
+        <v>442</v>
       </c>
       <c r="C142" s="3"/>
     </row>
     <row r="143" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>949</v>
+        <v>920</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>952</v>
+        <v>921</v>
       </c>
       <c r="C143" s="3"/>
     </row>
     <row r="144" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>950</v>
+        <v>922</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>953</v>
+        <v>925</v>
       </c>
       <c r="C144" s="3"/>
     </row>
     <row r="145" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>788</v>
+        <v>923</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>458</v>
+        <v>926</v>
       </c>
       <c r="C145" s="3"/>
     </row>
     <row r="146" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>789</v>
+        <v>924</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>755</v>
-      </c>
+        <v>927</v>
+      </c>
+      <c r="C146" s="3"/>
     </row>
     <row r="147" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>277</v>
+        <v>763</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="C147" s="3"/>
     </row>
     <row r="148" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>106</v>
+        <v>764</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="C148" s="3"/>
+        <v>444</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="149" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>107</v>
+        <v>272</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="C149" s="3"/>
     </row>
     <row r="150" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>679</v>
+        <v>103</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>680</v>
+        <v>480</v>
       </c>
       <c r="C150" s="3"/>
     </row>
     <row r="151" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>347</v>
+        <v>412</v>
       </c>
       <c r="C151" s="3"/>
     </row>
     <row r="152" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>109</v>
+        <v>656</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>348</v>
+        <v>657</v>
       </c>
       <c r="C152" s="3"/>
     </row>
     <row r="153" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>785</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="C153" s="3"/>
     </row>
     <row r="154" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>428</v>
+        <v>334</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row r="155" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C155" s="3"/>
+        <v>759</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="156" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>779</v>
+        <v>216</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="C156" s="3"/>
     </row>
     <row r="157" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="C157" s="3"/>
     </row>
     <row r="158" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>112</v>
+        <v>754</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>551</v>
+        <v>375</v>
       </c>
       <c r="C158" s="3"/>
     </row>
     <row r="159" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>497</v>
+        <v>376</v>
       </c>
       <c r="C159" s="3"/>
     </row>
     <row r="160" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>225</v>
+        <v>109</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>552</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="C160" s="3"/>
     </row>
     <row r="161" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="C161" s="3"/>
     </row>
     <row r="162" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>432</v>
+        <v>534</v>
       </c>
     </row>
     <row r="163" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="C163" s="3"/>
     </row>
     <row r="164" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C164" s="3"/>
+        <v>416</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="165" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>353</v>
+        <v>418</v>
       </c>
       <c r="C165" s="3"/>
     </row>
     <row r="166" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>249</v>
+        <v>114</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="C166" s="3"/>
     </row>
     <row r="167" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="C167" s="3"/>
     </row>
     <row r="168" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>120</v>
+        <v>244</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="C168" s="3"/>
     </row>
     <row r="169" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="C169" s="3"/>
     </row>
     <row r="170" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>656</v>
+        <v>364</v>
       </c>
       <c r="C170" s="3"/>
     </row>
     <row r="171" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>654</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="C171" s="3"/>
     </row>
     <row r="172" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>674</v>
+        <v>634</v>
       </c>
       <c r="C172" s="3"/>
     </row>
     <row r="173" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>663</v>
+        <v>632</v>
       </c>
     </row>
     <row r="174" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>498</v>
+        <v>652</v>
       </c>
       <c r="C174" s="3"/>
     </row>
     <row r="175" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>1516</v>
+        <v>121</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C175" s="3"/>
+        <v>447</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="176" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>1025</v>
+        <v>122</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>393</v>
+        <v>482</v>
       </c>
       <c r="C176" s="3"/>
     </row>
     <row r="177" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>126</v>
+        <v>1483</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="C177" s="3"/>
     </row>
     <row r="178" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>1024</v>
+        <v>999</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="C178" s="3"/>
     </row>
     <row r="179" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="C179" s="3"/>
     </row>
     <row r="180" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>231</v>
+        <v>998</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>463</v>
+        <v>381</v>
       </c>
       <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>499</v>
+        <v>382</v>
       </c>
       <c r="C181" s="3"/>
     </row>
     <row r="182" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>675</v>
+        <v>448</v>
       </c>
       <c r="C182" s="3"/>
     </row>
     <row r="183" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>553</v>
+        <v>483</v>
       </c>
       <c r="C183" s="3"/>
     </row>
     <row r="184" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>554</v>
+        <v>653</v>
       </c>
       <c r="C184" s="3"/>
     </row>
     <row r="185" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="C185" s="3"/>
     </row>
     <row r="186" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>276</v>
+        <v>128</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>338</v>
+        <v>536</v>
       </c>
       <c r="C186" s="3"/>
     </row>
     <row r="187" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>312</v>
+        <v>129</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="C187" s="3"/>
     </row>
     <row r="188" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>500</v>
+        <v>271</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>501</v>
+        <v>324</v>
       </c>
       <c r="C188" s="3"/>
     </row>
     <row r="189" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>1497</v>
+        <v>1555</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C189" s="3"/>
+        <v>538</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>1556</v>
+      </c>
     </row>
     <row r="190" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>133</v>
+        <v>484</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="C190" s="3"/>
     </row>
     <row r="191" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>1021</v>
+        <v>1464</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>1023</v>
-      </c>
+        <v>1465</v>
+      </c>
+      <c r="C191" s="3"/>
     </row>
     <row r="192" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="C192" s="3"/>
     </row>
     <row r="193" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>135</v>
+        <v>995</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C193" s="3"/>
+        <v>996</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>997</v>
+      </c>
     </row>
     <row r="194" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C194" s="3"/>
+        <v>420</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>1542</v>
+      </c>
     </row>
     <row r="195" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>502</v>
+        <v>366</v>
       </c>
       <c r="C195" s="3"/>
     </row>
     <row r="196" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>317</v>
+        <v>367</v>
       </c>
       <c r="C196" s="3"/>
     </row>
     <row r="197" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="C197" s="3"/>
     </row>
     <row r="198" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="C198" s="3"/>
     </row>
     <row r="199" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="C199" s="3"/>
     </row>
     <row r="200" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>257</v>
+        <v>137</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>438</v>
+        <v>344</v>
       </c>
       <c r="C200" s="3"/>
     </row>
     <row r="201" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="C201" s="3"/>
     </row>
     <row r="202" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>144</v>
+        <v>252</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="C202" s="3"/>
     </row>
     <row r="203" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>786</v>
+        <v>424</v>
       </c>
       <c r="C203" s="3"/>
     </row>
     <row r="204" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>230</v>
+        <v>141</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>504</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="C204" s="3"/>
     </row>
     <row r="205" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>505</v>
+        <v>761</v>
       </c>
       <c r="C205" s="3"/>
     </row>
     <row r="206" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>749</v>
+        <v>225</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="C206" s="3"/>
+        <v>487</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="207" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>973</v>
+        <v>142</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>974</v>
+        <v>489</v>
       </c>
       <c r="C207" s="3"/>
     </row>
     <row r="208" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>146</v>
+        <v>724</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="C208" s="3"/>
     </row>
     <row r="209" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>147</v>
+        <v>947</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>573</v>
+        <v>948</v>
       </c>
       <c r="C209" s="3"/>
     </row>
     <row r="210" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="C210" s="3"/>
     </row>
     <row r="211" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>506</v>
+        <v>555</v>
       </c>
       <c r="C211" s="3"/>
     </row>
     <row r="212" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>323</v>
+        <v>556</v>
       </c>
       <c r="C212" s="3"/>
     </row>
     <row r="213" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>318</v>
+        <v>490</v>
       </c>
       <c r="C213" s="3"/>
     </row>
     <row r="214" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>464</v>
+        <v>309</v>
       </c>
       <c r="C214" s="3"/>
     </row>
     <row r="215" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="C215" s="3"/>
     </row>
     <row r="216" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="C216" s="51" t="s">
-        <v>1057</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="C216" s="3"/>
     </row>
     <row r="217" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="C217" s="52"/>
+        <v>305</v>
+      </c>
+      <c r="C217" s="3"/>
     </row>
     <row r="218" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="C218" s="52"/>
+        <v>637</v>
+      </c>
+      <c r="C218" s="51" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="219" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>936</v>
+        <v>152</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>938</v>
+        <v>635</v>
       </c>
       <c r="C219" s="52"/>
     </row>
     <row r="220" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>937</v>
+        <v>153</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>939</v>
+        <v>642</v>
       </c>
       <c r="C220" s="52"/>
     </row>
     <row r="221" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>933</v>
+        <v>912</v>
       </c>
       <c r="C221" s="52"/>
     </row>
     <row r="222" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>934</v>
+        <v>911</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C222" s="53"/>
+        <v>913</v>
+      </c>
+      <c r="C222" s="52"/>
     </row>
     <row r="223" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>935</v>
+        <v>906</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>660</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="C223" s="52"/>
     </row>
     <row r="224" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>157</v>
+        <v>908</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>661</v>
-      </c>
+        <v>1032</v>
+      </c>
+      <c r="C224" s="53"/>
     </row>
     <row r="225" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>158</v>
+        <v>909</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C225" s="3"/>
+        <v>425</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="226" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="C226" s="3"/>
+        <v>540</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="227" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>349</v>
+        <v>541</v>
       </c>
       <c r="C227" s="3"/>
     </row>
     <row r="228" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="C228" s="3"/>
     </row>
     <row r="229" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>455</v>
+        <v>335</v>
       </c>
       <c r="C229" s="3"/>
     </row>
     <row r="230" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>1176</v>
+        <v>158</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>350</v>
+        <v>439</v>
       </c>
       <c r="C230" s="3"/>
     </row>
     <row r="231" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>507</v>
+        <v>440</v>
       </c>
       <c r="C231" s="3"/>
     </row>
     <row r="232" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>165</v>
+        <v>1145</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>787</v>
+        <v>336</v>
       </c>
       <c r="C232" s="3"/>
     </row>
     <row r="233" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>1077</v>
+        <v>161</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>339</v>
+        <v>491</v>
       </c>
       <c r="C233" s="3"/>
     </row>
     <row r="234" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>167</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="C234" s="3"/>
     </row>
     <row r="235" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>168</v>
+        <v>1050</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>696</v>
+        <v>325</v>
       </c>
       <c r="C235" s="3"/>
     </row>
     <row r="236" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C236" s="3"/>
+        <v>450</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="237" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>509</v>
+        <v>673</v>
       </c>
       <c r="C237" s="3"/>
     </row>
     <row r="238" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C238" s="3"/>
+        <v>492</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>1495</v>
+      </c>
     </row>
     <row r="239" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>576</v>
+        <v>493</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row r="240" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>256</v>
+        <v>168</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="C240" s="3"/>
     </row>
     <row r="241" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>466</v>
+        <v>558</v>
       </c>
       <c r="C241" s="3"/>
     </row>
     <row r="242" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>467</v>
+        <v>559</v>
       </c>
       <c r="C242" s="3"/>
     </row>
     <row r="243" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="C243" s="3"/>
     </row>
     <row r="244" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="C244" s="3"/>
     </row>
     <row r="245" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>471</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C245" s="3"/>
     </row>
     <row r="246" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="C246" s="3"/>
     </row>
     <row r="247" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="C247" s="3"/>
+        <v>455</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="248" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>578</v>
+        <v>457</v>
       </c>
       <c r="C248" s="3"/>
     </row>
     <row r="249" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>579</v>
+        <v>458</v>
       </c>
       <c r="C249" s="3"/>
     </row>
     <row r="250" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="C250" s="3"/>
     </row>
     <row r="251" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>676</v>
+        <v>177</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>510</v>
+        <v>561</v>
       </c>
       <c r="C251" s="3"/>
     </row>
     <row r="252" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="C252" s="3"/>
     </row>
     <row r="253" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>183</v>
+        <v>654</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>382</v>
+        <v>494</v>
       </c>
       <c r="C253" s="3"/>
     </row>
     <row r="254" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>383</v>
+        <v>563</v>
       </c>
       <c r="C254" s="3"/>
     </row>
     <row r="255" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>742</v>
+        <v>180</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>627</v>
+        <v>368</v>
       </c>
       <c r="C255" s="3"/>
     </row>
     <row r="256" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>741</v>
+        <v>181</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>743</v>
+        <v>369</v>
       </c>
       <c r="C256" s="3"/>
     </row>
     <row r="257" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>1088</v>
+        <v>717</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>511</v>
+        <v>607</v>
       </c>
       <c r="C257" s="3"/>
     </row>
     <row r="258" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>512</v>
+        <v>718</v>
       </c>
       <c r="C258" s="3"/>
     </row>
     <row r="259" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>185</v>
+        <v>1060</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="C259" s="3"/>
     </row>
     <row r="260" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
-        <v>186</v>
+        <v>710</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="C260" s="3"/>
     </row>
     <row r="261" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>314</v>
+        <v>459</v>
       </c>
       <c r="C261" s="3"/>
     </row>
     <row r="262" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>582</v>
+        <v>460</v>
       </c>
       <c r="C262" s="3"/>
     </row>
     <row r="263" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="C263" s="3"/>
     </row>
     <row r="264" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>442</v>
+        <v>564</v>
       </c>
       <c r="C264" s="3"/>
     </row>
     <row r="265" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>678</v>
+        <v>186</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C265" s="3"/>
     </row>
     <row r="266" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>704</v>
+        <v>218</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>705</v>
+        <v>427</v>
       </c>
       <c r="C266" s="3"/>
     </row>
     <row r="267" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>965</v>
+        <v>655</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>775</v>
+        <v>306</v>
       </c>
       <c r="C267" s="3"/>
     </row>
     <row r="268" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
-        <v>774</v>
+        <v>681</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>776</v>
+        <v>682</v>
       </c>
       <c r="C268" s="3"/>
     </row>
     <row r="269" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>212</v>
+        <v>939</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>384</v>
+        <v>750</v>
       </c>
       <c r="C269" s="3"/>
     </row>
     <row r="270" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
-        <v>210</v>
+        <v>749</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>628</v>
+        <v>751</v>
       </c>
       <c r="C270" s="3"/>
     </row>
     <row r="271" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>966</v>
+        <v>370</v>
       </c>
       <c r="C271" s="3"/>
     </row>
     <row r="272" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
-        <v>1478</v>
+        <v>206</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>583</v>
+        <v>608</v>
       </c>
       <c r="C272" s="3"/>
     </row>
     <row r="273" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>584</v>
+        <v>940</v>
       </c>
       <c r="C273" s="3"/>
     </row>
     <row r="274" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>302</v>
+        <v>1446</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="C274" s="3"/>
     </row>
     <row r="275" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="C275" s="3"/>
     </row>
     <row r="276" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
-        <v>915</v>
+        <v>289</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>443</v>
+        <v>567</v>
       </c>
       <c r="C276" s="3"/>
     </row>
     <row r="277" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>282</v>
+        <v>205</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="C277" s="3"/>
     </row>
     <row r="278" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>313</v>
+        <v>890</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>513</v>
+        <v>428</v>
       </c>
       <c r="C278" s="3"/>
     </row>
     <row r="279" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>725</v>
+        <v>277</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>444</v>
+        <v>569</v>
       </c>
       <c r="C279" s="3"/>
     </row>
     <row r="280" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
-        <v>193</v>
+        <v>299</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>332</v>
+        <v>497</v>
       </c>
       <c r="C280" s="3"/>
     </row>
     <row r="281" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>1474</v>
+        <v>701</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="C281" s="3"/>
     </row>
     <row r="282" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>514</v>
+        <v>318</v>
       </c>
       <c r="C282" s="3"/>
     </row>
     <row r="283" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>196</v>
+        <v>1543</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>445</v>
+        <v>1544</v>
       </c>
       <c r="C283" s="3"/>
     </row>
     <row r="284" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>1112</v>
+        <v>212</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1114</v>
+        <v>498</v>
       </c>
       <c r="C284" s="3"/>
     </row>
     <row r="285" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>1113</v>
+        <v>193</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1115</v>
+        <v>430</v>
       </c>
       <c r="C285" s="3"/>
     </row>
     <row r="286" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
-        <v>1116</v>
+        <v>1082</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1117</v>
+        <v>1084</v>
       </c>
       <c r="C286" s="3"/>
     </row>
     <row r="287" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>197</v>
+        <v>1083</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>560</v>
+        <v>1085</v>
       </c>
       <c r="C287" s="3"/>
     </row>
     <row r="288" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
-        <v>198</v>
+        <v>1086</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>629</v>
+        <v>1087</v>
       </c>
       <c r="C288" s="3"/>
     </row>
     <row r="289" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>588</v>
+        <v>542</v>
       </c>
       <c r="C289" s="3"/>
     </row>
     <row r="290" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>1030</v>
+        <v>195</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1031</v>
+        <v>609</v>
       </c>
       <c r="C290" s="3"/>
     </row>
     <row r="291" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>884</v>
+        <v>196</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>515</v>
+        <v>570</v>
       </c>
       <c r="C291" s="3"/>
     </row>
     <row r="292" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>885</v>
+        <v>1004</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>516</v>
+        <v>1005</v>
       </c>
       <c r="C292" s="3"/>
     </row>
     <row r="293" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>200</v>
+        <v>859</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>630</v>
+        <v>499</v>
       </c>
       <c r="C293" s="3"/>
     </row>
     <row r="294" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>241</v>
+        <v>860</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>589</v>
+        <v>1554</v>
       </c>
       <c r="C294" s="3"/>
     </row>
     <row r="295" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="C295" s="3"/>
     </row>
     <row r="296" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>477</v>
+        <v>571</v>
       </c>
       <c r="C296" s="3"/>
     </row>
     <row r="297" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>517</v>
+        <v>572</v>
       </c>
       <c r="C297" s="3"/>
     </row>
     <row r="298" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>518</v>
+        <v>461</v>
       </c>
       <c r="C298" s="3"/>
     </row>
     <row r="299" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>1453</v>
+        <v>201</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="C299" s="3"/>
     </row>
     <row r="300" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>592</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="C300" s="3"/>
     </row>
     <row r="301" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>1120</v>
+        <v>1422</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="C301" s="3"/>
     </row>
     <row r="302" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>355</v>
+        <v>573</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>356</v>
+        <v>574</v>
       </c>
     </row>
     <row r="303" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>211</v>
+        <v>1090</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>351</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="C303" s="3"/>
     </row>
     <row r="304" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C304" s="3"/>
+        <v>341</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="305" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="C305" s="3"/>
+        <v>575</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="306" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="C306" s="3" t="s">
-        <v>351</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="C306" s="3"/>
     </row>
     <row r="307" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>521</v>
+        <v>576</v>
       </c>
       <c r="C307" s="3"/>
     </row>
     <row r="308" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="C308" s="3"/>
+        <v>577</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="309" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="C309" s="3"/>
     </row>
     <row r="310" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
-        <v>524</v>
+        <v>237</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>777</v>
+        <v>505</v>
       </c>
       <c r="C310" s="3"/>
     </row>
     <row r="311" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>596</v>
+        <v>506</v>
       </c>
       <c r="C311" s="3"/>
     </row>
     <row r="312" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
-        <v>224</v>
+        <v>507</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>597</v>
+        <v>752</v>
       </c>
       <c r="C312" s="3"/>
     </row>
     <row r="313" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="C313" s="3" t="s">
-        <v>526</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="C313" s="3"/>
     </row>
     <row r="314" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
-        <v>227</v>
+        <v>1534</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>527</v>
+        <v>1535</v>
       </c>
       <c r="C314" s="3"/>
     </row>
     <row r="315" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>229</v>
+        <v>1533</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>972</v>
+        <v>579</v>
       </c>
       <c r="C315" s="3"/>
     </row>
     <row r="316" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
-        <v>731</v>
+        <v>1536</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="C316" s="3"/>
+        <v>1537</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>1538</v>
+      </c>
     </row>
     <row r="317" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
-        <v>232</v>
+        <v>1539</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="C317" s="3"/>
+        <v>1540</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>1541</v>
+      </c>
     </row>
     <row r="318" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C318" s="3"/>
+        <v>508</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="319" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>360</v>
+        <v>510</v>
       </c>
       <c r="C319" s="3"/>
     </row>
     <row r="320" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
-        <v>1018</v>
+        <v>224</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>446</v>
+        <v>946</v>
       </c>
       <c r="C320" s="3"/>
     </row>
     <row r="321" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>1019</v>
+        <v>1572</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1020</v>
+        <v>707</v>
       </c>
       <c r="C321" s="3"/>
     </row>
     <row r="322" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="C322" s="3"/>
     </row>
     <row r="323" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
-        <v>925</v>
+        <v>229</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>561</v>
+        <v>345</v>
       </c>
       <c r="C323" s="3"/>
     </row>
     <row r="324" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>447</v>
+        <v>346</v>
       </c>
       <c r="C324" s="3"/>
     </row>
     <row r="325" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
-        <v>238</v>
+        <v>992</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1016</v>
+        <v>431</v>
       </c>
       <c r="C325" s="3"/>
     </row>
     <row r="326" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
-        <v>239</v>
+        <v>993</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>530</v>
+        <v>994</v>
       </c>
       <c r="C326" s="3"/>
     </row>
     <row r="327" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>598</v>
+        <v>512</v>
       </c>
       <c r="C327" s="3"/>
     </row>
     <row r="328" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
-        <v>266</v>
+        <v>1563</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="C328" s="3"/>
     </row>
     <row r="329" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>352</v>
+        <v>232</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>562</v>
+        <v>432</v>
       </c>
       <c r="C329" s="3"/>
     </row>
     <row r="330" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>563</v>
+        <v>990</v>
       </c>
       <c r="C330" s="3"/>
     </row>
     <row r="331" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="C331" s="3"/>
     </row>
     <row r="332" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
-        <v>303</v>
+        <v>235</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="C332" s="3" t="s">
-        <v>718</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="C332" s="3"/>
     </row>
     <row r="333" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>398</v>
+        <v>514</v>
       </c>
       <c r="C333" s="3"/>
     </row>
     <row r="334" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
-        <v>246</v>
+        <v>338</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>399</v>
+        <v>544</v>
       </c>
       <c r="C334" s="3"/>
     </row>
     <row r="335" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
-        <v>917</v>
+        <v>238</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>877</v>
+        <v>545</v>
       </c>
       <c r="C335" s="3"/>
     </row>
     <row r="336" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
-        <v>918</v>
+        <v>239</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>960</v>
+        <v>515</v>
       </c>
       <c r="C336" s="3"/>
     </row>
     <row r="337" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="C337" s="3"/>
+        <v>693</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="338" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>599</v>
+        <v>384</v>
       </c>
       <c r="C338" s="3"/>
     </row>
     <row r="339" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
-        <v>708</v>
+        <v>241</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>600</v>
+        <v>385</v>
       </c>
       <c r="C339" s="3"/>
     </row>
     <row r="340" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
-        <v>250</v>
+        <v>892</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>601</v>
+        <v>852</v>
       </c>
       <c r="C340" s="3"/>
     </row>
     <row r="341" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
-        <v>251</v>
+        <v>893</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>602</v>
+        <v>934</v>
       </c>
       <c r="C341" s="3"/>
     </row>
     <row r="342" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>448</v>
+        <v>546</v>
       </c>
       <c r="C342" s="3"/>
     </row>
     <row r="343" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
-        <v>1157</v>
+        <v>243</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="C343" s="3"/>
     </row>
     <row r="344" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
-        <v>255</v>
+        <v>685</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="C344" s="3"/>
     </row>
     <row r="345" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
-        <v>258</v>
+        <v>1513</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>533</v>
+        <v>1514</v>
       </c>
       <c r="C345" s="3"/>
     </row>
     <row r="346" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>534</v>
+        <v>583</v>
       </c>
       <c r="C346" s="3"/>
     </row>
     <row r="347" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>603</v>
+        <v>584</v>
       </c>
       <c r="C347" s="3"/>
     </row>
     <row r="348" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="C348" s="3"/>
     </row>
     <row r="349" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
-        <v>263</v>
+        <v>1127</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="C349" s="3"/>
     </row>
     <row r="350" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>604</v>
+        <v>548</v>
       </c>
       <c r="C350" s="3"/>
     </row>
     <row r="351" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>975</v>
+        <v>516</v>
       </c>
       <c r="C351" s="3"/>
     </row>
     <row r="352" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>605</v>
+        <v>517</v>
       </c>
       <c r="C352" s="3"/>
     </row>
     <row r="353" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
       <c r="C353" s="3"/>
     </row>
     <row r="354" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C354" s="3" t="s">
-        <v>1171</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="C354" s="3"/>
     </row>
     <row r="355" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>631</v>
+        <v>518</v>
       </c>
       <c r="C355" s="3"/>
     </row>
     <row r="356" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>632</v>
+        <v>586</v>
       </c>
       <c r="C356" s="3"/>
     </row>
     <row r="357" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
-        <v>1028</v>
+        <v>262</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>1029</v>
-      </c>
+        <v>949</v>
+      </c>
+      <c r="C357" s="3"/>
     </row>
     <row r="358" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>449</v>
+        <v>587</v>
       </c>
       <c r="C358" s="3"/>
     </row>
     <row r="359" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>400</v>
+        <v>588</v>
       </c>
       <c r="C359" s="3"/>
     </row>
     <row r="360" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="C360" s="3"/>
+        <v>347</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>1516</v>
+      </c>
     </row>
     <row r="361" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>723</v>
+        <v>611</v>
       </c>
       <c r="C361" s="3"/>
     </row>
     <row r="362" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="C362" s="3"/>
+        <v>612</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>1515</v>
+      </c>
     </row>
     <row r="363" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
-        <v>283</v>
+        <v>1002</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C363" s="3"/>
+        <v>463</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>1003</v>
+      </c>
     </row>
     <row r="364" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>665</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="C364" s="3"/>
     </row>
     <row r="365" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="C365" s="3"/>
     </row>
     <row r="366" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="C366" s="3"/>
     </row>
     <row r="367" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>537</v>
+        <v>699</v>
       </c>
       <c r="C367" s="3"/>
     </row>
     <row r="368" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="C368" s="3"/>
     </row>
     <row r="369" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>333</v>
+        <v>435</v>
       </c>
       <c r="C369" s="3"/>
     </row>
     <row r="370" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
-        <v>290</v>
+        <v>1496</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>451</v>
+        <v>1497</v>
       </c>
       <c r="C370" s="3"/>
     </row>
     <row r="371" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
-        <v>291</v>
+        <v>1527</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>539</v>
+        <v>1528</v>
       </c>
       <c r="C371" s="3"/>
     </row>
     <row r="372" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
-        <v>292</v>
+        <v>1529</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>724</v>
+        <v>1530</v>
       </c>
       <c r="C372" s="3"/>
     </row>
     <row r="373" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
-        <v>293</v>
+        <v>1525</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="C373" s="3"/>
+        <v>857</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="374" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
-        <v>294</v>
+        <v>1524</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>610</v>
+        <v>1531</v>
       </c>
       <c r="C374" s="3"/>
     </row>
     <row r="375" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
-        <v>295</v>
+        <v>1523</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="C375" s="3"/>
     </row>
     <row r="376" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
-        <v>296</v>
+        <v>1522</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>402</v>
+        <v>520</v>
       </c>
       <c r="C376" s="3"/>
     </row>
     <row r="377" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
-        <v>297</v>
+        <v>1521</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>541</v>
+        <v>1532</v>
       </c>
       <c r="C377" s="3"/>
     </row>
     <row r="378" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
-        <v>298</v>
+        <v>1520</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>612</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="C378" s="3"/>
     </row>
     <row r="379" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
-        <v>299</v>
+        <v>1519</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>613</v>
+        <v>436</v>
       </c>
       <c r="C379" s="3"/>
     </row>
     <row r="380" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
-        <v>300</v>
+        <v>1518</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>614</v>
+        <v>521</v>
       </c>
       <c r="C380" s="3"/>
     </row>
     <row r="381" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
-        <v>301</v>
+        <v>1517</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>615</v>
+        <v>1526</v>
       </c>
       <c r="C381" s="3"/>
     </row>
     <row r="382" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
-        <v>919</v>
+        <v>279</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>1059</v>
+        <v>700</v>
       </c>
       <c r="C382" s="3"/>
     </row>
     <row r="383" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="C383" s="3" t="s">
-        <v>655</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="C383" s="3"/>
     </row>
     <row r="384" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C384" s="3" t="s">
-        <v>668</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="C384" s="3"/>
     </row>
     <row r="385" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="C385" s="3" t="s">
-        <v>668</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="C385" s="3"/>
     </row>
     <row r="386" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
-        <v>1107</v>
+        <v>283</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="C386" s="3"/>
     </row>
     <row r="387" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>403</v>
+        <v>523</v>
       </c>
       <c r="C387" s="3"/>
     </row>
     <row r="388" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="C388" s="3"/>
+        <v>593</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="389" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>543</v>
+        <v>595</v>
       </c>
       <c r="C389" s="3"/>
     </row>
     <row r="390" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>404</v>
+        <v>596</v>
       </c>
       <c r="C390" s="3"/>
     </row>
     <row r="391" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>649</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="C391" s="3"/>
     </row>
     <row r="392" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
-        <v>681</v>
+        <v>894</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>682</v>
+        <v>1033</v>
       </c>
       <c r="C392" s="3"/>
     </row>
     <row r="393" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
-        <v>709</v>
+        <v>291</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="C393" s="3"/>
+        <v>598</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="394" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
-        <v>684</v>
+        <v>292</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="C394" s="3"/>
+        <v>644</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="395" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
-        <v>686</v>
+        <v>293</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="C395" s="3"/>
+        <v>645</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="396" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
-        <v>1119</v>
+        <v>1078</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>688</v>
+        <v>437</v>
       </c>
       <c r="C396" s="3"/>
     </row>
     <row r="397" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
-        <v>964</v>
+        <v>294</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>689</v>
+        <v>388</v>
       </c>
       <c r="C397" s="3"/>
     </row>
     <row r="398" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
-        <v>1482</v>
+        <v>295</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>691</v>
+        <v>524</v>
       </c>
       <c r="C398" s="3"/>
     </row>
     <row r="399" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
-        <v>692</v>
+        <v>296</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>693</v>
+        <v>525</v>
       </c>
       <c r="C399" s="3"/>
     </row>
     <row r="400" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
-        <v>1102</v>
+        <v>297</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>1103</v>
+        <v>389</v>
       </c>
       <c r="C400" s="3"/>
     </row>
     <row r="401" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
-        <v>694</v>
+        <v>298</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="C401" s="3"/>
+        <v>549</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="402" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
-        <v>745</v>
+        <v>658</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>699</v>
+        <v>659</v>
       </c>
       <c r="C402" s="3"/>
     </row>
     <row r="403" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="C403" s="3"/>
     </row>
     <row r="404" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="3" t="s">
-        <v>702</v>
+        <v>661</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>703</v>
+        <v>662</v>
       </c>
       <c r="C404" s="3"/>
     </row>
     <row r="405" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
-        <v>706</v>
+        <v>663</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>707</v>
+        <v>664</v>
       </c>
       <c r="C405" s="3"/>
     </row>
     <row r="406" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
-        <v>924</v>
+        <v>1089</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>720</v>
+        <v>665</v>
       </c>
       <c r="C406" s="3"/>
     </row>
     <row r="407" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
-        <v>715</v>
+        <v>938</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>716</v>
+        <v>666</v>
       </c>
       <c r="C407" s="3"/>
     </row>
     <row r="408" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
-        <v>719</v>
+        <v>1450</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>721</v>
+        <v>668</v>
       </c>
       <c r="C408" s="3"/>
     </row>
     <row r="409" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
-        <v>727</v>
+        <v>669</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>722</v>
+        <v>670</v>
       </c>
       <c r="C409" s="3"/>
     </row>
     <row r="410" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
-        <v>1504</v>
+        <v>1074</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>726</v>
+        <v>1075</v>
       </c>
       <c r="C410" s="3"/>
     </row>
     <row r="411" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
-        <v>729</v>
+        <v>671</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>730</v>
+        <v>672</v>
       </c>
       <c r="C411" s="3"/>
     </row>
     <row r="412" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
-        <v>1492</v>
+        <v>720</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>733</v>
+        <v>676</v>
       </c>
       <c r="C412" s="3"/>
     </row>
     <row r="413" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
-        <v>736</v>
+        <v>674</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>737</v>
+        <v>675</v>
       </c>
       <c r="C413" s="3"/>
     </row>
     <row r="414" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="3" t="s">
-        <v>738</v>
+        <v>679</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>739</v>
+        <v>680</v>
       </c>
       <c r="C414" s="3"/>
     </row>
     <row r="415" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
-        <v>746</v>
+        <v>683</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>747</v>
+        <v>684</v>
       </c>
       <c r="C415" s="3"/>
     </row>
     <row r="416" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
-        <v>1491</v>
+        <v>899</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>748</v>
+        <v>696</v>
       </c>
       <c r="C416" s="3"/>
     </row>
     <row r="417" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
-        <v>750</v>
+        <v>691</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>752</v>
+        <v>692</v>
       </c>
       <c r="C417" s="3"/>
     </row>
     <row r="418" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
-        <v>751</v>
+        <v>695</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>753</v>
+        <v>697</v>
       </c>
       <c r="C418" s="3"/>
     </row>
     <row r="419" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
-        <v>1180</v>
+        <v>703</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>1181</v>
+        <v>698</v>
       </c>
       <c r="C419" s="3"/>
     </row>
     <row r="420" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
-        <v>1179</v>
+        <v>1471</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>754</v>
+        <v>702</v>
       </c>
       <c r="C420" s="3"/>
     </row>
     <row r="421" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
-        <v>756</v>
+        <v>705</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="C421" s="3" t="s">
-        <v>760</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="C421" s="3"/>
     </row>
     <row r="422" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
-        <v>757</v>
+        <v>1459</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="C422" s="3" t="s">
-        <v>761</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="C422" s="3"/>
     </row>
     <row r="423" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
-        <v>764</v>
+        <v>711</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>766</v>
+        <v>712</v>
       </c>
       <c r="C423" s="3"/>
     </row>
     <row r="424" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
-        <v>765</v>
+        <v>713</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>767</v>
+        <v>714</v>
       </c>
       <c r="C424" s="3"/>
     </row>
     <row r="425" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
-        <v>768</v>
+        <v>721</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>770</v>
+        <v>722</v>
       </c>
       <c r="C425" s="3"/>
     </row>
     <row r="426" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
-        <v>769</v>
+        <v>1562</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>771</v>
+        <v>723</v>
       </c>
       <c r="C426" s="3"/>
     </row>
     <row r="427" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
-        <v>772</v>
+        <v>725</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>773</v>
+        <v>727</v>
       </c>
       <c r="C427" s="3"/>
     </row>
     <row r="428" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
-        <v>920</v>
+        <v>726</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>778</v>
+        <v>728</v>
       </c>
       <c r="C428" s="3"/>
     </row>
     <row r="429" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
-        <v>780</v>
+        <v>1149</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>781</v>
+        <v>1150</v>
       </c>
       <c r="C429" s="3"/>
     </row>
     <row r="430" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
-        <v>961</v>
+        <v>1148</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>782</v>
+        <v>729</v>
       </c>
       <c r="C430" s="3"/>
     </row>
     <row r="431" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
-        <v>883</v>
+        <v>731</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="C431" s="3"/>
+        <v>733</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="432" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="3" t="s">
-        <v>869</v>
+        <v>732</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="C432" s="3"/>
+        <v>734</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="433" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
-        <v>868</v>
+        <v>739</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>870</v>
+        <v>741</v>
       </c>
       <c r="C433" s="3"/>
     </row>
     <row r="434" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
-        <v>871</v>
+        <v>740</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>872</v>
+        <v>742</v>
       </c>
       <c r="C434" s="3"/>
     </row>
     <row r="435" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
-        <v>873</v>
+        <v>743</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>874</v>
+        <v>745</v>
       </c>
       <c r="C435" s="3"/>
     </row>
     <row r="436" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
-        <v>875</v>
+        <v>744</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>876</v>
+        <v>746</v>
       </c>
       <c r="C436" s="3"/>
     </row>
     <row r="437" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
-        <v>921</v>
+        <v>747</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>922</v>
+        <v>748</v>
       </c>
       <c r="C437" s="3"/>
     </row>
     <row r="438" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
-        <v>878</v>
+        <v>895</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>879</v>
+        <v>753</v>
       </c>
       <c r="C438" s="3"/>
     </row>
     <row r="439" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
-        <v>978</v>
+        <v>755</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>977</v>
+        <v>756</v>
       </c>
       <c r="C439" s="3"/>
     </row>
     <row r="440" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="3" t="s">
-        <v>880</v>
+        <v>935</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>941</v>
+        <v>757</v>
       </c>
       <c r="C440" s="3"/>
     </row>
     <row r="441" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
-        <v>881</v>
+        <v>858</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>940</v>
+        <v>841</v>
       </c>
       <c r="C441" s="3"/>
     </row>
     <row r="442" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
-        <v>886</v>
+        <v>844</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1060</v>
+        <v>842</v>
       </c>
       <c r="C442" s="3"/>
     </row>
     <row r="443" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
-        <v>887</v>
+        <v>843</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>888</v>
+        <v>845</v>
       </c>
       <c r="C443" s="3"/>
     </row>
     <row r="444" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="3" t="s">
-        <v>889</v>
+        <v>846</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>890</v>
+        <v>847</v>
       </c>
       <c r="C444" s="3"/>
     </row>
     <row r="445" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
-        <v>891</v>
+        <v>848</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>892</v>
+        <v>849</v>
       </c>
       <c r="C445" s="3"/>
     </row>
     <row r="446" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="3" t="s">
-        <v>893</v>
+        <v>850</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>894</v>
+        <v>851</v>
       </c>
       <c r="C446" s="3"/>
     </row>
     <row r="447" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C447" s="3"/>
     </row>
     <row r="448" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="3" t="s">
-        <v>976</v>
+        <v>853</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1061</v>
+        <v>854</v>
       </c>
       <c r="C448" s="3"/>
     </row>
     <row r="449" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
-        <v>896</v>
+        <v>952</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>897</v>
+        <v>951</v>
       </c>
       <c r="C449" s="3"/>
     </row>
     <row r="450" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="3" t="s">
-        <v>898</v>
+        <v>855</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>899</v>
+        <v>915</v>
       </c>
       <c r="C450" s="3"/>
     </row>
     <row r="451" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
-        <v>903</v>
+        <v>856</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="C451" s="3" t="s">
-        <v>902</v>
-      </c>
+        <v>914</v>
+      </c>
+      <c r="C451" s="3"/>
     </row>
     <row r="452" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="3" t="s">
-        <v>905</v>
+        <v>861</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>906</v>
+        <v>1570</v>
       </c>
       <c r="C452" s="3"/>
     </row>
     <row r="453" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
-        <v>907</v>
+        <v>862</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>911</v>
+        <v>863</v>
       </c>
       <c r="C453" s="3"/>
     </row>
     <row r="454" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="3" t="s">
-        <v>908</v>
+        <v>864</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>912</v>
+        <v>865</v>
       </c>
       <c r="C454" s="3"/>
     </row>
     <row r="455" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
-        <v>909</v>
+        <v>866</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>913</v>
+        <v>867</v>
       </c>
       <c r="C455" s="3"/>
     </row>
     <row r="456" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="3" t="s">
-        <v>910</v>
+        <v>868</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>914</v>
+        <v>869</v>
       </c>
       <c r="C456" s="3"/>
     </row>
     <row r="457" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
-        <v>916</v>
+        <v>875</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>944</v>
+        <v>870</v>
       </c>
       <c r="C457" s="3"/>
     </row>
     <row r="458" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="3" t="s">
-        <v>923</v>
+        <v>950</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>1062</v>
+        <v>1034</v>
       </c>
       <c r="C458" s="3"/>
     </row>
     <row r="459" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
-        <v>1034</v>
+        <v>871</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>1063</v>
+        <v>872</v>
       </c>
       <c r="C459" s="3"/>
     </row>
     <row r="460" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="3" t="s">
-        <v>942</v>
+        <v>873</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>1064</v>
+        <v>874</v>
       </c>
       <c r="C460" s="3"/>
     </row>
     <row r="461" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
-        <v>943</v>
+        <v>878</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="C461" s="3"/>
+        <v>879</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="462" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="3" t="s">
-        <v>955</v>
+        <v>880</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>956</v>
+        <v>881</v>
       </c>
       <c r="C462" s="3"/>
     </row>
     <row r="463" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
-        <v>954</v>
+        <v>882</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>957</v>
+        <v>886</v>
       </c>
       <c r="C463" s="3"/>
     </row>
     <row r="464" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="3" t="s">
-        <v>958</v>
+        <v>883</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>959</v>
+        <v>887</v>
       </c>
       <c r="C464" s="3"/>
     </row>
     <row r="465" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
-        <v>962</v>
+        <v>884</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>963</v>
+        <v>888</v>
       </c>
       <c r="C465" s="3"/>
     </row>
     <row r="466" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="3" t="s">
-        <v>1089</v>
+        <v>885</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>967</v>
+        <v>889</v>
       </c>
       <c r="C466" s="3"/>
     </row>
     <row r="467" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
-        <v>1090</v>
+        <v>891</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>1091</v>
+        <v>918</v>
       </c>
       <c r="C467" s="3"/>
     </row>
     <row r="468" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="3" t="s">
-        <v>1092</v>
+        <v>898</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>1093</v>
+        <v>1035</v>
       </c>
       <c r="C468" s="3"/>
     </row>
     <row r="469" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
-        <v>969</v>
+        <v>1008</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>971</v>
+        <v>1036</v>
       </c>
       <c r="C469" s="3"/>
     </row>
     <row r="470" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="3" t="s">
-        <v>968</v>
+        <v>916</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>970</v>
+        <v>1037</v>
       </c>
       <c r="C470" s="3"/>
     </row>
     <row r="471" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
-        <v>981</v>
+        <v>917</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>1012</v>
+        <v>919</v>
       </c>
       <c r="C471" s="3"/>
     </row>
     <row r="472" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="3" t="s">
-        <v>982</v>
+        <v>929</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>1013</v>
+        <v>930</v>
       </c>
       <c r="C472" s="3"/>
     </row>
     <row r="473" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
-        <v>983</v>
+        <v>928</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>1014</v>
+        <v>931</v>
       </c>
       <c r="C473" s="3"/>
     </row>
     <row r="474" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="3" t="s">
-        <v>1011</v>
+        <v>932</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>1015</v>
+        <v>933</v>
       </c>
       <c r="C474" s="3"/>
     </row>
     <row r="475" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
-        <v>1032</v>
+        <v>936</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>1033</v>
+        <v>937</v>
       </c>
       <c r="C475" s="3"/>
     </row>
     <row r="476" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="3" t="s">
-        <v>1041</v>
+        <v>1061</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>1042</v>
+        <v>941</v>
       </c>
       <c r="C476" s="3"/>
     </row>
     <row r="477" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
-        <v>1513</v>
+        <v>1062</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>1043</v>
+        <v>1063</v>
       </c>
       <c r="C477" s="3"/>
     </row>
     <row r="478" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="3" t="s">
-        <v>1035</v>
+        <v>1064</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>1038</v>
+        <v>1065</v>
       </c>
       <c r="C478" s="3"/>
     </row>
     <row r="479" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
-        <v>1036</v>
+        <v>943</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>1039</v>
+        <v>945</v>
       </c>
       <c r="C479" s="3"/>
     </row>
     <row r="480" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="3" t="s">
-        <v>1037</v>
+        <v>942</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>1040</v>
+        <v>944</v>
       </c>
       <c r="C480" s="3"/>
     </row>
     <row r="481" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
-        <v>1044</v>
+        <v>955</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>1065</v>
+        <v>986</v>
       </c>
       <c r="C481" s="3"/>
     </row>
     <row r="482" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="3" t="s">
-        <v>1045</v>
+        <v>956</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>1066</v>
+        <v>987</v>
       </c>
       <c r="C482" s="3"/>
     </row>
     <row r="483" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
-        <v>1046</v>
+        <v>957</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>1067</v>
+        <v>988</v>
       </c>
       <c r="C483" s="3"/>
     </row>
     <row r="484" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="3" t="s">
-        <v>1047</v>
+        <v>985</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>1049</v>
+        <v>989</v>
       </c>
       <c r="C484" s="3"/>
     </row>
     <row r="485" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
-        <v>1048</v>
+        <v>1006</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>1050</v>
+        <v>1007</v>
       </c>
       <c r="C485" s="3"/>
     </row>
     <row r="486" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="3" t="s">
-        <v>1053</v>
+        <v>1015</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>1068</v>
+        <v>1016</v>
       </c>
       <c r="C486" s="3"/>
     </row>
     <row r="487" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
-        <v>1054</v>
+        <v>1480</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>1168</v>
+        <v>1017</v>
       </c>
       <c r="C487" s="3"/>
     </row>
     <row r="488" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="3" t="s">
-        <v>1069</v>
+        <v>1009</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>1070</v>
+        <v>1012</v>
       </c>
       <c r="C488" s="3"/>
     </row>
     <row r="489" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
-        <v>1073</v>
+        <v>1010</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>1075</v>
+        <v>1013</v>
       </c>
       <c r="C489" s="3"/>
     </row>
     <row r="490" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="3" t="s">
-        <v>1074</v>
+        <v>1011</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>1076</v>
+        <v>1014</v>
       </c>
       <c r="C490" s="3"/>
     </row>
     <row r="491" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
-        <v>1078</v>
+        <v>1018</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>1079</v>
+        <v>1038</v>
       </c>
       <c r="C491" s="3"/>
     </row>
     <row r="492" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="3" t="s">
-        <v>1080</v>
+        <v>1019</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1081</v>
+        <v>1039</v>
       </c>
       <c r="C492" s="3"/>
     </row>
     <row r="493" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
-        <v>1161</v>
+        <v>1020</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>1082</v>
+        <v>1040</v>
       </c>
       <c r="C493" s="3"/>
     </row>
     <row r="494" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="3" t="s">
-        <v>1083</v>
+        <v>1021</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>1467</v>
+        <v>1023</v>
       </c>
       <c r="C494" s="3"/>
     </row>
     <row r="495" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
-        <v>1104</v>
+        <v>1022</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>1105</v>
+        <v>1024</v>
       </c>
       <c r="C495" s="3"/>
     </row>
     <row r="496" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="3" t="s">
-        <v>1106</v>
+        <v>1027</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>1165</v>
+        <v>1041</v>
       </c>
       <c r="C496" s="3"/>
     </row>
     <row r="497" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
-        <v>1084</v>
+        <v>1028</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>1097</v>
+        <v>1138</v>
       </c>
       <c r="C497" s="3"/>
     </row>
     <row r="498" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="3" t="s">
-        <v>1085</v>
+        <v>1042</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>1098</v>
+        <v>1043</v>
       </c>
       <c r="C498" s="3"/>
     </row>
     <row r="499" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>1099</v>
+        <v>1048</v>
       </c>
       <c r="C499" s="3"/>
     </row>
     <row r="500" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="3" t="s">
-        <v>1087</v>
+        <v>1047</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>1100</v>
+        <v>1049</v>
       </c>
       <c r="C500" s="3"/>
     </row>
     <row r="501" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
-        <v>1094</v>
+        <v>1051</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>1170</v>
+        <v>1052</v>
       </c>
       <c r="C501" s="3"/>
     </row>
     <row r="502" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="3" t="s">
-        <v>1095</v>
+        <v>1053</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C502" s="3" t="s">
-        <v>1101</v>
-      </c>
+        <v>1054</v>
+      </c>
+      <c r="C502" s="3"/>
     </row>
     <row r="503" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
-        <v>1110</v>
+        <v>1131</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>1111</v>
+        <v>1571</v>
       </c>
       <c r="C503" s="3"/>
     </row>
     <row r="504" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="3" t="s">
-        <v>1167</v>
+        <v>1055</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>1118</v>
+        <v>1436</v>
       </c>
       <c r="C504" s="3"/>
     </row>
     <row r="505" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
-        <v>1122</v>
+        <v>1561</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>1123</v>
+        <v>1076</v>
       </c>
       <c r="C505" s="3"/>
     </row>
     <row r="506" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="3" t="s">
-        <v>1125</v>
+        <v>1077</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>1127</v>
+        <v>1135</v>
       </c>
       <c r="C506" s="3"/>
     </row>
     <row r="507" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="3" t="s">
-        <v>1124</v>
+        <v>1056</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>1126</v>
+        <v>1069</v>
       </c>
       <c r="C507" s="3"/>
     </row>
     <row r="508" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="3" t="s">
-        <v>1128</v>
+        <v>1057</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>1129</v>
+        <v>1070</v>
       </c>
       <c r="C508" s="3"/>
     </row>
     <row r="509" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="3" t="s">
-        <v>1131</v>
+        <v>1058</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>1133</v>
+        <v>1071</v>
       </c>
       <c r="C509" s="3"/>
     </row>
     <row r="510" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="3" t="s">
-        <v>1132</v>
+        <v>1059</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>1134</v>
+        <v>1072</v>
       </c>
       <c r="C510" s="3"/>
     </row>
     <row r="511" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="3" t="s">
-        <v>1135</v>
+        <v>1066</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="C511" s="3"/>
     </row>
     <row r="512" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="3" t="s">
-        <v>1136</v>
+        <v>1067</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C512" s="3"/>
+        <v>1068</v>
+      </c>
+      <c r="C512" s="3" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="513" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="3" t="s">
-        <v>844</v>
+        <v>1080</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>1140</v>
+        <v>1081</v>
       </c>
       <c r="C513" s="3"/>
     </row>
     <row r="514" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="3" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>1141</v>
+        <v>1088</v>
       </c>
       <c r="C514" s="3"/>
     </row>
     <row r="515" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="3" t="s">
-        <v>1148</v>
+        <v>1092</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>1142</v>
+        <v>1093</v>
       </c>
       <c r="C515" s="3"/>
     </row>
     <row r="516" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="3" t="s">
-        <v>1152</v>
+        <v>1095</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>1153</v>
+        <v>1097</v>
       </c>
       <c r="C516" s="3"/>
     </row>
     <row r="517" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="3" t="s">
-        <v>1151</v>
+        <v>1094</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1154</v>
+        <v>1096</v>
       </c>
       <c r="C517" s="3"/>
     </row>
     <row r="518" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="3" t="s">
-        <v>1155</v>
+        <v>1098</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1156</v>
+        <v>1099</v>
       </c>
       <c r="C518" s="3"/>
     </row>
     <row r="519" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="3" t="s">
-        <v>1158</v>
+        <v>1101</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>1159</v>
+        <v>1103</v>
       </c>
       <c r="C519" s="3"/>
     </row>
     <row r="520" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="3" t="s">
-        <v>1163</v>
+        <v>1102</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1166</v>
+        <v>1104</v>
       </c>
       <c r="C520" s="3"/>
     </row>
     <row r="521" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="3" t="s">
-        <v>1172</v>
+        <v>1105</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1174</v>
+        <v>1107</v>
       </c>
       <c r="C521" s="3"/>
     </row>
     <row r="522" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="3" t="s">
-        <v>1173</v>
+        <v>1106</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1175</v>
+        <v>1108</v>
       </c>
       <c r="C522" s="3"/>
     </row>
     <row r="523" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="3" t="s">
-        <v>1177</v>
+        <v>819</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1178</v>
+        <v>1110</v>
       </c>
       <c r="C523" s="3"/>
     </row>
     <row r="524" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="3" t="s">
-        <v>1182</v>
+        <v>1109</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1183</v>
+        <v>1111</v>
       </c>
       <c r="C524" s="3"/>
     </row>
     <row r="525" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="3" t="s">
-        <v>1184</v>
+        <v>1118</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1449</v>
+        <v>1112</v>
       </c>
       <c r="C525" s="3"/>
     </row>
     <row r="526" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="3" t="s">
-        <v>1185</v>
+        <v>1122</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1186</v>
+        <v>1123</v>
       </c>
       <c r="C526" s="3"/>
     </row>
     <row r="527" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="3" t="s">
-        <v>1456</v>
+        <v>1121</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1446</v>
+        <v>1124</v>
       </c>
       <c r="C527" s="3"/>
     </row>
     <row r="528" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="3" t="s">
-        <v>1454</v>
+        <v>1125</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1455</v>
+        <v>1126</v>
       </c>
       <c r="C528" s="3"/>
     </row>
     <row r="529" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="3" t="s">
-        <v>1472</v>
+        <v>1128</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1473</v>
+        <v>1129</v>
       </c>
       <c r="C529" s="3"/>
     </row>
     <row r="530" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="3" t="s">
-        <v>1457</v>
+        <v>1133</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1458</v>
+        <v>1136</v>
       </c>
       <c r="C530" s="3"/>
     </row>
     <row r="531" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="3" t="s">
-        <v>1461</v>
+        <v>1141</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1459</v>
+        <v>1143</v>
       </c>
       <c r="C531" s="3"/>
     </row>
     <row r="532" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="3" t="s">
-        <v>1460</v>
+        <v>1142</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1462</v>
+        <v>1144</v>
       </c>
       <c r="C532" s="3"/>
     </row>
     <row r="533" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="3" t="s">
-        <v>1463</v>
+        <v>1146</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1464</v>
+        <v>1147</v>
       </c>
       <c r="C533" s="3"/>
     </row>
     <row r="534" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="3" t="s">
-        <v>1465</v>
+        <v>1151</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1468</v>
+        <v>1152</v>
       </c>
       <c r="C534" s="3"/>
     </row>
     <row r="535" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="3" t="s">
-        <v>1466</v>
+        <v>1153</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1469</v>
+        <v>1418</v>
       </c>
       <c r="C535" s="3"/>
     </row>
     <row r="536" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="3" t="s">
-        <v>1470</v>
+        <v>1154</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1471</v>
+        <v>1155</v>
       </c>
       <c r="C536" s="3"/>
     </row>
     <row r="537" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="3" t="s">
-        <v>1475</v>
+        <v>1425</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1477</v>
+        <v>1415</v>
       </c>
       <c r="C537" s="3"/>
     </row>
     <row r="538" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="3" t="s">
-        <v>1479</v>
+        <v>1423</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C538" s="3" t="s">
-        <v>1481</v>
-      </c>
+        <v>1424</v>
+      </c>
+      <c r="C538" s="3"/>
     </row>
     <row r="539" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="3" t="s">
-        <v>1484</v>
+        <v>1441</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1487</v>
+        <v>1442</v>
       </c>
       <c r="C539" s="3"/>
     </row>
     <row r="540" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="3" t="s">
-        <v>1485</v>
+        <v>1426</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C540" s="3" t="s">
-        <v>1490</v>
-      </c>
+        <v>1427</v>
+      </c>
+      <c r="C540" s="3"/>
     </row>
     <row r="541" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="3" t="s">
-        <v>1486</v>
+        <v>1430</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1489</v>
+        <v>1428</v>
       </c>
       <c r="C541" s="3"/>
     </row>
     <row r="542" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="3" t="s">
-        <v>1493</v>
+        <v>1429</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1499</v>
+        <v>1431</v>
       </c>
       <c r="C542" s="3"/>
     </row>
     <row r="543" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="3" t="s">
-        <v>1494</v>
+        <v>1432</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1500</v>
+        <v>1433</v>
       </c>
       <c r="C543" s="3"/>
     </row>
     <row r="544" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="3" t="s">
-        <v>1495</v>
+        <v>1434</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1501</v>
+        <v>1437</v>
       </c>
       <c r="C544" s="3"/>
     </row>
     <row r="545" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="3" t="s">
-        <v>1496</v>
+        <v>1435</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1502</v>
+        <v>1438</v>
       </c>
       <c r="C545" s="3"/>
     </row>
     <row r="546" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="3" t="s">
-        <v>1505</v>
+        <v>1439</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1506</v>
+        <v>1440</v>
       </c>
       <c r="C546" s="3"/>
     </row>
     <row r="547" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="3" t="s">
-        <v>1507</v>
+        <v>1443</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1508</v>
+        <v>1445</v>
       </c>
       <c r="C547" s="3"/>
     </row>
     <row r="548" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="3" t="s">
-        <v>1509</v>
+        <v>1447</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1510</v>
-      </c>
-      <c r="C548" s="3"/>
+        <v>1448</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>1449</v>
+      </c>
     </row>
     <row r="549" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="3" t="s">
-        <v>1512</v>
+        <v>1452</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1511</v>
+        <v>1455</v>
       </c>
       <c r="C549" s="3"/>
     </row>
     <row r="550" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="3" t="s">
-        <v>1514</v>
+        <v>1453</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>1515</v>
-      </c>
-      <c r="C550" s="3"/>
+        <v>1456</v>
+      </c>
+      <c r="C550" s="3" t="s">
+        <v>1458</v>
+      </c>
     </row>
     <row r="551" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="3" t="s">
-        <v>1517</v>
+        <v>1454</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C551" s="3" t="s">
-        <v>1519</v>
-      </c>
+        <v>1457</v>
+      </c>
+      <c r="C551" s="3"/>
     </row>
     <row r="552" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="3" t="s">
-        <v>1520</v>
+        <v>1460</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>1521</v>
+        <v>1466</v>
       </c>
       <c r="C552" s="3"/>
     </row>
     <row r="553" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="3" t="s">
-        <v>1522</v>
+        <v>1461</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1523</v>
+        <v>1467</v>
       </c>
       <c r="C553" s="3"/>
     </row>
     <row r="554" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="3" t="s">
-        <v>1524</v>
+        <v>1462</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>1526</v>
+        <v>1468</v>
       </c>
       <c r="C554" s="3"/>
     </row>
     <row r="555" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="3" t="s">
-        <v>1525</v>
+        <v>1463</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1527</v>
+        <v>1469</v>
       </c>
       <c r="C555" s="3"/>
     </row>
     <row r="556" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A556" s="3"/>
-      <c r="B556" s="3"/>
+      <c r="A556" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>1473</v>
+      </c>
       <c r="C556" s="3"/>
     </row>
     <row r="557" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A557" s="3"/>
-      <c r="B557" s="3"/>
+      <c r="A557" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>1475</v>
+      </c>
       <c r="C557" s="3"/>
     </row>
     <row r="558" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A558" s="3"/>
-      <c r="B558" s="3"/>
+      <c r="A558" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>1477</v>
+      </c>
       <c r="C558" s="3"/>
     </row>
     <row r="559" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A559" s="3"/>
-      <c r="B559" s="3"/>
+      <c r="A559" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>1478</v>
+      </c>
       <c r="C559" s="3"/>
     </row>
     <row r="560" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A560" s="3"/>
-      <c r="B560" s="3"/>
+      <c r="A560" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>1482</v>
+      </c>
       <c r="C560" s="3"/>
     </row>
     <row r="561" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A561" s="3"/>
-      <c r="B561" s="3"/>
-      <c r="C561" s="3"/>
+      <c r="A561" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>1486</v>
+      </c>
     </row>
     <row r="562" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A562" s="3"/>
-      <c r="B562" s="3"/>
+      <c r="A562" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>1488</v>
+      </c>
       <c r="C562" s="3"/>
     </row>
     <row r="563" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A563" s="3"/>
-      <c r="B563" s="3"/>
+      <c r="A563" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>1490</v>
+      </c>
       <c r="C563" s="3"/>
     </row>
     <row r="564" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A564" s="3"/>
-      <c r="B564" s="3"/>
+      <c r="A564" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>1493</v>
+      </c>
       <c r="C564" s="3"/>
     </row>
     <row r="565" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A565" s="3"/>
-      <c r="B565" s="3"/>
+      <c r="A565" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>1494</v>
+      </c>
       <c r="C565" s="3"/>
     </row>
     <row r="566" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A566" s="3"/>
-      <c r="B566" s="3"/>
+      <c r="A566" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>1501</v>
+      </c>
       <c r="C566" s="3"/>
     </row>
     <row r="567" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A567" s="3"/>
-      <c r="B567" s="3"/>
+      <c r="A567" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>1502</v>
+      </c>
       <c r="C567" s="3"/>
     </row>
     <row r="568" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A568" s="3"/>
-      <c r="B568" s="3"/>
+      <c r="A568" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>1507</v>
+      </c>
       <c r="C568" s="3"/>
     </row>
     <row r="569" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A569" s="3"/>
-      <c r="B569" s="3"/>
+      <c r="A569" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>1505</v>
+      </c>
       <c r="C569" s="3"/>
     </row>
     <row r="570" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A570" s="3"/>
-      <c r="B570" s="3"/>
+      <c r="A570" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>1508</v>
+      </c>
       <c r="C570" s="3"/>
     </row>
     <row r="571" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A571" s="3"/>
-      <c r="B571" s="3"/>
+      <c r="A571" s="3" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>1510</v>
+      </c>
       <c r="C571" s="3"/>
     </row>
     <row r="572" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A572" s="3"/>
-      <c r="B572" s="3"/>
+      <c r="A572" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>1512</v>
+      </c>
       <c r="C572" s="3"/>
     </row>
     <row r="573" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A573" s="3"/>
-      <c r="B573" s="3"/>
+      <c r="A573" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>1560</v>
+      </c>
       <c r="C573" s="3"/>
     </row>
     <row r="574" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A574" s="3"/>
-      <c r="B574" s="3"/>
+      <c r="A574" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>1566</v>
+      </c>
       <c r="C574" s="3"/>
     </row>
     <row r="575" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A575" s="3"/>
-      <c r="B575" s="3"/>
+      <c r="A575" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>1568</v>
+      </c>
       <c r="C575" s="3"/>
     </row>
     <row r="576" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A576" s="3"/>
-      <c r="B576" s="3"/>
+      <c r="A576" s="3" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>1575</v>
+      </c>
       <c r="C576" s="3"/>
     </row>
     <row r="577" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A577" s="3"/>
-      <c r="B577" s="3"/>
+      <c r="A577" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>1576</v>
+      </c>
       <c r="C577" s="3"/>
     </row>
     <row r="578" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A578" s="3"/>
-      <c r="B578" s="3"/>
+      <c r="A578" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>1579</v>
+      </c>
       <c r="C578" s="3"/>
     </row>
     <row r="579" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A579" s="3"/>
-      <c r="B579" s="3"/>
+      <c r="A579" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>1580</v>
+      </c>
       <c r="C579" s="3"/>
     </row>
     <row r="580" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -15255,11 +15633,61 @@
       <c r="B1075" s="3"/>
       <c r="C1075" s="3"/>
     </row>
+    <row r="1076" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1076" s="3"/>
+      <c r="B1076" s="3"/>
+      <c r="C1076" s="3"/>
+    </row>
+    <row r="1077" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1077" s="3"/>
+      <c r="B1077" s="3"/>
+      <c r="C1077" s="3"/>
+    </row>
+    <row r="1078" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1078" s="3"/>
+      <c r="B1078" s="3"/>
+      <c r="C1078" s="3"/>
+    </row>
+    <row r="1079" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1079" s="3"/>
+      <c r="B1079" s="3"/>
+      <c r="C1079" s="3"/>
+    </row>
+    <row r="1080" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1080" s="3"/>
+      <c r="B1080" s="3"/>
+      <c r="C1080" s="3"/>
+    </row>
+    <row r="1081" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1081" s="3"/>
+      <c r="B1081" s="3"/>
+      <c r="C1081" s="3"/>
+    </row>
+    <row r="1082" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1082" s="3"/>
+      <c r="B1082" s="3"/>
+      <c r="C1082" s="3"/>
+    </row>
+    <row r="1083" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1083" s="3"/>
+      <c r="B1083" s="3"/>
+      <c r="C1083" s="3"/>
+    </row>
+    <row r="1084" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1084" s="3"/>
+      <c r="B1084" s="3"/>
+      <c r="C1084" s="3"/>
+    </row>
+    <row r="1085" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1085" s="3"/>
+      <c r="B1085" s="3"/>
+      <c r="C1085" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C20:C35"/>
-    <mergeCell ref="C216:C222"/>
+    <mergeCell ref="C22:C37"/>
+    <mergeCell ref="C218:C224"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15269,9 +15697,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96C31DF-83EA-48D1-9E85-BF6EA5716842}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -15282,7 +15710,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
-        <v>1121</v>
+        <v>1091</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="3"/>
@@ -15297,26 +15725,42 @@
     </row>
     <row r="3" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>1146</v>
+        <v>1116</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>1147</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>1143</v>
+        <v>1113</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1144</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>1130</v>
+        <v>1100</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1145</v>
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1585</v>
       </c>
     </row>
   </sheetData>
@@ -15346,7 +15790,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
-        <v>865</v>
+        <v>840</v>
       </c>
       <c r="B1" s="56"/>
       <c r="C1" s="56"/>
@@ -15368,7 +15812,7 @@
     </row>
     <row r="2" spans="1:18" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="60" t="s">
-        <v>863</v>
+        <v>838</v>
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
@@ -15390,170 +15834,170 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
+        <v>765</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>814</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>815</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>817</v>
+        <v>792</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>818</v>
+        <v>793</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>852</v>
+        <v>827</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="58"/>
       <c r="B4" s="9" t="s">
-        <v>791</v>
+        <v>766</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>792</v>
+        <v>767</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>793</v>
+        <v>768</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>794</v>
+        <v>769</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>795</v>
+        <v>770</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
+        <v>771</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>796</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>820</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>821</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>822</v>
+        <v>797</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>823</v>
+        <v>798</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>824</v>
+        <v>799</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>825</v>
+        <v>800</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>827</v>
+        <v>802</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>828</v>
+        <v>803</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>829</v>
+        <v>804</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>830</v>
+        <v>805</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>831</v>
+        <v>806</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>832</v>
+        <v>807</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>833</v>
+        <v>808</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>835</v>
+        <v>810</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="58"/>
       <c r="B6" s="9" t="s">
-        <v>797</v>
+        <v>772</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>798</v>
+        <v>773</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>799</v>
+        <v>774</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>801</v>
+        <v>776</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>802</v>
+        <v>777</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>803</v>
+        <v>778</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>804</v>
+        <v>779</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>805</v>
+        <v>780</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>806</v>
+        <v>781</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>807</v>
+        <v>782</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>808</v>
+        <v>783</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>809</v>
+        <v>784</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>810</v>
+        <v>785</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>811</v>
+        <v>786</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="57" t="s">
-        <v>812</v>
+        <v>787</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>813</v>
+        <v>788</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>836</v>
+        <v>811</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>984</v>
+        <v>958</v>
       </c>
       <c r="E7" s="63"/>
       <c r="F7" s="63"/>
@@ -15568,10 +16012,10 @@
     <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="58"/>
       <c r="B8" s="9" t="s">
-        <v>837</v>
+        <v>812</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>838</v>
+        <v>813</v>
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="65"/>
@@ -15586,48 +16030,48 @@
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
-        <v>839</v>
+        <v>814</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>840</v>
+        <v>815</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>841</v>
+        <v>816</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>842</v>
+        <v>817</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>843</v>
+        <v>818</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>844</v>
+        <v>819</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>845</v>
+        <v>820</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>846</v>
+        <v>821</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>847</v>
+        <v>822</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>848</v>
+        <v>823</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>849</v>
+        <v>824</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>850</v>
+        <v>825</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="59" t="s">
-        <v>979</v>
+        <v>953</v>
       </c>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
@@ -15649,7 +16093,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="61" t="s">
-        <v>851</v>
+        <v>826</v>
       </c>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -15671,7 +16115,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="61" t="s">
-        <v>864</v>
+        <v>839</v>
       </c>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -15693,7 +16137,7 @@
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="61" t="s">
-        <v>853</v>
+        <v>828</v>
       </c>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -15715,40 +16159,40 @@
     </row>
     <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.3">
       <c r="A14" s="57" t="s">
-        <v>854</v>
+        <v>829</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>855</v>
+        <v>830</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>856</v>
+        <v>831</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>857</v>
+        <v>832</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>859</v>
+        <v>834</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>858</v>
+        <v>833</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="66"/>
       <c r="B15" s="20" t="s">
-        <v>860</v>
+        <v>835</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>861</v>
+        <v>836</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>809</v>
+        <v>784</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>862</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -15789,208 +16233,208 @@
   <sheetData>
     <row r="1" spans="1:2" ht="114" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="67" t="s">
-        <v>1017</v>
+        <v>991</v>
       </c>
       <c r="B1" s="67"/>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>986</v>
+        <v>960</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>985</v>
+        <v>959</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>814</v>
+        <v>789</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>987</v>
+        <v>961</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>819</v>
+        <v>794</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>988</v>
+        <v>962</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>820</v>
+        <v>795</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>989</v>
+        <v>963</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>815</v>
+        <v>790</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1010</v>
+        <v>984</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>821</v>
+        <v>796</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>990</v>
+        <v>964</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
-        <v>822</v>
+        <v>797</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>991</v>
+        <v>965</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>823</v>
+        <v>798</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>992</v>
+        <v>966</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>993</v>
+        <v>967</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
-        <v>824</v>
+        <v>799</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>994</v>
+        <v>968</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>825</v>
+        <v>800</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>995</v>
+        <v>969</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>996</v>
+        <v>970</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
-        <v>827</v>
+        <v>802</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>997</v>
+        <v>971</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
-        <v>817</v>
+        <v>792</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>998</v>
+        <v>972</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>828</v>
+        <v>803</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>999</v>
+        <v>973</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
-        <v>829</v>
+        <v>804</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1000</v>
+        <v>974</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
-        <v>830</v>
+        <v>805</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1001</v>
+        <v>975</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
-        <v>831</v>
+        <v>806</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1002</v>
+        <v>976</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
-        <v>818</v>
+        <v>793</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1003</v>
+        <v>977</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
-        <v>832</v>
+        <v>807</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1004</v>
+        <v>978</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
-        <v>833</v>
+        <v>808</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1005</v>
+        <v>979</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1009</v>
+        <v>983</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
-        <v>835</v>
+        <v>810</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1006</v>
+        <v>980</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
-        <v>836</v>
+        <v>811</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1007</v>
+        <v>981</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="29" t="s">
-        <v>813</v>
+        <v>788</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>1008</v>
+        <v>982</v>
       </c>
     </row>
   </sheetData>
@@ -16007,7 +16451,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:Y3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -16042,7 +16486,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="68" t="s">
-        <v>1447</v>
+        <v>1416</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -16071,7 +16515,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
-        <v>1451</v>
+        <v>1420</v>
       </c>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -16100,7 +16544,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="69" t="s">
-        <v>1483</v>
+        <v>1451</v>
       </c>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -16129,7 +16573,7 @@
     </row>
     <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="70" t="s">
-        <v>1450</v>
+        <v>1419</v>
       </c>
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
@@ -16161,153 +16605,153 @@
         <v>0</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>1187</v>
+        <v>1156</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>1188</v>
+        <v>1157</v>
       </c>
       <c r="D5" s="37" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>1162</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>1163</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>1164</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>1165</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>1167</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>1168</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>1169</v>
+      </c>
+      <c r="P5" s="41" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q5" s="38" t="s">
+        <v>1193</v>
+      </c>
+      <c r="R5" s="44" t="s">
+        <v>1194</v>
+      </c>
+      <c r="S5" s="41" t="s">
         <v>1197</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>1189</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>1190</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>1191</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>1192</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>1193</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>1194</v>
-      </c>
-      <c r="K5" s="43" t="s">
-        <v>1195</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M5" s="37" t="s">
-        <v>1198</v>
-      </c>
-      <c r="N5" s="38" t="s">
-        <v>1199</v>
-      </c>
-      <c r="O5" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="P5" s="41" t="s">
-        <v>1201</v>
-      </c>
-      <c r="Q5" s="38" t="s">
-        <v>1224</v>
-      </c>
-      <c r="R5" s="44" t="s">
-        <v>1225</v>
-      </c>
-      <c r="S5" s="41" t="s">
-        <v>1228</v>
-      </c>
       <c r="T5" s="36" t="s">
-        <v>1202</v>
+        <v>1171</v>
       </c>
       <c r="U5" s="37" t="s">
-        <v>1204</v>
+        <v>1173</v>
       </c>
       <c r="V5" s="37" t="s">
-        <v>1205</v>
+        <v>1174</v>
       </c>
       <c r="W5" s="43" t="s">
-        <v>1203</v>
+        <v>1172</v>
       </c>
       <c r="X5" s="33" t="s">
-        <v>1207</v>
+        <v>1176</v>
       </c>
       <c r="Y5" s="26" t="s">
-        <v>1206</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
-        <v>1421</v>
+        <v>1390</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>1422</v>
+        <v>1391</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>1423</v>
+        <v>1392</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>1424</v>
+        <v>1393</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>1425</v>
+        <v>1394</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>1426</v>
+        <v>1395</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>1427</v>
+        <v>1396</v>
       </c>
       <c r="H6" s="46" t="s">
-        <v>1428</v>
+        <v>1397</v>
       </c>
       <c r="I6" s="47" t="s">
-        <v>1429</v>
+        <v>1398</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>1430</v>
+        <v>1399</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>1431</v>
+        <v>1400</v>
       </c>
       <c r="L6" s="46" t="s">
-        <v>1432</v>
+        <v>1401</v>
       </c>
       <c r="M6" s="47" t="s">
-        <v>1433</v>
+        <v>1402</v>
       </c>
       <c r="N6" s="47" t="s">
-        <v>1434</v>
+        <v>1403</v>
       </c>
       <c r="O6" s="47" t="s">
-        <v>1435</v>
+        <v>1404</v>
       </c>
       <c r="P6" s="48" t="s">
-        <v>1436</v>
+        <v>1405</v>
       </c>
       <c r="Q6" s="47" t="s">
-        <v>1437</v>
+        <v>1406</v>
       </c>
       <c r="R6" s="35" t="s">
-        <v>1438</v>
+        <v>1407</v>
       </c>
       <c r="S6" s="48" t="s">
-        <v>1439</v>
+        <v>1408</v>
       </c>
       <c r="T6" s="46" t="s">
-        <v>1440</v>
+        <v>1409</v>
       </c>
       <c r="U6" s="47" t="s">
-        <v>1441</v>
+        <v>1410</v>
       </c>
       <c r="V6" s="47" t="s">
-        <v>1442</v>
+        <v>1411</v>
       </c>
       <c r="W6" s="48" t="s">
-        <v>1443</v>
+        <v>1412</v>
       </c>
       <c r="X6" s="34" t="s">
-        <v>1444</v>
+        <v>1413</v>
       </c>
       <c r="Y6" s="32" t="s">
-        <v>1445</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -16315,73 +16759,73 @@
         <v>3</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>1208</v>
+        <v>1177</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>1209</v>
+        <v>1178</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1210</v>
+        <v>1179</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>1211</v>
+        <v>1180</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>1212</v>
+        <v>1181</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>1213</v>
+        <v>1182</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>1214</v>
+        <v>1183</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>1215</v>
+        <v>1184</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>1216</v>
+        <v>1185</v>
       </c>
       <c r="K7" s="42" t="s">
-        <v>1217</v>
+        <v>1186</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>1218</v>
+        <v>1187</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>1219</v>
+        <v>1188</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>1220</v>
+        <v>1189</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>1221</v>
+        <v>1190</v>
       </c>
       <c r="P7" s="42" t="s">
-        <v>1222</v>
+        <v>1191</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>1226</v>
+        <v>1195</v>
       </c>
       <c r="R7" s="45" t="s">
-        <v>1227</v>
+        <v>1196</v>
       </c>
       <c r="S7" s="42" t="s">
-        <v>1229</v>
+        <v>1198</v>
       </c>
       <c r="T7" s="40" t="s">
-        <v>1223</v>
+        <v>1192</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>1230</v>
+        <v>1199</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>1231</v>
+        <v>1200</v>
       </c>
       <c r="W7" s="42" t="s">
-        <v>1299</v>
+        <v>1268</v>
       </c>
       <c r="X7" s="39" t="s">
-        <v>1232</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -16389,73 +16833,73 @@
         <v>4</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>1233</v>
+        <v>1202</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>1234</v>
+        <v>1203</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1235</v>
+        <v>1204</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>1236</v>
+        <v>1205</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>1237</v>
+        <v>1206</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>1238</v>
+        <v>1207</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>1239</v>
+        <v>1208</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>1240</v>
+        <v>1209</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>1241</v>
+        <v>1210</v>
       </c>
       <c r="K8" s="42" t="s">
-        <v>1242</v>
+        <v>1211</v>
       </c>
       <c r="L8" s="40" t="s">
-        <v>1243</v>
+        <v>1212</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>1244</v>
+        <v>1213</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>1245</v>
+        <v>1214</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>1246</v>
+        <v>1215</v>
       </c>
       <c r="P8" s="42" t="s">
-        <v>1247</v>
+        <v>1216</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>1248</v>
+        <v>1217</v>
       </c>
       <c r="R8" s="45" t="s">
-        <v>1249</v>
+        <v>1218</v>
       </c>
       <c r="S8" s="42" t="s">
-        <v>1250</v>
+        <v>1219</v>
       </c>
       <c r="T8" s="40" t="s">
-        <v>1251</v>
+        <v>1220</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>1252</v>
+        <v>1221</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>1253</v>
+        <v>1222</v>
       </c>
       <c r="W8" s="42" t="s">
-        <v>1298</v>
+        <v>1267</v>
       </c>
       <c r="X8" s="39" t="s">
-        <v>1254</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
@@ -16463,520 +16907,520 @@
         <v>5</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>1255</v>
+        <v>1224</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>1256</v>
+        <v>1225</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1257</v>
+        <v>1226</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>1258</v>
+        <v>1227</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1259</v>
+        <v>1228</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>1260</v>
+        <v>1229</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>1261</v>
+        <v>1230</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>1262</v>
+        <v>1231</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>1263</v>
+        <v>1232</v>
       </c>
       <c r="K9" s="42" t="s">
-        <v>1264</v>
+        <v>1233</v>
       </c>
       <c r="L9" s="40" t="s">
-        <v>1265</v>
+        <v>1234</v>
       </c>
       <c r="M9" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P9" s="42" t="s">
+        <v>1238</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="R9" s="45" t="s">
+        <v>1240</v>
+      </c>
+      <c r="S9" s="42" t="s">
+        <v>1241</v>
+      </c>
+      <c r="T9" s="40" t="s">
+        <v>1242</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="W9" s="42" t="s">
         <v>1266</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>1267</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>1268</v>
-      </c>
-      <c r="P9" s="42" t="s">
-        <v>1269</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>1270</v>
-      </c>
-      <c r="R9" s="45" t="s">
-        <v>1271</v>
-      </c>
-      <c r="S9" s="42" t="s">
-        <v>1272</v>
-      </c>
-      <c r="T9" s="40" t="s">
-        <v>1273</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>1274</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>1275</v>
-      </c>
-      <c r="W9" s="42" t="s">
-        <v>1297</v>
-      </c>
       <c r="X9" s="39" t="s">
-        <v>1276</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
-        <v>1448</v>
+        <v>1417</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>1277</v>
+        <v>1246</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>1278</v>
+        <v>1247</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1279</v>
+        <v>1248</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>1280</v>
+        <v>1249</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1281</v>
+        <v>1250</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>1282</v>
+        <v>1251</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>1283</v>
+        <v>1252</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>1284</v>
+        <v>1253</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>1285</v>
+        <v>1254</v>
       </c>
       <c r="K10" s="42" t="s">
-        <v>1286</v>
+        <v>1255</v>
       </c>
       <c r="L10" s="40" t="s">
+        <v>1256</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>1257</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="P10" s="42" t="s">
+        <v>1444</v>
+      </c>
+      <c r="Q10" s="4" t="s">
         <v>1287</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>1288</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>1289</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>1290</v>
-      </c>
-      <c r="P10" s="42" t="s">
-        <v>1476</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>1318</v>
-      </c>
       <c r="R10" s="45" t="s">
-        <v>1291</v>
+        <v>1260</v>
       </c>
       <c r="S10" s="42" t="s">
-        <v>1292</v>
+        <v>1261</v>
       </c>
       <c r="T10" s="40" t="s">
-        <v>1293</v>
+        <v>1262</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>1294</v>
+        <v>1263</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>1295</v>
+        <v>1264</v>
       </c>
       <c r="W10" s="42" t="s">
-        <v>1296</v>
+        <v>1265</v>
       </c>
       <c r="X10" s="39" t="s">
-        <v>1300</v>
+        <v>1269</v>
       </c>
       <c r="Y10" s="28" t="s">
-        <v>1452</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>1301</v>
+        <v>1270</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>1302</v>
+        <v>1271</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>1303</v>
+        <v>1272</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1304</v>
+        <v>1273</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>1305</v>
+        <v>1274</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1306</v>
+        <v>1275</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>1307</v>
+        <v>1276</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>1308</v>
+        <v>1277</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>1309</v>
+        <v>1278</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>1310</v>
+        <v>1279</v>
       </c>
       <c r="K11" s="42" t="s">
-        <v>1311</v>
+        <v>1280</v>
       </c>
       <c r="L11" s="40" t="s">
-        <v>1312</v>
+        <v>1281</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>1313</v>
+        <v>1282</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>1314</v>
+        <v>1283</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>1315</v>
+        <v>1284</v>
       </c>
       <c r="P11" s="42" t="s">
-        <v>1316</v>
+        <v>1285</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>1317</v>
+        <v>1286</v>
       </c>
       <c r="R11" s="45" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="S11" s="42" t="s">
-        <v>1320</v>
+        <v>1289</v>
       </c>
       <c r="T11" s="40" t="s">
-        <v>1321</v>
+        <v>1290</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>1322</v>
+        <v>1291</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>1323</v>
+        <v>1292</v>
       </c>
       <c r="W11" s="42" t="s">
-        <v>1324</v>
+        <v>1293</v>
       </c>
       <c r="X11" s="39" t="s">
-        <v>1325</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
-        <v>1326</v>
+        <v>1295</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>1327</v>
+        <v>1296</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1333</v>
+        <v>1302</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>1334</v>
+        <v>1303</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>1335</v>
+        <v>1304</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>1336</v>
+        <v>1305</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>1339</v>
+        <v>1308</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>1340</v>
+        <v>1309</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>1341</v>
+        <v>1310</v>
       </c>
       <c r="K12" s="42" t="s">
-        <v>1342</v>
+        <v>1311</v>
       </c>
       <c r="L12" s="40" t="s">
-        <v>1343</v>
+        <v>1312</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>1344</v>
+        <v>1313</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>1345</v>
+        <v>1314</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>1346</v>
+        <v>1315</v>
       </c>
       <c r="P12" s="42" t="s">
-        <v>1347</v>
+        <v>1316</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>1348</v>
+        <v>1317</v>
       </c>
       <c r="R12" s="45" t="s">
-        <v>1349</v>
+        <v>1318</v>
       </c>
       <c r="S12" s="42" t="s">
-        <v>1350</v>
+        <v>1319</v>
       </c>
       <c r="T12" s="40" t="s">
-        <v>1351</v>
+        <v>1320</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>1353</v>
+        <v>1322</v>
       </c>
       <c r="W12" s="42" t="s">
-        <v>1354</v>
+        <v>1323</v>
       </c>
       <c r="X12" s="39" t="s">
-        <v>1355</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>1328</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="G13" s="42" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H13" s="40" t="s">
         <v>1330</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>1358</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>1359</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>1360</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>1361</v>
-      </c>
       <c r="I13" s="4" t="s">
-        <v>1362</v>
+        <v>1331</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>1363</v>
+        <v>1332</v>
       </c>
       <c r="K13" s="42" t="s">
-        <v>1364</v>
+        <v>1333</v>
       </c>
       <c r="L13" s="40" t="s">
-        <v>1365</v>
+        <v>1334</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>1366</v>
+        <v>1335</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>1367</v>
+        <v>1336</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>1368</v>
+        <v>1337</v>
       </c>
       <c r="P13" s="42" t="s">
-        <v>1369</v>
+        <v>1338</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>1370</v>
+        <v>1339</v>
       </c>
       <c r="R13" s="45" t="s">
-        <v>1371</v>
+        <v>1340</v>
       </c>
       <c r="S13" s="42" t="s">
-        <v>1372</v>
+        <v>1341</v>
       </c>
       <c r="T13" s="40" t="s">
-        <v>1373</v>
+        <v>1342</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>1374</v>
+        <v>1343</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>1375</v>
+        <v>1344</v>
       </c>
       <c r="W13" s="42" t="s">
-        <v>1376</v>
+        <v>1345</v>
       </c>
       <c r="X13" s="39" t="s">
-        <v>1377</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
-        <v>1329</v>
+        <v>1298</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>1331</v>
+        <v>1300</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>1378</v>
+        <v>1347</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1379</v>
+        <v>1348</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>1380</v>
+        <v>1349</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>1387</v>
+        <v>1356</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>1388</v>
+        <v>1357</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>1381</v>
+        <v>1350</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>1382</v>
+        <v>1351</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>1383</v>
+        <v>1352</v>
       </c>
       <c r="K14" s="42" t="s">
-        <v>1384</v>
+        <v>1353</v>
       </c>
       <c r="L14" s="40" t="s">
-        <v>1385</v>
+        <v>1354</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>1386</v>
+        <v>1355</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>1385</v>
+        <v>1354</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>1389</v>
+        <v>1358</v>
       </c>
       <c r="P14" s="42" t="s">
-        <v>1390</v>
+        <v>1359</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>1391</v>
+        <v>1360</v>
       </c>
       <c r="R14" s="45" t="s">
-        <v>1392</v>
+        <v>1361</v>
       </c>
       <c r="S14" s="42" t="s">
-        <v>1393</v>
+        <v>1362</v>
       </c>
       <c r="T14" s="40" t="s">
-        <v>1394</v>
+        <v>1363</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>1395</v>
+        <v>1364</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>1396</v>
+        <v>1365</v>
       </c>
       <c r="W14" s="42" t="s">
-        <v>1397</v>
+        <v>1366</v>
       </c>
       <c r="X14" s="39" t="s">
-        <v>1398</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
-        <v>1337</v>
+        <v>1306</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>1338</v>
+        <v>1307</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>1399</v>
+        <v>1368</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1400</v>
+        <v>1369</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>1401</v>
+        <v>1370</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>1402</v>
+        <v>1371</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>1403</v>
+        <v>1372</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>1404</v>
+        <v>1373</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>1405</v>
+        <v>1374</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>1406</v>
+        <v>1375</v>
       </c>
       <c r="K15" s="42" t="s">
-        <v>1407</v>
+        <v>1376</v>
       </c>
       <c r="L15" s="40" t="s">
-        <v>1408</v>
+        <v>1377</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>1409</v>
+        <v>1378</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>1410</v>
+        <v>1379</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>1411</v>
+        <v>1380</v>
       </c>
       <c r="P15" s="42" t="s">
-        <v>1412</v>
+        <v>1381</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>1413</v>
+        <v>1382</v>
       </c>
       <c r="R15" s="45" t="s">
-        <v>1414</v>
+        <v>1383</v>
       </c>
       <c r="S15" s="42" t="s">
-        <v>1415</v>
+        <v>1384</v>
       </c>
       <c r="T15" s="40" t="s">
-        <v>1416</v>
+        <v>1385</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>1417</v>
+        <v>1386</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>1418</v>
+        <v>1387</v>
       </c>
       <c r="W15" s="42" t="s">
-        <v>1419</v>
+        <v>1388</v>
       </c>
       <c r="X15" s="39" t="s">
-        <v>1420</v>
+        <v>1389</v>
       </c>
     </row>
   </sheetData>

--- a/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
+++ b/Haer_Langu_Hofev_Uzefa_Ŭore_Forim.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Websites\hssrgov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE29511D-1511-46AB-8944-52BC11FE700D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15C338A-6BCD-4F65-AD61-CB83088E29D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="769" xr2:uid="{CCB781DE-C1B4-4E71-9129-23ABA5B611FE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="1873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="1875">
   <si>
     <t>中文</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1470,9 +1470,6 @@
   </si>
   <si>
     <t>tekst</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
   <si>
     <t>itek</t>
@@ -6277,10 +6274,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>销毁（哈儿实验室专用）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>销毁（一般性词语）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -7331,6 +7324,22 @@
   </si>
   <si>
     <t>imyay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒品/毒药/毒物/有毒物质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销毁（哈儿实验室对哈儿实施的一种操作）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test（非正式用法）/odfohŭy（本土用法，正式）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8827,8 +8836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB56768-82A6-42FF-B107-45016A59F08E}">
   <dimension ref="A1:C1126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B301" sqref="B301"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B211" sqref="B211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -8841,7 +8850,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -8862,10 +8871,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8873,7 +8882,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -8891,7 +8900,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -8900,7 +8909,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -8909,43 +8918,43 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -8954,7 +8963,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -8963,7 +8972,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -8972,10 +8981,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8983,7 +8992,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -8992,7 +9001,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -9001,16 +9010,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>1458</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>1459</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -9019,7 +9028,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -9034,13 +9043,13 @@
     </row>
     <row r="22" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9048,7 +9057,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C23" s="54"/>
     </row>
@@ -9057,7 +9066,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C24" s="54"/>
     </row>
@@ -9066,7 +9075,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C25" s="54"/>
     </row>
@@ -9075,7 +9084,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C26" s="54"/>
     </row>
@@ -9084,7 +9093,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C27" s="54"/>
     </row>
@@ -9093,7 +9102,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C28" s="54"/>
     </row>
@@ -9102,7 +9111,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C29" s="54"/>
     </row>
@@ -9111,7 +9120,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C30" s="54"/>
     </row>
@@ -9120,7 +9129,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C31" s="54"/>
     </row>
@@ -9129,7 +9138,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C32" s="54"/>
     </row>
@@ -9138,7 +9147,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C33" s="54"/>
     </row>
@@ -9147,7 +9156,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C34" s="54"/>
     </row>
@@ -9156,7 +9165,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C35" s="54"/>
     </row>
@@ -9174,19 +9183,19 @@
         <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C37" s="55"/>
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9194,45 +9203,45 @@
         <v>32</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C43" s="3"/>
     </row>
@@ -9241,7 +9250,7 @@
         <v>33</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C44" s="3"/>
     </row>
@@ -9259,34 +9268,34 @@
         <v>35</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>930</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>931</v>
       </c>
       <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C49" s="3"/>
     </row>
@@ -9304,19 +9313,19 @@
         <v>37</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>636</v>
-      </c>
       <c r="C52" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9375,10 +9384,10 @@
     </row>
     <row r="59" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C59" s="3"/>
     </row>
@@ -9387,7 +9396,7 @@
         <v>43</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C60" s="3"/>
     </row>
@@ -9408,7 +9417,7 @@
         <v>366</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9416,7 +9425,7 @@
         <v>46</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C63" s="3"/>
     </row>
@@ -9434,7 +9443,7 @@
         <v>47</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C65" s="3"/>
     </row>
@@ -9443,7 +9452,7 @@
         <v>48</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C66" s="3"/>
     </row>
@@ -9452,19 +9461,19 @@
         <v>49</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9481,10 +9490,10 @@
         <v>51</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9492,7 +9501,7 @@
         <v>52</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C71" s="3"/>
     </row>
@@ -9501,22 +9510,22 @@
         <v>53</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>1498</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>1499</v>
       </c>
       <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>285</v>
@@ -9555,7 +9564,7 @@
         <v>57</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C78" s="3"/>
     </row>
@@ -9564,7 +9573,7 @@
         <v>58</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="C79" s="3"/>
     </row>
@@ -9573,7 +9582,7 @@
         <v>59</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C80" s="3"/>
     </row>
@@ -9582,7 +9591,7 @@
         <v>60</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C81" s="3"/>
     </row>
@@ -9615,7 +9624,7 @@
     </row>
     <row r="85" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>287</v>
@@ -9633,36 +9642,36 @@
     </row>
     <row r="87" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>1592</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>1593</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C89" s="3"/>
     </row>
     <row r="90" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>294</v>
@@ -9695,7 +9704,7 @@
         <v>370</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9703,10 +9712,10 @@
         <v>67</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9714,7 +9723,7 @@
         <v>68</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C95" s="3"/>
     </row>
@@ -9726,7 +9735,7 @@
         <v>371</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="97" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9790,19 +9799,19 @@
         <v>74</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C103" s="3"/>
     </row>
     <row r="104" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>815</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="105" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9881,10 +9890,10 @@
     </row>
     <row r="113" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="C113" s="3"/>
     </row>
@@ -9926,7 +9935,7 @@
     </row>
     <row r="118" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>304</v>
@@ -9937,7 +9946,7 @@
     </row>
     <row r="119" spans="1:3" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>340</v>
@@ -9960,7 +9969,7 @@
         <v>87</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C121" s="3"/>
     </row>
@@ -9969,7 +9978,7 @@
         <v>88</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C122" s="3"/>
     </row>
@@ -9978,7 +9987,7 @@
         <v>89</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C123" s="3"/>
     </row>
@@ -9987,7 +9996,7 @